--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W356"/>
+  <dimension ref="A1:X356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,6 +482,11 @@
           <t>16-03-2020</t>
         </is>
       </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -557,6 +562,9 @@
       <c r="W2" t="n">
         <v>14</v>
       </c>
+      <c r="X2" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -632,6 +640,9 @@
       <c r="W3" t="n">
         <v>20</v>
       </c>
+      <c r="X3" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -707,6 +718,9 @@
       <c r="W4" t="n">
         <v>0</v>
       </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -782,6 +796,9 @@
       <c r="W5" t="n">
         <v>3</v>
       </c>
+      <c r="X5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -857,6 +874,9 @@
       <c r="W6" t="n">
         <v>0</v>
       </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -932,6 +952,9 @@
       <c r="W7" t="n">
         <v>0</v>
       </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1007,6 +1030,9 @@
       <c r="W8" t="n">
         <v>0</v>
       </c>
+      <c r="X8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1082,6 +1108,9 @@
       <c r="W9" t="n">
         <v>2</v>
       </c>
+      <c r="X9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1157,6 +1186,9 @@
       <c r="W10" t="n">
         <v>2</v>
       </c>
+      <c r="X10" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1232,6 +1264,9 @@
       <c r="W11" t="n">
         <v>1</v>
       </c>
+      <c r="X11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1307,6 +1342,9 @@
       <c r="W12" t="n">
         <v>3</v>
       </c>
+      <c r="X12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1382,6 +1420,9 @@
       <c r="W13" t="n">
         <v>6</v>
       </c>
+      <c r="X13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1457,6 +1498,9 @@
       <c r="W14" t="n">
         <v>2</v>
       </c>
+      <c r="X14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1532,6 +1576,9 @@
       <c r="W15" t="n">
         <v>12</v>
       </c>
+      <c r="X15" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1607,6 +1654,9 @@
       <c r="W16" t="n">
         <v>0</v>
       </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1682,6 +1732,9 @@
       <c r="W17" t="n">
         <v>18</v>
       </c>
+      <c r="X17" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1757,6 +1810,9 @@
       <c r="W18" t="n">
         <v>4</v>
       </c>
+      <c r="X18" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1832,6 +1888,9 @@
       <c r="W19" t="n">
         <v>39</v>
       </c>
+      <c r="X19" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1907,6 +1966,9 @@
       <c r="W20" t="n">
         <v>7</v>
       </c>
+      <c r="X20" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1982,6 +2044,9 @@
       <c r="W21" t="n">
         <v>0</v>
       </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2057,6 +2122,9 @@
       <c r="W22" t="n">
         <v>7</v>
       </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2132,6 +2200,9 @@
       <c r="W23" t="n">
         <v>0</v>
       </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2207,6 +2278,9 @@
       <c r="W24" t="n">
         <v>1</v>
       </c>
+      <c r="X24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2282,6 +2356,9 @@
       <c r="W25" t="n">
         <v>0</v>
       </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2357,6 +2434,9 @@
       <c r="W26" t="n">
         <v>0</v>
       </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2432,6 +2512,9 @@
       <c r="W27" t="n">
         <v>3</v>
       </c>
+      <c r="X27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2507,6 +2590,9 @@
       <c r="W28" t="n">
         <v>3</v>
       </c>
+      <c r="X28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2582,6 +2668,9 @@
       <c r="W29" t="n">
         <v>3</v>
       </c>
+      <c r="X29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2657,6 +2746,9 @@
       <c r="W30" t="n">
         <v>13</v>
       </c>
+      <c r="X30" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2732,6 +2824,9 @@
       <c r="W31" t="n">
         <v>0</v>
       </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2807,6 +2902,9 @@
       <c r="W32" t="n">
         <v>0</v>
       </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2882,6 +2980,9 @@
       <c r="W33" t="n">
         <v>10</v>
       </c>
+      <c r="X33" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2957,6 +3058,9 @@
       <c r="W34" t="n">
         <v>1</v>
       </c>
+      <c r="X34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3032,6 +3136,9 @@
       <c r="W35" t="n">
         <v>0</v>
       </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3107,6 +3214,9 @@
       <c r="W36" t="n">
         <v>1</v>
       </c>
+      <c r="X36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3182,6 +3292,9 @@
       <c r="W37" t="n">
         <v>4</v>
       </c>
+      <c r="X37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3257,6 +3370,9 @@
       <c r="W38" t="n">
         <v>0</v>
       </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3332,6 +3448,9 @@
       <c r="W39" t="n">
         <v>19</v>
       </c>
+      <c r="X39" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3407,6 +3526,9 @@
       <c r="W40" t="n">
         <v>4</v>
       </c>
+      <c r="X40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3482,6 +3604,9 @@
       <c r="W41" t="n">
         <v>5</v>
       </c>
+      <c r="X41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3557,6 +3682,9 @@
       <c r="W42" t="n">
         <v>5</v>
       </c>
+      <c r="X42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3632,6 +3760,9 @@
       <c r="W43" t="n">
         <v>1</v>
       </c>
+      <c r="X43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3707,6 +3838,9 @@
       <c r="W44" t="n">
         <v>1</v>
       </c>
+      <c r="X44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3782,6 +3916,9 @@
       <c r="W45" t="n">
         <v>1</v>
       </c>
+      <c r="X45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3857,6 +3994,9 @@
       <c r="W46" t="n">
         <v>1</v>
       </c>
+      <c r="X46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3932,6 +4072,9 @@
       <c r="W47" t="n">
         <v>14</v>
       </c>
+      <c r="X47" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4007,6 +4150,9 @@
       <c r="W48" t="n">
         <v>0</v>
       </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4082,6 +4228,9 @@
       <c r="W49" t="n">
         <v>3</v>
       </c>
+      <c r="X49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4157,6 +4306,9 @@
       <c r="W50" t="n">
         <v>2</v>
       </c>
+      <c r="X50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4232,6 +4384,9 @@
       <c r="W51" t="n">
         <v>1</v>
       </c>
+      <c r="X51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4307,6 +4462,9 @@
       <c r="W52" t="n">
         <v>3</v>
       </c>
+      <c r="X52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4382,6 +4540,9 @@
       <c r="W53" t="n">
         <v>86</v>
       </c>
+      <c r="X53" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4457,6 +4618,9 @@
       <c r="W54" t="n">
         <v>0</v>
       </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4532,6 +4696,9 @@
       <c r="W55" t="n">
         <v>2</v>
       </c>
+      <c r="X55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -4607,6 +4774,9 @@
       <c r="W56" t="n">
         <v>0</v>
       </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -4682,6 +4852,9 @@
       <c r="W57" t="n">
         <v>0</v>
       </c>
+      <c r="X57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -4757,6 +4930,9 @@
       <c r="W58" t="n">
         <v>0</v>
       </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4832,6 +5008,9 @@
       <c r="W59" t="n">
         <v>0</v>
       </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4907,6 +5086,9 @@
       <c r="W60" t="n">
         <v>4</v>
       </c>
+      <c r="X60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4982,6 +5164,9 @@
       <c r="W61" t="n">
         <v>0</v>
       </c>
+      <c r="X61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5057,6 +5242,9 @@
       <c r="W62" t="n">
         <v>5</v>
       </c>
+      <c r="X62" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5132,6 +5320,9 @@
       <c r="W63" t="n">
         <v>11</v>
       </c>
+      <c r="X63" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5207,6 +5398,9 @@
       <c r="W64" t="n">
         <v>2</v>
       </c>
+      <c r="X64" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5282,6 +5476,9 @@
       <c r="W65" t="n">
         <v>2</v>
       </c>
+      <c r="X65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5357,6 +5554,9 @@
       <c r="W66" t="n">
         <v>2</v>
       </c>
+      <c r="X66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5432,6 +5632,9 @@
       <c r="W67" t="n">
         <v>1</v>
       </c>
+      <c r="X67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -5507,6 +5710,9 @@
       <c r="W68" t="n">
         <v>0</v>
       </c>
+      <c r="X68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -5582,6 +5788,9 @@
       <c r="W69" t="n">
         <v>13</v>
       </c>
+      <c r="X69" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -5657,6 +5866,9 @@
       <c r="W70" t="n">
         <v>3</v>
       </c>
+      <c r="X70" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -5732,6 +5944,9 @@
       <c r="W71" t="n">
         <v>2</v>
       </c>
+      <c r="X71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -5807,6 +6022,9 @@
       <c r="W72" t="n">
         <v>1</v>
       </c>
+      <c r="X72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -5882,6 +6100,9 @@
       <c r="W73" t="n">
         <v>2</v>
       </c>
+      <c r="X73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -5957,6 +6178,9 @@
       <c r="W74" t="n">
         <v>0</v>
       </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6032,6 +6256,9 @@
       <c r="W75" t="n">
         <v>1</v>
       </c>
+      <c r="X75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6107,6 +6334,9 @@
       <c r="W76" t="n">
         <v>5</v>
       </c>
+      <c r="X76" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6182,6 +6412,9 @@
       <c r="W77" t="n">
         <v>2</v>
       </c>
+      <c r="X77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6257,6 +6490,9 @@
       <c r="W78" t="n">
         <v>2</v>
       </c>
+      <c r="X78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6332,6 +6568,9 @@
       <c r="W79" t="n">
         <v>5</v>
       </c>
+      <c r="X79" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -6407,6 +6646,9 @@
       <c r="W80" t="n">
         <v>1</v>
       </c>
+      <c r="X80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -6482,6 +6724,9 @@
       <c r="W81" t="n">
         <v>0</v>
       </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -6557,6 +6802,9 @@
       <c r="W82" t="n">
         <v>5</v>
       </c>
+      <c r="X82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -6632,6 +6880,9 @@
       <c r="W83" t="n">
         <v>1</v>
       </c>
+      <c r="X83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -6707,6 +6958,9 @@
       <c r="W84" t="n">
         <v>0</v>
       </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -6782,6 +7036,9 @@
       <c r="W85" t="n">
         <v>7</v>
       </c>
+      <c r="X85" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -6857,6 +7114,9 @@
       <c r="W86" t="n">
         <v>7</v>
       </c>
+      <c r="X86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -6932,6 +7192,9 @@
       <c r="W87" t="n">
         <v>5</v>
       </c>
+      <c r="X87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7007,6 +7270,9 @@
       <c r="W88" t="n">
         <v>1</v>
       </c>
+      <c r="X88" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7082,6 +7348,9 @@
       <c r="W89" t="n">
         <v>0</v>
       </c>
+      <c r="X89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7157,6 +7426,9 @@
       <c r="W90" t="n">
         <v>0</v>
       </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7232,6 +7504,9 @@
       <c r="W91" t="n">
         <v>2</v>
       </c>
+      <c r="X91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -7307,6 +7582,9 @@
       <c r="W92" t="n">
         <v>0</v>
       </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -7382,6 +7660,9 @@
       <c r="W93" t="n">
         <v>2</v>
       </c>
+      <c r="X93" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -7457,6 +7738,9 @@
       <c r="W94" t="n">
         <v>4</v>
       </c>
+      <c r="X94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -7532,6 +7816,9 @@
       <c r="W95" t="n">
         <v>21</v>
       </c>
+      <c r="X95" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -7607,6 +7894,9 @@
       <c r="W96" t="n">
         <v>1</v>
       </c>
+      <c r="X96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -7682,6 +7972,9 @@
       <c r="W97" t="n">
         <v>1</v>
       </c>
+      <c r="X97" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -7757,6 +8050,9 @@
       <c r="W98" t="n">
         <v>1</v>
       </c>
+      <c r="X98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -7832,6 +8128,9 @@
       <c r="W99" t="n">
         <v>3</v>
       </c>
+      <c r="X99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -7907,6 +8206,9 @@
       <c r="W100" t="n">
         <v>2</v>
       </c>
+      <c r="X100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -7982,6 +8284,9 @@
       <c r="W101" t="n">
         <v>8</v>
       </c>
+      <c r="X101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8057,6 +8362,9 @@
       <c r="W102" t="n">
         <v>10</v>
       </c>
+      <c r="X102" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8132,6 +8440,9 @@
       <c r="W103" t="n">
         <v>3</v>
       </c>
+      <c r="X103" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -8207,6 +8518,9 @@
       <c r="W104" t="n">
         <v>3</v>
       </c>
+      <c r="X104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -8282,6 +8596,9 @@
       <c r="W105" t="n">
         <v>20</v>
       </c>
+      <c r="X105" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -8357,6 +8674,9 @@
       <c r="W106" t="n">
         <v>1</v>
       </c>
+      <c r="X106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -8432,6 +8752,9 @@
       <c r="W107" t="n">
         <v>1</v>
       </c>
+      <c r="X107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -8507,6 +8830,9 @@
       <c r="W108" t="n">
         <v>4</v>
       </c>
+      <c r="X108" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -8582,6 +8908,9 @@
       <c r="W109" t="n">
         <v>2</v>
       </c>
+      <c r="X109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -8657,6 +8986,9 @@
       <c r="W110" t="n">
         <v>9</v>
       </c>
+      <c r="X110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -8732,6 +9064,9 @@
       <c r="W111" t="n">
         <v>4</v>
       </c>
+      <c r="X111" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -8807,6 +9142,9 @@
       <c r="W112" t="n">
         <v>0</v>
       </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -8882,6 +9220,9 @@
       <c r="W113" t="n">
         <v>4</v>
       </c>
+      <c r="X113" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -8957,6 +9298,9 @@
       <c r="W114" t="n">
         <v>0</v>
       </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9032,6 +9376,9 @@
       <c r="W115" t="n">
         <v>7</v>
       </c>
+      <c r="X115" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -9107,6 +9454,9 @@
       <c r="W116" t="n">
         <v>2</v>
       </c>
+      <c r="X116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -9182,6 +9532,9 @@
       <c r="W117" t="n">
         <v>1</v>
       </c>
+      <c r="X117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -9257,6 +9610,9 @@
       <c r="W118" t="n">
         <v>7</v>
       </c>
+      <c r="X118" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -9332,6 +9688,9 @@
       <c r="W119" t="n">
         <v>6</v>
       </c>
+      <c r="X119" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -9407,6 +9766,9 @@
       <c r="W120" t="n">
         <v>2</v>
       </c>
+      <c r="X120" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -9482,6 +9844,9 @@
       <c r="W121" t="n">
         <v>2</v>
       </c>
+      <c r="X121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -9557,6 +9922,9 @@
       <c r="W122" t="n">
         <v>0</v>
       </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -9632,6 +10000,9 @@
       <c r="W123" t="n">
         <v>4</v>
       </c>
+      <c r="X123" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -9707,6 +10078,9 @@
       <c r="W124" t="n">
         <v>5</v>
       </c>
+      <c r="X124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -9782,6 +10156,9 @@
       <c r="W125" t="n">
         <v>1</v>
       </c>
+      <c r="X125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -9857,6 +10234,9 @@
       <c r="W126" t="n">
         <v>0</v>
       </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -9932,6 +10312,9 @@
       <c r="W127" t="n">
         <v>2</v>
       </c>
+      <c r="X127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -10007,6 +10390,9 @@
       <c r="W128" t="n">
         <v>5</v>
       </c>
+      <c r="X128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -10082,6 +10468,9 @@
       <c r="W129" t="n">
         <v>2</v>
       </c>
+      <c r="X129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -10157,6 +10546,9 @@
       <c r="W130" t="n">
         <v>0</v>
       </c>
+      <c r="X130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -10232,6 +10624,9 @@
       <c r="W131" t="n">
         <v>1</v>
       </c>
+      <c r="X131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -10307,6 +10702,9 @@
       <c r="W132" t="n">
         <v>6</v>
       </c>
+      <c r="X132" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -10382,6 +10780,9 @@
       <c r="W133" t="n">
         <v>2</v>
       </c>
+      <c r="X133" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -10457,6 +10858,9 @@
       <c r="W134" t="n">
         <v>3</v>
       </c>
+      <c r="X134" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -10532,6 +10936,9 @@
       <c r="W135" t="n">
         <v>2</v>
       </c>
+      <c r="X135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -10607,6 +11014,9 @@
       <c r="W136" t="n">
         <v>1</v>
       </c>
+      <c r="X136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -10682,6 +11092,9 @@
       <c r="W137" t="n">
         <v>17</v>
       </c>
+      <c r="X137" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -10757,6 +11170,9 @@
       <c r="W138" t="n">
         <v>0</v>
       </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -10832,6 +11248,9 @@
       <c r="W139" t="n">
         <v>3</v>
       </c>
+      <c r="X139" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -10907,6 +11326,9 @@
       <c r="W140" t="n">
         <v>0</v>
       </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -10982,6 +11404,9 @@
       <c r="W141" t="n">
         <v>2</v>
       </c>
+      <c r="X141" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -11057,6 +11482,9 @@
       <c r="W142" t="n">
         <v>4</v>
       </c>
+      <c r="X142" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -11132,6 +11560,9 @@
       <c r="W143" t="n">
         <v>0</v>
       </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -11207,6 +11638,9 @@
       <c r="W144" t="n">
         <v>4</v>
       </c>
+      <c r="X144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -11282,6 +11716,9 @@
       <c r="W145" t="n">
         <v>0</v>
       </c>
+      <c r="X145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -11357,6 +11794,9 @@
       <c r="W146" t="n">
         <v>4</v>
       </c>
+      <c r="X146" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -11432,6 +11872,9 @@
       <c r="W147" t="n">
         <v>1</v>
       </c>
+      <c r="X147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -11507,6 +11950,9 @@
       <c r="W148" t="n">
         <v>0</v>
       </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -11582,6 +12028,9 @@
       <c r="W149" t="n">
         <v>2</v>
       </c>
+      <c r="X149" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -11657,6 +12106,9 @@
       <c r="W150" t="n">
         <v>1</v>
       </c>
+      <c r="X150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -11732,6 +12184,9 @@
       <c r="W151" t="n">
         <v>5</v>
       </c>
+      <c r="X151" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -11807,6 +12262,9 @@
       <c r="W152" t="n">
         <v>13</v>
       </c>
+      <c r="X152" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -11882,6 +12340,9 @@
       <c r="W153" t="n">
         <v>1</v>
       </c>
+      <c r="X153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -11957,6 +12418,9 @@
       <c r="W154" t="n">
         <v>0</v>
       </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -12032,6 +12496,9 @@
       <c r="W155" t="n">
         <v>4</v>
       </c>
+      <c r="X155" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -12107,6 +12574,9 @@
       <c r="W156" t="n">
         <v>0</v>
       </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -12182,6 +12652,9 @@
       <c r="W157" t="n">
         <v>0</v>
       </c>
+      <c r="X157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -12257,6 +12730,9 @@
       <c r="W158" t="n">
         <v>0</v>
       </c>
+      <c r="X158" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -12332,6 +12808,9 @@
       <c r="W159" t="n">
         <v>1</v>
       </c>
+      <c r="X159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -12407,6 +12886,9 @@
       <c r="W160" t="n">
         <v>2</v>
       </c>
+      <c r="X160" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -12482,6 +12964,9 @@
       <c r="W161" t="n">
         <v>1</v>
       </c>
+      <c r="X161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -12557,6 +13042,9 @@
       <c r="W162" t="n">
         <v>1</v>
       </c>
+      <c r="X162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -12632,6 +13120,9 @@
       <c r="W163" t="n">
         <v>4</v>
       </c>
+      <c r="X163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -12707,6 +13198,9 @@
       <c r="W164" t="n">
         <v>1</v>
       </c>
+      <c r="X164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -12782,6 +13276,9 @@
       <c r="W165" t="n">
         <v>10</v>
       </c>
+      <c r="X165" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -12857,6 +13354,9 @@
       <c r="W166" t="n">
         <v>4</v>
       </c>
+      <c r="X166" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -12932,6 +13432,9 @@
       <c r="W167" t="n">
         <v>3</v>
       </c>
+      <c r="X167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -13007,6 +13510,9 @@
       <c r="W168" t="n">
         <v>4</v>
       </c>
+      <c r="X168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -13082,6 +13588,9 @@
       <c r="W169" t="n">
         <v>5</v>
       </c>
+      <c r="X169" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -13157,6 +13666,9 @@
       <c r="W170" t="n">
         <v>0</v>
       </c>
+      <c r="X170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -13232,6 +13744,9 @@
       <c r="W171" t="n">
         <v>2</v>
       </c>
+      <c r="X171" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -13307,6 +13822,9 @@
       <c r="W172" t="n">
         <v>8</v>
       </c>
+      <c r="X172" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -13382,6 +13900,9 @@
       <c r="W173" t="n">
         <v>1</v>
       </c>
+      <c r="X173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -13457,6 +13978,9 @@
       <c r="W174" t="n">
         <v>4</v>
       </c>
+      <c r="X174" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -13532,6 +14056,9 @@
       <c r="W175" t="n">
         <v>8</v>
       </c>
+      <c r="X175" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -13607,6 +14134,9 @@
       <c r="W176" t="n">
         <v>7</v>
       </c>
+      <c r="X176" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -13682,6 +14212,9 @@
       <c r="W177" t="n">
         <v>1</v>
       </c>
+      <c r="X177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -13757,6 +14290,9 @@
       <c r="W178" t="n">
         <v>3</v>
       </c>
+      <c r="X178" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -13832,6 +14368,9 @@
       <c r="W179" t="n">
         <v>0</v>
       </c>
+      <c r="X179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -13907,6 +14446,9 @@
       <c r="W180" t="n">
         <v>0</v>
       </c>
+      <c r="X180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -13982,6 +14524,9 @@
       <c r="W181" t="n">
         <v>7</v>
       </c>
+      <c r="X181" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -14057,6 +14602,9 @@
       <c r="W182" t="n">
         <v>1</v>
       </c>
+      <c r="X182" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -14132,6 +14680,9 @@
       <c r="W183" t="n">
         <v>0</v>
       </c>
+      <c r="X183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -14207,6 +14758,9 @@
       <c r="W184" t="n">
         <v>0</v>
       </c>
+      <c r="X184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -14282,6 +14836,9 @@
       <c r="W185" t="n">
         <v>0</v>
       </c>
+      <c r="X185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -14357,6 +14914,9 @@
       <c r="W186" t="n">
         <v>2</v>
       </c>
+      <c r="X186" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -14432,6 +14992,9 @@
       <c r="W187" t="n">
         <v>1</v>
       </c>
+      <c r="X187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -14507,6 +15070,9 @@
       <c r="W188" t="n">
         <v>24</v>
       </c>
+      <c r="X188" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -14582,6 +15148,9 @@
       <c r="W189" t="n">
         <v>0</v>
       </c>
+      <c r="X189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -14657,6 +15226,9 @@
       <c r="W190" t="n">
         <v>1</v>
       </c>
+      <c r="X190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -14732,6 +15304,9 @@
       <c r="W191" t="n">
         <v>42</v>
       </c>
+      <c r="X191" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -14807,6 +15382,9 @@
       <c r="W192" t="n">
         <v>0</v>
       </c>
+      <c r="X192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -14882,6 +15460,9 @@
       <c r="W193" t="n">
         <v>1</v>
       </c>
+      <c r="X193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -14957,6 +15538,9 @@
       <c r="W194" t="n">
         <v>0</v>
       </c>
+      <c r="X194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -15032,6 +15616,9 @@
       <c r="W195" t="n">
         <v>0</v>
       </c>
+      <c r="X195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -15107,6 +15694,9 @@
       <c r="W196" t="n">
         <v>1</v>
       </c>
+      <c r="X196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -15182,6 +15772,9 @@
       <c r="W197" t="n">
         <v>1</v>
       </c>
+      <c r="X197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -15257,6 +15850,9 @@
       <c r="W198" t="n">
         <v>1</v>
       </c>
+      <c r="X198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -15332,6 +15928,9 @@
       <c r="W199" t="n">
         <v>2</v>
       </c>
+      <c r="X199" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -15407,6 +16006,9 @@
       <c r="W200" t="n">
         <v>0</v>
       </c>
+      <c r="X200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -15482,6 +16084,9 @@
       <c r="W201" t="n">
         <v>0</v>
       </c>
+      <c r="X201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -15557,6 +16162,9 @@
       <c r="W202" t="n">
         <v>0</v>
       </c>
+      <c r="X202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -15632,6 +16240,9 @@
       <c r="W203" t="n">
         <v>4</v>
       </c>
+      <c r="X203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -15707,6 +16318,9 @@
       <c r="W204" t="n">
         <v>3</v>
       </c>
+      <c r="X204" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -15782,6 +16396,9 @@
       <c r="W205" t="n">
         <v>1</v>
       </c>
+      <c r="X205" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -15857,6 +16474,9 @@
       <c r="W206" t="n">
         <v>1</v>
       </c>
+      <c r="X206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -15932,6 +16552,9 @@
       <c r="W207" t="n">
         <v>1</v>
       </c>
+      <c r="X207" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -16007,6 +16630,9 @@
       <c r="W208" t="n">
         <v>17</v>
       </c>
+      <c r="X208" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -16082,6 +16708,9 @@
       <c r="W209" t="n">
         <v>1</v>
       </c>
+      <c r="X209" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -16157,6 +16786,9 @@
       <c r="W210" t="n">
         <v>0</v>
       </c>
+      <c r="X210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -16232,6 +16864,9 @@
       <c r="W211" t="n">
         <v>0</v>
       </c>
+      <c r="X211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -16307,6 +16942,9 @@
       <c r="W212" t="n">
         <v>1</v>
       </c>
+      <c r="X212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -16382,6 +17020,9 @@
       <c r="W213" t="n">
         <v>2</v>
       </c>
+      <c r="X213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -16457,6 +17098,9 @@
       <c r="W214" t="n">
         <v>2</v>
       </c>
+      <c r="X214" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -16532,6 +17176,9 @@
       <c r="W215" t="n">
         <v>1</v>
       </c>
+      <c r="X215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -16607,6 +17254,9 @@
       <c r="W216" t="n">
         <v>2</v>
       </c>
+      <c r="X216" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -16682,6 +17332,9 @@
       <c r="W217" t="n">
         <v>4</v>
       </c>
+      <c r="X217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -16757,6 +17410,9 @@
       <c r="W218" t="n">
         <v>1</v>
       </c>
+      <c r="X218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -16832,6 +17488,9 @@
       <c r="W219" t="n">
         <v>9</v>
       </c>
+      <c r="X219" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -16907,6 +17566,9 @@
       <c r="W220" t="n">
         <v>0</v>
       </c>
+      <c r="X220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -16982,6 +17644,9 @@
       <c r="W221" t="n">
         <v>2</v>
       </c>
+      <c r="X221" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -17057,6 +17722,9 @@
       <c r="W222" t="n">
         <v>1</v>
       </c>
+      <c r="X222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -17132,6 +17800,9 @@
       <c r="W223" t="n">
         <v>0</v>
       </c>
+      <c r="X223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -17207,6 +17878,9 @@
       <c r="W224" t="n">
         <v>1</v>
       </c>
+      <c r="X224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -17282,6 +17956,9 @@
       <c r="W225" t="n">
         <v>0</v>
       </c>
+      <c r="X225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -17357,6 +18034,9 @@
       <c r="W226" t="n">
         <v>6</v>
       </c>
+      <c r="X226" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -17432,6 +18112,9 @@
       <c r="W227" t="n">
         <v>0</v>
       </c>
+      <c r="X227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -17507,6 +18190,9 @@
       <c r="W228" t="n">
         <v>0</v>
       </c>
+      <c r="X228" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -17582,6 +18268,9 @@
       <c r="W229" t="n">
         <v>0</v>
       </c>
+      <c r="X229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -17657,6 +18346,9 @@
       <c r="W230" t="n">
         <v>2</v>
       </c>
+      <c r="X230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -17732,6 +18424,9 @@
       <c r="W231" t="n">
         <v>11</v>
       </c>
+      <c r="X231" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -17807,6 +18502,9 @@
       <c r="W232" t="n">
         <v>1</v>
       </c>
+      <c r="X232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -17882,6 +18580,9 @@
       <c r="W233" t="n">
         <v>0</v>
       </c>
+      <c r="X233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -17957,6 +18658,9 @@
       <c r="W234" t="n">
         <v>1</v>
       </c>
+      <c r="X234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -18032,6 +18736,9 @@
       <c r="W235" t="n">
         <v>8</v>
       </c>
+      <c r="X235" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -18107,6 +18814,9 @@
       <c r="W236" t="n">
         <v>0</v>
       </c>
+      <c r="X236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -18182,6 +18892,9 @@
       <c r="W237" t="n">
         <v>19</v>
       </c>
+      <c r="X237" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -18257,6 +18970,9 @@
       <c r="W238" t="n">
         <v>1</v>
       </c>
+      <c r="X238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -18332,6 +19048,9 @@
       <c r="W239" t="n">
         <v>8</v>
       </c>
+      <c r="X239" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -18407,6 +19126,9 @@
       <c r="W240" t="n">
         <v>2</v>
       </c>
+      <c r="X240" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -18482,6 +19204,9 @@
       <c r="W241" t="n">
         <v>2</v>
       </c>
+      <c r="X241" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -18557,6 +19282,9 @@
       <c r="W242" t="n">
         <v>2</v>
       </c>
+      <c r="X242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -18632,6 +19360,9 @@
       <c r="W243" t="n">
         <v>2</v>
       </c>
+      <c r="X243" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -18707,6 +19438,9 @@
       <c r="W244" t="n">
         <v>8</v>
       </c>
+      <c r="X244" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -18782,6 +19516,9 @@
       <c r="W245" t="n">
         <v>0</v>
       </c>
+      <c r="X245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -18857,6 +19594,9 @@
       <c r="W246" t="n">
         <v>0</v>
       </c>
+      <c r="X246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -18932,6 +19672,9 @@
       <c r="W247" t="n">
         <v>1</v>
       </c>
+      <c r="X247" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -19007,6 +19750,9 @@
       <c r="W248" t="n">
         <v>0</v>
       </c>
+      <c r="X248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -19082,6 +19828,9 @@
       <c r="W249" t="n">
         <v>1</v>
       </c>
+      <c r="X249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -19157,6 +19906,9 @@
       <c r="W250" t="n">
         <v>0</v>
       </c>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -19232,6 +19984,9 @@
       <c r="W251" t="n">
         <v>1</v>
       </c>
+      <c r="X251" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -19307,6 +20062,9 @@
       <c r="W252" t="n">
         <v>0</v>
       </c>
+      <c r="X252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -19382,6 +20140,9 @@
       <c r="W253" t="n">
         <v>2</v>
       </c>
+      <c r="X253" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -19457,6 +20218,9 @@
       <c r="W254" t="n">
         <v>6</v>
       </c>
+      <c r="X254" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -19532,6 +20296,9 @@
       <c r="W255" t="n">
         <v>30</v>
       </c>
+      <c r="X255" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -19607,6 +20374,9 @@
       <c r="W256" t="n">
         <v>1</v>
       </c>
+      <c r="X256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -19682,6 +20452,9 @@
       <c r="W257" t="n">
         <v>1</v>
       </c>
+      <c r="X257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -19757,6 +20530,9 @@
       <c r="W258" t="n">
         <v>4</v>
       </c>
+      <c r="X258" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -19832,6 +20608,9 @@
       <c r="W259" t="n">
         <v>0</v>
       </c>
+      <c r="X259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -19907,6 +20686,9 @@
       <c r="W260" t="n">
         <v>1</v>
       </c>
+      <c r="X260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -19982,6 +20764,9 @@
       <c r="W261" t="n">
         <v>0</v>
       </c>
+      <c r="X261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -20057,6 +20842,9 @@
       <c r="W262" t="n">
         <v>2</v>
       </c>
+      <c r="X262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -20132,6 +20920,9 @@
       <c r="W263" t="n">
         <v>3</v>
       </c>
+      <c r="X263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -20207,6 +20998,9 @@
       <c r="W264" t="n">
         <v>3</v>
       </c>
+      <c r="X264" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -20282,6 +21076,9 @@
       <c r="W265" t="n">
         <v>8</v>
       </c>
+      <c r="X265" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -20357,6 +21154,9 @@
       <c r="W266" t="n">
         <v>38</v>
       </c>
+      <c r="X266" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -20432,6 +21232,9 @@
       <c r="W267" t="n">
         <v>0</v>
       </c>
+      <c r="X267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -20507,6 +21310,9 @@
       <c r="W268" t="n">
         <v>2</v>
       </c>
+      <c r="X268" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -20582,6 +21388,9 @@
       <c r="W269" t="n">
         <v>3</v>
       </c>
+      <c r="X269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -20657,6 +21466,9 @@
       <c r="W270" t="n">
         <v>10</v>
       </c>
+      <c r="X270" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -20732,6 +21544,9 @@
       <c r="W271" t="n">
         <v>1</v>
       </c>
+      <c r="X271" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -20807,6 +21622,9 @@
       <c r="W272" t="n">
         <v>4</v>
       </c>
+      <c r="X272" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -20882,6 +21700,9 @@
       <c r="W273" t="n">
         <v>0</v>
       </c>
+      <c r="X273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -20957,6 +21778,9 @@
       <c r="W274" t="n">
         <v>1</v>
       </c>
+      <c r="X274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -21032,6 +21856,9 @@
       <c r="W275" t="n">
         <v>1</v>
       </c>
+      <c r="X275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -21107,6 +21934,9 @@
       <c r="W276" t="n">
         <v>2</v>
       </c>
+      <c r="X276" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -21182,6 +22012,9 @@
       <c r="W277" t="n">
         <v>0</v>
       </c>
+      <c r="X277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -21257,6 +22090,9 @@
       <c r="W278" t="n">
         <v>3</v>
       </c>
+      <c r="X278" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -21332,6 +22168,9 @@
       <c r="W279" t="n">
         <v>7</v>
       </c>
+      <c r="X279" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -21407,6 +22246,9 @@
       <c r="W280" t="n">
         <v>1</v>
       </c>
+      <c r="X280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -21482,6 +22324,9 @@
       <c r="W281" t="n">
         <v>1</v>
       </c>
+      <c r="X281" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -21557,6 +22402,9 @@
       <c r="W282" t="n">
         <v>0</v>
       </c>
+      <c r="X282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -21632,6 +22480,9 @@
       <c r="W283" t="n">
         <v>0</v>
       </c>
+      <c r="X283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -21707,6 +22558,9 @@
       <c r="W284" t="n">
         <v>1</v>
       </c>
+      <c r="X284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -21782,6 +22636,9 @@
       <c r="W285" t="n">
         <v>1</v>
       </c>
+      <c r="X285" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -21857,6 +22714,9 @@
       <c r="W286" t="n">
         <v>4</v>
       </c>
+      <c r="X286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -21932,6 +22792,9 @@
       <c r="W287" t="n">
         <v>84</v>
       </c>
+      <c r="X287" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -22007,6 +22870,9 @@
       <c r="W288" t="n">
         <v>1</v>
       </c>
+      <c r="X288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -22082,6 +22948,9 @@
       <c r="W289" t="n">
         <v>0</v>
       </c>
+      <c r="X289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -22157,6 +23026,9 @@
       <c r="W290" t="n">
         <v>0</v>
       </c>
+      <c r="X290" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -22232,6 +23104,9 @@
       <c r="W291" t="n">
         <v>1</v>
       </c>
+      <c r="X291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -22307,6 +23182,9 @@
       <c r="W292" t="n">
         <v>43</v>
       </c>
+      <c r="X292" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -22382,6 +23260,9 @@
       <c r="W293" t="n">
         <v>0</v>
       </c>
+      <c r="X293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -22457,6 +23338,9 @@
       <c r="W294" t="n">
         <v>0</v>
       </c>
+      <c r="X294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -22532,6 +23416,9 @@
       <c r="W295" t="n">
         <v>0</v>
       </c>
+      <c r="X295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -22607,6 +23494,9 @@
       <c r="W296" t="n">
         <v>48</v>
       </c>
+      <c r="X296" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -22682,6 +23572,9 @@
       <c r="W297" t="n">
         <v>3</v>
       </c>
+      <c r="X297" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -22757,6 +23650,9 @@
       <c r="W298" t="n">
         <v>0</v>
       </c>
+      <c r="X298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -22832,6 +23728,9 @@
       <c r="W299" t="n">
         <v>1</v>
       </c>
+      <c r="X299" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -22907,6 +23806,9 @@
       <c r="W300" t="n">
         <v>0</v>
       </c>
+      <c r="X300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -22982,6 +23884,9 @@
       <c r="W301" t="n">
         <v>0</v>
       </c>
+      <c r="X301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -23057,6 +23962,9 @@
       <c r="W302" t="n">
         <v>1</v>
       </c>
+      <c r="X302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -23132,6 +24040,9 @@
       <c r="W303" t="n">
         <v>1</v>
       </c>
+      <c r="X303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -23207,6 +24118,9 @@
       <c r="W304" t="n">
         <v>1</v>
       </c>
+      <c r="X304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -23282,6 +24196,9 @@
       <c r="W305" t="n">
         <v>4</v>
       </c>
+      <c r="X305" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -23357,6 +24274,9 @@
       <c r="W306" t="n">
         <v>6</v>
       </c>
+      <c r="X306" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -23432,6 +24352,9 @@
       <c r="W307" t="n">
         <v>0</v>
       </c>
+      <c r="X307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -23507,6 +24430,9 @@
       <c r="W308" t="n">
         <v>3</v>
       </c>
+      <c r="X308" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -23582,6 +24508,9 @@
       <c r="W309" t="n">
         <v>1</v>
       </c>
+      <c r="X309" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -23657,6 +24586,9 @@
       <c r="W310" t="n">
         <v>0</v>
       </c>
+      <c r="X310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -23732,6 +24664,9 @@
       <c r="W311" t="n">
         <v>3</v>
       </c>
+      <c r="X311" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -23807,6 +24742,9 @@
       <c r="W312" t="n">
         <v>0</v>
       </c>
+      <c r="X312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -23882,6 +24820,9 @@
       <c r="W313" t="n">
         <v>0</v>
       </c>
+      <c r="X313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -23957,6 +24898,9 @@
       <c r="W314" t="n">
         <v>1</v>
       </c>
+      <c r="X314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -24032,6 +24976,9 @@
       <c r="W315" t="n">
         <v>3</v>
       </c>
+      <c r="X315" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -24107,6 +25054,9 @@
       <c r="W316" t="n">
         <v>0</v>
       </c>
+      <c r="X316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -24182,6 +25132,9 @@
       <c r="W317" t="n">
         <v>1</v>
       </c>
+      <c r="X317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -24257,6 +25210,9 @@
       <c r="W318" t="n">
         <v>10</v>
       </c>
+      <c r="X318" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -24332,6 +25288,9 @@
       <c r="W319" t="n">
         <v>1</v>
       </c>
+      <c r="X319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -24407,6 +25366,9 @@
       <c r="W320" t="n">
         <v>0</v>
       </c>
+      <c r="X320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -24482,6 +25444,9 @@
       <c r="W321" t="n">
         <v>3</v>
       </c>
+      <c r="X321" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -24557,6 +25522,9 @@
       <c r="W322" t="n">
         <v>3</v>
       </c>
+      <c r="X322" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -24632,6 +25600,9 @@
       <c r="W323" t="n">
         <v>0</v>
       </c>
+      <c r="X323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -24707,6 +25678,9 @@
       <c r="W324" t="n">
         <v>0</v>
       </c>
+      <c r="X324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -24782,6 +25756,9 @@
       <c r="W325" t="n">
         <v>3</v>
       </c>
+      <c r="X325" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -24857,6 +25834,9 @@
       <c r="W326" t="n">
         <v>3</v>
       </c>
+      <c r="X326" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -24932,6 +25912,9 @@
       <c r="W327" t="n">
         <v>1</v>
       </c>
+      <c r="X327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -25007,6 +25990,9 @@
       <c r="W328" t="n">
         <v>0</v>
       </c>
+      <c r="X328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -25082,6 +26068,9 @@
       <c r="W329" t="n">
         <v>0</v>
       </c>
+      <c r="X329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -25157,6 +26146,9 @@
       <c r="W330" t="n">
         <v>0</v>
       </c>
+      <c r="X330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -25232,6 +26224,9 @@
       <c r="W331" t="n">
         <v>1</v>
       </c>
+      <c r="X331" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -25307,6 +26302,9 @@
       <c r="W332" t="n">
         <v>0</v>
       </c>
+      <c r="X332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -25382,6 +26380,9 @@
       <c r="W333" t="n">
         <v>3</v>
       </c>
+      <c r="X333" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -25457,6 +26458,9 @@
       <c r="W334" t="n">
         <v>0</v>
       </c>
+      <c r="X334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -25532,6 +26536,9 @@
       <c r="W335" t="n">
         <v>5</v>
       </c>
+      <c r="X335" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -25607,6 +26614,9 @@
       <c r="W336" t="n">
         <v>0</v>
       </c>
+      <c r="X336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -25682,6 +26692,9 @@
       <c r="W337" t="n">
         <v>3</v>
       </c>
+      <c r="X337" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -25757,6 +26770,9 @@
       <c r="W338" t="n">
         <v>0</v>
       </c>
+      <c r="X338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -25832,6 +26848,9 @@
       <c r="W339" t="n">
         <v>0</v>
       </c>
+      <c r="X339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -25907,6 +26926,9 @@
       <c r="W340" t="n">
         <v>2</v>
       </c>
+      <c r="X340" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -25982,6 +27004,9 @@
       <c r="W341" t="n">
         <v>0</v>
       </c>
+      <c r="X341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -26057,6 +27082,9 @@
       <c r="W342" t="n">
         <v>1</v>
       </c>
+      <c r="X342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -26132,6 +27160,9 @@
       <c r="W343" t="n">
         <v>2</v>
       </c>
+      <c r="X343" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -26207,6 +27238,9 @@
       <c r="W344" t="n">
         <v>1</v>
       </c>
+      <c r="X344" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -26282,6 +27316,9 @@
       <c r="W345" t="n">
         <v>1</v>
       </c>
+      <c r="X345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -26357,6 +27394,9 @@
       <c r="W346" t="n">
         <v>2</v>
       </c>
+      <c r="X346" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -26432,6 +27472,9 @@
       <c r="W347" t="n">
         <v>8</v>
       </c>
+      <c r="X347" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -26507,6 +27550,9 @@
       <c r="W348" t="n">
         <v>0</v>
       </c>
+      <c r="X348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -26582,6 +27628,9 @@
       <c r="W349" t="n">
         <v>0</v>
       </c>
+      <c r="X349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -26657,6 +27706,9 @@
       <c r="W350" t="n">
         <v>0</v>
       </c>
+      <c r="X350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -26732,6 +27784,9 @@
       <c r="W351" t="n">
         <v>0</v>
       </c>
+      <c r="X351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -26807,6 +27862,9 @@
       <c r="W352" t="n">
         <v>3</v>
       </c>
+      <c r="X352" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -26882,6 +27940,9 @@
       <c r="W353" t="n">
         <v>0</v>
       </c>
+      <c r="X353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -26957,6 +28018,9 @@
       <c r="W354" t="n">
         <v>2</v>
       </c>
+      <c r="X354" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -27032,6 +28096,9 @@
       <c r="W355" t="n">
         <v>3</v>
       </c>
+      <c r="X355" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -27106,6 +28173,9 @@
       </c>
       <c r="W356" t="n">
         <v>6</v>
+      </c>
+      <c r="X356" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y356"/>
+  <dimension ref="A1:Z356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
           <t>17-03-2020</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>18-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -575,6 +580,9 @@
       <c r="Y2" t="n">
         <v>17</v>
       </c>
+      <c r="Z2" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -658,6 +666,9 @@
       <c r="Y3" t="n">
         <v>24</v>
       </c>
+      <c r="Z3" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -741,6 +752,9 @@
       <c r="Y4" t="n">
         <v>0</v>
       </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -824,6 +838,9 @@
       <c r="Y5" t="n">
         <v>3</v>
       </c>
+      <c r="Z5" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -907,6 +924,9 @@
       <c r="Y6" t="n">
         <v>0</v>
       </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -990,6 +1010,9 @@
       <c r="Y7" t="n">
         <v>0</v>
       </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1073,6 +1096,9 @@
       <c r="Y8" t="n">
         <v>1</v>
       </c>
+      <c r="Z8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1156,6 +1182,9 @@
       <c r="Y9" t="n">
         <v>3</v>
       </c>
+      <c r="Z9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1239,6 +1268,9 @@
       <c r="Y10" t="n">
         <v>2</v>
       </c>
+      <c r="Z10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1322,6 +1354,9 @@
       <c r="Y11" t="n">
         <v>1</v>
       </c>
+      <c r="Z11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1405,6 +1440,9 @@
       <c r="Y12" t="n">
         <v>3</v>
       </c>
+      <c r="Z12" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1488,6 +1526,9 @@
       <c r="Y13" t="n">
         <v>6</v>
       </c>
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1571,6 +1612,9 @@
       <c r="Y14" t="n">
         <v>3</v>
       </c>
+      <c r="Z14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1654,6 +1698,9 @@
       <c r="Y15" t="n">
         <v>12</v>
       </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1737,6 +1784,9 @@
       <c r="Y16" t="n">
         <v>0</v>
       </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1820,6 +1870,9 @@
       <c r="Y17" t="n">
         <v>21</v>
       </c>
+      <c r="Z17" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1903,6 +1956,9 @@
       <c r="Y18" t="n">
         <v>6</v>
       </c>
+      <c r="Z18" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1986,6 +2042,9 @@
       <c r="Y19" t="n">
         <v>56</v>
       </c>
+      <c r="Z19" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2069,6 +2128,9 @@
       <c r="Y20" t="n">
         <v>7</v>
       </c>
+      <c r="Z20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2152,6 +2214,9 @@
       <c r="Y21" t="n">
         <v>0</v>
       </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2235,6 +2300,9 @@
       <c r="Y22" t="n">
         <v>8</v>
       </c>
+      <c r="Z22" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2318,6 +2386,9 @@
       <c r="Y23" t="n">
         <v>0</v>
       </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2401,6 +2472,9 @@
       <c r="Y24" t="n">
         <v>2</v>
       </c>
+      <c r="Z24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2484,6 +2558,9 @@
       <c r="Y25" t="n">
         <v>0</v>
       </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2567,6 +2644,9 @@
       <c r="Y26" t="n">
         <v>0</v>
       </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2650,6 +2730,9 @@
       <c r="Y27" t="n">
         <v>3</v>
       </c>
+      <c r="Z27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2733,6 +2816,9 @@
       <c r="Y28" t="n">
         <v>4</v>
       </c>
+      <c r="Z28" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2816,6 +2902,9 @@
       <c r="Y29" t="n">
         <v>3</v>
       </c>
+      <c r="Z29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2899,6 +2988,9 @@
       <c r="Y30" t="n">
         <v>15</v>
       </c>
+      <c r="Z30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2982,6 +3074,9 @@
       <c r="Y31" t="n">
         <v>0</v>
       </c>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3065,6 +3160,9 @@
       <c r="Y32" t="n">
         <v>0</v>
       </c>
+      <c r="Z32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3148,6 +3246,9 @@
       <c r="Y33" t="n">
         <v>14</v>
       </c>
+      <c r="Z33" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3231,6 +3332,9 @@
       <c r="Y34" t="n">
         <v>1</v>
       </c>
+      <c r="Z34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3314,6 +3418,9 @@
       <c r="Y35" t="n">
         <v>0</v>
       </c>
+      <c r="Z35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3397,6 +3504,9 @@
       <c r="Y36" t="n">
         <v>1</v>
       </c>
+      <c r="Z36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3480,6 +3590,9 @@
       <c r="Y37" t="n">
         <v>5</v>
       </c>
+      <c r="Z37" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3563,6 +3676,9 @@
       <c r="Y38" t="n">
         <v>0</v>
       </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3646,6 +3762,9 @@
       <c r="Y39" t="n">
         <v>20</v>
       </c>
+      <c r="Z39" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3729,6 +3848,9 @@
       <c r="Y40" t="n">
         <v>5</v>
       </c>
+      <c r="Z40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3812,6 +3934,9 @@
       <c r="Y41" t="n">
         <v>6</v>
       </c>
+      <c r="Z41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3895,6 +4020,9 @@
       <c r="Y42" t="n">
         <v>6</v>
       </c>
+      <c r="Z42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3978,6 +4106,9 @@
       <c r="Y43" t="n">
         <v>1</v>
       </c>
+      <c r="Z43" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4061,6 +4192,9 @@
       <c r="Y44" t="n">
         <v>1</v>
       </c>
+      <c r="Z44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4144,6 +4278,9 @@
       <c r="Y45" t="n">
         <v>3</v>
       </c>
+      <c r="Z45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4227,6 +4364,9 @@
       <c r="Y46" t="n">
         <v>1</v>
       </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4310,6 +4450,9 @@
       <c r="Y47" t="n">
         <v>14</v>
       </c>
+      <c r="Z47" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4393,6 +4536,9 @@
       <c r="Y48" t="n">
         <v>0</v>
       </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4476,6 +4622,9 @@
       <c r="Y49" t="n">
         <v>3</v>
       </c>
+      <c r="Z49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4559,6 +4708,9 @@
       <c r="Y50" t="n">
         <v>2</v>
       </c>
+      <c r="Z50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4642,6 +4794,9 @@
       <c r="Y51" t="n">
         <v>1</v>
       </c>
+      <c r="Z51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4725,6 +4880,9 @@
       <c r="Y52" t="n">
         <v>5</v>
       </c>
+      <c r="Z52" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4808,6 +4966,9 @@
       <c r="Y53" t="n">
         <v>96</v>
       </c>
+      <c r="Z53" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -4891,6 +5052,9 @@
       <c r="Y54" t="n">
         <v>0</v>
       </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -4974,6 +5138,9 @@
       <c r="Y55" t="n">
         <v>2</v>
       </c>
+      <c r="Z55" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5057,6 +5224,9 @@
       <c r="Y56" t="n">
         <v>0</v>
       </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5140,6 +5310,9 @@
       <c r="Y57" t="n">
         <v>2</v>
       </c>
+      <c r="Z57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5223,6 +5396,9 @@
       <c r="Y58" t="n">
         <v>0</v>
       </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5306,6 +5482,9 @@
       <c r="Y59" t="n">
         <v>0</v>
       </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5389,6 +5568,9 @@
       <c r="Y60" t="n">
         <v>4</v>
       </c>
+      <c r="Z60" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5472,6 +5654,9 @@
       <c r="Y61" t="n">
         <v>1</v>
       </c>
+      <c r="Z61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5555,6 +5740,9 @@
       <c r="Y62" t="n">
         <v>5</v>
       </c>
+      <c r="Z62" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5638,6 +5826,9 @@
       <c r="Y63" t="n">
         <v>11</v>
       </c>
+      <c r="Z63" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5721,6 +5912,9 @@
       <c r="Y64" t="n">
         <v>5</v>
       </c>
+      <c r="Z64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -5804,6 +5998,9 @@
       <c r="Y65" t="n">
         <v>2</v>
       </c>
+      <c r="Z65" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -5887,6 +6084,9 @@
       <c r="Y66" t="n">
         <v>4</v>
       </c>
+      <c r="Z66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -5970,6 +6170,9 @@
       <c r="Y67" t="n">
         <v>1</v>
       </c>
+      <c r="Z67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6053,6 +6256,9 @@
       <c r="Y68" t="n">
         <v>0</v>
       </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6136,6 +6342,9 @@
       <c r="Y69" t="n">
         <v>15</v>
       </c>
+      <c r="Z69" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6219,6 +6428,9 @@
       <c r="Y70" t="n">
         <v>3</v>
       </c>
+      <c r="Z70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6302,6 +6514,9 @@
       <c r="Y71" t="n">
         <v>2</v>
       </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6385,6 +6600,9 @@
       <c r="Y72" t="n">
         <v>1</v>
       </c>
+      <c r="Z72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6468,6 +6686,9 @@
       <c r="Y73" t="n">
         <v>2</v>
       </c>
+      <c r="Z73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6551,6 +6772,9 @@
       <c r="Y74" t="n">
         <v>0</v>
       </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6634,6 +6858,9 @@
       <c r="Y75" t="n">
         <v>1</v>
       </c>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6717,6 +6944,9 @@
       <c r="Y76" t="n">
         <v>8</v>
       </c>
+      <c r="Z76" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -6800,6 +7030,9 @@
       <c r="Y77" t="n">
         <v>4</v>
       </c>
+      <c r="Z77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -6883,6 +7116,9 @@
       <c r="Y78" t="n">
         <v>2</v>
       </c>
+      <c r="Z78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -6966,6 +7202,9 @@
       <c r="Y79" t="n">
         <v>5</v>
       </c>
+      <c r="Z79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7049,6 +7288,9 @@
       <c r="Y80" t="n">
         <v>1</v>
       </c>
+      <c r="Z80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7132,6 +7374,9 @@
       <c r="Y81" t="n">
         <v>0</v>
       </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7215,6 +7460,9 @@
       <c r="Y82" t="n">
         <v>5</v>
       </c>
+      <c r="Z82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7298,6 +7546,9 @@
       <c r="Y83" t="n">
         <v>4</v>
       </c>
+      <c r="Z83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7381,6 +7632,9 @@
       <c r="Y84" t="n">
         <v>0</v>
       </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7464,6 +7718,9 @@
       <c r="Y85" t="n">
         <v>11</v>
       </c>
+      <c r="Z85" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7547,6 +7804,9 @@
       <c r="Y86" t="n">
         <v>7</v>
       </c>
+      <c r="Z86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7630,6 +7890,9 @@
       <c r="Y87" t="n">
         <v>5</v>
       </c>
+      <c r="Z87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7713,6 +7976,9 @@
       <c r="Y88" t="n">
         <v>1</v>
       </c>
+      <c r="Z88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -7796,6 +8062,9 @@
       <c r="Y89" t="n">
         <v>2</v>
       </c>
+      <c r="Z89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -7879,6 +8148,9 @@
       <c r="Y90" t="n">
         <v>0</v>
       </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -7962,6 +8234,9 @@
       <c r="Y91" t="n">
         <v>2</v>
       </c>
+      <c r="Z91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8045,6 +8320,9 @@
       <c r="Y92" t="n">
         <v>0</v>
       </c>
+      <c r="Z92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8128,6 +8406,9 @@
       <c r="Y93" t="n">
         <v>3</v>
       </c>
+      <c r="Z93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8211,6 +8492,9 @@
       <c r="Y94" t="n">
         <v>4</v>
       </c>
+      <c r="Z94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8294,6 +8578,9 @@
       <c r="Y95" t="n">
         <v>22</v>
       </c>
+      <c r="Z95" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8377,6 +8664,9 @@
       <c r="Y96" t="n">
         <v>1</v>
       </c>
+      <c r="Z96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8460,6 +8750,9 @@
       <c r="Y97" t="n">
         <v>1</v>
       </c>
+      <c r="Z97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8543,6 +8836,9 @@
       <c r="Y98" t="n">
         <v>1</v>
       </c>
+      <c r="Z98" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8626,6 +8922,9 @@
       <c r="Y99" t="n">
         <v>3</v>
       </c>
+      <c r="Z99" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -8709,6 +9008,9 @@
       <c r="Y100" t="n">
         <v>2</v>
       </c>
+      <c r="Z100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -8792,6 +9094,9 @@
       <c r="Y101" t="n">
         <v>8</v>
       </c>
+      <c r="Z101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -8875,6 +9180,9 @@
       <c r="Y102" t="n">
         <v>12</v>
       </c>
+      <c r="Z102" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -8958,6 +9266,9 @@
       <c r="Y103" t="n">
         <v>5</v>
       </c>
+      <c r="Z103" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -9041,6 +9352,9 @@
       <c r="Y104" t="n">
         <v>3</v>
       </c>
+      <c r="Z104" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -9124,6 +9438,9 @@
       <c r="Y105" t="n">
         <v>25</v>
       </c>
+      <c r="Z105" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -9207,6 +9524,9 @@
       <c r="Y106" t="n">
         <v>1</v>
       </c>
+      <c r="Z106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -9290,6 +9610,9 @@
       <c r="Y107" t="n">
         <v>1</v>
       </c>
+      <c r="Z107" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9373,6 +9696,9 @@
       <c r="Y108" t="n">
         <v>5</v>
       </c>
+      <c r="Z108" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -9456,6 +9782,9 @@
       <c r="Y109" t="n">
         <v>2</v>
       </c>
+      <c r="Z109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -9539,6 +9868,9 @@
       <c r="Y110" t="n">
         <v>9</v>
       </c>
+      <c r="Z110" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9622,6 +9954,9 @@
       <c r="Y111" t="n">
         <v>9</v>
       </c>
+      <c r="Z111" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -9705,6 +10040,9 @@
       <c r="Y112" t="n">
         <v>0</v>
       </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -9788,6 +10126,9 @@
       <c r="Y113" t="n">
         <v>5</v>
       </c>
+      <c r="Z113" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -9871,6 +10212,9 @@
       <c r="Y114" t="n">
         <v>0</v>
       </c>
+      <c r="Z114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -9954,6 +10298,9 @@
       <c r="Y115" t="n">
         <v>7</v>
       </c>
+      <c r="Z115" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -10037,6 +10384,9 @@
       <c r="Y116" t="n">
         <v>2</v>
       </c>
+      <c r="Z116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -10120,6 +10470,9 @@
       <c r="Y117" t="n">
         <v>1</v>
       </c>
+      <c r="Z117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -10203,6 +10556,9 @@
       <c r="Y118" t="n">
         <v>7</v>
       </c>
+      <c r="Z118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -10286,6 +10642,9 @@
       <c r="Y119" t="n">
         <v>7</v>
       </c>
+      <c r="Z119" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -10369,6 +10728,9 @@
       <c r="Y120" t="n">
         <v>4</v>
       </c>
+      <c r="Z120" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10452,6 +10814,9 @@
       <c r="Y121" t="n">
         <v>2</v>
       </c>
+      <c r="Z121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10535,6 +10900,9 @@
       <c r="Y122" t="n">
         <v>0</v>
       </c>
+      <c r="Z122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -10618,6 +10986,9 @@
       <c r="Y123" t="n">
         <v>4</v>
       </c>
+      <c r="Z123" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -10701,6 +11072,9 @@
       <c r="Y124" t="n">
         <v>5</v>
       </c>
+      <c r="Z124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -10784,6 +11158,9 @@
       <c r="Y125" t="n">
         <v>1</v>
       </c>
+      <c r="Z125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -10867,6 +11244,9 @@
       <c r="Y126" t="n">
         <v>0</v>
       </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -10950,6 +11330,9 @@
       <c r="Y127" t="n">
         <v>2</v>
       </c>
+      <c r="Z127" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -11033,6 +11416,9 @@
       <c r="Y128" t="n">
         <v>5</v>
       </c>
+      <c r="Z128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -11116,6 +11502,9 @@
       <c r="Y129" t="n">
         <v>3</v>
       </c>
+      <c r="Z129" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -11199,6 +11588,9 @@
       <c r="Y130" t="n">
         <v>0</v>
       </c>
+      <c r="Z130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -11282,6 +11674,9 @@
       <c r="Y131" t="n">
         <v>1</v>
       </c>
+      <c r="Z131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -11365,6 +11760,9 @@
       <c r="Y132" t="n">
         <v>8</v>
       </c>
+      <c r="Z132" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -11448,6 +11846,9 @@
       <c r="Y133" t="n">
         <v>3</v>
       </c>
+      <c r="Z133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11531,6 +11932,9 @@
       <c r="Y134" t="n">
         <v>3</v>
       </c>
+      <c r="Z134" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -11614,6 +12018,9 @@
       <c r="Y135" t="n">
         <v>2</v>
       </c>
+      <c r="Z135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -11697,6 +12104,9 @@
       <c r="Y136" t="n">
         <v>1</v>
       </c>
+      <c r="Z136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -11780,6 +12190,9 @@
       <c r="Y137" t="n">
         <v>19</v>
       </c>
+      <c r="Z137" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -11863,6 +12276,9 @@
       <c r="Y138" t="n">
         <v>0</v>
       </c>
+      <c r="Z138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -11946,6 +12362,9 @@
       <c r="Y139" t="n">
         <v>3</v>
       </c>
+      <c r="Z139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -12029,6 +12448,9 @@
       <c r="Y140" t="n">
         <v>0</v>
       </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -12112,6 +12534,9 @@
       <c r="Y141" t="n">
         <v>3</v>
       </c>
+      <c r="Z141" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -12195,6 +12620,9 @@
       <c r="Y142" t="n">
         <v>4</v>
       </c>
+      <c r="Z142" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -12278,6 +12706,9 @@
       <c r="Y143" t="n">
         <v>0</v>
       </c>
+      <c r="Z143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -12361,6 +12792,9 @@
       <c r="Y144" t="n">
         <v>4</v>
       </c>
+      <c r="Z144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -12444,6 +12878,9 @@
       <c r="Y145" t="n">
         <v>3</v>
       </c>
+      <c r="Z145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -12527,6 +12964,9 @@
       <c r="Y146" t="n">
         <v>6</v>
       </c>
+      <c r="Z146" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -12610,6 +13050,9 @@
       <c r="Y147" t="n">
         <v>1</v>
       </c>
+      <c r="Z147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -12693,6 +13136,9 @@
       <c r="Y148" t="n">
         <v>0</v>
       </c>
+      <c r="Z148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -12776,6 +13222,9 @@
       <c r="Y149" t="n">
         <v>2</v>
       </c>
+      <c r="Z149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -12859,6 +13308,9 @@
       <c r="Y150" t="n">
         <v>1</v>
       </c>
+      <c r="Z150" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -12942,6 +13394,9 @@
       <c r="Y151" t="n">
         <v>8</v>
       </c>
+      <c r="Z151" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -13025,6 +13480,9 @@
       <c r="Y152" t="n">
         <v>13</v>
       </c>
+      <c r="Z152" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -13108,6 +13566,9 @@
       <c r="Y153" t="n">
         <v>1</v>
       </c>
+      <c r="Z153" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -13191,6 +13652,9 @@
       <c r="Y154" t="n">
         <v>0</v>
       </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -13274,6 +13738,9 @@
       <c r="Y155" t="n">
         <v>6</v>
       </c>
+      <c r="Z155" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -13357,6 +13824,9 @@
       <c r="Y156" t="n">
         <v>0</v>
       </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -13440,6 +13910,9 @@
       <c r="Y157" t="n">
         <v>1</v>
       </c>
+      <c r="Z157" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -13523,6 +13996,9 @@
       <c r="Y158" t="n">
         <v>1</v>
       </c>
+      <c r="Z158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -13606,6 +14082,9 @@
       <c r="Y159" t="n">
         <v>1</v>
       </c>
+      <c r="Z159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -13689,6 +14168,9 @@
       <c r="Y160" t="n">
         <v>3</v>
       </c>
+      <c r="Z160" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -13772,6 +14254,9 @@
       <c r="Y161" t="n">
         <v>1</v>
       </c>
+      <c r="Z161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -13855,6 +14340,9 @@
       <c r="Y162" t="n">
         <v>1</v>
       </c>
+      <c r="Z162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -13938,6 +14426,9 @@
       <c r="Y163" t="n">
         <v>4</v>
       </c>
+      <c r="Z163" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -14021,6 +14512,9 @@
       <c r="Y164" t="n">
         <v>1</v>
       </c>
+      <c r="Z164" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -14104,6 +14598,9 @@
       <c r="Y165" t="n">
         <v>14</v>
       </c>
+      <c r="Z165" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -14187,6 +14684,9 @@
       <c r="Y166" t="n">
         <v>4</v>
       </c>
+      <c r="Z166" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -14270,6 +14770,9 @@
       <c r="Y167" t="n">
         <v>3</v>
       </c>
+      <c r="Z167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -14353,6 +14856,9 @@
       <c r="Y168" t="n">
         <v>4</v>
       </c>
+      <c r="Z168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -14436,6 +14942,9 @@
       <c r="Y169" t="n">
         <v>7</v>
       </c>
+      <c r="Z169" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -14519,6 +15028,9 @@
       <c r="Y170" t="n">
         <v>0</v>
       </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -14602,6 +15114,9 @@
       <c r="Y171" t="n">
         <v>3</v>
       </c>
+      <c r="Z171" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -14685,6 +15200,9 @@
       <c r="Y172" t="n">
         <v>8</v>
       </c>
+      <c r="Z172" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -14768,6 +15286,9 @@
       <c r="Y173" t="n">
         <v>1</v>
       </c>
+      <c r="Z173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -14851,6 +15372,9 @@
       <c r="Y174" t="n">
         <v>5</v>
       </c>
+      <c r="Z174" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -14934,6 +15458,9 @@
       <c r="Y175" t="n">
         <v>10</v>
       </c>
+      <c r="Z175" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -15017,6 +15544,9 @@
       <c r="Y176" t="n">
         <v>8</v>
       </c>
+      <c r="Z176" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -15100,6 +15630,9 @@
       <c r="Y177" t="n">
         <v>1</v>
       </c>
+      <c r="Z177" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -15183,6 +15716,9 @@
       <c r="Y178" t="n">
         <v>3</v>
       </c>
+      <c r="Z178" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -15266,6 +15802,9 @@
       <c r="Y179" t="n">
         <v>0</v>
       </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -15349,6 +15888,9 @@
       <c r="Y180" t="n">
         <v>0</v>
       </c>
+      <c r="Z180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -15432,6 +15974,9 @@
       <c r="Y181" t="n">
         <v>8</v>
       </c>
+      <c r="Z181" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -15515,6 +16060,9 @@
       <c r="Y182" t="n">
         <v>2</v>
       </c>
+      <c r="Z182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -15598,6 +16146,9 @@
       <c r="Y183" t="n">
         <v>0</v>
       </c>
+      <c r="Z183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -15681,6 +16232,9 @@
       <c r="Y184" t="n">
         <v>0</v>
       </c>
+      <c r="Z184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -15764,6 +16318,9 @@
       <c r="Y185" t="n">
         <v>1</v>
       </c>
+      <c r="Z185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -15847,6 +16404,9 @@
       <c r="Y186" t="n">
         <v>3</v>
       </c>
+      <c r="Z186" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -15930,6 +16490,9 @@
       <c r="Y187" t="n">
         <v>1</v>
       </c>
+      <c r="Z187" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -16013,6 +16576,9 @@
       <c r="Y188" t="n">
         <v>33</v>
       </c>
+      <c r="Z188" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -16096,6 +16662,9 @@
       <c r="Y189" t="n">
         <v>0</v>
       </c>
+      <c r="Z189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -16179,6 +16748,9 @@
       <c r="Y190" t="n">
         <v>1</v>
       </c>
+      <c r="Z190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -16262,6 +16834,9 @@
       <c r="Y191" t="n">
         <v>49</v>
       </c>
+      <c r="Z191" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -16345,6 +16920,9 @@
       <c r="Y192" t="n">
         <v>0</v>
       </c>
+      <c r="Z192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -16428,6 +17006,9 @@
       <c r="Y193" t="n">
         <v>1</v>
       </c>
+      <c r="Z193" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -16511,6 +17092,9 @@
       <c r="Y194" t="n">
         <v>0</v>
       </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -16594,6 +17178,9 @@
       <c r="Y195" t="n">
         <v>0</v>
       </c>
+      <c r="Z195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -16677,6 +17264,9 @@
       <c r="Y196" t="n">
         <v>1</v>
       </c>
+      <c r="Z196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -16760,6 +17350,9 @@
       <c r="Y197" t="n">
         <v>1</v>
       </c>
+      <c r="Z197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -16843,6 +17436,9 @@
       <c r="Y198" t="n">
         <v>1</v>
       </c>
+      <c r="Z198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -16926,6 +17522,9 @@
       <c r="Y199" t="n">
         <v>3</v>
       </c>
+      <c r="Z199" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -17009,6 +17608,9 @@
       <c r="Y200" t="n">
         <v>0</v>
       </c>
+      <c r="Z200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -17092,6 +17694,9 @@
       <c r="Y201" t="n">
         <v>0</v>
       </c>
+      <c r="Z201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -17175,6 +17780,9 @@
       <c r="Y202" t="n">
         <v>0</v>
       </c>
+      <c r="Z202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -17258,6 +17866,9 @@
       <c r="Y203" t="n">
         <v>4</v>
       </c>
+      <c r="Z203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -17341,6 +17952,9 @@
       <c r="Y204" t="n">
         <v>5</v>
       </c>
+      <c r="Z204" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -17424,6 +18038,9 @@
       <c r="Y205" t="n">
         <v>3</v>
       </c>
+      <c r="Z205" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -17507,6 +18124,9 @@
       <c r="Y206" t="n">
         <v>1</v>
       </c>
+      <c r="Z206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -17590,6 +18210,9 @@
       <c r="Y207" t="n">
         <v>2</v>
       </c>
+      <c r="Z207" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -17673,6 +18296,9 @@
       <c r="Y208" t="n">
         <v>31</v>
       </c>
+      <c r="Z208" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -17756,6 +18382,9 @@
       <c r="Y209" t="n">
         <v>3</v>
       </c>
+      <c r="Z209" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -17839,6 +18468,9 @@
       <c r="Y210" t="n">
         <v>0</v>
       </c>
+      <c r="Z210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -17922,6 +18554,9 @@
       <c r="Y211" t="n">
         <v>0</v>
       </c>
+      <c r="Z211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -18005,6 +18640,9 @@
       <c r="Y212" t="n">
         <v>1</v>
       </c>
+      <c r="Z212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -18088,6 +18726,9 @@
       <c r="Y213" t="n">
         <v>2</v>
       </c>
+      <c r="Z213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -18171,6 +18812,9 @@
       <c r="Y214" t="n">
         <v>2</v>
       </c>
+      <c r="Z214" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -18254,6 +18898,9 @@
       <c r="Y215" t="n">
         <v>1</v>
       </c>
+      <c r="Z215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -18337,6 +18984,9 @@
       <c r="Y216" t="n">
         <v>2</v>
       </c>
+      <c r="Z216" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -18420,6 +19070,9 @@
       <c r="Y217" t="n">
         <v>4</v>
       </c>
+      <c r="Z217" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -18503,6 +19156,9 @@
       <c r="Y218" t="n">
         <v>1</v>
       </c>
+      <c r="Z218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -18586,6 +19242,9 @@
       <c r="Y219" t="n">
         <v>10</v>
       </c>
+      <c r="Z219" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -18669,6 +19328,9 @@
       <c r="Y220" t="n">
         <v>0</v>
       </c>
+      <c r="Z220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -18752,6 +19414,9 @@
       <c r="Y221" t="n">
         <v>2</v>
       </c>
+      <c r="Z221" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -18835,6 +19500,9 @@
       <c r="Y222" t="n">
         <v>1</v>
       </c>
+      <c r="Z222" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -18918,6 +19586,9 @@
       <c r="Y223" t="n">
         <v>0</v>
       </c>
+      <c r="Z223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -19001,6 +19672,9 @@
       <c r="Y224" t="n">
         <v>1</v>
       </c>
+      <c r="Z224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -19084,6 +19758,9 @@
       <c r="Y225" t="n">
         <v>0</v>
       </c>
+      <c r="Z225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -19167,6 +19844,9 @@
       <c r="Y226" t="n">
         <v>8</v>
       </c>
+      <c r="Z226" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -19250,6 +19930,9 @@
       <c r="Y227" t="n">
         <v>0</v>
       </c>
+      <c r="Z227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -19333,6 +20016,9 @@
       <c r="Y228" t="n">
         <v>1</v>
       </c>
+      <c r="Z228" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -19416,6 +20102,9 @@
       <c r="Y229" t="n">
         <v>0</v>
       </c>
+      <c r="Z229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -19499,6 +20188,9 @@
       <c r="Y230" t="n">
         <v>2</v>
       </c>
+      <c r="Z230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -19582,6 +20274,9 @@
       <c r="Y231" t="n">
         <v>14</v>
       </c>
+      <c r="Z231" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -19665,6 +20360,9 @@
       <c r="Y232" t="n">
         <v>2</v>
       </c>
+      <c r="Z232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -19748,6 +20446,9 @@
       <c r="Y233" t="n">
         <v>2</v>
       </c>
+      <c r="Z233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -19831,6 +20532,9 @@
       <c r="Y234" t="n">
         <v>1</v>
       </c>
+      <c r="Z234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -19914,6 +20618,9 @@
       <c r="Y235" t="n">
         <v>9</v>
       </c>
+      <c r="Z235" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -19997,6 +20704,9 @@
       <c r="Y236" t="n">
         <v>0</v>
       </c>
+      <c r="Z236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -20080,6 +20790,9 @@
       <c r="Y237" t="n">
         <v>31</v>
       </c>
+      <c r="Z237" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -20163,6 +20876,9 @@
       <c r="Y238" t="n">
         <v>1</v>
       </c>
+      <c r="Z238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -20246,6 +20962,9 @@
       <c r="Y239" t="n">
         <v>10</v>
       </c>
+      <c r="Z239" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -20329,6 +21048,9 @@
       <c r="Y240" t="n">
         <v>2</v>
       </c>
+      <c r="Z240" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -20412,6 +21134,9 @@
       <c r="Y241" t="n">
         <v>2</v>
       </c>
+      <c r="Z241" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -20495,6 +21220,9 @@
       <c r="Y242" t="n">
         <v>3</v>
       </c>
+      <c r="Z242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -20578,6 +21306,9 @@
       <c r="Y243" t="n">
         <v>2</v>
       </c>
+      <c r="Z243" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -20661,6 +21392,9 @@
       <c r="Y244" t="n">
         <v>8</v>
       </c>
+      <c r="Z244" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -20744,6 +21478,9 @@
       <c r="Y245" t="n">
         <v>0</v>
       </c>
+      <c r="Z245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -20827,6 +21564,9 @@
       <c r="Y246" t="n">
         <v>0</v>
       </c>
+      <c r="Z246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -20910,6 +21650,9 @@
       <c r="Y247" t="n">
         <v>2</v>
       </c>
+      <c r="Z247" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -20993,6 +21736,9 @@
       <c r="Y248" t="n">
         <v>0</v>
       </c>
+      <c r="Z248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -21076,6 +21822,9 @@
       <c r="Y249" t="n">
         <v>1</v>
       </c>
+      <c r="Z249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -21159,6 +21908,9 @@
       <c r="Y250" t="n">
         <v>0</v>
       </c>
+      <c r="Z250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -21242,6 +21994,9 @@
       <c r="Y251" t="n">
         <v>2</v>
       </c>
+      <c r="Z251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -21325,6 +22080,9 @@
       <c r="Y252" t="n">
         <v>0</v>
       </c>
+      <c r="Z252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -21408,6 +22166,9 @@
       <c r="Y253" t="n">
         <v>4</v>
       </c>
+      <c r="Z253" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -21491,6 +22252,9 @@
       <c r="Y254" t="n">
         <v>6</v>
       </c>
+      <c r="Z254" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -21574,6 +22338,9 @@
       <c r="Y255" t="n">
         <v>41</v>
       </c>
+      <c r="Z255" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -21657,6 +22424,9 @@
       <c r="Y256" t="n">
         <v>1</v>
       </c>
+      <c r="Z256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -21740,6 +22510,9 @@
       <c r="Y257" t="n">
         <v>1</v>
       </c>
+      <c r="Z257" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -21823,6 +22596,9 @@
       <c r="Y258" t="n">
         <v>4</v>
       </c>
+      <c r="Z258" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -21906,6 +22682,9 @@
       <c r="Y259" t="n">
         <v>0</v>
       </c>
+      <c r="Z259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -21989,6 +22768,9 @@
       <c r="Y260" t="n">
         <v>1</v>
       </c>
+      <c r="Z260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -22072,6 +22854,9 @@
       <c r="Y261" t="n">
         <v>0</v>
       </c>
+      <c r="Z261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -22155,6 +22940,9 @@
       <c r="Y262" t="n">
         <v>2</v>
       </c>
+      <c r="Z262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -22238,6 +23026,9 @@
       <c r="Y263" t="n">
         <v>4</v>
       </c>
+      <c r="Z263" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -22321,6 +23112,9 @@
       <c r="Y264" t="n">
         <v>4</v>
       </c>
+      <c r="Z264" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -22404,6 +23198,9 @@
       <c r="Y265" t="n">
         <v>8</v>
       </c>
+      <c r="Z265" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -22487,6 +23284,9 @@
       <c r="Y266" t="n">
         <v>42</v>
       </c>
+      <c r="Z266" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -22570,6 +23370,9 @@
       <c r="Y267" t="n">
         <v>1</v>
       </c>
+      <c r="Z267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -22653,6 +23456,9 @@
       <c r="Y268" t="n">
         <v>2</v>
       </c>
+      <c r="Z268" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -22736,6 +23542,9 @@
       <c r="Y269" t="n">
         <v>3</v>
       </c>
+      <c r="Z269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -22819,6 +23628,9 @@
       <c r="Y270" t="n">
         <v>11</v>
       </c>
+      <c r="Z270" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -22902,6 +23714,9 @@
       <c r="Y271" t="n">
         <v>2</v>
       </c>
+      <c r="Z271" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -22985,6 +23800,9 @@
       <c r="Y272" t="n">
         <v>4</v>
       </c>
+      <c r="Z272" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -23068,6 +23886,9 @@
       <c r="Y273" t="n">
         <v>0</v>
       </c>
+      <c r="Z273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -23151,6 +23972,9 @@
       <c r="Y274" t="n">
         <v>1</v>
       </c>
+      <c r="Z274" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -23234,6 +24058,9 @@
       <c r="Y275" t="n">
         <v>1</v>
       </c>
+      <c r="Z275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -23317,6 +24144,9 @@
       <c r="Y276" t="n">
         <v>2</v>
       </c>
+      <c r="Z276" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -23400,6 +24230,9 @@
       <c r="Y277" t="n">
         <v>1</v>
       </c>
+      <c r="Z277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -23483,6 +24316,9 @@
       <c r="Y278" t="n">
         <v>3</v>
       </c>
+      <c r="Z278" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -23566,6 +24402,9 @@
       <c r="Y279" t="n">
         <v>8</v>
       </c>
+      <c r="Z279" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -23649,6 +24488,9 @@
       <c r="Y280" t="n">
         <v>1</v>
       </c>
+      <c r="Z280" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -23732,6 +24574,9 @@
       <c r="Y281" t="n">
         <v>2</v>
       </c>
+      <c r="Z281" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -23815,6 +24660,9 @@
       <c r="Y282" t="n">
         <v>0</v>
       </c>
+      <c r="Z282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -23898,6 +24746,9 @@
       <c r="Y283" t="n">
         <v>0</v>
       </c>
+      <c r="Z283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -23981,6 +24832,9 @@
       <c r="Y284" t="n">
         <v>2</v>
       </c>
+      <c r="Z284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -24064,6 +24918,9 @@
       <c r="Y285" t="n">
         <v>1</v>
       </c>
+      <c r="Z285" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -24147,6 +25004,9 @@
       <c r="Y286" t="n">
         <v>4</v>
       </c>
+      <c r="Z286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -24230,6 +25090,9 @@
       <c r="Y287" t="n">
         <v>88</v>
       </c>
+      <c r="Z287" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -24313,6 +25176,9 @@
       <c r="Y288" t="n">
         <v>1</v>
       </c>
+      <c r="Z288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -24396,6 +25262,9 @@
       <c r="Y289" t="n">
         <v>0</v>
       </c>
+      <c r="Z289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -24479,6 +25348,9 @@
       <c r="Y290" t="n">
         <v>1</v>
       </c>
+      <c r="Z290" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -24562,6 +25434,9 @@
       <c r="Y291" t="n">
         <v>1</v>
       </c>
+      <c r="Z291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -24645,6 +25520,9 @@
       <c r="Y292" t="n">
         <v>49</v>
       </c>
+      <c r="Z292" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -24728,6 +25606,9 @@
       <c r="Y293" t="n">
         <v>0</v>
       </c>
+      <c r="Z293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -24811,6 +25692,9 @@
       <c r="Y294" t="n">
         <v>0</v>
       </c>
+      <c r="Z294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -24894,6 +25778,9 @@
       <c r="Y295" t="n">
         <v>0</v>
       </c>
+      <c r="Z295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -24977,6 +25864,9 @@
       <c r="Y296" t="n">
         <v>60</v>
       </c>
+      <c r="Z296" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -25060,6 +25950,9 @@
       <c r="Y297" t="n">
         <v>5</v>
       </c>
+      <c r="Z297" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -25143,6 +26036,9 @@
       <c r="Y298" t="n">
         <v>0</v>
       </c>
+      <c r="Z298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -25226,6 +26122,9 @@
       <c r="Y299" t="n">
         <v>2</v>
       </c>
+      <c r="Z299" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -25309,6 +26208,9 @@
       <c r="Y300" t="n">
         <v>0</v>
       </c>
+      <c r="Z300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -25392,6 +26294,9 @@
       <c r="Y301" t="n">
         <v>0</v>
       </c>
+      <c r="Z301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -25475,6 +26380,9 @@
       <c r="Y302" t="n">
         <v>1</v>
       </c>
+      <c r="Z302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -25558,6 +26466,9 @@
       <c r="Y303" t="n">
         <v>1</v>
       </c>
+      <c r="Z303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -25641,6 +26552,9 @@
       <c r="Y304" t="n">
         <v>1</v>
       </c>
+      <c r="Z304" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -25724,6 +26638,9 @@
       <c r="Y305" t="n">
         <v>4</v>
       </c>
+      <c r="Z305" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -25807,6 +26724,9 @@
       <c r="Y306" t="n">
         <v>8</v>
       </c>
+      <c r="Z306" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -25890,6 +26810,9 @@
       <c r="Y307" t="n">
         <v>0</v>
       </c>
+      <c r="Z307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -25973,6 +26896,9 @@
       <c r="Y308" t="n">
         <v>4</v>
       </c>
+      <c r="Z308" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -26056,6 +26982,9 @@
       <c r="Y309" t="n">
         <v>2</v>
       </c>
+      <c r="Z309" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -26139,6 +27068,9 @@
       <c r="Y310" t="n">
         <v>0</v>
       </c>
+      <c r="Z310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -26222,6 +27154,9 @@
       <c r="Y311" t="n">
         <v>4</v>
       </c>
+      <c r="Z311" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -26305,6 +27240,9 @@
       <c r="Y312" t="n">
         <v>1</v>
       </c>
+      <c r="Z312" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -26388,6 +27326,9 @@
       <c r="Y313" t="n">
         <v>0</v>
       </c>
+      <c r="Z313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -26471,6 +27412,9 @@
       <c r="Y314" t="n">
         <v>1</v>
       </c>
+      <c r="Z314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -26554,6 +27498,9 @@
       <c r="Y315" t="n">
         <v>6</v>
       </c>
+      <c r="Z315" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -26637,6 +27584,9 @@
       <c r="Y316" t="n">
         <v>0</v>
       </c>
+      <c r="Z316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -26720,6 +27670,9 @@
       <c r="Y317" t="n">
         <v>1</v>
       </c>
+      <c r="Z317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -26803,6 +27756,9 @@
       <c r="Y318" t="n">
         <v>11</v>
       </c>
+      <c r="Z318" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -26886,6 +27842,9 @@
       <c r="Y319" t="n">
         <v>1</v>
       </c>
+      <c r="Z319" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -26969,6 +27928,9 @@
       <c r="Y320" t="n">
         <v>1</v>
       </c>
+      <c r="Z320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -27052,6 +28014,9 @@
       <c r="Y321" t="n">
         <v>3</v>
       </c>
+      <c r="Z321" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -27135,6 +28100,9 @@
       <c r="Y322" t="n">
         <v>3</v>
       </c>
+      <c r="Z322" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -27218,6 +28186,9 @@
       <c r="Y323" t="n">
         <v>0</v>
       </c>
+      <c r="Z323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -27301,6 +28272,9 @@
       <c r="Y324" t="n">
         <v>0</v>
       </c>
+      <c r="Z324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -27384,6 +28358,9 @@
       <c r="Y325" t="n">
         <v>6</v>
       </c>
+      <c r="Z325" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -27467,6 +28444,9 @@
       <c r="Y326" t="n">
         <v>3</v>
       </c>
+      <c r="Z326" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -27550,6 +28530,9 @@
       <c r="Y327" t="n">
         <v>1</v>
       </c>
+      <c r="Z327" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -27633,6 +28616,9 @@
       <c r="Y328" t="n">
         <v>0</v>
       </c>
+      <c r="Z328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -27716,6 +28702,9 @@
       <c r="Y329" t="n">
         <v>0</v>
       </c>
+      <c r="Z329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -27799,6 +28788,9 @@
       <c r="Y330" t="n">
         <v>0</v>
       </c>
+      <c r="Z330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -27882,6 +28874,9 @@
       <c r="Y331" t="n">
         <v>3</v>
       </c>
+      <c r="Z331" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -27965,6 +28960,9 @@
       <c r="Y332" t="n">
         <v>0</v>
       </c>
+      <c r="Z332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -28048,6 +29046,9 @@
       <c r="Y333" t="n">
         <v>3</v>
       </c>
+      <c r="Z333" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -28131,6 +29132,9 @@
       <c r="Y334" t="n">
         <v>0</v>
       </c>
+      <c r="Z334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -28214,6 +29218,9 @@
       <c r="Y335" t="n">
         <v>6</v>
       </c>
+      <c r="Z335" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -28297,6 +29304,9 @@
       <c r="Y336" t="n">
         <v>0</v>
       </c>
+      <c r="Z336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -28380,6 +29390,9 @@
       <c r="Y337" t="n">
         <v>4</v>
       </c>
+      <c r="Z337" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -28463,6 +29476,9 @@
       <c r="Y338" t="n">
         <v>0</v>
       </c>
+      <c r="Z338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -28546,6 +29562,9 @@
       <c r="Y339" t="n">
         <v>0</v>
       </c>
+      <c r="Z339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -28629,6 +29648,9 @@
       <c r="Y340" t="n">
         <v>3</v>
       </c>
+      <c r="Z340" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -28712,6 +29734,9 @@
       <c r="Y341" t="n">
         <v>0</v>
       </c>
+      <c r="Z341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -28795,6 +29820,9 @@
       <c r="Y342" t="n">
         <v>1</v>
       </c>
+      <c r="Z342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -28878,6 +29906,9 @@
       <c r="Y343" t="n">
         <v>2</v>
       </c>
+      <c r="Z343" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -28961,6 +29992,9 @@
       <c r="Y344" t="n">
         <v>3</v>
       </c>
+      <c r="Z344" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -29044,6 +30078,9 @@
       <c r="Y345" t="n">
         <v>1</v>
       </c>
+      <c r="Z345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -29127,6 +30164,9 @@
       <c r="Y346" t="n">
         <v>2</v>
       </c>
+      <c r="Z346" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -29210,6 +30250,9 @@
       <c r="Y347" t="n">
         <v>12</v>
       </c>
+      <c r="Z347" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -29293,6 +30336,9 @@
       <c r="Y348" t="n">
         <v>0</v>
       </c>
+      <c r="Z348" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -29376,6 +30422,9 @@
       <c r="Y349" t="n">
         <v>0</v>
       </c>
+      <c r="Z349" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -29459,6 +30508,9 @@
       <c r="Y350" t="n">
         <v>0</v>
       </c>
+      <c r="Z350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -29542,6 +30594,9 @@
       <c r="Y351" t="n">
         <v>0</v>
       </c>
+      <c r="Z351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -29625,6 +30680,9 @@
       <c r="Y352" t="n">
         <v>4</v>
       </c>
+      <c r="Z352" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -29708,6 +30766,9 @@
       <c r="Y353" t="n">
         <v>1</v>
       </c>
+      <c r="Z353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -29791,6 +30852,9 @@
       <c r="Y354" t="n">
         <v>4</v>
       </c>
+      <c r="Z354" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -29874,6 +30938,9 @@
       <c r="Y355" t="n">
         <v>4</v>
       </c>
+      <c r="Z355" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -29956,6 +31023,9 @@
       </c>
       <c r="Y356" t="n">
         <v>8</v>
+      </c>
+      <c r="Z356" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z356"/>
+  <dimension ref="A1:AA356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
           <t>18-03-2020</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>19-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -583,6 +588,9 @@
       <c r="Z2" t="n">
         <v>21</v>
       </c>
+      <c r="AA2" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -669,6 +677,9 @@
       <c r="Z3" t="n">
         <v>30</v>
       </c>
+      <c r="AA3" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -755,6 +766,9 @@
       <c r="Z4" t="n">
         <v>0</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -841,6 +855,9 @@
       <c r="Z5" t="n">
         <v>3</v>
       </c>
+      <c r="AA5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -927,6 +944,9 @@
       <c r="Z6" t="n">
         <v>0</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1013,6 +1033,9 @@
       <c r="Z7" t="n">
         <v>0</v>
       </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1099,6 +1122,9 @@
       <c r="Z8" t="n">
         <v>1</v>
       </c>
+      <c r="AA8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1185,6 +1211,9 @@
       <c r="Z9" t="n">
         <v>4</v>
       </c>
+      <c r="AA9" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1271,6 +1300,9 @@
       <c r="Z10" t="n">
         <v>5</v>
       </c>
+      <c r="AA10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1357,6 +1389,9 @@
       <c r="Z11" t="n">
         <v>1</v>
       </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1443,6 +1478,9 @@
       <c r="Z12" t="n">
         <v>4</v>
       </c>
+      <c r="AA12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1529,6 +1567,9 @@
       <c r="Z13" t="n">
         <v>9</v>
       </c>
+      <c r="AA13" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1615,6 +1656,9 @@
       <c r="Z14" t="n">
         <v>6</v>
       </c>
+      <c r="AA14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1701,6 +1745,9 @@
       <c r="Z15" t="n">
         <v>15</v>
       </c>
+      <c r="AA15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1787,6 +1834,9 @@
       <c r="Z16" t="n">
         <v>0</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1873,6 +1923,9 @@
       <c r="Z17" t="n">
         <v>23</v>
       </c>
+      <c r="AA17" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1959,6 +2012,9 @@
       <c r="Z18" t="n">
         <v>7</v>
       </c>
+      <c r="AA18" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2045,6 +2101,9 @@
       <c r="Z19" t="n">
         <v>61</v>
       </c>
+      <c r="AA19" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2131,6 +2190,9 @@
       <c r="Z20" t="n">
         <v>10</v>
       </c>
+      <c r="AA20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2217,6 +2279,9 @@
       <c r="Z21" t="n">
         <v>0</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2303,6 +2368,9 @@
       <c r="Z22" t="n">
         <v>9</v>
       </c>
+      <c r="AA22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2389,6 +2457,9 @@
       <c r="Z23" t="n">
         <v>0</v>
       </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2475,6 +2546,9 @@
       <c r="Z24" t="n">
         <v>2</v>
       </c>
+      <c r="AA24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2561,6 +2635,9 @@
       <c r="Z25" t="n">
         <v>0</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2647,6 +2724,9 @@
       <c r="Z26" t="n">
         <v>0</v>
       </c>
+      <c r="AA26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2733,6 +2813,9 @@
       <c r="Z27" t="n">
         <v>3</v>
       </c>
+      <c r="AA27" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2819,6 +2902,9 @@
       <c r="Z28" t="n">
         <v>5</v>
       </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2905,6 +2991,9 @@
       <c r="Z29" t="n">
         <v>3</v>
       </c>
+      <c r="AA29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2991,6 +3080,9 @@
       <c r="Z30" t="n">
         <v>18</v>
       </c>
+      <c r="AA30" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3077,6 +3169,9 @@
       <c r="Z31" t="n">
         <v>0</v>
       </c>
+      <c r="AA31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3163,6 +3258,9 @@
       <c r="Z32" t="n">
         <v>0</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3249,6 +3347,9 @@
       <c r="Z33" t="n">
         <v>14</v>
       </c>
+      <c r="AA33" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3335,6 +3436,9 @@
       <c r="Z34" t="n">
         <v>1</v>
       </c>
+      <c r="AA34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3421,6 +3525,9 @@
       <c r="Z35" t="n">
         <v>1</v>
       </c>
+      <c r="AA35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3507,6 +3614,9 @@
       <c r="Z36" t="n">
         <v>2</v>
       </c>
+      <c r="AA36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3593,6 +3703,9 @@
       <c r="Z37" t="n">
         <v>5</v>
       </c>
+      <c r="AA37" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3679,6 +3792,9 @@
       <c r="Z38" t="n">
         <v>0</v>
       </c>
+      <c r="AA38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3765,6 +3881,9 @@
       <c r="Z39" t="n">
         <v>26</v>
       </c>
+      <c r="AA39" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3851,6 +3970,9 @@
       <c r="Z40" t="n">
         <v>6</v>
       </c>
+      <c r="AA40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -3937,6 +4059,9 @@
       <c r="Z41" t="n">
         <v>6</v>
       </c>
+      <c r="AA41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4023,6 +4148,9 @@
       <c r="Z42" t="n">
         <v>6</v>
       </c>
+      <c r="AA42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4109,6 +4237,9 @@
       <c r="Z43" t="n">
         <v>2</v>
       </c>
+      <c r="AA43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4195,6 +4326,9 @@
       <c r="Z44" t="n">
         <v>2</v>
       </c>
+      <c r="AA44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4281,6 +4415,9 @@
       <c r="Z45" t="n">
         <v>3</v>
       </c>
+      <c r="AA45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4367,6 +4504,9 @@
       <c r="Z46" t="n">
         <v>1</v>
       </c>
+      <c r="AA46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4453,6 +4593,9 @@
       <c r="Z47" t="n">
         <v>19</v>
       </c>
+      <c r="AA47" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4539,6 +4682,9 @@
       <c r="Z48" t="n">
         <v>0</v>
       </c>
+      <c r="AA48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4625,6 +4771,9 @@
       <c r="Z49" t="n">
         <v>3</v>
       </c>
+      <c r="AA49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4711,6 +4860,9 @@
       <c r="Z50" t="n">
         <v>2</v>
       </c>
+      <c r="AA50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4797,6 +4949,9 @@
       <c r="Z51" t="n">
         <v>2</v>
       </c>
+      <c r="AA51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -4883,6 +5038,9 @@
       <c r="Z52" t="n">
         <v>5</v>
       </c>
+      <c r="AA52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -4969,6 +5127,9 @@
       <c r="Z53" t="n">
         <v>105</v>
       </c>
+      <c r="AA53" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5055,6 +5216,9 @@
       <c r="Z54" t="n">
         <v>0</v>
       </c>
+      <c r="AA54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5141,6 +5305,9 @@
       <c r="Z55" t="n">
         <v>2</v>
       </c>
+      <c r="AA55" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5227,6 +5394,9 @@
       <c r="Z56" t="n">
         <v>0</v>
       </c>
+      <c r="AA56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5313,6 +5483,9 @@
       <c r="Z57" t="n">
         <v>4</v>
       </c>
+      <c r="AA57" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5399,6 +5572,9 @@
       <c r="Z58" t="n">
         <v>0</v>
       </c>
+      <c r="AA58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5485,6 +5661,9 @@
       <c r="Z59" t="n">
         <v>0</v>
       </c>
+      <c r="AA59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5571,6 +5750,9 @@
       <c r="Z60" t="n">
         <v>4</v>
       </c>
+      <c r="AA60" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5657,6 +5839,9 @@
       <c r="Z61" t="n">
         <v>1</v>
       </c>
+      <c r="AA61" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5743,6 +5928,9 @@
       <c r="Z62" t="n">
         <v>5</v>
       </c>
+      <c r="AA62" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -5829,6 +6017,9 @@
       <c r="Z63" t="n">
         <v>12</v>
       </c>
+      <c r="AA63" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -5915,6 +6106,9 @@
       <c r="Z64" t="n">
         <v>6</v>
       </c>
+      <c r="AA64" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6001,6 +6195,9 @@
       <c r="Z65" t="n">
         <v>2</v>
       </c>
+      <c r="AA65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6087,6 +6284,9 @@
       <c r="Z66" t="n">
         <v>4</v>
       </c>
+      <c r="AA66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6173,6 +6373,9 @@
       <c r="Z67" t="n">
         <v>1</v>
       </c>
+      <c r="AA67" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6259,6 +6462,9 @@
       <c r="Z68" t="n">
         <v>0</v>
       </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6345,6 +6551,9 @@
       <c r="Z69" t="n">
         <v>16</v>
       </c>
+      <c r="AA69" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6431,6 +6640,9 @@
       <c r="Z70" t="n">
         <v>5</v>
       </c>
+      <c r="AA70" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6517,6 +6729,9 @@
       <c r="Z71" t="n">
         <v>2</v>
       </c>
+      <c r="AA71" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6603,6 +6818,9 @@
       <c r="Z72" t="n">
         <v>1</v>
       </c>
+      <c r="AA72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6689,6 +6907,9 @@
       <c r="Z73" t="n">
         <v>4</v>
       </c>
+      <c r="AA73" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6775,6 +6996,9 @@
       <c r="Z74" t="n">
         <v>0</v>
       </c>
+      <c r="AA74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -6861,6 +7085,9 @@
       <c r="Z75" t="n">
         <v>1</v>
       </c>
+      <c r="AA75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -6947,6 +7174,9 @@
       <c r="Z76" t="n">
         <v>8</v>
       </c>
+      <c r="AA76" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7033,6 +7263,9 @@
       <c r="Z77" t="n">
         <v>5</v>
       </c>
+      <c r="AA77" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7119,6 +7352,9 @@
       <c r="Z78" t="n">
         <v>2</v>
       </c>
+      <c r="AA78" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7205,6 +7441,9 @@
       <c r="Z79" t="n">
         <v>6</v>
       </c>
+      <c r="AA79" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7291,6 +7530,9 @@
       <c r="Z80" t="n">
         <v>1</v>
       </c>
+      <c r="AA80" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7377,6 +7619,9 @@
       <c r="Z81" t="n">
         <v>0</v>
       </c>
+      <c r="AA81" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7463,6 +7708,9 @@
       <c r="Z82" t="n">
         <v>5</v>
       </c>
+      <c r="AA82" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7549,6 +7797,9 @@
       <c r="Z83" t="n">
         <v>4</v>
       </c>
+      <c r="AA83" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7635,6 +7886,9 @@
       <c r="Z84" t="n">
         <v>0</v>
       </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7721,6 +7975,9 @@
       <c r="Z85" t="n">
         <v>12</v>
       </c>
+      <c r="AA85" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -7807,6 +8064,9 @@
       <c r="Z86" t="n">
         <v>8</v>
       </c>
+      <c r="AA86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -7893,6 +8153,9 @@
       <c r="Z87" t="n">
         <v>5</v>
       </c>
+      <c r="AA87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -7979,6 +8242,9 @@
       <c r="Z88" t="n">
         <v>2</v>
       </c>
+      <c r="AA88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8065,6 +8331,9 @@
       <c r="Z89" t="n">
         <v>6</v>
       </c>
+      <c r="AA89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8151,6 +8420,9 @@
       <c r="Z90" t="n">
         <v>0</v>
       </c>
+      <c r="AA90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8237,6 +8509,9 @@
       <c r="Z91" t="n">
         <v>5</v>
       </c>
+      <c r="AA91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8323,6 +8598,9 @@
       <c r="Z92" t="n">
         <v>1</v>
       </c>
+      <c r="AA92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8409,6 +8687,9 @@
       <c r="Z93" t="n">
         <v>4</v>
       </c>
+      <c r="AA93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8495,6 +8776,9 @@
       <c r="Z94" t="n">
         <v>4</v>
       </c>
+      <c r="AA94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8581,6 +8865,9 @@
       <c r="Z95" t="n">
         <v>23</v>
       </c>
+      <c r="AA95" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8667,6 +8954,9 @@
       <c r="Z96" t="n">
         <v>1</v>
       </c>
+      <c r="AA96" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -8753,6 +9043,9 @@
       <c r="Z97" t="n">
         <v>2</v>
       </c>
+      <c r="AA97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -8839,6 +9132,9 @@
       <c r="Z98" t="n">
         <v>1</v>
       </c>
+      <c r="AA98" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -8925,6 +9221,9 @@
       <c r="Z99" t="n">
         <v>4</v>
       </c>
+      <c r="AA99" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9011,6 +9310,9 @@
       <c r="Z100" t="n">
         <v>4</v>
       </c>
+      <c r="AA100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -9097,6 +9399,9 @@
       <c r="Z101" t="n">
         <v>8</v>
       </c>
+      <c r="AA101" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9183,6 +9488,9 @@
       <c r="Z102" t="n">
         <v>13</v>
       </c>
+      <c r="AA102" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -9269,6 +9577,9 @@
       <c r="Z103" t="n">
         <v>7</v>
       </c>
+      <c r="AA103" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -9355,6 +9666,9 @@
       <c r="Z104" t="n">
         <v>3</v>
       </c>
+      <c r="AA104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -9441,6 +9755,9 @@
       <c r="Z105" t="n">
         <v>26</v>
       </c>
+      <c r="AA105" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -9527,6 +9844,9 @@
       <c r="Z106" t="n">
         <v>2</v>
       </c>
+      <c r="AA106" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -9613,6 +9933,9 @@
       <c r="Z107" t="n">
         <v>3</v>
       </c>
+      <c r="AA107" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -9699,6 +10022,9 @@
       <c r="Z108" t="n">
         <v>7</v>
       </c>
+      <c r="AA108" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -9785,6 +10111,9 @@
       <c r="Z109" t="n">
         <v>3</v>
       </c>
+      <c r="AA109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -9871,6 +10200,9 @@
       <c r="Z110" t="n">
         <v>9</v>
       </c>
+      <c r="AA110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -9957,6 +10289,9 @@
       <c r="Z111" t="n">
         <v>9</v>
       </c>
+      <c r="AA111" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -10043,6 +10378,9 @@
       <c r="Z112" t="n">
         <v>0</v>
       </c>
+      <c r="AA112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -10129,6 +10467,9 @@
       <c r="Z113" t="n">
         <v>7</v>
       </c>
+      <c r="AA113" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -10215,6 +10556,9 @@
       <c r="Z114" t="n">
         <v>1</v>
       </c>
+      <c r="AA114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -10301,6 +10645,9 @@
       <c r="Z115" t="n">
         <v>11</v>
       </c>
+      <c r="AA115" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -10387,6 +10734,9 @@
       <c r="Z116" t="n">
         <v>2</v>
       </c>
+      <c r="AA116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -10473,6 +10823,9 @@
       <c r="Z117" t="n">
         <v>1</v>
       </c>
+      <c r="AA117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -10559,6 +10912,9 @@
       <c r="Z118" t="n">
         <v>9</v>
       </c>
+      <c r="AA118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -10645,6 +11001,9 @@
       <c r="Z119" t="n">
         <v>7</v>
       </c>
+      <c r="AA119" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -10731,6 +11090,9 @@
       <c r="Z120" t="n">
         <v>4</v>
       </c>
+      <c r="AA120" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -10817,6 +11179,9 @@
       <c r="Z121" t="n">
         <v>2</v>
       </c>
+      <c r="AA121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -10903,6 +11268,9 @@
       <c r="Z122" t="n">
         <v>0</v>
       </c>
+      <c r="AA122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -10989,6 +11357,9 @@
       <c r="Z123" t="n">
         <v>5</v>
       </c>
+      <c r="AA123" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -11075,6 +11446,9 @@
       <c r="Z124" t="n">
         <v>5</v>
       </c>
+      <c r="AA124" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -11161,6 +11535,9 @@
       <c r="Z125" t="n">
         <v>1</v>
       </c>
+      <c r="AA125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -11247,6 +11624,9 @@
       <c r="Z126" t="n">
         <v>0</v>
       </c>
+      <c r="AA126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -11333,6 +11713,9 @@
       <c r="Z127" t="n">
         <v>2</v>
       </c>
+      <c r="AA127" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -11419,6 +11802,9 @@
       <c r="Z128" t="n">
         <v>5</v>
       </c>
+      <c r="AA128" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -11505,6 +11891,9 @@
       <c r="Z129" t="n">
         <v>3</v>
       </c>
+      <c r="AA129" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -11591,6 +11980,9 @@
       <c r="Z130" t="n">
         <v>0</v>
       </c>
+      <c r="AA130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -11677,6 +12069,9 @@
       <c r="Z131" t="n">
         <v>2</v>
       </c>
+      <c r="AA131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -11763,6 +12158,9 @@
       <c r="Z132" t="n">
         <v>14</v>
       </c>
+      <c r="AA132" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -11849,6 +12247,9 @@
       <c r="Z133" t="n">
         <v>4</v>
       </c>
+      <c r="AA133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -11935,6 +12336,9 @@
       <c r="Z134" t="n">
         <v>3</v>
       </c>
+      <c r="AA134" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -12021,6 +12425,9 @@
       <c r="Z135" t="n">
         <v>2</v>
       </c>
+      <c r="AA135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -12107,6 +12514,9 @@
       <c r="Z136" t="n">
         <v>1</v>
       </c>
+      <c r="AA136" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -12193,6 +12603,9 @@
       <c r="Z137" t="n">
         <v>20</v>
       </c>
+      <c r="AA137" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -12279,6 +12692,9 @@
       <c r="Z138" t="n">
         <v>0</v>
       </c>
+      <c r="AA138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -12365,6 +12781,9 @@
       <c r="Z139" t="n">
         <v>4</v>
       </c>
+      <c r="AA139" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -12451,6 +12870,9 @@
       <c r="Z140" t="n">
         <v>0</v>
       </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -12537,6 +12959,9 @@
       <c r="Z141" t="n">
         <v>5</v>
       </c>
+      <c r="AA141" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -12623,6 +13048,9 @@
       <c r="Z142" t="n">
         <v>5</v>
       </c>
+      <c r="AA142" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -12709,6 +13137,9 @@
       <c r="Z143" t="n">
         <v>1</v>
       </c>
+      <c r="AA143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -12795,6 +13226,9 @@
       <c r="Z144" t="n">
         <v>4</v>
       </c>
+      <c r="AA144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -12881,6 +13315,9 @@
       <c r="Z145" t="n">
         <v>3</v>
       </c>
+      <c r="AA145" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -12967,6 +13404,9 @@
       <c r="Z146" t="n">
         <v>8</v>
       </c>
+      <c r="AA146" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -13053,6 +13493,9 @@
       <c r="Z147" t="n">
         <v>3</v>
       </c>
+      <c r="AA147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -13139,6 +13582,9 @@
       <c r="Z148" t="n">
         <v>1</v>
       </c>
+      <c r="AA148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -13225,6 +13671,9 @@
       <c r="Z149" t="n">
         <v>3</v>
       </c>
+      <c r="AA149" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -13311,6 +13760,9 @@
       <c r="Z150" t="n">
         <v>1</v>
       </c>
+      <c r="AA150" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -13397,6 +13849,9 @@
       <c r="Z151" t="n">
         <v>8</v>
       </c>
+      <c r="AA151" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -13483,6 +13938,9 @@
       <c r="Z152" t="n">
         <v>14</v>
       </c>
+      <c r="AA152" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -13569,6 +14027,9 @@
       <c r="Z153" t="n">
         <v>2</v>
       </c>
+      <c r="AA153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -13655,6 +14116,9 @@
       <c r="Z154" t="n">
         <v>0</v>
       </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -13741,6 +14205,9 @@
       <c r="Z155" t="n">
         <v>7</v>
       </c>
+      <c r="AA155" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -13827,6 +14294,9 @@
       <c r="Z156" t="n">
         <v>0</v>
       </c>
+      <c r="AA156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -13913,6 +14383,9 @@
       <c r="Z157" t="n">
         <v>2</v>
       </c>
+      <c r="AA157" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -13999,6 +14472,9 @@
       <c r="Z158" t="n">
         <v>2</v>
       </c>
+      <c r="AA158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -14085,6 +14561,9 @@
       <c r="Z159" t="n">
         <v>2</v>
       </c>
+      <c r="AA159" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -14171,6 +14650,9 @@
       <c r="Z160" t="n">
         <v>3</v>
       </c>
+      <c r="AA160" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -14257,6 +14739,9 @@
       <c r="Z161" t="n">
         <v>1</v>
       </c>
+      <c r="AA161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -14343,6 +14828,9 @@
       <c r="Z162" t="n">
         <v>1</v>
       </c>
+      <c r="AA162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -14429,6 +14917,9 @@
       <c r="Z163" t="n">
         <v>4</v>
       </c>
+      <c r="AA163" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -14515,6 +15006,9 @@
       <c r="Z164" t="n">
         <v>2</v>
       </c>
+      <c r="AA164" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -14601,6 +15095,9 @@
       <c r="Z165" t="n">
         <v>16</v>
       </c>
+      <c r="AA165" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -14687,6 +15184,9 @@
       <c r="Z166" t="n">
         <v>7</v>
       </c>
+      <c r="AA166" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -14773,6 +15273,9 @@
       <c r="Z167" t="n">
         <v>3</v>
       </c>
+      <c r="AA167" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -14859,6 +15362,9 @@
       <c r="Z168" t="n">
         <v>4</v>
       </c>
+      <c r="AA168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -14945,6 +15451,9 @@
       <c r="Z169" t="n">
         <v>10</v>
       </c>
+      <c r="AA169" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -15031,6 +15540,9 @@
       <c r="Z170" t="n">
         <v>0</v>
       </c>
+      <c r="AA170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -15117,6 +15629,9 @@
       <c r="Z171" t="n">
         <v>4</v>
       </c>
+      <c r="AA171" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -15203,6 +15718,9 @@
       <c r="Z172" t="n">
         <v>11</v>
       </c>
+      <c r="AA172" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -15289,6 +15807,9 @@
       <c r="Z173" t="n">
         <v>2</v>
       </c>
+      <c r="AA173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -15375,6 +15896,9 @@
       <c r="Z174" t="n">
         <v>6</v>
       </c>
+      <c r="AA174" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -15461,6 +15985,9 @@
       <c r="Z175" t="n">
         <v>12</v>
       </c>
+      <c r="AA175" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -15547,6 +16074,9 @@
       <c r="Z176" t="n">
         <v>11</v>
       </c>
+      <c r="AA176" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -15633,6 +16163,9 @@
       <c r="Z177" t="n">
         <v>3</v>
       </c>
+      <c r="AA177" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -15719,6 +16252,9 @@
       <c r="Z178" t="n">
         <v>4</v>
       </c>
+      <c r="AA178" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -15805,6 +16341,9 @@
       <c r="Z179" t="n">
         <v>0</v>
       </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -15891,6 +16430,9 @@
       <c r="Z180" t="n">
         <v>1</v>
       </c>
+      <c r="AA180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -15977,6 +16519,9 @@
       <c r="Z181" t="n">
         <v>9</v>
       </c>
+      <c r="AA181" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -16063,6 +16608,9 @@
       <c r="Z182" t="n">
         <v>3</v>
       </c>
+      <c r="AA182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -16149,6 +16697,9 @@
       <c r="Z183" t="n">
         <v>0</v>
       </c>
+      <c r="AA183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -16235,6 +16786,9 @@
       <c r="Z184" t="n">
         <v>0</v>
       </c>
+      <c r="AA184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -16321,6 +16875,9 @@
       <c r="Z185" t="n">
         <v>1</v>
       </c>
+      <c r="AA185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -16407,6 +16964,9 @@
       <c r="Z186" t="n">
         <v>4</v>
       </c>
+      <c r="AA186" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -16493,6 +17053,9 @@
       <c r="Z187" t="n">
         <v>2</v>
       </c>
+      <c r="AA187" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -16579,6 +17142,9 @@
       <c r="Z188" t="n">
         <v>41</v>
       </c>
+      <c r="AA188" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -16665,6 +17231,9 @@
       <c r="Z189" t="n">
         <v>0</v>
       </c>
+      <c r="AA189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -16751,6 +17320,9 @@
       <c r="Z190" t="n">
         <v>2</v>
       </c>
+      <c r="AA190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -16837,6 +17409,9 @@
       <c r="Z191" t="n">
         <v>60</v>
       </c>
+      <c r="AA191" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -16923,6 +17498,9 @@
       <c r="Z192" t="n">
         <v>0</v>
       </c>
+      <c r="AA192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -17009,6 +17587,9 @@
       <c r="Z193" t="n">
         <v>2</v>
       </c>
+      <c r="AA193" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -17095,6 +17676,9 @@
       <c r="Z194" t="n">
         <v>0</v>
       </c>
+      <c r="AA194" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -17181,6 +17765,9 @@
       <c r="Z195" t="n">
         <v>0</v>
       </c>
+      <c r="AA195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -17267,6 +17854,9 @@
       <c r="Z196" t="n">
         <v>2</v>
       </c>
+      <c r="AA196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -17353,6 +17943,9 @@
       <c r="Z197" t="n">
         <v>1</v>
       </c>
+      <c r="AA197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -17439,6 +18032,9 @@
       <c r="Z198" t="n">
         <v>1</v>
       </c>
+      <c r="AA198" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -17525,6 +18121,9 @@
       <c r="Z199" t="n">
         <v>7</v>
       </c>
+      <c r="AA199" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -17611,6 +18210,9 @@
       <c r="Z200" t="n">
         <v>1</v>
       </c>
+      <c r="AA200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -17697,6 +18299,9 @@
       <c r="Z201" t="n">
         <v>0</v>
       </c>
+      <c r="AA201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -17783,6 +18388,9 @@
       <c r="Z202" t="n">
         <v>0</v>
       </c>
+      <c r="AA202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -17869,6 +18477,9 @@
       <c r="Z203" t="n">
         <v>4</v>
       </c>
+      <c r="AA203" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -17955,6 +18566,9 @@
       <c r="Z204" t="n">
         <v>7</v>
       </c>
+      <c r="AA204" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -18041,6 +18655,9 @@
       <c r="Z205" t="n">
         <v>4</v>
       </c>
+      <c r="AA205" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -18127,6 +18744,9 @@
       <c r="Z206" t="n">
         <v>1</v>
       </c>
+      <c r="AA206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -18213,6 +18833,9 @@
       <c r="Z207" t="n">
         <v>2</v>
       </c>
+      <c r="AA207" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -18299,6 +18922,9 @@
       <c r="Z208" t="n">
         <v>41</v>
       </c>
+      <c r="AA208" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -18385,6 +19011,9 @@
       <c r="Z209" t="n">
         <v>4</v>
       </c>
+      <c r="AA209" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -18471,6 +19100,9 @@
       <c r="Z210" t="n">
         <v>0</v>
       </c>
+      <c r="AA210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -18557,6 +19189,9 @@
       <c r="Z211" t="n">
         <v>0</v>
       </c>
+      <c r="AA211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -18643,6 +19278,9 @@
       <c r="Z212" t="n">
         <v>1</v>
       </c>
+      <c r="AA212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -18729,6 +19367,9 @@
       <c r="Z213" t="n">
         <v>2</v>
       </c>
+      <c r="AA213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -18815,6 +19456,9 @@
       <c r="Z214" t="n">
         <v>2</v>
       </c>
+      <c r="AA214" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -18901,6 +19545,9 @@
       <c r="Z215" t="n">
         <v>1</v>
       </c>
+      <c r="AA215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -18987,6 +19634,9 @@
       <c r="Z216" t="n">
         <v>3</v>
       </c>
+      <c r="AA216" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -19073,6 +19723,9 @@
       <c r="Z217" t="n">
         <v>4</v>
       </c>
+      <c r="AA217" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -19159,6 +19812,9 @@
       <c r="Z218" t="n">
         <v>1</v>
       </c>
+      <c r="AA218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -19245,6 +19901,9 @@
       <c r="Z219" t="n">
         <v>10</v>
       </c>
+      <c r="AA219" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -19331,6 +19990,9 @@
       <c r="Z220" t="n">
         <v>0</v>
       </c>
+      <c r="AA220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -19417,6 +20079,9 @@
       <c r="Z221" t="n">
         <v>5</v>
       </c>
+      <c r="AA221" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -19503,6 +20168,9 @@
       <c r="Z222" t="n">
         <v>2</v>
       </c>
+      <c r="AA222" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -19589,6 +20257,9 @@
       <c r="Z223" t="n">
         <v>0</v>
       </c>
+      <c r="AA223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -19675,6 +20346,9 @@
       <c r="Z224" t="n">
         <v>2</v>
       </c>
+      <c r="AA224" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -19761,6 +20435,9 @@
       <c r="Z225" t="n">
         <v>0</v>
       </c>
+      <c r="AA225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -19847,6 +20524,9 @@
       <c r="Z226" t="n">
         <v>9</v>
       </c>
+      <c r="AA226" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -19933,6 +20613,9 @@
       <c r="Z227" t="n">
         <v>0</v>
       </c>
+      <c r="AA227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -20019,6 +20702,9 @@
       <c r="Z228" t="n">
         <v>2</v>
       </c>
+      <c r="AA228" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -20105,6 +20791,9 @@
       <c r="Z229" t="n">
         <v>0</v>
       </c>
+      <c r="AA229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -20191,6 +20880,9 @@
       <c r="Z230" t="n">
         <v>2</v>
       </c>
+      <c r="AA230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -20277,6 +20969,9 @@
       <c r="Z231" t="n">
         <v>20</v>
       </c>
+      <c r="AA231" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -20363,6 +21058,9 @@
       <c r="Z232" t="n">
         <v>2</v>
       </c>
+      <c r="AA232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -20449,6 +21147,9 @@
       <c r="Z233" t="n">
         <v>3</v>
       </c>
+      <c r="AA233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -20535,6 +21236,9 @@
       <c r="Z234" t="n">
         <v>1</v>
       </c>
+      <c r="AA234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -20621,6 +21325,9 @@
       <c r="Z235" t="n">
         <v>9</v>
       </c>
+      <c r="AA235" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -20707,6 +21414,9 @@
       <c r="Z236" t="n">
         <v>0</v>
       </c>
+      <c r="AA236" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -20793,6 +21503,9 @@
       <c r="Z237" t="n">
         <v>36</v>
       </c>
+      <c r="AA237" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -20879,6 +21592,9 @@
       <c r="Z238" t="n">
         <v>1</v>
       </c>
+      <c r="AA238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -20965,6 +21681,9 @@
       <c r="Z239" t="n">
         <v>11</v>
       </c>
+      <c r="AA239" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -21051,6 +21770,9 @@
       <c r="Z240" t="n">
         <v>4</v>
       </c>
+      <c r="AA240" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -21137,6 +21859,9 @@
       <c r="Z241" t="n">
         <v>2</v>
       </c>
+      <c r="AA241" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -21223,6 +21948,9 @@
       <c r="Z242" t="n">
         <v>3</v>
       </c>
+      <c r="AA242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -21309,6 +22037,9 @@
       <c r="Z243" t="n">
         <v>3</v>
       </c>
+      <c r="AA243" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -21395,6 +22126,9 @@
       <c r="Z244" t="n">
         <v>8</v>
       </c>
+      <c r="AA244" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -21481,6 +22215,9 @@
       <c r="Z245" t="n">
         <v>0</v>
       </c>
+      <c r="AA245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -21567,6 +22304,9 @@
       <c r="Z246" t="n">
         <v>0</v>
       </c>
+      <c r="AA246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -21653,6 +22393,9 @@
       <c r="Z247" t="n">
         <v>3</v>
       </c>
+      <c r="AA247" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -21739,6 +22482,9 @@
       <c r="Z248" t="n">
         <v>0</v>
       </c>
+      <c r="AA248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -21825,6 +22571,9 @@
       <c r="Z249" t="n">
         <v>1</v>
       </c>
+      <c r="AA249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -21911,6 +22660,9 @@
       <c r="Z250" t="n">
         <v>0</v>
       </c>
+      <c r="AA250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -21997,6 +22749,9 @@
       <c r="Z251" t="n">
         <v>3</v>
       </c>
+      <c r="AA251" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -22083,6 +22838,9 @@
       <c r="Z252" t="n">
         <v>1</v>
       </c>
+      <c r="AA252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -22169,6 +22927,9 @@
       <c r="Z253" t="n">
         <v>6</v>
       </c>
+      <c r="AA253" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -22255,6 +23016,9 @@
       <c r="Z254" t="n">
         <v>6</v>
       </c>
+      <c r="AA254" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -22341,6 +23105,9 @@
       <c r="Z255" t="n">
         <v>58</v>
       </c>
+      <c r="AA255" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -22427,6 +23194,9 @@
       <c r="Z256" t="n">
         <v>2</v>
       </c>
+      <c r="AA256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -22513,6 +23283,9 @@
       <c r="Z257" t="n">
         <v>1</v>
       </c>
+      <c r="AA257" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -22599,6 +23372,9 @@
       <c r="Z258" t="n">
         <v>5</v>
       </c>
+      <c r="AA258" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -22685,6 +23461,9 @@
       <c r="Z259" t="n">
         <v>0</v>
       </c>
+      <c r="AA259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -22771,6 +23550,9 @@
       <c r="Z260" t="n">
         <v>1</v>
       </c>
+      <c r="AA260" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -22857,6 +23639,9 @@
       <c r="Z261" t="n">
         <v>0</v>
       </c>
+      <c r="AA261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -22943,6 +23728,9 @@
       <c r="Z262" t="n">
         <v>2</v>
       </c>
+      <c r="AA262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -23029,6 +23817,9 @@
       <c r="Z263" t="n">
         <v>5</v>
       </c>
+      <c r="AA263" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -23115,6 +23906,9 @@
       <c r="Z264" t="n">
         <v>5</v>
       </c>
+      <c r="AA264" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -23201,6 +23995,9 @@
       <c r="Z265" t="n">
         <v>10</v>
       </c>
+      <c r="AA265" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -23287,6 +24084,9 @@
       <c r="Z266" t="n">
         <v>51</v>
       </c>
+      <c r="AA266" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -23373,6 +24173,9 @@
       <c r="Z267" t="n">
         <v>1</v>
       </c>
+      <c r="AA267" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -23459,6 +24262,9 @@
       <c r="Z268" t="n">
         <v>2</v>
       </c>
+      <c r="AA268" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -23545,6 +24351,9 @@
       <c r="Z269" t="n">
         <v>3</v>
       </c>
+      <c r="AA269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -23631,6 +24440,9 @@
       <c r="Z270" t="n">
         <v>12</v>
       </c>
+      <c r="AA270" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -23717,6 +24529,9 @@
       <c r="Z271" t="n">
         <v>3</v>
       </c>
+      <c r="AA271" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -23803,6 +24618,9 @@
       <c r="Z272" t="n">
         <v>4</v>
       </c>
+      <c r="AA272" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -23889,6 +24707,9 @@
       <c r="Z273" t="n">
         <v>0</v>
       </c>
+      <c r="AA273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -23975,6 +24796,9 @@
       <c r="Z274" t="n">
         <v>1</v>
       </c>
+      <c r="AA274" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -24061,6 +24885,9 @@
       <c r="Z275" t="n">
         <v>1</v>
       </c>
+      <c r="AA275" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -24147,6 +24974,9 @@
       <c r="Z276" t="n">
         <v>2</v>
       </c>
+      <c r="AA276" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -24233,6 +25063,9 @@
       <c r="Z277" t="n">
         <v>1</v>
       </c>
+      <c r="AA277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -24319,6 +25152,9 @@
       <c r="Z278" t="n">
         <v>4</v>
       </c>
+      <c r="AA278" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -24405,6 +25241,9 @@
       <c r="Z279" t="n">
         <v>9</v>
       </c>
+      <c r="AA279" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -24491,6 +25330,9 @@
       <c r="Z280" t="n">
         <v>2</v>
       </c>
+      <c r="AA280" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -24577,6 +25419,9 @@
       <c r="Z281" t="n">
         <v>3</v>
       </c>
+      <c r="AA281" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -24663,6 +25508,9 @@
       <c r="Z282" t="n">
         <v>0</v>
       </c>
+      <c r="AA282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -24749,6 +25597,9 @@
       <c r="Z283" t="n">
         <v>0</v>
       </c>
+      <c r="AA283" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -24835,6 +25686,9 @@
       <c r="Z284" t="n">
         <v>2</v>
       </c>
+      <c r="AA284" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -24921,6 +25775,9 @@
       <c r="Z285" t="n">
         <v>2</v>
       </c>
+      <c r="AA285" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -25007,6 +25864,9 @@
       <c r="Z286" t="n">
         <v>4</v>
       </c>
+      <c r="AA286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -25093,6 +25953,9 @@
       <c r="Z287" t="n">
         <v>95</v>
       </c>
+      <c r="AA287" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -25179,6 +26042,9 @@
       <c r="Z288" t="n">
         <v>1</v>
       </c>
+      <c r="AA288" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -25265,6 +26131,9 @@
       <c r="Z289" t="n">
         <v>0</v>
       </c>
+      <c r="AA289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -25351,6 +26220,9 @@
       <c r="Z290" t="n">
         <v>3</v>
       </c>
+      <c r="AA290" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -25437,6 +26309,9 @@
       <c r="Z291" t="n">
         <v>1</v>
       </c>
+      <c r="AA291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -25523,6 +26398,9 @@
       <c r="Z292" t="n">
         <v>53</v>
       </c>
+      <c r="AA292" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -25609,6 +26487,9 @@
       <c r="Z293" t="n">
         <v>0</v>
       </c>
+      <c r="AA293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -25695,6 +26576,9 @@
       <c r="Z294" t="n">
         <v>1</v>
       </c>
+      <c r="AA294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -25781,6 +26665,9 @@
       <c r="Z295" t="n">
         <v>1</v>
       </c>
+      <c r="AA295" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -25867,6 +26754,9 @@
       <c r="Z296" t="n">
         <v>69</v>
       </c>
+      <c r="AA296" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -25953,6 +26843,9 @@
       <c r="Z297" t="n">
         <v>6</v>
       </c>
+      <c r="AA297" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -26039,6 +26932,9 @@
       <c r="Z298" t="n">
         <v>0</v>
       </c>
+      <c r="AA298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -26125,6 +27021,9 @@
       <c r="Z299" t="n">
         <v>2</v>
       </c>
+      <c r="AA299" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -26211,6 +27110,9 @@
       <c r="Z300" t="n">
         <v>1</v>
       </c>
+      <c r="AA300" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -26297,6 +27199,9 @@
       <c r="Z301" t="n">
         <v>0</v>
       </c>
+      <c r="AA301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -26383,6 +27288,9 @@
       <c r="Z302" t="n">
         <v>1</v>
       </c>
+      <c r="AA302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -26469,6 +27377,9 @@
       <c r="Z303" t="n">
         <v>1</v>
       </c>
+      <c r="AA303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -26555,6 +27466,9 @@
       <c r="Z304" t="n">
         <v>1</v>
       </c>
+      <c r="AA304" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -26641,6 +27555,9 @@
       <c r="Z305" t="n">
         <v>4</v>
       </c>
+      <c r="AA305" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -26727,6 +27644,9 @@
       <c r="Z306" t="n">
         <v>12</v>
       </c>
+      <c r="AA306" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -26813,6 +27733,9 @@
       <c r="Z307" t="n">
         <v>1</v>
       </c>
+      <c r="AA307" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -26899,6 +27822,9 @@
       <c r="Z308" t="n">
         <v>4</v>
       </c>
+      <c r="AA308" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -26985,6 +27911,9 @@
       <c r="Z309" t="n">
         <v>2</v>
       </c>
+      <c r="AA309" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -27071,6 +28000,9 @@
       <c r="Z310" t="n">
         <v>0</v>
       </c>
+      <c r="AA310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -27157,6 +28089,9 @@
       <c r="Z311" t="n">
         <v>4</v>
       </c>
+      <c r="AA311" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -27243,6 +28178,9 @@
       <c r="Z312" t="n">
         <v>3</v>
       </c>
+      <c r="AA312" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -27329,6 +28267,9 @@
       <c r="Z313" t="n">
         <v>1</v>
       </c>
+      <c r="AA313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -27415,6 +28356,9 @@
       <c r="Z314" t="n">
         <v>1</v>
       </c>
+      <c r="AA314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -27501,6 +28445,9 @@
       <c r="Z315" t="n">
         <v>7</v>
       </c>
+      <c r="AA315" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -27587,6 +28534,9 @@
       <c r="Z316" t="n">
         <v>0</v>
       </c>
+      <c r="AA316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -27673,6 +28623,9 @@
       <c r="Z317" t="n">
         <v>2</v>
       </c>
+      <c r="AA317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -27759,6 +28712,9 @@
       <c r="Z318" t="n">
         <v>12</v>
       </c>
+      <c r="AA318" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -27845,6 +28801,9 @@
       <c r="Z319" t="n">
         <v>1</v>
       </c>
+      <c r="AA319" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -27931,6 +28890,9 @@
       <c r="Z320" t="n">
         <v>1</v>
       </c>
+      <c r="AA320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -28017,6 +28979,9 @@
       <c r="Z321" t="n">
         <v>3</v>
       </c>
+      <c r="AA321" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -28103,6 +29068,9 @@
       <c r="Z322" t="n">
         <v>4</v>
       </c>
+      <c r="AA322" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -28189,6 +29157,9 @@
       <c r="Z323" t="n">
         <v>0</v>
       </c>
+      <c r="AA323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -28275,6 +29246,9 @@
       <c r="Z324" t="n">
         <v>0</v>
       </c>
+      <c r="AA324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -28361,6 +29335,9 @@
       <c r="Z325" t="n">
         <v>6</v>
       </c>
+      <c r="AA325" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -28447,6 +29424,9 @@
       <c r="Z326" t="n">
         <v>3</v>
       </c>
+      <c r="AA326" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -28533,6 +29513,9 @@
       <c r="Z327" t="n">
         <v>1</v>
       </c>
+      <c r="AA327" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -28619,6 +29602,9 @@
       <c r="Z328" t="n">
         <v>0</v>
       </c>
+      <c r="AA328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -28705,6 +29691,9 @@
       <c r="Z329" t="n">
         <v>0</v>
       </c>
+      <c r="AA329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -28791,6 +29780,9 @@
       <c r="Z330" t="n">
         <v>0</v>
       </c>
+      <c r="AA330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -28877,6 +29869,9 @@
       <c r="Z331" t="n">
         <v>6</v>
       </c>
+      <c r="AA331" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -28963,6 +29958,9 @@
       <c r="Z332" t="n">
         <v>0</v>
       </c>
+      <c r="AA332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -29049,6 +30047,9 @@
       <c r="Z333" t="n">
         <v>3</v>
       </c>
+      <c r="AA333" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -29135,6 +30136,9 @@
       <c r="Z334" t="n">
         <v>0</v>
       </c>
+      <c r="AA334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -29221,6 +30225,9 @@
       <c r="Z335" t="n">
         <v>8</v>
       </c>
+      <c r="AA335" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -29307,6 +30314,9 @@
       <c r="Z336" t="n">
         <v>1</v>
       </c>
+      <c r="AA336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -29393,6 +30403,9 @@
       <c r="Z337" t="n">
         <v>4</v>
       </c>
+      <c r="AA337" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -29479,6 +30492,9 @@
       <c r="Z338" t="n">
         <v>0</v>
       </c>
+      <c r="AA338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -29565,6 +30581,9 @@
       <c r="Z339" t="n">
         <v>0</v>
       </c>
+      <c r="AA339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -29651,6 +30670,9 @@
       <c r="Z340" t="n">
         <v>4</v>
       </c>
+      <c r="AA340" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -29737,6 +30759,9 @@
       <c r="Z341" t="n">
         <v>0</v>
       </c>
+      <c r="AA341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -29823,6 +30848,9 @@
       <c r="Z342" t="n">
         <v>2</v>
       </c>
+      <c r="AA342" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -29909,6 +30937,9 @@
       <c r="Z343" t="n">
         <v>2</v>
       </c>
+      <c r="AA343" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -29995,6 +31026,9 @@
       <c r="Z344" t="n">
         <v>3</v>
       </c>
+      <c r="AA344" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -30081,6 +31115,9 @@
       <c r="Z345" t="n">
         <v>1</v>
       </c>
+      <c r="AA345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -30167,6 +31204,9 @@
       <c r="Z346" t="n">
         <v>3</v>
       </c>
+      <c r="AA346" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -30253,6 +31293,9 @@
       <c r="Z347" t="n">
         <v>12</v>
       </c>
+      <c r="AA347" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -30339,6 +31382,9 @@
       <c r="Z348" t="n">
         <v>2</v>
       </c>
+      <c r="AA348" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -30425,6 +31471,9 @@
       <c r="Z349" t="n">
         <v>1</v>
       </c>
+      <c r="AA349" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -30511,6 +31560,9 @@
       <c r="Z350" t="n">
         <v>0</v>
       </c>
+      <c r="AA350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -30597,6 +31649,9 @@
       <c r="Z351" t="n">
         <v>0</v>
       </c>
+      <c r="AA351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -30683,6 +31738,9 @@
       <c r="Z352" t="n">
         <v>6</v>
       </c>
+      <c r="AA352" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -30769,6 +31827,9 @@
       <c r="Z353" t="n">
         <v>1</v>
       </c>
+      <c r="AA353" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -30855,6 +31916,9 @@
       <c r="Z354" t="n">
         <v>4</v>
       </c>
+      <c r="AA354" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -30941,6 +32005,9 @@
       <c r="Z355" t="n">
         <v>5</v>
       </c>
+      <c r="AA355" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -31026,6 +32093,9 @@
       </c>
       <c r="Z356" t="n">
         <v>12</v>
+      </c>
+      <c r="AA356" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA356"/>
+  <dimension ref="A1:AB356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,11 @@
           <t>19-03-2020</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>20-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -591,6 +596,9 @@
       <c r="AA2" t="n">
         <v>27</v>
       </c>
+      <c r="AB2" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -680,6 +688,9 @@
       <c r="AA3" t="n">
         <v>35</v>
       </c>
+      <c r="AB3" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -769,6 +780,9 @@
       <c r="AA4" t="n">
         <v>0</v>
       </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -858,6 +872,9 @@
       <c r="AA5" t="n">
         <v>4</v>
       </c>
+      <c r="AB5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -947,6 +964,9 @@
       <c r="AA6" t="n">
         <v>0</v>
       </c>
+      <c r="AB6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1036,6 +1056,9 @@
       <c r="AA7" t="n">
         <v>0</v>
       </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1125,6 +1148,9 @@
       <c r="AA8" t="n">
         <v>2</v>
       </c>
+      <c r="AB8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1214,6 +1240,9 @@
       <c r="AA9" t="n">
         <v>4</v>
       </c>
+      <c r="AB9" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1303,6 +1332,9 @@
       <c r="AA10" t="n">
         <v>9</v>
       </c>
+      <c r="AB10" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1392,6 +1424,9 @@
       <c r="AA11" t="n">
         <v>2</v>
       </c>
+      <c r="AB11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1481,6 +1516,9 @@
       <c r="AA12" t="n">
         <v>5</v>
       </c>
+      <c r="AB12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1570,6 +1608,9 @@
       <c r="AA13" t="n">
         <v>10</v>
       </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1659,6 +1700,9 @@
       <c r="AA14" t="n">
         <v>6</v>
       </c>
+      <c r="AB14" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1748,6 +1792,9 @@
       <c r="AA15" t="n">
         <v>19</v>
       </c>
+      <c r="AB15" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1837,6 +1884,9 @@
       <c r="AA16" t="n">
         <v>0</v>
       </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1926,6 +1976,9 @@
       <c r="AA17" t="n">
         <v>30</v>
       </c>
+      <c r="AB17" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2015,6 +2068,9 @@
       <c r="AA18" t="n">
         <v>13</v>
       </c>
+      <c r="AB18" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2104,6 +2160,9 @@
       <c r="AA19" t="n">
         <v>85</v>
       </c>
+      <c r="AB19" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2193,6 +2252,9 @@
       <c r="AA20" t="n">
         <v>11</v>
       </c>
+      <c r="AB20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2282,6 +2344,9 @@
       <c r="AA21" t="n">
         <v>0</v>
       </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2371,6 +2436,9 @@
       <c r="AA22" t="n">
         <v>10</v>
       </c>
+      <c r="AB22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2460,6 +2528,9 @@
       <c r="AA23" t="n">
         <v>0</v>
       </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2549,6 +2620,9 @@
       <c r="AA24" t="n">
         <v>2</v>
       </c>
+      <c r="AB24" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2638,6 +2712,9 @@
       <c r="AA25" t="n">
         <v>0</v>
       </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2727,6 +2804,9 @@
       <c r="AA26" t="n">
         <v>2</v>
       </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2816,6 +2896,9 @@
       <c r="AA27" t="n">
         <v>4</v>
       </c>
+      <c r="AB27" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2905,6 +2988,9 @@
       <c r="AA28" t="n">
         <v>6</v>
       </c>
+      <c r="AB28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2994,6 +3080,9 @@
       <c r="AA29" t="n">
         <v>3</v>
       </c>
+      <c r="AB29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3083,6 +3172,9 @@
       <c r="AA30" t="n">
         <v>18</v>
       </c>
+      <c r="AB30" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3172,6 +3264,9 @@
       <c r="AA31" t="n">
         <v>0</v>
       </c>
+      <c r="AB31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3261,6 +3356,9 @@
       <c r="AA32" t="n">
         <v>0</v>
       </c>
+      <c r="AB32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3350,6 +3448,9 @@
       <c r="AA33" t="n">
         <v>18</v>
       </c>
+      <c r="AB33" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3439,6 +3540,9 @@
       <c r="AA34" t="n">
         <v>1</v>
       </c>
+      <c r="AB34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3528,6 +3632,9 @@
       <c r="AA35" t="n">
         <v>1</v>
       </c>
+      <c r="AB35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3617,6 +3724,9 @@
       <c r="AA36" t="n">
         <v>4</v>
       </c>
+      <c r="AB36" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3706,6 +3816,9 @@
       <c r="AA37" t="n">
         <v>6</v>
       </c>
+      <c r="AB37" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3795,6 +3908,9 @@
       <c r="AA38" t="n">
         <v>1</v>
       </c>
+      <c r="AB38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3884,6 +4000,9 @@
       <c r="AA39" t="n">
         <v>30</v>
       </c>
+      <c r="AB39" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -3973,6 +4092,9 @@
       <c r="AA40" t="n">
         <v>6</v>
       </c>
+      <c r="AB40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4062,6 +4184,9 @@
       <c r="AA41" t="n">
         <v>6</v>
       </c>
+      <c r="AB41" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4151,6 +4276,9 @@
       <c r="AA42" t="n">
         <v>6</v>
       </c>
+      <c r="AB42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4240,6 +4368,9 @@
       <c r="AA43" t="n">
         <v>3</v>
       </c>
+      <c r="AB43" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4329,6 +4460,9 @@
       <c r="AA44" t="n">
         <v>2</v>
       </c>
+      <c r="AB44" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4418,6 +4552,9 @@
       <c r="AA45" t="n">
         <v>3</v>
       </c>
+      <c r="AB45" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4507,6 +4644,9 @@
       <c r="AA46" t="n">
         <v>1</v>
       </c>
+      <c r="AB46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4596,6 +4736,9 @@
       <c r="AA47" t="n">
         <v>20</v>
       </c>
+      <c r="AB47" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4685,6 +4828,9 @@
       <c r="AA48" t="n">
         <v>0</v>
       </c>
+      <c r="AB48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4774,6 +4920,9 @@
       <c r="AA49" t="n">
         <v>3</v>
       </c>
+      <c r="AB49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -4863,6 +5012,9 @@
       <c r="AA50" t="n">
         <v>3</v>
       </c>
+      <c r="AB50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -4952,6 +5104,9 @@
       <c r="AA51" t="n">
         <v>2</v>
       </c>
+      <c r="AB51" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5041,6 +5196,9 @@
       <c r="AA52" t="n">
         <v>6</v>
       </c>
+      <c r="AB52" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5130,6 +5288,9 @@
       <c r="AA53" t="n">
         <v>113</v>
       </c>
+      <c r="AB53" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5219,6 +5380,9 @@
       <c r="AA54" t="n">
         <v>1</v>
       </c>
+      <c r="AB54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5308,6 +5472,9 @@
       <c r="AA55" t="n">
         <v>3</v>
       </c>
+      <c r="AB55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5397,6 +5564,9 @@
       <c r="AA56" t="n">
         <v>1</v>
       </c>
+      <c r="AB56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5486,6 +5656,9 @@
       <c r="AA57" t="n">
         <v>4</v>
       </c>
+      <c r="AB57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5575,6 +5748,9 @@
       <c r="AA58" t="n">
         <v>1</v>
       </c>
+      <c r="AB58" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5664,6 +5840,9 @@
       <c r="AA59" t="n">
         <v>0</v>
       </c>
+      <c r="AB59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5753,6 +5932,9 @@
       <c r="AA60" t="n">
         <v>5</v>
       </c>
+      <c r="AB60" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -5842,6 +6024,9 @@
       <c r="AA61" t="n">
         <v>2</v>
       </c>
+      <c r="AB61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -5931,6 +6116,9 @@
       <c r="AA62" t="n">
         <v>6</v>
       </c>
+      <c r="AB62" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6020,6 +6208,9 @@
       <c r="AA63" t="n">
         <v>12</v>
       </c>
+      <c r="AB63" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6109,6 +6300,9 @@
       <c r="AA64" t="n">
         <v>6</v>
       </c>
+      <c r="AB64" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6198,6 +6392,9 @@
       <c r="AA65" t="n">
         <v>4</v>
       </c>
+      <c r="AB65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6287,6 +6484,9 @@
       <c r="AA66" t="n">
         <v>4</v>
       </c>
+      <c r="AB66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6376,6 +6576,9 @@
       <c r="AA67" t="n">
         <v>1</v>
       </c>
+      <c r="AB67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6465,6 +6668,9 @@
       <c r="AA68" t="n">
         <v>0</v>
       </c>
+      <c r="AB68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6554,6 +6760,9 @@
       <c r="AA69" t="n">
         <v>16</v>
       </c>
+      <c r="AB69" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6643,6 +6852,9 @@
       <c r="AA70" t="n">
         <v>5</v>
       </c>
+      <c r="AB70" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6732,6 +6944,9 @@
       <c r="AA71" t="n">
         <v>2</v>
       </c>
+      <c r="AB71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -6821,6 +7036,9 @@
       <c r="AA72" t="n">
         <v>1</v>
       </c>
+      <c r="AB72" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -6910,6 +7128,9 @@
       <c r="AA73" t="n">
         <v>5</v>
       </c>
+      <c r="AB73" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -6999,6 +7220,9 @@
       <c r="AA74" t="n">
         <v>0</v>
       </c>
+      <c r="AB74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7088,6 +7312,9 @@
       <c r="AA75" t="n">
         <v>2</v>
       </c>
+      <c r="AB75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7177,6 +7404,9 @@
       <c r="AA76" t="n">
         <v>10</v>
       </c>
+      <c r="AB76" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7266,6 +7496,9 @@
       <c r="AA77" t="n">
         <v>5</v>
       </c>
+      <c r="AB77" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7355,6 +7588,9 @@
       <c r="AA78" t="n">
         <v>2</v>
       </c>
+      <c r="AB78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7444,6 +7680,9 @@
       <c r="AA79" t="n">
         <v>8</v>
       </c>
+      <c r="AB79" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7533,6 +7772,9 @@
       <c r="AA80" t="n">
         <v>1</v>
       </c>
+      <c r="AB80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7622,6 +7864,9 @@
       <c r="AA81" t="n">
         <v>3</v>
       </c>
+      <c r="AB81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7711,6 +7956,9 @@
       <c r="AA82" t="n">
         <v>5</v>
       </c>
+      <c r="AB82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -7800,6 +8048,9 @@
       <c r="AA83" t="n">
         <v>8</v>
       </c>
+      <c r="AB83" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -7889,6 +8140,9 @@
       <c r="AA84" t="n">
         <v>0</v>
       </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -7978,6 +8232,9 @@
       <c r="AA85" t="n">
         <v>13</v>
       </c>
+      <c r="AB85" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8067,6 +8324,9 @@
       <c r="AA86" t="n">
         <v>9</v>
       </c>
+      <c r="AB86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8156,6 +8416,9 @@
       <c r="AA87" t="n">
         <v>5</v>
       </c>
+      <c r="AB87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8245,6 +8508,9 @@
       <c r="AA88" t="n">
         <v>2</v>
       </c>
+      <c r="AB88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8334,6 +8600,9 @@
       <c r="AA89" t="n">
         <v>6</v>
       </c>
+      <c r="AB89" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8423,6 +8692,9 @@
       <c r="AA90" t="n">
         <v>3</v>
       </c>
+      <c r="AB90" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8512,6 +8784,9 @@
       <c r="AA91" t="n">
         <v>5</v>
       </c>
+      <c r="AB91" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8601,6 +8876,9 @@
       <c r="AA92" t="n">
         <v>1</v>
       </c>
+      <c r="AB92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8690,6 +8968,9 @@
       <c r="AA93" t="n">
         <v>4</v>
       </c>
+      <c r="AB93" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -8779,6 +9060,9 @@
       <c r="AA94" t="n">
         <v>4</v>
       </c>
+      <c r="AB94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -8868,6 +9152,9 @@
       <c r="AA95" t="n">
         <v>24</v>
       </c>
+      <c r="AB95" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -8957,6 +9244,9 @@
       <c r="AA96" t="n">
         <v>1</v>
       </c>
+      <c r="AB96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -9046,6 +9336,9 @@
       <c r="AA97" t="n">
         <v>3</v>
       </c>
+      <c r="AB97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9135,6 +9428,9 @@
       <c r="AA98" t="n">
         <v>5</v>
       </c>
+      <c r="AB98" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9224,6 +9520,9 @@
       <c r="AA99" t="n">
         <v>7</v>
       </c>
+      <c r="AB99" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9313,6 +9612,9 @@
       <c r="AA100" t="n">
         <v>4</v>
       </c>
+      <c r="AB100" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -9402,6 +9704,9 @@
       <c r="AA101" t="n">
         <v>8</v>
       </c>
+      <c r="AB101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9491,6 +9796,9 @@
       <c r="AA102" t="n">
         <v>14</v>
       </c>
+      <c r="AB102" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -9580,6 +9888,9 @@
       <c r="AA103" t="n">
         <v>7</v>
       </c>
+      <c r="AB103" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -9669,6 +9980,9 @@
       <c r="AA104" t="n">
         <v>4</v>
       </c>
+      <c r="AB104" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -9758,6 +10072,9 @@
       <c r="AA105" t="n">
         <v>31</v>
       </c>
+      <c r="AB105" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -9847,6 +10164,9 @@
       <c r="AA106" t="n">
         <v>4</v>
       </c>
+      <c r="AB106" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -9936,6 +10256,9 @@
       <c r="AA107" t="n">
         <v>5</v>
       </c>
+      <c r="AB107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -10025,6 +10348,9 @@
       <c r="AA108" t="n">
         <v>8</v>
       </c>
+      <c r="AB108" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -10114,6 +10440,9 @@
       <c r="AA109" t="n">
         <v>3</v>
       </c>
+      <c r="AB109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -10203,6 +10532,9 @@
       <c r="AA110" t="n">
         <v>11</v>
       </c>
+      <c r="AB110" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10292,6 +10624,9 @@
       <c r="AA111" t="n">
         <v>10</v>
       </c>
+      <c r="AB111" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -10381,6 +10716,9 @@
       <c r="AA112" t="n">
         <v>1</v>
       </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -10470,6 +10808,9 @@
       <c r="AA113" t="n">
         <v>9</v>
       </c>
+      <c r="AB113" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -10559,6 +10900,9 @@
       <c r="AA114" t="n">
         <v>2</v>
       </c>
+      <c r="AB114" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -10648,6 +10992,9 @@
       <c r="AA115" t="n">
         <v>23</v>
       </c>
+      <c r="AB115" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -10737,6 +11084,9 @@
       <c r="AA116" t="n">
         <v>2</v>
       </c>
+      <c r="AB116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -10826,6 +11176,9 @@
       <c r="AA117" t="n">
         <v>1</v>
       </c>
+      <c r="AB117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -10915,6 +11268,9 @@
       <c r="AA118" t="n">
         <v>9</v>
       </c>
+      <c r="AB118" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -11004,6 +11360,9 @@
       <c r="AA119" t="n">
         <v>10</v>
       </c>
+      <c r="AB119" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -11093,6 +11452,9 @@
       <c r="AA120" t="n">
         <v>5</v>
       </c>
+      <c r="AB120" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -11182,6 +11544,9 @@
       <c r="AA121" t="n">
         <v>2</v>
       </c>
+      <c r="AB121" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -11271,6 +11636,9 @@
       <c r="AA122" t="n">
         <v>0</v>
       </c>
+      <c r="AB122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -11360,6 +11728,9 @@
       <c r="AA123" t="n">
         <v>5</v>
       </c>
+      <c r="AB123" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -11449,6 +11820,9 @@
       <c r="AA124" t="n">
         <v>5</v>
       </c>
+      <c r="AB124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -11538,6 +11912,9 @@
       <c r="AA125" t="n">
         <v>1</v>
       </c>
+      <c r="AB125" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -11627,6 +12004,9 @@
       <c r="AA126" t="n">
         <v>0</v>
       </c>
+      <c r="AB126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -11716,6 +12096,9 @@
       <c r="AA127" t="n">
         <v>3</v>
       </c>
+      <c r="AB127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -11805,6 +12188,9 @@
       <c r="AA128" t="n">
         <v>5</v>
       </c>
+      <c r="AB128" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -11894,6 +12280,9 @@
       <c r="AA129" t="n">
         <v>4</v>
       </c>
+      <c r="AB129" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -11983,6 +12372,9 @@
       <c r="AA130" t="n">
         <v>0</v>
       </c>
+      <c r="AB130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -12072,6 +12464,9 @@
       <c r="AA131" t="n">
         <v>2</v>
       </c>
+      <c r="AB131" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -12161,6 +12556,9 @@
       <c r="AA132" t="n">
         <v>15</v>
       </c>
+      <c r="AB132" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -12250,6 +12648,9 @@
       <c r="AA133" t="n">
         <v>4</v>
       </c>
+      <c r="AB133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -12339,6 +12740,9 @@
       <c r="AA134" t="n">
         <v>3</v>
       </c>
+      <c r="AB134" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -12428,6 +12832,9 @@
       <c r="AA135" t="n">
         <v>2</v>
       </c>
+      <c r="AB135" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -12517,6 +12924,9 @@
       <c r="AA136" t="n">
         <v>1</v>
       </c>
+      <c r="AB136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -12606,6 +13016,9 @@
       <c r="AA137" t="n">
         <v>22</v>
       </c>
+      <c r="AB137" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -12695,6 +13108,9 @@
       <c r="AA138" t="n">
         <v>0</v>
       </c>
+      <c r="AB138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -12784,6 +13200,9 @@
       <c r="AA139" t="n">
         <v>4</v>
       </c>
+      <c r="AB139" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -12873,6 +13292,9 @@
       <c r="AA140" t="n">
         <v>0</v>
       </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -12962,6 +13384,9 @@
       <c r="AA141" t="n">
         <v>6</v>
       </c>
+      <c r="AB141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -13051,6 +13476,9 @@
       <c r="AA142" t="n">
         <v>6</v>
       </c>
+      <c r="AB142" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -13140,6 +13568,9 @@
       <c r="AA143" t="n">
         <v>1</v>
       </c>
+      <c r="AB143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -13229,6 +13660,9 @@
       <c r="AA144" t="n">
         <v>4</v>
       </c>
+      <c r="AB144" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -13318,6 +13752,9 @@
       <c r="AA145" t="n">
         <v>3</v>
       </c>
+      <c r="AB145" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -13407,6 +13844,9 @@
       <c r="AA146" t="n">
         <v>12</v>
       </c>
+      <c r="AB146" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -13496,6 +13936,9 @@
       <c r="AA147" t="n">
         <v>3</v>
       </c>
+      <c r="AB147" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -13585,6 +14028,9 @@
       <c r="AA148" t="n">
         <v>3</v>
       </c>
+      <c r="AB148" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -13674,6 +14120,9 @@
       <c r="AA149" t="n">
         <v>3</v>
       </c>
+      <c r="AB149" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -13763,6 +14212,9 @@
       <c r="AA150" t="n">
         <v>2</v>
       </c>
+      <c r="AB150" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -13852,6 +14304,9 @@
       <c r="AA151" t="n">
         <v>10</v>
       </c>
+      <c r="AB151" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -13941,6 +14396,9 @@
       <c r="AA152" t="n">
         <v>17</v>
       </c>
+      <c r="AB152" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -14030,6 +14488,9 @@
       <c r="AA153" t="n">
         <v>3</v>
       </c>
+      <c r="AB153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -14119,6 +14580,9 @@
       <c r="AA154" t="n">
         <v>0</v>
       </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -14208,6 +14672,9 @@
       <c r="AA155" t="n">
         <v>8</v>
       </c>
+      <c r="AB155" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -14297,6 +14764,9 @@
       <c r="AA156" t="n">
         <v>1</v>
       </c>
+      <c r="AB156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -14386,6 +14856,9 @@
       <c r="AA157" t="n">
         <v>2</v>
       </c>
+      <c r="AB157" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -14475,6 +14948,9 @@
       <c r="AA158" t="n">
         <v>2</v>
       </c>
+      <c r="AB158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -14564,6 +15040,9 @@
       <c r="AA159" t="n">
         <v>2</v>
       </c>
+      <c r="AB159" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -14653,6 +15132,9 @@
       <c r="AA160" t="n">
         <v>3</v>
       </c>
+      <c r="AB160" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -14742,6 +15224,9 @@
       <c r="AA161" t="n">
         <v>1</v>
       </c>
+      <c r="AB161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -14831,6 +15316,9 @@
       <c r="AA162" t="n">
         <v>2</v>
       </c>
+      <c r="AB162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -14920,6 +15408,9 @@
       <c r="AA163" t="n">
         <v>5</v>
       </c>
+      <c r="AB163" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -15009,6 +15500,9 @@
       <c r="AA164" t="n">
         <v>4</v>
       </c>
+      <c r="AB164" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -15098,6 +15592,9 @@
       <c r="AA165" t="n">
         <v>18</v>
       </c>
+      <c r="AB165" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -15187,6 +15684,9 @@
       <c r="AA166" t="n">
         <v>7</v>
       </c>
+      <c r="AB166" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -15276,6 +15776,9 @@
       <c r="AA167" t="n">
         <v>3</v>
       </c>
+      <c r="AB167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -15365,6 +15868,9 @@
       <c r="AA168" t="n">
         <v>4</v>
       </c>
+      <c r="AB168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -15454,6 +15960,9 @@
       <c r="AA169" t="n">
         <v>13</v>
       </c>
+      <c r="AB169" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -15543,6 +16052,9 @@
       <c r="AA170" t="n">
         <v>0</v>
       </c>
+      <c r="AB170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -15632,6 +16144,9 @@
       <c r="AA171" t="n">
         <v>5</v>
       </c>
+      <c r="AB171" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -15721,6 +16236,9 @@
       <c r="AA172" t="n">
         <v>12</v>
       </c>
+      <c r="AB172" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -15810,6 +16328,9 @@
       <c r="AA173" t="n">
         <v>2</v>
       </c>
+      <c r="AB173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -15899,6 +16420,9 @@
       <c r="AA174" t="n">
         <v>6</v>
       </c>
+      <c r="AB174" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -15988,6 +16512,9 @@
       <c r="AA175" t="n">
         <v>13</v>
       </c>
+      <c r="AB175" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -16077,6 +16604,9 @@
       <c r="AA176" t="n">
         <v>13</v>
       </c>
+      <c r="AB176" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -16166,6 +16696,9 @@
       <c r="AA177" t="n">
         <v>4</v>
       </c>
+      <c r="AB177" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -16255,6 +16788,9 @@
       <c r="AA178" t="n">
         <v>5</v>
       </c>
+      <c r="AB178" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -16344,6 +16880,9 @@
       <c r="AA179" t="n">
         <v>0</v>
       </c>
+      <c r="AB179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -16433,6 +16972,9 @@
       <c r="AA180" t="n">
         <v>1</v>
       </c>
+      <c r="AB180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -16522,6 +17064,9 @@
       <c r="AA181" t="n">
         <v>11</v>
       </c>
+      <c r="AB181" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -16611,6 +17156,9 @@
       <c r="AA182" t="n">
         <v>3</v>
       </c>
+      <c r="AB182" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -16700,6 +17248,9 @@
       <c r="AA183" t="n">
         <v>0</v>
       </c>
+      <c r="AB183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -16789,6 +17340,9 @@
       <c r="AA184" t="n">
         <v>0</v>
       </c>
+      <c r="AB184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -16878,6 +17432,9 @@
       <c r="AA185" t="n">
         <v>1</v>
       </c>
+      <c r="AB185" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -16967,6 +17524,9 @@
       <c r="AA186" t="n">
         <v>5</v>
       </c>
+      <c r="AB186" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -17056,6 +17616,9 @@
       <c r="AA187" t="n">
         <v>2</v>
       </c>
+      <c r="AB187" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -17145,6 +17708,9 @@
       <c r="AA188" t="n">
         <v>42</v>
       </c>
+      <c r="AB188" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -17234,6 +17800,9 @@
       <c r="AA189" t="n">
         <v>0</v>
       </c>
+      <c r="AB189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -17323,6 +17892,9 @@
       <c r="AA190" t="n">
         <v>2</v>
       </c>
+      <c r="AB190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -17412,6 +17984,9 @@
       <c r="AA191" t="n">
         <v>72</v>
       </c>
+      <c r="AB191" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -17501,6 +18076,9 @@
       <c r="AA192" t="n">
         <v>0</v>
       </c>
+      <c r="AB192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -17590,6 +18168,9 @@
       <c r="AA193" t="n">
         <v>3</v>
       </c>
+      <c r="AB193" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -17679,6 +18260,9 @@
       <c r="AA194" t="n">
         <v>1</v>
       </c>
+      <c r="AB194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -17768,6 +18352,9 @@
       <c r="AA195" t="n">
         <v>1</v>
       </c>
+      <c r="AB195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -17857,6 +18444,9 @@
       <c r="AA196" t="n">
         <v>2</v>
       </c>
+      <c r="AB196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -17946,6 +18536,9 @@
       <c r="AA197" t="n">
         <v>2</v>
       </c>
+      <c r="AB197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -18035,6 +18628,9 @@
       <c r="AA198" t="n">
         <v>2</v>
       </c>
+      <c r="AB198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -18124,6 +18720,9 @@
       <c r="AA199" t="n">
         <v>9</v>
       </c>
+      <c r="AB199" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -18213,6 +18812,9 @@
       <c r="AA200" t="n">
         <v>1</v>
       </c>
+      <c r="AB200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -18302,6 +18904,9 @@
       <c r="AA201" t="n">
         <v>0</v>
       </c>
+      <c r="AB201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -18391,6 +18996,9 @@
       <c r="AA202" t="n">
         <v>1</v>
       </c>
+      <c r="AB202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -18480,6 +19088,9 @@
       <c r="AA203" t="n">
         <v>4</v>
       </c>
+      <c r="AB203" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -18569,6 +19180,9 @@
       <c r="AA204" t="n">
         <v>7</v>
       </c>
+      <c r="AB204" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -18658,6 +19272,9 @@
       <c r="AA205" t="n">
         <v>6</v>
       </c>
+      <c r="AB205" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -18747,6 +19364,9 @@
       <c r="AA206" t="n">
         <v>1</v>
       </c>
+      <c r="AB206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -18836,6 +19456,9 @@
       <c r="AA207" t="n">
         <v>2</v>
       </c>
+      <c r="AB207" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -18925,6 +19548,9 @@
       <c r="AA208" t="n">
         <v>48</v>
       </c>
+      <c r="AB208" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -19014,6 +19640,9 @@
       <c r="AA209" t="n">
         <v>7</v>
       </c>
+      <c r="AB209" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -19103,6 +19732,9 @@
       <c r="AA210" t="n">
         <v>1</v>
       </c>
+      <c r="AB210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -19192,6 +19824,9 @@
       <c r="AA211" t="n">
         <v>0</v>
       </c>
+      <c r="AB211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -19281,6 +19916,9 @@
       <c r="AA212" t="n">
         <v>1</v>
       </c>
+      <c r="AB212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -19370,6 +20008,9 @@
       <c r="AA213" t="n">
         <v>2</v>
       </c>
+      <c r="AB213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -19459,6 +20100,9 @@
       <c r="AA214" t="n">
         <v>3</v>
       </c>
+      <c r="AB214" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -19548,6 +20192,9 @@
       <c r="AA215" t="n">
         <v>1</v>
       </c>
+      <c r="AB215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -19637,6 +20284,9 @@
       <c r="AA216" t="n">
         <v>3</v>
       </c>
+      <c r="AB216" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -19726,6 +20376,9 @@
       <c r="AA217" t="n">
         <v>5</v>
       </c>
+      <c r="AB217" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -19815,6 +20468,9 @@
       <c r="AA218" t="n">
         <v>1</v>
       </c>
+      <c r="AB218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -19904,6 +20560,9 @@
       <c r="AA219" t="n">
         <v>10</v>
       </c>
+      <c r="AB219" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -19993,6 +20652,9 @@
       <c r="AA220" t="n">
         <v>0</v>
       </c>
+      <c r="AB220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -20082,6 +20744,9 @@
       <c r="AA221" t="n">
         <v>5</v>
       </c>
+      <c r="AB221" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -20171,6 +20836,9 @@
       <c r="AA222" t="n">
         <v>3</v>
       </c>
+      <c r="AB222" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -20260,6 +20928,9 @@
       <c r="AA223" t="n">
         <v>0</v>
       </c>
+      <c r="AB223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -20349,6 +21020,9 @@
       <c r="AA224" t="n">
         <v>2</v>
       </c>
+      <c r="AB224" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -20438,6 +21112,9 @@
       <c r="AA225" t="n">
         <v>0</v>
       </c>
+      <c r="AB225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -20527,6 +21204,9 @@
       <c r="AA226" t="n">
         <v>9</v>
       </c>
+      <c r="AB226" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -20616,6 +21296,9 @@
       <c r="AA227" t="n">
         <v>0</v>
       </c>
+      <c r="AB227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -20705,6 +21388,9 @@
       <c r="AA228" t="n">
         <v>2</v>
       </c>
+      <c r="AB228" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -20794,6 +21480,9 @@
       <c r="AA229" t="n">
         <v>0</v>
       </c>
+      <c r="AB229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -20883,6 +21572,9 @@
       <c r="AA230" t="n">
         <v>2</v>
       </c>
+      <c r="AB230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -20972,6 +21664,9 @@
       <c r="AA231" t="n">
         <v>26</v>
       </c>
+      <c r="AB231" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -21061,6 +21756,9 @@
       <c r="AA232" t="n">
         <v>2</v>
       </c>
+      <c r="AB232" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -21150,6 +21848,9 @@
       <c r="AA233" t="n">
         <v>3</v>
       </c>
+      <c r="AB233" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -21239,6 +21940,9 @@
       <c r="AA234" t="n">
         <v>2</v>
       </c>
+      <c r="AB234" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -21328,6 +22032,9 @@
       <c r="AA235" t="n">
         <v>11</v>
       </c>
+      <c r="AB235" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -21417,6 +22124,9 @@
       <c r="AA236" t="n">
         <v>1</v>
       </c>
+      <c r="AB236" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -21506,6 +22216,9 @@
       <c r="AA237" t="n">
         <v>41</v>
       </c>
+      <c r="AB237" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -21595,6 +22308,9 @@
       <c r="AA238" t="n">
         <v>1</v>
       </c>
+      <c r="AB238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -21684,6 +22400,9 @@
       <c r="AA239" t="n">
         <v>11</v>
       </c>
+      <c r="AB239" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -21773,6 +22492,9 @@
       <c r="AA240" t="n">
         <v>7</v>
       </c>
+      <c r="AB240" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -21862,6 +22584,9 @@
       <c r="AA241" t="n">
         <v>2</v>
       </c>
+      <c r="AB241" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -21951,6 +22676,9 @@
       <c r="AA242" t="n">
         <v>3</v>
       </c>
+      <c r="AB242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -22040,6 +22768,9 @@
       <c r="AA243" t="n">
         <v>4</v>
       </c>
+      <c r="AB243" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -22129,6 +22860,9 @@
       <c r="AA244" t="n">
         <v>8</v>
       </c>
+      <c r="AB244" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -22218,6 +22952,9 @@
       <c r="AA245" t="n">
         <v>0</v>
       </c>
+      <c r="AB245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -22307,6 +23044,9 @@
       <c r="AA246" t="n">
         <v>0</v>
       </c>
+      <c r="AB246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -22396,6 +23136,9 @@
       <c r="AA247" t="n">
         <v>4</v>
       </c>
+      <c r="AB247" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -22485,6 +23228,9 @@
       <c r="AA248" t="n">
         <v>0</v>
       </c>
+      <c r="AB248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -22574,6 +23320,9 @@
       <c r="AA249" t="n">
         <v>1</v>
       </c>
+      <c r="AB249" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -22663,6 +23412,9 @@
       <c r="AA250" t="n">
         <v>0</v>
       </c>
+      <c r="AB250" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -22752,6 +23504,9 @@
       <c r="AA251" t="n">
         <v>3</v>
       </c>
+      <c r="AB251" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -22841,6 +23596,9 @@
       <c r="AA252" t="n">
         <v>1</v>
       </c>
+      <c r="AB252" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -22930,6 +23688,9 @@
       <c r="AA253" t="n">
         <v>13</v>
       </c>
+      <c r="AB253" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -23019,6 +23780,9 @@
       <c r="AA254" t="n">
         <v>7</v>
       </c>
+      <c r="AB254" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -23108,6 +23872,9 @@
       <c r="AA255" t="n">
         <v>81</v>
       </c>
+      <c r="AB255" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -23197,6 +23964,9 @@
       <c r="AA256" t="n">
         <v>2</v>
       </c>
+      <c r="AB256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -23286,6 +24056,9 @@
       <c r="AA257" t="n">
         <v>2</v>
       </c>
+      <c r="AB257" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -23375,6 +24148,9 @@
       <c r="AA258" t="n">
         <v>6</v>
       </c>
+      <c r="AB258" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -23464,6 +24240,9 @@
       <c r="AA259" t="n">
         <v>0</v>
       </c>
+      <c r="AB259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -23553,6 +24332,9 @@
       <c r="AA260" t="n">
         <v>2</v>
       </c>
+      <c r="AB260" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -23642,6 +24424,9 @@
       <c r="AA261" t="n">
         <v>0</v>
       </c>
+      <c r="AB261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -23731,6 +24516,9 @@
       <c r="AA262" t="n">
         <v>2</v>
       </c>
+      <c r="AB262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -23820,6 +24608,9 @@
       <c r="AA263" t="n">
         <v>5</v>
       </c>
+      <c r="AB263" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -23909,6 +24700,9 @@
       <c r="AA264" t="n">
         <v>8</v>
       </c>
+      <c r="AB264" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -23998,6 +24792,9 @@
       <c r="AA265" t="n">
         <v>10</v>
       </c>
+      <c r="AB265" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -24087,6 +24884,9 @@
       <c r="AA266" t="n">
         <v>51</v>
       </c>
+      <c r="AB266" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -24176,6 +24976,9 @@
       <c r="AA267" t="n">
         <v>1</v>
       </c>
+      <c r="AB267" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -24265,6 +25068,9 @@
       <c r="AA268" t="n">
         <v>2</v>
       </c>
+      <c r="AB268" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -24354,6 +25160,9 @@
       <c r="AA269" t="n">
         <v>3</v>
       </c>
+      <c r="AB269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -24443,6 +25252,9 @@
       <c r="AA270" t="n">
         <v>13</v>
       </c>
+      <c r="AB270" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -24532,6 +25344,9 @@
       <c r="AA271" t="n">
         <v>3</v>
       </c>
+      <c r="AB271" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -24621,6 +25436,9 @@
       <c r="AA272" t="n">
         <v>5</v>
       </c>
+      <c r="AB272" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -24710,6 +25528,9 @@
       <c r="AA273" t="n">
         <v>0</v>
       </c>
+      <c r="AB273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -24799,6 +25620,9 @@
       <c r="AA274" t="n">
         <v>2</v>
       </c>
+      <c r="AB274" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -24888,6 +25712,9 @@
       <c r="AA275" t="n">
         <v>3</v>
       </c>
+      <c r="AB275" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -24977,6 +25804,9 @@
       <c r="AA276" t="n">
         <v>4</v>
       </c>
+      <c r="AB276" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -25066,6 +25896,9 @@
       <c r="AA277" t="n">
         <v>1</v>
       </c>
+      <c r="AB277" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -25155,6 +25988,9 @@
       <c r="AA278" t="n">
         <v>4</v>
       </c>
+      <c r="AB278" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -25244,6 +26080,9 @@
       <c r="AA279" t="n">
         <v>10</v>
       </c>
+      <c r="AB279" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -25333,6 +26172,9 @@
       <c r="AA280" t="n">
         <v>2</v>
       </c>
+      <c r="AB280" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -25422,6 +26264,9 @@
       <c r="AA281" t="n">
         <v>4</v>
       </c>
+      <c r="AB281" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -25511,6 +26356,9 @@
       <c r="AA282" t="n">
         <v>0</v>
       </c>
+      <c r="AB282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -25600,6 +26448,9 @@
       <c r="AA283" t="n">
         <v>2</v>
       </c>
+      <c r="AB283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -25689,6 +26540,9 @@
       <c r="AA284" t="n">
         <v>2</v>
       </c>
+      <c r="AB284" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -25778,6 +26632,9 @@
       <c r="AA285" t="n">
         <v>2</v>
       </c>
+      <c r="AB285" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -25867,6 +26724,9 @@
       <c r="AA286" t="n">
         <v>4</v>
       </c>
+      <c r="AB286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -25956,6 +26816,9 @@
       <c r="AA287" t="n">
         <v>119</v>
       </c>
+      <c r="AB287" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -26045,6 +26908,9 @@
       <c r="AA288" t="n">
         <v>3</v>
       </c>
+      <c r="AB288" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -26134,6 +27000,9 @@
       <c r="AA289" t="n">
         <v>0</v>
       </c>
+      <c r="AB289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -26223,6 +27092,9 @@
       <c r="AA290" t="n">
         <v>4</v>
       </c>
+      <c r="AB290" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -26312,6 +27184,9 @@
       <c r="AA291" t="n">
         <v>1</v>
       </c>
+      <c r="AB291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -26401,6 +27276,9 @@
       <c r="AA292" t="n">
         <v>60</v>
       </c>
+      <c r="AB292" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -26490,6 +27368,9 @@
       <c r="AA293" t="n">
         <v>0</v>
       </c>
+      <c r="AB293" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -26579,6 +27460,9 @@
       <c r="AA294" t="n">
         <v>2</v>
       </c>
+      <c r="AB294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -26668,6 +27552,9 @@
       <c r="AA295" t="n">
         <v>4</v>
       </c>
+      <c r="AB295" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -26757,6 +27644,9 @@
       <c r="AA296" t="n">
         <v>83</v>
       </c>
+      <c r="AB296" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -26846,6 +27736,9 @@
       <c r="AA297" t="n">
         <v>8</v>
       </c>
+      <c r="AB297" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -26935,6 +27828,9 @@
       <c r="AA298" t="n">
         <v>0</v>
       </c>
+      <c r="AB298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -27024,6 +27920,9 @@
       <c r="AA299" t="n">
         <v>2</v>
       </c>
+      <c r="AB299" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -27113,6 +28012,9 @@
       <c r="AA300" t="n">
         <v>1</v>
       </c>
+      <c r="AB300" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -27202,6 +28104,9 @@
       <c r="AA301" t="n">
         <v>0</v>
       </c>
+      <c r="AB301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -27291,6 +28196,9 @@
       <c r="AA302" t="n">
         <v>2</v>
       </c>
+      <c r="AB302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -27380,6 +28288,9 @@
       <c r="AA303" t="n">
         <v>1</v>
       </c>
+      <c r="AB303" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -27469,6 +28380,9 @@
       <c r="AA304" t="n">
         <v>2</v>
       </c>
+      <c r="AB304" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -27558,6 +28472,9 @@
       <c r="AA305" t="n">
         <v>4</v>
       </c>
+      <c r="AB305" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -27647,6 +28564,9 @@
       <c r="AA306" t="n">
         <v>21</v>
       </c>
+      <c r="AB306" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -27736,6 +28656,9 @@
       <c r="AA307" t="n">
         <v>3</v>
       </c>
+      <c r="AB307" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -27825,6 +28748,9 @@
       <c r="AA308" t="n">
         <v>7</v>
       </c>
+      <c r="AB308" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -27914,6 +28840,9 @@
       <c r="AA309" t="n">
         <v>4</v>
       </c>
+      <c r="AB309" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -28003,6 +28932,9 @@
       <c r="AA310" t="n">
         <v>0</v>
       </c>
+      <c r="AB310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -28092,6 +29024,9 @@
       <c r="AA311" t="n">
         <v>5</v>
       </c>
+      <c r="AB311" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -28181,6 +29116,9 @@
       <c r="AA312" t="n">
         <v>3</v>
       </c>
+      <c r="AB312" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -28270,6 +29208,9 @@
       <c r="AA313" t="n">
         <v>1</v>
       </c>
+      <c r="AB313" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -28359,6 +29300,9 @@
       <c r="AA314" t="n">
         <v>1</v>
       </c>
+      <c r="AB314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -28448,6 +29392,9 @@
       <c r="AA315" t="n">
         <v>8</v>
       </c>
+      <c r="AB315" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -28537,6 +29484,9 @@
       <c r="AA316" t="n">
         <v>0</v>
       </c>
+      <c r="AB316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -28626,6 +29576,9 @@
       <c r="AA317" t="n">
         <v>2</v>
       </c>
+      <c r="AB317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -28715,6 +29668,9 @@
       <c r="AA318" t="n">
         <v>13</v>
       </c>
+      <c r="AB318" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -28804,6 +29760,9 @@
       <c r="AA319" t="n">
         <v>3</v>
       </c>
+      <c r="AB319" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -28893,6 +29852,9 @@
       <c r="AA320" t="n">
         <v>1</v>
       </c>
+      <c r="AB320" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -28982,6 +29944,9 @@
       <c r="AA321" t="n">
         <v>4</v>
       </c>
+      <c r="AB321" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -29071,6 +30036,9 @@
       <c r="AA322" t="n">
         <v>7</v>
       </c>
+      <c r="AB322" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -29160,6 +30128,9 @@
       <c r="AA323" t="n">
         <v>0</v>
       </c>
+      <c r="AB323" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -29249,6 +30220,9 @@
       <c r="AA324" t="n">
         <v>0</v>
       </c>
+      <c r="AB324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -29338,6 +30312,9 @@
       <c r="AA325" t="n">
         <v>8</v>
       </c>
+      <c r="AB325" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -29427,6 +30404,9 @@
       <c r="AA326" t="n">
         <v>3</v>
       </c>
+      <c r="AB326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -29516,6 +30496,9 @@
       <c r="AA327" t="n">
         <v>3</v>
       </c>
+      <c r="AB327" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -29605,6 +30588,9 @@
       <c r="AA328" t="n">
         <v>0</v>
       </c>
+      <c r="AB328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -29694,6 +30680,9 @@
       <c r="AA329" t="n">
         <v>0</v>
       </c>
+      <c r="AB329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -29783,6 +30772,9 @@
       <c r="AA330" t="n">
         <v>0</v>
       </c>
+      <c r="AB330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -29872,6 +30864,9 @@
       <c r="AA331" t="n">
         <v>7</v>
       </c>
+      <c r="AB331" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -29961,6 +30956,9 @@
       <c r="AA332" t="n">
         <v>0</v>
       </c>
+      <c r="AB332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -30050,6 +31048,9 @@
       <c r="AA333" t="n">
         <v>3</v>
       </c>
+      <c r="AB333" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -30139,6 +31140,9 @@
       <c r="AA334" t="n">
         <v>0</v>
       </c>
+      <c r="AB334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -30228,6 +31232,9 @@
       <c r="AA335" t="n">
         <v>8</v>
       </c>
+      <c r="AB335" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -30317,6 +31324,9 @@
       <c r="AA336" t="n">
         <v>1</v>
       </c>
+      <c r="AB336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -30406,6 +31416,9 @@
       <c r="AA337" t="n">
         <v>4</v>
       </c>
+      <c r="AB337" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -30495,6 +31508,9 @@
       <c r="AA338" t="n">
         <v>0</v>
       </c>
+      <c r="AB338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -30584,6 +31600,9 @@
       <c r="AA339" t="n">
         <v>0</v>
       </c>
+      <c r="AB339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -30673,6 +31692,9 @@
       <c r="AA340" t="n">
         <v>4</v>
       </c>
+      <c r="AB340" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -30762,6 +31784,9 @@
       <c r="AA341" t="n">
         <v>1</v>
       </c>
+      <c r="AB341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -30851,6 +31876,9 @@
       <c r="AA342" t="n">
         <v>2</v>
       </c>
+      <c r="AB342" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -30940,6 +31968,9 @@
       <c r="AA343" t="n">
         <v>4</v>
       </c>
+      <c r="AB343" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -31029,6 +32060,9 @@
       <c r="AA344" t="n">
         <v>3</v>
       </c>
+      <c r="AB344" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -31118,6 +32152,9 @@
       <c r="AA345" t="n">
         <v>1</v>
       </c>
+      <c r="AB345" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -31207,6 +32244,9 @@
       <c r="AA346" t="n">
         <v>3</v>
       </c>
+      <c r="AB346" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -31296,6 +32336,9 @@
       <c r="AA347" t="n">
         <v>12</v>
       </c>
+      <c r="AB347" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -31385,6 +32428,9 @@
       <c r="AA348" t="n">
         <v>3</v>
       </c>
+      <c r="AB348" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -31474,6 +32520,9 @@
       <c r="AA349" t="n">
         <v>1</v>
       </c>
+      <c r="AB349" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -31563,6 +32612,9 @@
       <c r="AA350" t="n">
         <v>0</v>
       </c>
+      <c r="AB350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -31652,6 +32704,9 @@
       <c r="AA351" t="n">
         <v>0</v>
       </c>
+      <c r="AB351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -31741,6 +32796,9 @@
       <c r="AA352" t="n">
         <v>6</v>
       </c>
+      <c r="AB352" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -31830,6 +32888,9 @@
       <c r="AA353" t="n">
         <v>1</v>
       </c>
+      <c r="AB353" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -31919,6 +32980,9 @@
       <c r="AA354" t="n">
         <v>5</v>
       </c>
+      <c r="AB354" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -32008,6 +33072,9 @@
       <c r="AA355" t="n">
         <v>6</v>
       </c>
+      <c r="AB355" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -32096,6 +33163,9 @@
       </c>
       <c r="AA356" t="n">
         <v>16</v>
+      </c>
+      <c r="AB356" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB356"/>
+  <dimension ref="A1:AC356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,11 @@
           <t>20-03-2020</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>21-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -599,6 +604,9 @@
       <c r="AB2" t="n">
         <v>36</v>
       </c>
+      <c r="AC2" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -691,6 +699,9 @@
       <c r="AB3" t="n">
         <v>38</v>
       </c>
+      <c r="AC3" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -783,6 +794,9 @@
       <c r="AB4" t="n">
         <v>0</v>
       </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -875,6 +889,9 @@
       <c r="AB5" t="n">
         <v>5</v>
       </c>
+      <c r="AC5" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -967,6 +984,9 @@
       <c r="AB6" t="n">
         <v>1</v>
       </c>
+      <c r="AC6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1059,6 +1079,9 @@
       <c r="AB7" t="n">
         <v>0</v>
       </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1151,6 +1174,9 @@
       <c r="AB8" t="n">
         <v>3</v>
       </c>
+      <c r="AC8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1243,6 +1269,9 @@
       <c r="AB9" t="n">
         <v>5</v>
       </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1335,6 +1364,9 @@
       <c r="AB10" t="n">
         <v>10</v>
       </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1427,6 +1459,9 @@
       <c r="AB11" t="n">
         <v>3</v>
       </c>
+      <c r="AC11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1519,6 +1554,9 @@
       <c r="AB12" t="n">
         <v>5</v>
       </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1611,6 +1649,9 @@
       <c r="AB13" t="n">
         <v>13</v>
       </c>
+      <c r="AC13" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1703,6 +1744,9 @@
       <c r="AB14" t="n">
         <v>6</v>
       </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1795,6 +1839,9 @@
       <c r="AB15" t="n">
         <v>19</v>
       </c>
+      <c r="AC15" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1887,6 +1934,9 @@
       <c r="AB16" t="n">
         <v>0</v>
       </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1979,6 +2029,9 @@
       <c r="AB17" t="n">
         <v>32</v>
       </c>
+      <c r="AC17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2071,6 +2124,9 @@
       <c r="AB18" t="n">
         <v>22</v>
       </c>
+      <c r="AC18" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2163,6 +2219,9 @@
       <c r="AB19" t="n">
         <v>127</v>
       </c>
+      <c r="AC19" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2255,6 +2314,9 @@
       <c r="AB20" t="n">
         <v>13</v>
       </c>
+      <c r="AC20" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2345,6 +2407,9 @@
         <v>0</v>
       </c>
       <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,6 +2504,9 @@
       <c r="AB22" t="n">
         <v>13</v>
       </c>
+      <c r="AC22" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2531,6 +2599,9 @@
       <c r="AB23" t="n">
         <v>1</v>
       </c>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2623,6 +2694,9 @@
       <c r="AB24" t="n">
         <v>2</v>
       </c>
+      <c r="AC24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2715,6 +2789,9 @@
       <c r="AB25" t="n">
         <v>1</v>
       </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2807,6 +2884,9 @@
       <c r="AB26" t="n">
         <v>1</v>
       </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2899,6 +2979,9 @@
       <c r="AB27" t="n">
         <v>5</v>
       </c>
+      <c r="AC27" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2991,6 +3074,9 @@
       <c r="AB28" t="n">
         <v>8</v>
       </c>
+      <c r="AC28" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3083,6 +3169,9 @@
       <c r="AB29" t="n">
         <v>5</v>
       </c>
+      <c r="AC29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3175,6 +3264,9 @@
       <c r="AB30" t="n">
         <v>19</v>
       </c>
+      <c r="AC30" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3267,6 +3359,9 @@
       <c r="AB31" t="n">
         <v>0</v>
       </c>
+      <c r="AC31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3359,6 +3454,9 @@
       <c r="AB32" t="n">
         <v>1</v>
       </c>
+      <c r="AC32" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3451,6 +3549,9 @@
       <c r="AB33" t="n">
         <v>20</v>
       </c>
+      <c r="AC33" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3543,6 +3644,9 @@
       <c r="AB34" t="n">
         <v>1</v>
       </c>
+      <c r="AC34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3635,6 +3739,9 @@
       <c r="AB35" t="n">
         <v>1</v>
       </c>
+      <c r="AC35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3727,6 +3834,9 @@
       <c r="AB36" t="n">
         <v>4</v>
       </c>
+      <c r="AC36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3819,6 +3929,9 @@
       <c r="AB37" t="n">
         <v>8</v>
       </c>
+      <c r="AC37" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -3911,6 +4024,9 @@
       <c r="AB38" t="n">
         <v>1</v>
       </c>
+      <c r="AC38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4003,6 +4119,9 @@
       <c r="AB39" t="n">
         <v>37</v>
       </c>
+      <c r="AC39" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4095,6 +4214,9 @@
       <c r="AB40" t="n">
         <v>8</v>
       </c>
+      <c r="AC40" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4187,6 +4309,9 @@
       <c r="AB41" t="n">
         <v>8</v>
       </c>
+      <c r="AC41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4279,6 +4404,9 @@
       <c r="AB42" t="n">
         <v>6</v>
       </c>
+      <c r="AC42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4371,6 +4499,9 @@
       <c r="AB43" t="n">
         <v>6</v>
       </c>
+      <c r="AC43" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4463,6 +4594,9 @@
       <c r="AB44" t="n">
         <v>3</v>
       </c>
+      <c r="AC44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4555,6 +4689,9 @@
       <c r="AB45" t="n">
         <v>3</v>
       </c>
+      <c r="AC45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4647,6 +4784,9 @@
       <c r="AB46" t="n">
         <v>1</v>
       </c>
+      <c r="AC46" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4739,6 +4879,9 @@
       <c r="AB47" t="n">
         <v>25</v>
       </c>
+      <c r="AC47" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4831,6 +4974,9 @@
       <c r="AB48" t="n">
         <v>0</v>
       </c>
+      <c r="AC48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -4923,6 +5069,9 @@
       <c r="AB49" t="n">
         <v>3</v>
       </c>
+      <c r="AC49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5015,6 +5164,9 @@
       <c r="AB50" t="n">
         <v>3</v>
       </c>
+      <c r="AC50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5107,6 +5259,9 @@
       <c r="AB51" t="n">
         <v>5</v>
       </c>
+      <c r="AC51" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5199,6 +5354,9 @@
       <c r="AB52" t="n">
         <v>6</v>
       </c>
+      <c r="AC52" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5291,6 +5449,9 @@
       <c r="AB53" t="n">
         <v>121</v>
       </c>
+      <c r="AC53" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5383,6 +5544,9 @@
       <c r="AB54" t="n">
         <v>1</v>
       </c>
+      <c r="AC54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5475,6 +5639,9 @@
       <c r="AB55" t="n">
         <v>5</v>
       </c>
+      <c r="AC55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5567,6 +5734,9 @@
       <c r="AB56" t="n">
         <v>1</v>
       </c>
+      <c r="AC56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5659,6 +5829,9 @@
       <c r="AB57" t="n">
         <v>6</v>
       </c>
+      <c r="AC57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5751,6 +5924,9 @@
       <c r="AB58" t="n">
         <v>2</v>
       </c>
+      <c r="AC58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -5843,6 +6019,9 @@
       <c r="AB59" t="n">
         <v>0</v>
       </c>
+      <c r="AC59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -5935,6 +6114,9 @@
       <c r="AB60" t="n">
         <v>5</v>
       </c>
+      <c r="AC60" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6027,6 +6209,9 @@
       <c r="AB61" t="n">
         <v>3</v>
       </c>
+      <c r="AC61" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6119,6 +6304,9 @@
       <c r="AB62" t="n">
         <v>6</v>
       </c>
+      <c r="AC62" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6211,6 +6399,9 @@
       <c r="AB63" t="n">
         <v>13</v>
       </c>
+      <c r="AC63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6303,6 +6494,9 @@
       <c r="AB64" t="n">
         <v>8</v>
       </c>
+      <c r="AC64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6395,6 +6589,9 @@
       <c r="AB65" t="n">
         <v>4</v>
       </c>
+      <c r="AC65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6487,6 +6684,9 @@
       <c r="AB66" t="n">
         <v>4</v>
       </c>
+      <c r="AC66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6579,6 +6779,9 @@
       <c r="AB67" t="n">
         <v>4</v>
       </c>
+      <c r="AC67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6671,6 +6874,9 @@
       <c r="AB68" t="n">
         <v>0</v>
       </c>
+      <c r="AC68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6763,6 +6969,9 @@
       <c r="AB69" t="n">
         <v>18</v>
       </c>
+      <c r="AC69" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -6855,6 +7064,9 @@
       <c r="AB70" t="n">
         <v>6</v>
       </c>
+      <c r="AC70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -6947,6 +7159,9 @@
       <c r="AB71" t="n">
         <v>3</v>
       </c>
+      <c r="AC71" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7039,6 +7254,9 @@
       <c r="AB72" t="n">
         <v>2</v>
       </c>
+      <c r="AC72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7131,6 +7349,9 @@
       <c r="AB73" t="n">
         <v>9</v>
       </c>
+      <c r="AC73" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7223,6 +7444,9 @@
       <c r="AB74" t="n">
         <v>0</v>
       </c>
+      <c r="AC74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7315,6 +7539,9 @@
       <c r="AB75" t="n">
         <v>2</v>
       </c>
+      <c r="AC75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7407,6 +7634,9 @@
       <c r="AB76" t="n">
         <v>13</v>
       </c>
+      <c r="AC76" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7499,6 +7729,9 @@
       <c r="AB77" t="n">
         <v>7</v>
       </c>
+      <c r="AC77" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7591,6 +7824,9 @@
       <c r="AB78" t="n">
         <v>3</v>
       </c>
+      <c r="AC78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7683,6 +7919,9 @@
       <c r="AB79" t="n">
         <v>9</v>
       </c>
+      <c r="AC79" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -7775,6 +8014,9 @@
       <c r="AB80" t="n">
         <v>3</v>
       </c>
+      <c r="AC80" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -7867,6 +8109,9 @@
       <c r="AB81" t="n">
         <v>4</v>
       </c>
+      <c r="AC81" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -7959,6 +8204,9 @@
       <c r="AB82" t="n">
         <v>2</v>
       </c>
+      <c r="AC82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8051,6 +8299,9 @@
       <c r="AB83" t="n">
         <v>11</v>
       </c>
+      <c r="AC83" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8143,6 +8394,9 @@
       <c r="AB84" t="n">
         <v>0</v>
       </c>
+      <c r="AC84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8235,6 +8489,9 @@
       <c r="AB85" t="n">
         <v>13</v>
       </c>
+      <c r="AC85" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8327,6 +8584,9 @@
       <c r="AB86" t="n">
         <v>10</v>
       </c>
+      <c r="AC86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8419,6 +8679,9 @@
       <c r="AB87" t="n">
         <v>5</v>
       </c>
+      <c r="AC87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8511,6 +8774,9 @@
       <c r="AB88" t="n">
         <v>2</v>
       </c>
+      <c r="AC88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8603,6 +8869,9 @@
       <c r="AB89" t="n">
         <v>7</v>
       </c>
+      <c r="AC89" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8695,6 +8964,9 @@
       <c r="AB90" t="n">
         <v>3</v>
       </c>
+      <c r="AC90" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -8787,6 +9059,9 @@
       <c r="AB91" t="n">
         <v>9</v>
       </c>
+      <c r="AC91" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -8879,6 +9154,9 @@
       <c r="AB92" t="n">
         <v>1</v>
       </c>
+      <c r="AC92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -8971,6 +9249,9 @@
       <c r="AB93" t="n">
         <v>6</v>
       </c>
+      <c r="AC93" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9063,6 +9344,9 @@
       <c r="AB94" t="n">
         <v>6</v>
       </c>
+      <c r="AC94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9155,6 +9439,9 @@
       <c r="AB95" t="n">
         <v>28</v>
       </c>
+      <c r="AC95" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -9247,6 +9534,9 @@
       <c r="AB96" t="n">
         <v>2</v>
       </c>
+      <c r="AC96" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -9339,6 +9629,9 @@
       <c r="AB97" t="n">
         <v>4</v>
       </c>
+      <c r="AC97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9431,6 +9724,9 @@
       <c r="AB98" t="n">
         <v>5</v>
       </c>
+      <c r="AC98" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9523,6 +9819,9 @@
       <c r="AB99" t="n">
         <v>8</v>
       </c>
+      <c r="AC99" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9615,6 +9914,9 @@
       <c r="AB100" t="n">
         <v>4</v>
       </c>
+      <c r="AC100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -9707,6 +10009,9 @@
       <c r="AB101" t="n">
         <v>9</v>
       </c>
+      <c r="AC101" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -9799,6 +10104,9 @@
       <c r="AB102" t="n">
         <v>15</v>
       </c>
+      <c r="AC102" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -9891,6 +10199,9 @@
       <c r="AB103" t="n">
         <v>7</v>
       </c>
+      <c r="AC103" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -9983,6 +10294,9 @@
       <c r="AB104" t="n">
         <v>4</v>
       </c>
+      <c r="AC104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10075,6 +10389,9 @@
       <c r="AB105" t="n">
         <v>36</v>
       </c>
+      <c r="AC105" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10167,6 +10484,9 @@
       <c r="AB106" t="n">
         <v>4</v>
       </c>
+      <c r="AC106" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10259,6 +10579,9 @@
       <c r="AB107" t="n">
         <v>7</v>
       </c>
+      <c r="AC107" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -10351,6 +10674,9 @@
       <c r="AB108" t="n">
         <v>14</v>
       </c>
+      <c r="AC108" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -10443,6 +10769,9 @@
       <c r="AB109" t="n">
         <v>3</v>
       </c>
+      <c r="AC109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -10535,6 +10864,9 @@
       <c r="AB110" t="n">
         <v>11</v>
       </c>
+      <c r="AC110" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10627,6 +10959,9 @@
       <c r="AB111" t="n">
         <v>10</v>
       </c>
+      <c r="AC111" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -10719,6 +11054,9 @@
       <c r="AB112" t="n">
         <v>0</v>
       </c>
+      <c r="AC112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -10811,6 +11149,9 @@
       <c r="AB113" t="n">
         <v>10</v>
       </c>
+      <c r="AC113" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -10903,6 +11244,9 @@
       <c r="AB114" t="n">
         <v>4</v>
       </c>
+      <c r="AC114" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -10995,6 +11339,9 @@
       <c r="AB115" t="n">
         <v>28</v>
       </c>
+      <c r="AC115" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -11087,6 +11434,9 @@
       <c r="AB116" t="n">
         <v>2</v>
       </c>
+      <c r="AC116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -11179,6 +11529,9 @@
       <c r="AB117" t="n">
         <v>1</v>
       </c>
+      <c r="AC117" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -11271,6 +11624,9 @@
       <c r="AB118" t="n">
         <v>9</v>
       </c>
+      <c r="AC118" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -11363,6 +11719,9 @@
       <c r="AB119" t="n">
         <v>17</v>
       </c>
+      <c r="AC119" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -11455,6 +11814,9 @@
       <c r="AB120" t="n">
         <v>8</v>
       </c>
+      <c r="AC120" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -11547,6 +11909,9 @@
       <c r="AB121" t="n">
         <v>2</v>
       </c>
+      <c r="AC121" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -11639,6 +12004,9 @@
       <c r="AB122" t="n">
         <v>1</v>
       </c>
+      <c r="AC122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -11731,6 +12099,9 @@
       <c r="AB123" t="n">
         <v>5</v>
       </c>
+      <c r="AC123" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -11823,6 +12194,9 @@
       <c r="AB124" t="n">
         <v>6</v>
       </c>
+      <c r="AC124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -11915,6 +12289,9 @@
       <c r="AB125" t="n">
         <v>1</v>
       </c>
+      <c r="AC125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -12007,6 +12384,9 @@
       <c r="AB126" t="n">
         <v>0</v>
       </c>
+      <c r="AC126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -12099,6 +12479,9 @@
       <c r="AB127" t="n">
         <v>5</v>
       </c>
+      <c r="AC127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -12191,6 +12574,9 @@
       <c r="AB128" t="n">
         <v>7</v>
       </c>
+      <c r="AC128" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -12283,6 +12669,9 @@
       <c r="AB129" t="n">
         <v>5</v>
       </c>
+      <c r="AC129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -12375,6 +12764,9 @@
       <c r="AB130" t="n">
         <v>1</v>
       </c>
+      <c r="AC130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -12467,6 +12859,9 @@
       <c r="AB131" t="n">
         <v>3</v>
       </c>
+      <c r="AC131" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -12559,6 +12954,9 @@
       <c r="AB132" t="n">
         <v>18</v>
       </c>
+      <c r="AC132" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -12651,6 +13049,9 @@
       <c r="AB133" t="n">
         <v>4</v>
       </c>
+      <c r="AC133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -12743,6 +13144,9 @@
       <c r="AB134" t="n">
         <v>3</v>
       </c>
+      <c r="AC134" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -12835,6 +13239,9 @@
       <c r="AB135" t="n">
         <v>2</v>
       </c>
+      <c r="AC135" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -12927,6 +13334,9 @@
       <c r="AB136" t="n">
         <v>4</v>
       </c>
+      <c r="AC136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -13019,6 +13429,9 @@
       <c r="AB137" t="n">
         <v>26</v>
       </c>
+      <c r="AC137" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -13111,6 +13524,9 @@
       <c r="AB138" t="n">
         <v>0</v>
       </c>
+      <c r="AC138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -13203,6 +13619,9 @@
       <c r="AB139" t="n">
         <v>5</v>
       </c>
+      <c r="AC139" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -13295,6 +13714,9 @@
       <c r="AB140" t="n">
         <v>0</v>
       </c>
+      <c r="AC140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -13387,6 +13809,9 @@
       <c r="AB141" t="n">
         <v>7</v>
       </c>
+      <c r="AC141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -13479,6 +13904,9 @@
       <c r="AB142" t="n">
         <v>7</v>
       </c>
+      <c r="AC142" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -13571,6 +13999,9 @@
       <c r="AB143" t="n">
         <v>2</v>
       </c>
+      <c r="AC143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -13663,6 +14094,9 @@
       <c r="AB144" t="n">
         <v>4</v>
       </c>
+      <c r="AC144" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -13755,6 +14189,9 @@
       <c r="AB145" t="n">
         <v>5</v>
       </c>
+      <c r="AC145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -13847,6 +14284,9 @@
       <c r="AB146" t="n">
         <v>17</v>
       </c>
+      <c r="AC146" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -13939,6 +14379,9 @@
       <c r="AB147" t="n">
         <v>3</v>
       </c>
+      <c r="AC147" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -14031,6 +14474,9 @@
       <c r="AB148" t="n">
         <v>3</v>
       </c>
+      <c r="AC148" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -14123,6 +14569,9 @@
       <c r="AB149" t="n">
         <v>4</v>
       </c>
+      <c r="AC149" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -14215,6 +14664,9 @@
       <c r="AB150" t="n">
         <v>3</v>
       </c>
+      <c r="AC150" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -14307,6 +14759,9 @@
       <c r="AB151" t="n">
         <v>11</v>
       </c>
+      <c r="AC151" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -14399,6 +14854,9 @@
       <c r="AB152" t="n">
         <v>17</v>
       </c>
+      <c r="AC152" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -14491,6 +14949,9 @@
       <c r="AB153" t="n">
         <v>3</v>
       </c>
+      <c r="AC153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -14583,6 +15044,9 @@
       <c r="AB154" t="n">
         <v>0</v>
       </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -14675,6 +15139,9 @@
       <c r="AB155" t="n">
         <v>8</v>
       </c>
+      <c r="AC155" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -14767,6 +15234,9 @@
       <c r="AB156" t="n">
         <v>1</v>
       </c>
+      <c r="AC156" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -14859,6 +15329,9 @@
       <c r="AB157" t="n">
         <v>5</v>
       </c>
+      <c r="AC157" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -14951,6 +15424,9 @@
       <c r="AB158" t="n">
         <v>2</v>
       </c>
+      <c r="AC158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -15043,6 +15519,9 @@
       <c r="AB159" t="n">
         <v>3</v>
       </c>
+      <c r="AC159" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -15135,6 +15614,9 @@
       <c r="AB160" t="n">
         <v>5</v>
       </c>
+      <c r="AC160" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -15227,6 +15709,9 @@
       <c r="AB161" t="n">
         <v>1</v>
       </c>
+      <c r="AC161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -15319,6 +15804,9 @@
       <c r="AB162" t="n">
         <v>2</v>
       </c>
+      <c r="AC162" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -15411,6 +15899,9 @@
       <c r="AB163" t="n">
         <v>7</v>
       </c>
+      <c r="AC163" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -15503,6 +15994,9 @@
       <c r="AB164" t="n">
         <v>6</v>
       </c>
+      <c r="AC164" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -15595,6 +16089,9 @@
       <c r="AB165" t="n">
         <v>20</v>
       </c>
+      <c r="AC165" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -15687,6 +16184,9 @@
       <c r="AB166" t="n">
         <v>7</v>
       </c>
+      <c r="AC166" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -15779,6 +16279,9 @@
       <c r="AB167" t="n">
         <v>4</v>
       </c>
+      <c r="AC167" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -15871,6 +16374,9 @@
       <c r="AB168" t="n">
         <v>4</v>
       </c>
+      <c r="AC168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -15963,6 +16469,9 @@
       <c r="AB169" t="n">
         <v>14</v>
       </c>
+      <c r="AC169" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -16055,6 +16564,9 @@
       <c r="AB170" t="n">
         <v>0</v>
       </c>
+      <c r="AC170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -16147,6 +16659,9 @@
       <c r="AB171" t="n">
         <v>5</v>
       </c>
+      <c r="AC171" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -16239,6 +16754,9 @@
       <c r="AB172" t="n">
         <v>14</v>
       </c>
+      <c r="AC172" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -16331,6 +16849,9 @@
       <c r="AB173" t="n">
         <v>2</v>
       </c>
+      <c r="AC173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -16423,6 +16944,9 @@
       <c r="AB174" t="n">
         <v>7</v>
       </c>
+      <c r="AC174" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -16515,6 +17039,9 @@
       <c r="AB175" t="n">
         <v>15</v>
       </c>
+      <c r="AC175" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -16607,6 +17134,9 @@
       <c r="AB176" t="n">
         <v>16</v>
       </c>
+      <c r="AC176" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -16699,6 +17229,9 @@
       <c r="AB177" t="n">
         <v>4</v>
       </c>
+      <c r="AC177" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -16791,6 +17324,9 @@
       <c r="AB178" t="n">
         <v>6</v>
       </c>
+      <c r="AC178" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -16883,6 +17419,9 @@
       <c r="AB179" t="n">
         <v>0</v>
       </c>
+      <c r="AC179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -16975,6 +17514,9 @@
       <c r="AB180" t="n">
         <v>2</v>
       </c>
+      <c r="AC180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -17067,6 +17609,9 @@
       <c r="AB181" t="n">
         <v>13</v>
       </c>
+      <c r="AC181" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -17159,6 +17704,9 @@
       <c r="AB182" t="n">
         <v>3</v>
       </c>
+      <c r="AC182" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -17251,6 +17799,9 @@
       <c r="AB183" t="n">
         <v>0</v>
       </c>
+      <c r="AC183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -17343,6 +17894,9 @@
       <c r="AB184" t="n">
         <v>0</v>
       </c>
+      <c r="AC184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -17435,6 +17989,9 @@
       <c r="AB185" t="n">
         <v>2</v>
       </c>
+      <c r="AC185" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -17527,6 +18084,9 @@
       <c r="AB186" t="n">
         <v>5</v>
       </c>
+      <c r="AC186" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -17619,6 +18179,9 @@
       <c r="AB187" t="n">
         <v>2</v>
       </c>
+      <c r="AC187" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -17711,6 +18274,9 @@
       <c r="AB188" t="n">
         <v>56</v>
       </c>
+      <c r="AC188" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -17803,6 +18369,9 @@
       <c r="AB189" t="n">
         <v>0</v>
       </c>
+      <c r="AC189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -17895,6 +18464,9 @@
       <c r="AB190" t="n">
         <v>2</v>
       </c>
+      <c r="AC190" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -17987,6 +18559,9 @@
       <c r="AB191" t="n">
         <v>81</v>
       </c>
+      <c r="AC191" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -18079,6 +18654,9 @@
       <c r="AB192" t="n">
         <v>1</v>
       </c>
+      <c r="AC192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -18171,6 +18749,9 @@
       <c r="AB193" t="n">
         <v>3</v>
       </c>
+      <c r="AC193" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -18263,6 +18844,9 @@
       <c r="AB194" t="n">
         <v>2</v>
       </c>
+      <c r="AC194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -18355,6 +18939,9 @@
       <c r="AB195" t="n">
         <v>1</v>
       </c>
+      <c r="AC195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -18447,6 +19034,9 @@
       <c r="AB196" t="n">
         <v>2</v>
       </c>
+      <c r="AC196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -18539,6 +19129,9 @@
       <c r="AB197" t="n">
         <v>2</v>
       </c>
+      <c r="AC197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -18631,6 +19224,9 @@
       <c r="AB198" t="n">
         <v>3</v>
       </c>
+      <c r="AC198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -18723,6 +19319,9 @@
       <c r="AB199" t="n">
         <v>11</v>
       </c>
+      <c r="AC199" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -18815,6 +19414,9 @@
       <c r="AB200" t="n">
         <v>1</v>
       </c>
+      <c r="AC200" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -18907,6 +19509,9 @@
       <c r="AB201" t="n">
         <v>0</v>
       </c>
+      <c r="AC201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -18999,6 +19604,9 @@
       <c r="AB202" t="n">
         <v>1</v>
       </c>
+      <c r="AC202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -19091,6 +19699,9 @@
       <c r="AB203" t="n">
         <v>5</v>
       </c>
+      <c r="AC203" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -19183,6 +19794,9 @@
       <c r="AB204" t="n">
         <v>7</v>
       </c>
+      <c r="AC204" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -19275,6 +19889,9 @@
       <c r="AB205" t="n">
         <v>8</v>
       </c>
+      <c r="AC205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -19367,6 +19984,9 @@
       <c r="AB206" t="n">
         <v>1</v>
       </c>
+      <c r="AC206" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -19459,6 +20079,9 @@
       <c r="AB207" t="n">
         <v>2</v>
       </c>
+      <c r="AC207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -19551,6 +20174,9 @@
       <c r="AB208" t="n">
         <v>55</v>
       </c>
+      <c r="AC208" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -19643,6 +20269,9 @@
       <c r="AB209" t="n">
         <v>11</v>
       </c>
+      <c r="AC209" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -19735,6 +20364,9 @@
       <c r="AB210" t="n">
         <v>1</v>
       </c>
+      <c r="AC210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -19827,6 +20459,9 @@
       <c r="AB211" t="n">
         <v>0</v>
       </c>
+      <c r="AC211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -19919,6 +20554,9 @@
       <c r="AB212" t="n">
         <v>1</v>
       </c>
+      <c r="AC212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -20011,6 +20649,9 @@
       <c r="AB213" t="n">
         <v>2</v>
       </c>
+      <c r="AC213" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -20103,6 +20744,9 @@
       <c r="AB214" t="n">
         <v>2</v>
       </c>
+      <c r="AC214" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -20195,6 +20839,9 @@
       <c r="AB215" t="n">
         <v>1</v>
       </c>
+      <c r="AC215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -20287,6 +20934,9 @@
       <c r="AB216" t="n">
         <v>4</v>
       </c>
+      <c r="AC216" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -20379,6 +21029,9 @@
       <c r="AB217" t="n">
         <v>6</v>
       </c>
+      <c r="AC217" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -20471,6 +21124,9 @@
       <c r="AB218" t="n">
         <v>1</v>
       </c>
+      <c r="AC218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -20563,6 +21219,9 @@
       <c r="AB219" t="n">
         <v>12</v>
       </c>
+      <c r="AC219" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -20655,6 +21314,9 @@
       <c r="AB220" t="n">
         <v>0</v>
       </c>
+      <c r="AC220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -20747,6 +21409,9 @@
       <c r="AB221" t="n">
         <v>5</v>
       </c>
+      <c r="AC221" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -20839,6 +21504,9 @@
       <c r="AB222" t="n">
         <v>5</v>
       </c>
+      <c r="AC222" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -20931,6 +21599,9 @@
       <c r="AB223" t="n">
         <v>0</v>
       </c>
+      <c r="AC223" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -21023,6 +21694,9 @@
       <c r="AB224" t="n">
         <v>3</v>
       </c>
+      <c r="AC224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -21115,6 +21789,9 @@
       <c r="AB225" t="n">
         <v>1</v>
       </c>
+      <c r="AC225" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -21207,6 +21884,9 @@
       <c r="AB226" t="n">
         <v>12</v>
       </c>
+      <c r="AC226" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -21299,6 +21979,9 @@
       <c r="AB227" t="n">
         <v>0</v>
       </c>
+      <c r="AC227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -21391,6 +22074,9 @@
       <c r="AB228" t="n">
         <v>3</v>
       </c>
+      <c r="AC228" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -21483,6 +22169,9 @@
       <c r="AB229" t="n">
         <v>0</v>
       </c>
+      <c r="AC229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -21575,6 +22264,9 @@
       <c r="AB230" t="n">
         <v>2</v>
       </c>
+      <c r="AC230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -21667,6 +22359,9 @@
       <c r="AB231" t="n">
         <v>35</v>
       </c>
+      <c r="AC231" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -21759,6 +22454,9 @@
       <c r="AB232" t="n">
         <v>2</v>
       </c>
+      <c r="AC232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -21851,6 +22549,9 @@
       <c r="AB233" t="n">
         <v>3</v>
       </c>
+      <c r="AC233" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -21943,6 +22644,9 @@
       <c r="AB234" t="n">
         <v>2</v>
       </c>
+      <c r="AC234" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -22035,6 +22739,9 @@
       <c r="AB235" t="n">
         <v>15</v>
       </c>
+      <c r="AC235" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -22127,6 +22834,9 @@
       <c r="AB236" t="n">
         <v>2</v>
       </c>
+      <c r="AC236" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -22219,6 +22929,9 @@
       <c r="AB237" t="n">
         <v>49</v>
       </c>
+      <c r="AC237" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -22311,6 +23024,9 @@
       <c r="AB238" t="n">
         <v>1</v>
       </c>
+      <c r="AC238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -22403,6 +23119,9 @@
       <c r="AB239" t="n">
         <v>11</v>
       </c>
+      <c r="AC239" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -22495,6 +23214,9 @@
       <c r="AB240" t="n">
         <v>11</v>
       </c>
+      <c r="AC240" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -22587,6 +23309,9 @@
       <c r="AB241" t="n">
         <v>3</v>
       </c>
+      <c r="AC241" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -22679,6 +23404,9 @@
       <c r="AB242" t="n">
         <v>3</v>
       </c>
+      <c r="AC242" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -22771,6 +23499,9 @@
       <c r="AB243" t="n">
         <v>5</v>
       </c>
+      <c r="AC243" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -22863,6 +23594,9 @@
       <c r="AB244" t="n">
         <v>9</v>
       </c>
+      <c r="AC244" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -22955,6 +23689,9 @@
       <c r="AB245" t="n">
         <v>0</v>
       </c>
+      <c r="AC245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -23047,6 +23784,9 @@
       <c r="AB246" t="n">
         <v>0</v>
       </c>
+      <c r="AC246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -23139,6 +23879,9 @@
       <c r="AB247" t="n">
         <v>7</v>
       </c>
+      <c r="AC247" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -23231,6 +23974,9 @@
       <c r="AB248" t="n">
         <v>0</v>
       </c>
+      <c r="AC248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -23323,6 +24069,9 @@
       <c r="AB249" t="n">
         <v>2</v>
       </c>
+      <c r="AC249" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -23415,6 +24164,9 @@
       <c r="AB250" t="n">
         <v>2</v>
       </c>
+      <c r="AC250" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -23507,6 +24259,9 @@
       <c r="AB251" t="n">
         <v>4</v>
       </c>
+      <c r="AC251" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -23599,6 +24354,9 @@
       <c r="AB252" t="n">
         <v>4</v>
       </c>
+      <c r="AC252" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -23691,6 +24449,9 @@
       <c r="AB253" t="n">
         <v>15</v>
       </c>
+      <c r="AC253" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -23783,6 +24544,9 @@
       <c r="AB254" t="n">
         <v>8</v>
       </c>
+      <c r="AC254" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -23875,6 +24639,9 @@
       <c r="AB255" t="n">
         <v>104</v>
       </c>
+      <c r="AC255" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -23967,6 +24734,9 @@
       <c r="AB256" t="n">
         <v>2</v>
       </c>
+      <c r="AC256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -24059,6 +24829,9 @@
       <c r="AB257" t="n">
         <v>3</v>
       </c>
+      <c r="AC257" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -24151,6 +24924,9 @@
       <c r="AB258" t="n">
         <v>6</v>
       </c>
+      <c r="AC258" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -24243,6 +25019,9 @@
       <c r="AB259" t="n">
         <v>0</v>
       </c>
+      <c r="AC259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -24335,6 +25114,9 @@
       <c r="AB260" t="n">
         <v>4</v>
       </c>
+      <c r="AC260" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -24427,6 +25209,9 @@
       <c r="AB261" t="n">
         <v>0</v>
       </c>
+      <c r="AC261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -24519,6 +25304,9 @@
       <c r="AB262" t="n">
         <v>2</v>
       </c>
+      <c r="AC262" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -24611,6 +25399,9 @@
       <c r="AB263" t="n">
         <v>5</v>
       </c>
+      <c r="AC263" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -24703,6 +25494,9 @@
       <c r="AB264" t="n">
         <v>10</v>
       </c>
+      <c r="AC264" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -24795,6 +25589,9 @@
       <c r="AB265" t="n">
         <v>12</v>
       </c>
+      <c r="AC265" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -24887,6 +25684,9 @@
       <c r="AB266" t="n">
         <v>58</v>
       </c>
+      <c r="AC266" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -24979,6 +25779,9 @@
       <c r="AB267" t="n">
         <v>2</v>
       </c>
+      <c r="AC267" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -25071,6 +25874,9 @@
       <c r="AB268" t="n">
         <v>3</v>
       </c>
+      <c r="AC268" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -25163,6 +25969,9 @@
       <c r="AB269" t="n">
         <v>3</v>
       </c>
+      <c r="AC269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -25255,6 +26064,9 @@
       <c r="AB270" t="n">
         <v>14</v>
       </c>
+      <c r="AC270" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -25347,6 +26159,9 @@
       <c r="AB271" t="n">
         <v>5</v>
       </c>
+      <c r="AC271" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -25439,6 +26254,9 @@
       <c r="AB272" t="n">
         <v>7</v>
       </c>
+      <c r="AC272" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -25531,6 +26349,9 @@
       <c r="AB273" t="n">
         <v>0</v>
       </c>
+      <c r="AC273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -25623,6 +26444,9 @@
       <c r="AB274" t="n">
         <v>3</v>
       </c>
+      <c r="AC274" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -25715,6 +26539,9 @@
       <c r="AB275" t="n">
         <v>3</v>
       </c>
+      <c r="AC275" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -25807,6 +26634,9 @@
       <c r="AB276" t="n">
         <v>4</v>
       </c>
+      <c r="AC276" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -25899,6 +26729,9 @@
       <c r="AB277" t="n">
         <v>1</v>
       </c>
+      <c r="AC277" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -25991,6 +26824,9 @@
       <c r="AB278" t="n">
         <v>5</v>
       </c>
+      <c r="AC278" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -26083,6 +26919,9 @@
       <c r="AB279" t="n">
         <v>10</v>
       </c>
+      <c r="AC279" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -26175,6 +27014,9 @@
       <c r="AB280" t="n">
         <v>2</v>
       </c>
+      <c r="AC280" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -26267,6 +27109,9 @@
       <c r="AB281" t="n">
         <v>5</v>
       </c>
+      <c r="AC281" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -26359,6 +27204,9 @@
       <c r="AB282" t="n">
         <v>0</v>
       </c>
+      <c r="AC282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -26451,6 +27299,9 @@
       <c r="AB283" t="n">
         <v>3</v>
       </c>
+      <c r="AC283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -26543,6 +27394,9 @@
       <c r="AB284" t="n">
         <v>3</v>
       </c>
+      <c r="AC284" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -26635,6 +27489,9 @@
       <c r="AB285" t="n">
         <v>2</v>
       </c>
+      <c r="AC285" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -26727,6 +27584,9 @@
       <c r="AB286" t="n">
         <v>4</v>
       </c>
+      <c r="AC286" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -26819,6 +27679,9 @@
       <c r="AB287" t="n">
         <v>133</v>
       </c>
+      <c r="AC287" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -26911,6 +27774,9 @@
       <c r="AB288" t="n">
         <v>3</v>
       </c>
+      <c r="AC288" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -27003,6 +27869,9 @@
       <c r="AB289" t="n">
         <v>0</v>
       </c>
+      <c r="AC289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -27095,6 +27964,9 @@
       <c r="AB290" t="n">
         <v>5</v>
       </c>
+      <c r="AC290" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -27187,6 +28059,9 @@
       <c r="AB291" t="n">
         <v>1</v>
       </c>
+      <c r="AC291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -27279,6 +28154,9 @@
       <c r="AB292" t="n">
         <v>71</v>
       </c>
+      <c r="AC292" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -27371,6 +28249,9 @@
       <c r="AB293" t="n">
         <v>2</v>
       </c>
+      <c r="AC293" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -27463,6 +28344,9 @@
       <c r="AB294" t="n">
         <v>2</v>
       </c>
+      <c r="AC294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -27555,6 +28439,9 @@
       <c r="AB295" t="n">
         <v>5</v>
       </c>
+      <c r="AC295" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -27647,6 +28534,9 @@
       <c r="AB296" t="n">
         <v>101</v>
       </c>
+      <c r="AC296" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -27739,6 +28629,9 @@
       <c r="AB297" t="n">
         <v>8</v>
       </c>
+      <c r="AC297" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -27831,6 +28724,9 @@
       <c r="AB298" t="n">
         <v>0</v>
       </c>
+      <c r="AC298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -27923,6 +28819,9 @@
       <c r="AB299" t="n">
         <v>4</v>
       </c>
+      <c r="AC299" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -28015,6 +28914,9 @@
       <c r="AB300" t="n">
         <v>2</v>
       </c>
+      <c r="AC300" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -28107,6 +29009,9 @@
       <c r="AB301" t="n">
         <v>0</v>
       </c>
+      <c r="AC301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -28199,6 +29104,9 @@
       <c r="AB302" t="n">
         <v>2</v>
       </c>
+      <c r="AC302" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -28291,6 +29199,9 @@
       <c r="AB303" t="n">
         <v>2</v>
       </c>
+      <c r="AC303" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -28383,6 +29294,9 @@
       <c r="AB304" t="n">
         <v>5</v>
       </c>
+      <c r="AC304" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -28475,6 +29389,9 @@
       <c r="AB305" t="n">
         <v>5</v>
       </c>
+      <c r="AC305" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -28567,6 +29484,9 @@
       <c r="AB306" t="n">
         <v>24</v>
       </c>
+      <c r="AC306" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -28659,6 +29579,9 @@
       <c r="AB307" t="n">
         <v>6</v>
       </c>
+      <c r="AC307" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -28751,6 +29674,9 @@
       <c r="AB308" t="n">
         <v>7</v>
       </c>
+      <c r="AC308" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -28843,6 +29769,9 @@
       <c r="AB309" t="n">
         <v>7</v>
       </c>
+      <c r="AC309" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -28935,6 +29864,9 @@
       <c r="AB310" t="n">
         <v>0</v>
       </c>
+      <c r="AC310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -29027,6 +29959,9 @@
       <c r="AB311" t="n">
         <v>6</v>
       </c>
+      <c r="AC311" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -29119,6 +30054,9 @@
       <c r="AB312" t="n">
         <v>4</v>
       </c>
+      <c r="AC312" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -29211,6 +30149,9 @@
       <c r="AB313" t="n">
         <v>2</v>
       </c>
+      <c r="AC313" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -29303,6 +30244,9 @@
       <c r="AB314" t="n">
         <v>1</v>
       </c>
+      <c r="AC314" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -29395,6 +30339,9 @@
       <c r="AB315" t="n">
         <v>8</v>
       </c>
+      <c r="AC315" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -29487,6 +30434,9 @@
       <c r="AB316" t="n">
         <v>0</v>
       </c>
+      <c r="AC316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -29579,6 +30529,9 @@
       <c r="AB317" t="n">
         <v>2</v>
       </c>
+      <c r="AC317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -29671,6 +30624,9 @@
       <c r="AB318" t="n">
         <v>15</v>
       </c>
+      <c r="AC318" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -29763,6 +30719,9 @@
       <c r="AB319" t="n">
         <v>3</v>
       </c>
+      <c r="AC319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -29855,6 +30814,9 @@
       <c r="AB320" t="n">
         <v>2</v>
       </c>
+      <c r="AC320" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -29947,6 +30909,9 @@
       <c r="AB321" t="n">
         <v>4</v>
       </c>
+      <c r="AC321" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -30039,6 +31004,9 @@
       <c r="AB322" t="n">
         <v>7</v>
       </c>
+      <c r="AC322" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -30131,6 +31099,9 @@
       <c r="AB323" t="n">
         <v>4</v>
       </c>
+      <c r="AC323" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -30223,6 +31194,9 @@
       <c r="AB324" t="n">
         <v>1</v>
       </c>
+      <c r="AC324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -30315,6 +31289,9 @@
       <c r="AB325" t="n">
         <v>11</v>
       </c>
+      <c r="AC325" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -30407,6 +31384,9 @@
       <c r="AB326" t="n">
         <v>4</v>
       </c>
+      <c r="AC326" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -30499,6 +31479,9 @@
       <c r="AB327" t="n">
         <v>2</v>
       </c>
+      <c r="AC327" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -30591,6 +31574,9 @@
       <c r="AB328" t="n">
         <v>0</v>
       </c>
+      <c r="AC328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -30683,6 +31669,9 @@
       <c r="AB329" t="n">
         <v>1</v>
       </c>
+      <c r="AC329" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -30775,6 +31764,9 @@
       <c r="AB330" t="n">
         <v>0</v>
       </c>
+      <c r="AC330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -30867,6 +31859,9 @@
       <c r="AB331" t="n">
         <v>9</v>
       </c>
+      <c r="AC331" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -30959,6 +31954,9 @@
       <c r="AB332" t="n">
         <v>0</v>
       </c>
+      <c r="AC332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -31051,6 +32049,9 @@
       <c r="AB333" t="n">
         <v>3</v>
       </c>
+      <c r="AC333" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -31143,6 +32144,9 @@
       <c r="AB334" t="n">
         <v>0</v>
       </c>
+      <c r="AC334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -31235,6 +32239,9 @@
       <c r="AB335" t="n">
         <v>14</v>
       </c>
+      <c r="AC335" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -31327,6 +32334,9 @@
       <c r="AB336" t="n">
         <v>1</v>
       </c>
+      <c r="AC336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -31419,6 +32429,9 @@
       <c r="AB337" t="n">
         <v>5</v>
       </c>
+      <c r="AC337" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -31511,6 +32524,9 @@
       <c r="AB338" t="n">
         <v>0</v>
       </c>
+      <c r="AC338" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -31603,6 +32619,9 @@
       <c r="AB339" t="n">
         <v>0</v>
       </c>
+      <c r="AC339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -31695,6 +32714,9 @@
       <c r="AB340" t="n">
         <v>5</v>
       </c>
+      <c r="AC340" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -31787,6 +32809,9 @@
       <c r="AB341" t="n">
         <v>1</v>
       </c>
+      <c r="AC341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -31879,6 +32904,9 @@
       <c r="AB342" t="n">
         <v>3</v>
       </c>
+      <c r="AC342" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -31971,6 +32999,9 @@
       <c r="AB343" t="n">
         <v>3</v>
       </c>
+      <c r="AC343" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -32063,6 +33094,9 @@
       <c r="AB344" t="n">
         <v>4</v>
       </c>
+      <c r="AC344" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -32155,6 +33189,9 @@
       <c r="AB345" t="n">
         <v>1</v>
       </c>
+      <c r="AC345" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -32247,6 +33284,9 @@
       <c r="AB346" t="n">
         <v>4</v>
       </c>
+      <c r="AC346" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -32339,6 +33379,9 @@
       <c r="AB347" t="n">
         <v>13</v>
       </c>
+      <c r="AC347" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -32431,6 +33474,9 @@
       <c r="AB348" t="n">
         <v>5</v>
       </c>
+      <c r="AC348" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -32523,6 +33569,9 @@
       <c r="AB349" t="n">
         <v>4</v>
       </c>
+      <c r="AC349" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -32615,6 +33664,9 @@
       <c r="AB350" t="n">
         <v>0</v>
       </c>
+      <c r="AC350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -32707,6 +33759,9 @@
       <c r="AB351" t="n">
         <v>0</v>
       </c>
+      <c r="AC351" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -32799,6 +33854,9 @@
       <c r="AB352" t="n">
         <v>7</v>
       </c>
+      <c r="AC352" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -32891,6 +33949,9 @@
       <c r="AB353" t="n">
         <v>2</v>
       </c>
+      <c r="AC353" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -32983,6 +34044,9 @@
       <c r="AB354" t="n">
         <v>9</v>
       </c>
+      <c r="AC354" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -33075,6 +34139,9 @@
       <c r="AB355" t="n">
         <v>6</v>
       </c>
+      <c r="AC355" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -33166,6 +34233,9 @@
       </c>
       <c r="AB356" t="n">
         <v>18</v>
+      </c>
+      <c r="AC356" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC356"/>
+  <dimension ref="A1:AD356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,11 @@
           <t>21-03-2020</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>22-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -607,6 +612,9 @@
       <c r="AC2" t="n">
         <v>44</v>
       </c>
+      <c r="AD2" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -702,6 +710,9 @@
       <c r="AC3" t="n">
         <v>45</v>
       </c>
+      <c r="AD3" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -797,6 +808,9 @@
       <c r="AC4" t="n">
         <v>0</v>
       </c>
+      <c r="AD4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -892,6 +906,9 @@
       <c r="AC5" t="n">
         <v>5</v>
       </c>
+      <c r="AD5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -987,6 +1004,9 @@
       <c r="AC6" t="n">
         <v>1</v>
       </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1082,6 +1102,9 @@
       <c r="AC7" t="n">
         <v>0</v>
       </c>
+      <c r="AD7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1177,6 +1200,9 @@
       <c r="AC8" t="n">
         <v>3</v>
       </c>
+      <c r="AD8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1272,6 +1298,9 @@
       <c r="AC9" t="n">
         <v>8</v>
       </c>
+      <c r="AD9" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1367,6 +1396,9 @@
       <c r="AC10" t="n">
         <v>11</v>
       </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1462,6 +1494,9 @@
       <c r="AC11" t="n">
         <v>4</v>
       </c>
+      <c r="AD11" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1557,6 +1592,9 @@
       <c r="AC12" t="n">
         <v>11</v>
       </c>
+      <c r="AD12" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1652,6 +1690,9 @@
       <c r="AC13" t="n">
         <v>15</v>
       </c>
+      <c r="AD13" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1747,6 +1788,9 @@
       <c r="AC14" t="n">
         <v>7</v>
       </c>
+      <c r="AD14" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1842,6 +1886,9 @@
       <c r="AC15" t="n">
         <v>22</v>
       </c>
+      <c r="AD15" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1937,6 +1984,9 @@
       <c r="AC16" t="n">
         <v>0</v>
       </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2032,6 +2082,9 @@
       <c r="AC17" t="n">
         <v>37</v>
       </c>
+      <c r="AD17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2127,6 +2180,9 @@
       <c r="AC18" t="n">
         <v>26</v>
       </c>
+      <c r="AD18" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2222,6 +2278,9 @@
       <c r="AC19" t="n">
         <v>161</v>
       </c>
+      <c r="AD19" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2317,6 +2376,9 @@
       <c r="AC20" t="n">
         <v>16</v>
       </c>
+      <c r="AD20" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2410,6 +2472,9 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2507,6 +2572,9 @@
       <c r="AC22" t="n">
         <v>15</v>
       </c>
+      <c r="AD22" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2602,6 +2670,9 @@
       <c r="AC23" t="n">
         <v>1</v>
       </c>
+      <c r="AD23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2697,6 +2768,9 @@
       <c r="AC24" t="n">
         <v>5</v>
       </c>
+      <c r="AD24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2792,6 +2866,9 @@
       <c r="AC25" t="n">
         <v>1</v>
       </c>
+      <c r="AD25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2887,6 +2964,9 @@
       <c r="AC26" t="n">
         <v>1</v>
       </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2982,6 +3062,9 @@
       <c r="AC27" t="n">
         <v>9</v>
       </c>
+      <c r="AD27" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3077,6 +3160,9 @@
       <c r="AC28" t="n">
         <v>8</v>
       </c>
+      <c r="AD28" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3172,6 +3258,9 @@
       <c r="AC29" t="n">
         <v>5</v>
       </c>
+      <c r="AD29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3267,6 +3356,9 @@
       <c r="AC30" t="n">
         <v>19</v>
       </c>
+      <c r="AD30" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3362,6 +3454,9 @@
       <c r="AC31" t="n">
         <v>0</v>
       </c>
+      <c r="AD31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3457,6 +3552,9 @@
       <c r="AC32" t="n">
         <v>3</v>
       </c>
+      <c r="AD32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3552,6 +3650,9 @@
       <c r="AC33" t="n">
         <v>25</v>
       </c>
+      <c r="AD33" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3647,6 +3748,9 @@
       <c r="AC34" t="n">
         <v>1</v>
       </c>
+      <c r="AD34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3742,6 +3846,9 @@
       <c r="AC35" t="n">
         <v>1</v>
       </c>
+      <c r="AD35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3837,6 +3944,9 @@
       <c r="AC36" t="n">
         <v>6</v>
       </c>
+      <c r="AD36" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -3932,6 +4042,9 @@
       <c r="AC37" t="n">
         <v>9</v>
       </c>
+      <c r="AD37" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4027,6 +4140,9 @@
       <c r="AC38" t="n">
         <v>1</v>
       </c>
+      <c r="AD38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4122,6 +4238,9 @@
       <c r="AC39" t="n">
         <v>41</v>
       </c>
+      <c r="AD39" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4217,6 +4336,9 @@
       <c r="AC40" t="n">
         <v>11</v>
       </c>
+      <c r="AD40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4312,6 +4434,9 @@
       <c r="AC41" t="n">
         <v>9</v>
       </c>
+      <c r="AD41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4407,6 +4532,9 @@
       <c r="AC42" t="n">
         <v>6</v>
       </c>
+      <c r="AD42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4502,6 +4630,9 @@
       <c r="AC43" t="n">
         <v>7</v>
       </c>
+      <c r="AD43" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4597,6 +4728,9 @@
       <c r="AC44" t="n">
         <v>4</v>
       </c>
+      <c r="AD44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4692,6 +4826,9 @@
       <c r="AC45" t="n">
         <v>8</v>
       </c>
+      <c r="AD45" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4787,6 +4924,9 @@
       <c r="AC46" t="n">
         <v>3</v>
       </c>
+      <c r="AD46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -4882,6 +5022,9 @@
       <c r="AC47" t="n">
         <v>32</v>
       </c>
+      <c r="AD47" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -4977,6 +5120,9 @@
       <c r="AC48" t="n">
         <v>0</v>
       </c>
+      <c r="AD48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5072,6 +5218,9 @@
       <c r="AC49" t="n">
         <v>4</v>
       </c>
+      <c r="AD49" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5167,6 +5316,9 @@
       <c r="AC50" t="n">
         <v>3</v>
       </c>
+      <c r="AD50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5262,6 +5414,9 @@
       <c r="AC51" t="n">
         <v>6</v>
       </c>
+      <c r="AD51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5357,6 +5512,9 @@
       <c r="AC52" t="n">
         <v>11</v>
       </c>
+      <c r="AD52" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5452,6 +5610,9 @@
       <c r="AC53" t="n">
         <v>133</v>
       </c>
+      <c r="AD53" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5547,6 +5708,9 @@
       <c r="AC54" t="n">
         <v>1</v>
       </c>
+      <c r="AD54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5642,6 +5806,9 @@
       <c r="AC55" t="n">
         <v>6</v>
       </c>
+      <c r="AD55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5737,6 +5904,9 @@
       <c r="AC56" t="n">
         <v>1</v>
       </c>
+      <c r="AD56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -5832,6 +6002,9 @@
       <c r="AC57" t="n">
         <v>6</v>
       </c>
+      <c r="AD57" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -5927,6 +6100,9 @@
       <c r="AC58" t="n">
         <v>3</v>
       </c>
+      <c r="AD58" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6022,6 +6198,9 @@
       <c r="AC59" t="n">
         <v>0</v>
       </c>
+      <c r="AD59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6117,6 +6296,9 @@
       <c r="AC60" t="n">
         <v>5</v>
       </c>
+      <c r="AD60" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6212,6 +6394,9 @@
       <c r="AC61" t="n">
         <v>3</v>
       </c>
+      <c r="AD61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6307,6 +6492,9 @@
       <c r="AC62" t="n">
         <v>7</v>
       </c>
+      <c r="AD62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6402,6 +6590,9 @@
       <c r="AC63" t="n">
         <v>14</v>
       </c>
+      <c r="AD63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6497,6 +6688,9 @@
       <c r="AC64" t="n">
         <v>11</v>
       </c>
+      <c r="AD64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6592,6 +6786,9 @@
       <c r="AC65" t="n">
         <v>4</v>
       </c>
+      <c r="AD65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6687,6 +6884,9 @@
       <c r="AC66" t="n">
         <v>5</v>
       </c>
+      <c r="AD66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6782,6 +6982,9 @@
       <c r="AC67" t="n">
         <v>5</v>
       </c>
+      <c r="AD67" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -6877,6 +7080,9 @@
       <c r="AC68" t="n">
         <v>0</v>
       </c>
+      <c r="AD68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -6972,6 +7178,9 @@
       <c r="AC69" t="n">
         <v>19</v>
       </c>
+      <c r="AD69" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7067,6 +7276,9 @@
       <c r="AC70" t="n">
         <v>8</v>
       </c>
+      <c r="AD70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7162,6 +7374,9 @@
       <c r="AC71" t="n">
         <v>3</v>
       </c>
+      <c r="AD71" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7257,6 +7472,9 @@
       <c r="AC72" t="n">
         <v>3</v>
       </c>
+      <c r="AD72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7352,6 +7570,9 @@
       <c r="AC73" t="n">
         <v>11</v>
       </c>
+      <c r="AD73" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7447,6 +7668,9 @@
       <c r="AC74" t="n">
         <v>0</v>
       </c>
+      <c r="AD74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7542,6 +7766,9 @@
       <c r="AC75" t="n">
         <v>3</v>
       </c>
+      <c r="AD75" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7637,6 +7864,9 @@
       <c r="AC76" t="n">
         <v>19</v>
       </c>
+      <c r="AD76" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7732,6 +7962,9 @@
       <c r="AC77" t="n">
         <v>16</v>
       </c>
+      <c r="AD77" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -7827,6 +8060,9 @@
       <c r="AC78" t="n">
         <v>3</v>
       </c>
+      <c r="AD78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -7922,6 +8158,9 @@
       <c r="AC79" t="n">
         <v>13</v>
       </c>
+      <c r="AD79" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8017,6 +8256,9 @@
       <c r="AC80" t="n">
         <v>3</v>
       </c>
+      <c r="AD80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8112,6 +8354,9 @@
       <c r="AC81" t="n">
         <v>5</v>
       </c>
+      <c r="AD81" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8207,6 +8452,9 @@
       <c r="AC82" t="n">
         <v>2</v>
       </c>
+      <c r="AD82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8302,6 +8550,9 @@
       <c r="AC83" t="n">
         <v>12</v>
       </c>
+      <c r="AD83" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8397,6 +8648,9 @@
       <c r="AC84" t="n">
         <v>2</v>
       </c>
+      <c r="AD84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8492,6 +8746,9 @@
       <c r="AC85" t="n">
         <v>14</v>
       </c>
+      <c r="AD85" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8587,6 +8844,9 @@
       <c r="AC86" t="n">
         <v>11</v>
       </c>
+      <c r="AD86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8682,6 +8942,9 @@
       <c r="AC87" t="n">
         <v>5</v>
       </c>
+      <c r="AD87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -8777,6 +9040,9 @@
       <c r="AC88" t="n">
         <v>2</v>
       </c>
+      <c r="AD88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -8872,6 +9138,9 @@
       <c r="AC89" t="n">
         <v>11</v>
       </c>
+      <c r="AD89" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -8967,6 +9236,9 @@
       <c r="AC90" t="n">
         <v>4</v>
       </c>
+      <c r="AD90" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9062,6 +9334,9 @@
       <c r="AC91" t="n">
         <v>13</v>
       </c>
+      <c r="AD91" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9157,6 +9432,9 @@
       <c r="AC92" t="n">
         <v>1</v>
       </c>
+      <c r="AD92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9252,6 +9530,9 @@
       <c r="AC93" t="n">
         <v>7</v>
       </c>
+      <c r="AD93" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9347,6 +9628,9 @@
       <c r="AC94" t="n">
         <v>6</v>
       </c>
+      <c r="AD94" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9442,6 +9726,9 @@
       <c r="AC95" t="n">
         <v>35</v>
       </c>
+      <c r="AD95" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -9537,6 +9824,9 @@
       <c r="AC96" t="n">
         <v>2</v>
       </c>
+      <c r="AD96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -9632,6 +9922,9 @@
       <c r="AC97" t="n">
         <v>4</v>
       </c>
+      <c r="AD97" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -9727,6 +10020,9 @@
       <c r="AC98" t="n">
         <v>6</v>
       </c>
+      <c r="AD98" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -9822,6 +10118,9 @@
       <c r="AC99" t="n">
         <v>16</v>
       </c>
+      <c r="AD99" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -9917,6 +10216,9 @@
       <c r="AC100" t="n">
         <v>6</v>
       </c>
+      <c r="AD100" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10012,6 +10314,9 @@
       <c r="AC101" t="n">
         <v>11</v>
       </c>
+      <c r="AD101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10107,6 +10412,9 @@
       <c r="AC102" t="n">
         <v>18</v>
       </c>
+      <c r="AD102" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -10202,6 +10510,9 @@
       <c r="AC103" t="n">
         <v>7</v>
       </c>
+      <c r="AD103" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10297,6 +10608,9 @@
       <c r="AC104" t="n">
         <v>6</v>
       </c>
+      <c r="AD104" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10392,6 +10706,9 @@
       <c r="AC105" t="n">
         <v>42</v>
       </c>
+      <c r="AD105" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10487,6 +10804,9 @@
       <c r="AC106" t="n">
         <v>5</v>
       </c>
+      <c r="AD106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10582,6 +10902,9 @@
       <c r="AC107" t="n">
         <v>7</v>
       </c>
+      <c r="AD107" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -10677,6 +11000,9 @@
       <c r="AC108" t="n">
         <v>16</v>
       </c>
+      <c r="AD108" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -10772,6 +11098,9 @@
       <c r="AC109" t="n">
         <v>3</v>
       </c>
+      <c r="AD109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -10867,6 +11196,9 @@
       <c r="AC110" t="n">
         <v>12</v>
       </c>
+      <c r="AD110" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -10962,6 +11294,9 @@
       <c r="AC111" t="n">
         <v>11</v>
       </c>
+      <c r="AD111" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -11057,6 +11392,9 @@
       <c r="AC112" t="n">
         <v>0</v>
       </c>
+      <c r="AD112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -11152,6 +11490,9 @@
       <c r="AC113" t="n">
         <v>12</v>
       </c>
+      <c r="AD113" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -11247,6 +11588,9 @@
       <c r="AC114" t="n">
         <v>6</v>
       </c>
+      <c r="AD114" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -11342,6 +11686,9 @@
       <c r="AC115" t="n">
         <v>39</v>
       </c>
+      <c r="AD115" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -11437,6 +11784,9 @@
       <c r="AC116" t="n">
         <v>2</v>
       </c>
+      <c r="AD116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -11532,6 +11882,9 @@
       <c r="AC117" t="n">
         <v>1</v>
       </c>
+      <c r="AD117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -11627,6 +11980,9 @@
       <c r="AC118" t="n">
         <v>10</v>
       </c>
+      <c r="AD118" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -11722,6 +12078,9 @@
       <c r="AC119" t="n">
         <v>25</v>
       </c>
+      <c r="AD119" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -11817,6 +12176,9 @@
       <c r="AC120" t="n">
         <v>12</v>
       </c>
+      <c r="AD120" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -11912,6 +12274,9 @@
       <c r="AC121" t="n">
         <v>5</v>
       </c>
+      <c r="AD121" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -12007,6 +12372,9 @@
       <c r="AC122" t="n">
         <v>3</v>
       </c>
+      <c r="AD122" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -12102,6 +12470,9 @@
       <c r="AC123" t="n">
         <v>5</v>
       </c>
+      <c r="AD123" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -12197,6 +12568,9 @@
       <c r="AC124" t="n">
         <v>6</v>
       </c>
+      <c r="AD124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -12292,6 +12666,9 @@
       <c r="AC125" t="n">
         <v>3</v>
       </c>
+      <c r="AD125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -12387,6 +12764,9 @@
       <c r="AC126" t="n">
         <v>1</v>
       </c>
+      <c r="AD126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -12482,6 +12862,9 @@
       <c r="AC127" t="n">
         <v>5</v>
       </c>
+      <c r="AD127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -12577,6 +12960,9 @@
       <c r="AC128" t="n">
         <v>11</v>
       </c>
+      <c r="AD128" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -12672,6 +13058,9 @@
       <c r="AC129" t="n">
         <v>9</v>
       </c>
+      <c r="AD129" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -12767,6 +13156,9 @@
       <c r="AC130" t="n">
         <v>2</v>
       </c>
+      <c r="AD130" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -12862,6 +13254,9 @@
       <c r="AC131" t="n">
         <v>5</v>
       </c>
+      <c r="AD131" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -12957,6 +13352,9 @@
       <c r="AC132" t="n">
         <v>19</v>
       </c>
+      <c r="AD132" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -13052,6 +13450,9 @@
       <c r="AC133" t="n">
         <v>4</v>
       </c>
+      <c r="AD133" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -13147,6 +13548,9 @@
       <c r="AC134" t="n">
         <v>4</v>
       </c>
+      <c r="AD134" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -13242,6 +13646,9 @@
       <c r="AC135" t="n">
         <v>3</v>
       </c>
+      <c r="AD135" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -13337,6 +13744,9 @@
       <c r="AC136" t="n">
         <v>4</v>
       </c>
+      <c r="AD136" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -13432,6 +13842,9 @@
       <c r="AC137" t="n">
         <v>32</v>
       </c>
+      <c r="AD137" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -13527,6 +13940,9 @@
       <c r="AC138" t="n">
         <v>0</v>
       </c>
+      <c r="AD138" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -13622,6 +14038,9 @@
       <c r="AC139" t="n">
         <v>13</v>
       </c>
+      <c r="AD139" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -13717,6 +14136,9 @@
       <c r="AC140" t="n">
         <v>0</v>
       </c>
+      <c r="AD140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -13812,6 +14234,9 @@
       <c r="AC141" t="n">
         <v>7</v>
       </c>
+      <c r="AD141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -13907,6 +14332,9 @@
       <c r="AC142" t="n">
         <v>11</v>
       </c>
+      <c r="AD142" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -14002,6 +14430,9 @@
       <c r="AC143" t="n">
         <v>2</v>
       </c>
+      <c r="AD143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -14097,6 +14528,9 @@
       <c r="AC144" t="n">
         <v>5</v>
       </c>
+      <c r="AD144" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -14192,6 +14626,9 @@
       <c r="AC145" t="n">
         <v>7</v>
       </c>
+      <c r="AD145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -14287,6 +14724,9 @@
       <c r="AC146" t="n">
         <v>17</v>
       </c>
+      <c r="AD146" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -14382,6 +14822,9 @@
       <c r="AC147" t="n">
         <v>4</v>
       </c>
+      <c r="AD147" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -14477,6 +14920,9 @@
       <c r="AC148" t="n">
         <v>6</v>
       </c>
+      <c r="AD148" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -14572,6 +15018,9 @@
       <c r="AC149" t="n">
         <v>5</v>
       </c>
+      <c r="AD149" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -14667,6 +15116,9 @@
       <c r="AC150" t="n">
         <v>8</v>
       </c>
+      <c r="AD150" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -14762,6 +15214,9 @@
       <c r="AC151" t="n">
         <v>13</v>
       </c>
+      <c r="AD151" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -14857,6 +15312,9 @@
       <c r="AC152" t="n">
         <v>19</v>
       </c>
+      <c r="AD152" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -14952,6 +15410,9 @@
       <c r="AC153" t="n">
         <v>3</v>
       </c>
+      <c r="AD153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -15047,6 +15508,9 @@
       <c r="AC154" t="n">
         <v>0</v>
       </c>
+      <c r="AD154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -15142,6 +15606,9 @@
       <c r="AC155" t="n">
         <v>11</v>
       </c>
+      <c r="AD155" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -15237,6 +15704,9 @@
       <c r="AC156" t="n">
         <v>1</v>
       </c>
+      <c r="AD156" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -15332,6 +15802,9 @@
       <c r="AC157" t="n">
         <v>12</v>
       </c>
+      <c r="AD157" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -15427,6 +15900,9 @@
       <c r="AC158" t="n">
         <v>2</v>
       </c>
+      <c r="AD158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -15522,6 +15998,9 @@
       <c r="AC159" t="n">
         <v>5</v>
       </c>
+      <c r="AD159" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -15617,6 +16096,9 @@
       <c r="AC160" t="n">
         <v>6</v>
       </c>
+      <c r="AD160" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -15712,6 +16194,9 @@
       <c r="AC161" t="n">
         <v>1</v>
       </c>
+      <c r="AD161" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -15807,6 +16292,9 @@
       <c r="AC162" t="n">
         <v>2</v>
       </c>
+      <c r="AD162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -15902,6 +16390,9 @@
       <c r="AC163" t="n">
         <v>9</v>
       </c>
+      <c r="AD163" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -15997,6 +16488,9 @@
       <c r="AC164" t="n">
         <v>8</v>
       </c>
+      <c r="AD164" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -16092,6 +16586,9 @@
       <c r="AC165" t="n">
         <v>20</v>
       </c>
+      <c r="AD165" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -16187,6 +16684,9 @@
       <c r="AC166" t="n">
         <v>9</v>
       </c>
+      <c r="AD166" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -16282,6 +16782,9 @@
       <c r="AC167" t="n">
         <v>4</v>
       </c>
+      <c r="AD167" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -16377,6 +16880,9 @@
       <c r="AC168" t="n">
         <v>4</v>
       </c>
+      <c r="AD168" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -16472,6 +16978,9 @@
       <c r="AC169" t="n">
         <v>16</v>
       </c>
+      <c r="AD169" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -16567,6 +17076,9 @@
       <c r="AC170" t="n">
         <v>0</v>
       </c>
+      <c r="AD170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -16662,6 +17174,9 @@
       <c r="AC171" t="n">
         <v>8</v>
       </c>
+      <c r="AD171" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -16757,6 +17272,9 @@
       <c r="AC172" t="n">
         <v>16</v>
       </c>
+      <c r="AD172" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -16852,6 +17370,9 @@
       <c r="AC173" t="n">
         <v>2</v>
       </c>
+      <c r="AD173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -16947,6 +17468,9 @@
       <c r="AC174" t="n">
         <v>9</v>
       </c>
+      <c r="AD174" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -17042,6 +17566,9 @@
       <c r="AC175" t="n">
         <v>15</v>
       </c>
+      <c r="AD175" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -17137,6 +17664,9 @@
       <c r="AC176" t="n">
         <v>20</v>
       </c>
+      <c r="AD176" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -17232,6 +17762,9 @@
       <c r="AC177" t="n">
         <v>6</v>
       </c>
+      <c r="AD177" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -17327,6 +17860,9 @@
       <c r="AC178" t="n">
         <v>6</v>
       </c>
+      <c r="AD178" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -17422,6 +17958,9 @@
       <c r="AC179" t="n">
         <v>0</v>
       </c>
+      <c r="AD179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -17517,6 +18056,9 @@
       <c r="AC180" t="n">
         <v>2</v>
       </c>
+      <c r="AD180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -17612,6 +18154,9 @@
       <c r="AC181" t="n">
         <v>14</v>
       </c>
+      <c r="AD181" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -17707,6 +18252,9 @@
       <c r="AC182" t="n">
         <v>4</v>
       </c>
+      <c r="AD182" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -17802,6 +18350,9 @@
       <c r="AC183" t="n">
         <v>0</v>
       </c>
+      <c r="AD183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -17897,6 +18448,9 @@
       <c r="AC184" t="n">
         <v>1</v>
       </c>
+      <c r="AD184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -17992,6 +18546,9 @@
       <c r="AC185" t="n">
         <v>2</v>
       </c>
+      <c r="AD185" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -18087,6 +18644,9 @@
       <c r="AC186" t="n">
         <v>7</v>
       </c>
+      <c r="AD186" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -18182,6 +18742,9 @@
       <c r="AC187" t="n">
         <v>3</v>
       </c>
+      <c r="AD187" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -18277,6 +18840,9 @@
       <c r="AC188" t="n">
         <v>57</v>
       </c>
+      <c r="AD188" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -18372,6 +18938,9 @@
       <c r="AC189" t="n">
         <v>1</v>
       </c>
+      <c r="AD189" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -18467,6 +19036,9 @@
       <c r="AC190" t="n">
         <v>2</v>
       </c>
+      <c r="AD190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -18562,6 +19134,9 @@
       <c r="AC191" t="n">
         <v>95</v>
       </c>
+      <c r="AD191" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -18657,6 +19232,9 @@
       <c r="AC192" t="n">
         <v>1</v>
       </c>
+      <c r="AD192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -18752,6 +19330,9 @@
       <c r="AC193" t="n">
         <v>4</v>
       </c>
+      <c r="AD193" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -18847,6 +19428,9 @@
       <c r="AC194" t="n">
         <v>2</v>
       </c>
+      <c r="AD194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -18942,6 +19526,9 @@
       <c r="AC195" t="n">
         <v>1</v>
       </c>
+      <c r="AD195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -19037,6 +19624,9 @@
       <c r="AC196" t="n">
         <v>2</v>
       </c>
+      <c r="AD196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -19132,6 +19722,9 @@
       <c r="AC197" t="n">
         <v>2</v>
       </c>
+      <c r="AD197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -19227,6 +19820,9 @@
       <c r="AC198" t="n">
         <v>3</v>
       </c>
+      <c r="AD198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -19322,6 +19918,9 @@
       <c r="AC199" t="n">
         <v>11</v>
       </c>
+      <c r="AD199" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -19417,6 +20016,9 @@
       <c r="AC200" t="n">
         <v>1</v>
       </c>
+      <c r="AD200" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -19512,6 +20114,9 @@
       <c r="AC201" t="n">
         <v>0</v>
       </c>
+      <c r="AD201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -19607,6 +20212,9 @@
       <c r="AC202" t="n">
         <v>1</v>
       </c>
+      <c r="AD202" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -19702,6 +20310,9 @@
       <c r="AC203" t="n">
         <v>5</v>
       </c>
+      <c r="AD203" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -19797,6 +20408,9 @@
       <c r="AC204" t="n">
         <v>7</v>
       </c>
+      <c r="AD204" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -19892,6 +20506,9 @@
       <c r="AC205" t="n">
         <v>9</v>
       </c>
+      <c r="AD205" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -19987,6 +20604,9 @@
       <c r="AC206" t="n">
         <v>2</v>
       </c>
+      <c r="AD206" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -20082,6 +20702,9 @@
       <c r="AC207" t="n">
         <v>4</v>
       </c>
+      <c r="AD207" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -20177,6 +20800,9 @@
       <c r="AC208" t="n">
         <v>60</v>
       </c>
+      <c r="AD208" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -20272,6 +20898,9 @@
       <c r="AC209" t="n">
         <v>12</v>
       </c>
+      <c r="AD209" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -20367,6 +20996,9 @@
       <c r="AC210" t="n">
         <v>1</v>
       </c>
+      <c r="AD210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -20462,6 +21094,9 @@
       <c r="AC211" t="n">
         <v>0</v>
       </c>
+      <c r="AD211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -20557,6 +21192,9 @@
       <c r="AC212" t="n">
         <v>1</v>
       </c>
+      <c r="AD212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -20652,6 +21290,9 @@
       <c r="AC213" t="n">
         <v>3</v>
       </c>
+      <c r="AD213" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -20747,6 +21388,9 @@
       <c r="AC214" t="n">
         <v>3</v>
       </c>
+      <c r="AD214" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -20842,6 +21486,9 @@
       <c r="AC215" t="n">
         <v>1</v>
       </c>
+      <c r="AD215" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -20937,6 +21584,9 @@
       <c r="AC216" t="n">
         <v>9</v>
       </c>
+      <c r="AD216" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -21032,6 +21682,9 @@
       <c r="AC217" t="n">
         <v>7</v>
       </c>
+      <c r="AD217" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -21127,6 +21780,9 @@
       <c r="AC218" t="n">
         <v>1</v>
       </c>
+      <c r="AD218" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -21222,6 +21878,9 @@
       <c r="AC219" t="n">
         <v>15</v>
       </c>
+      <c r="AD219" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -21317,6 +21976,9 @@
       <c r="AC220" t="n">
         <v>0</v>
       </c>
+      <c r="AD220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -21412,6 +22074,9 @@
       <c r="AC221" t="n">
         <v>6</v>
       </c>
+      <c r="AD221" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -21507,6 +22172,9 @@
       <c r="AC222" t="n">
         <v>6</v>
       </c>
+      <c r="AD222" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -21602,6 +22270,9 @@
       <c r="AC223" t="n">
         <v>2</v>
       </c>
+      <c r="AD223" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -21697,6 +22368,9 @@
       <c r="AC224" t="n">
         <v>4</v>
       </c>
+      <c r="AD224" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -21792,6 +22466,9 @@
       <c r="AC225" t="n">
         <v>2</v>
       </c>
+      <c r="AD225" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -21887,6 +22564,9 @@
       <c r="AC226" t="n">
         <v>13</v>
       </c>
+      <c r="AD226" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -21982,6 +22662,9 @@
       <c r="AC227" t="n">
         <v>0</v>
       </c>
+      <c r="AD227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -22077,6 +22760,9 @@
       <c r="AC228" t="n">
         <v>3</v>
       </c>
+      <c r="AD228" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -22172,6 +22858,9 @@
       <c r="AC229" t="n">
         <v>0</v>
       </c>
+      <c r="AD229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -22267,6 +22956,9 @@
       <c r="AC230" t="n">
         <v>2</v>
       </c>
+      <c r="AD230" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -22362,6 +23054,9 @@
       <c r="AC231" t="n">
         <v>44</v>
       </c>
+      <c r="AD231" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -22457,6 +23152,9 @@
       <c r="AC232" t="n">
         <v>4</v>
       </c>
+      <c r="AD232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -22552,6 +23250,9 @@
       <c r="AC233" t="n">
         <v>4</v>
       </c>
+      <c r="AD233" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -22647,6 +23348,9 @@
       <c r="AC234" t="n">
         <v>3</v>
       </c>
+      <c r="AD234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -22742,6 +23446,9 @@
       <c r="AC235" t="n">
         <v>20</v>
       </c>
+      <c r="AD235" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -22837,6 +23544,9 @@
       <c r="AC236" t="n">
         <v>2</v>
       </c>
+      <c r="AD236" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -22932,6 +23642,9 @@
       <c r="AC237" t="n">
         <v>63</v>
       </c>
+      <c r="AD237" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -23027,6 +23740,9 @@
       <c r="AC238" t="n">
         <v>2</v>
       </c>
+      <c r="AD238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -23122,6 +23838,9 @@
       <c r="AC239" t="n">
         <v>11</v>
       </c>
+      <c r="AD239" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -23217,6 +23936,9 @@
       <c r="AC240" t="n">
         <v>14</v>
       </c>
+      <c r="AD240" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -23312,6 +24034,9 @@
       <c r="AC241" t="n">
         <v>3</v>
       </c>
+      <c r="AD241" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -23407,6 +24132,9 @@
       <c r="AC242" t="n">
         <v>3</v>
       </c>
+      <c r="AD242" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -23502,6 +24230,9 @@
       <c r="AC243" t="n">
         <v>5</v>
       </c>
+      <c r="AD243" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -23597,6 +24328,9 @@
       <c r="AC244" t="n">
         <v>9</v>
       </c>
+      <c r="AD244" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -23692,6 +24426,9 @@
       <c r="AC245" t="n">
         <v>0</v>
       </c>
+      <c r="AD245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -23787,6 +24524,9 @@
       <c r="AC246" t="n">
         <v>0</v>
       </c>
+      <c r="AD246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -23882,6 +24622,9 @@
       <c r="AC247" t="n">
         <v>7</v>
       </c>
+      <c r="AD247" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -23977,6 +24720,9 @@
       <c r="AC248" t="n">
         <v>0</v>
       </c>
+      <c r="AD248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -24072,6 +24818,9 @@
       <c r="AC249" t="n">
         <v>4</v>
       </c>
+      <c r="AD249" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -24167,6 +24916,9 @@
       <c r="AC250" t="n">
         <v>3</v>
       </c>
+      <c r="AD250" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -24262,6 +25014,9 @@
       <c r="AC251" t="n">
         <v>4</v>
       </c>
+      <c r="AD251" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -24357,6 +25112,9 @@
       <c r="AC252" t="n">
         <v>4</v>
       </c>
+      <c r="AD252" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -24452,6 +25210,9 @@
       <c r="AC253" t="n">
         <v>18</v>
       </c>
+      <c r="AD253" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -24547,6 +25308,9 @@
       <c r="AC254" t="n">
         <v>8</v>
       </c>
+      <c r="AD254" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -24642,6 +25406,9 @@
       <c r="AC255" t="n">
         <v>120</v>
       </c>
+      <c r="AD255" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -24737,6 +25504,9 @@
       <c r="AC256" t="n">
         <v>2</v>
       </c>
+      <c r="AD256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -24832,6 +25602,9 @@
       <c r="AC257" t="n">
         <v>6</v>
       </c>
+      <c r="AD257" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -24927,6 +25700,9 @@
       <c r="AC258" t="n">
         <v>7</v>
       </c>
+      <c r="AD258" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -25022,6 +25798,9 @@
       <c r="AC259" t="n">
         <v>0</v>
       </c>
+      <c r="AD259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -25117,6 +25896,9 @@
       <c r="AC260" t="n">
         <v>6</v>
       </c>
+      <c r="AD260" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -25212,6 +25994,9 @@
       <c r="AC261" t="n">
         <v>0</v>
       </c>
+      <c r="AD261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -25307,6 +26092,9 @@
       <c r="AC262" t="n">
         <v>3</v>
       </c>
+      <c r="AD262" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -25402,6 +26190,9 @@
       <c r="AC263" t="n">
         <v>5</v>
       </c>
+      <c r="AD263" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -25497,6 +26288,9 @@
       <c r="AC264" t="n">
         <v>12</v>
       </c>
+      <c r="AD264" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -25592,6 +26386,9 @@
       <c r="AC265" t="n">
         <v>12</v>
       </c>
+      <c r="AD265" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -25687,6 +26484,9 @@
       <c r="AC266" t="n">
         <v>58</v>
       </c>
+      <c r="AD266" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -25782,6 +26582,9 @@
       <c r="AC267" t="n">
         <v>3</v>
       </c>
+      <c r="AD267" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -25877,6 +26680,9 @@
       <c r="AC268" t="n">
         <v>3</v>
       </c>
+      <c r="AD268" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -25972,6 +26778,9 @@
       <c r="AC269" t="n">
         <v>3</v>
       </c>
+      <c r="AD269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -26067,6 +26876,9 @@
       <c r="AC270" t="n">
         <v>15</v>
       </c>
+      <c r="AD270" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -26162,6 +26974,9 @@
       <c r="AC271" t="n">
         <v>5</v>
       </c>
+      <c r="AD271" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -26257,6 +27072,9 @@
       <c r="AC272" t="n">
         <v>8</v>
       </c>
+      <c r="AD272" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -26352,6 +27170,9 @@
       <c r="AC273" t="n">
         <v>0</v>
       </c>
+      <c r="AD273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -26447,6 +27268,9 @@
       <c r="AC274" t="n">
         <v>3</v>
       </c>
+      <c r="AD274" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -26542,6 +27366,9 @@
       <c r="AC275" t="n">
         <v>5</v>
       </c>
+      <c r="AD275" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -26637,6 +27464,9 @@
       <c r="AC276" t="n">
         <v>5</v>
       </c>
+      <c r="AD276" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -26732,6 +27562,9 @@
       <c r="AC277" t="n">
         <v>3</v>
       </c>
+      <c r="AD277" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -26827,6 +27660,9 @@
       <c r="AC278" t="n">
         <v>5</v>
       </c>
+      <c r="AD278" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -26922,6 +27758,9 @@
       <c r="AC279" t="n">
         <v>10</v>
       </c>
+      <c r="AD279" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -27017,6 +27856,9 @@
       <c r="AC280" t="n">
         <v>4</v>
       </c>
+      <c r="AD280" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -27112,6 +27954,9 @@
       <c r="AC281" t="n">
         <v>5</v>
       </c>
+      <c r="AD281" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -27207,6 +28052,9 @@
       <c r="AC282" t="n">
         <v>0</v>
       </c>
+      <c r="AD282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -27302,6 +28150,9 @@
       <c r="AC283" t="n">
         <v>3</v>
       </c>
+      <c r="AD283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -27397,6 +28248,9 @@
       <c r="AC284" t="n">
         <v>5</v>
       </c>
+      <c r="AD284" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -27492,6 +28346,9 @@
       <c r="AC285" t="n">
         <v>7</v>
       </c>
+      <c r="AD285" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -27587,6 +28444,9 @@
       <c r="AC286" t="n">
         <v>4</v>
       </c>
+      <c r="AD286" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -27682,6 +28542,9 @@
       <c r="AC287" t="n">
         <v>154</v>
       </c>
+      <c r="AD287" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -27777,6 +28640,9 @@
       <c r="AC288" t="n">
         <v>3</v>
       </c>
+      <c r="AD288" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -27872,6 +28738,9 @@
       <c r="AC289" t="n">
         <v>1</v>
       </c>
+      <c r="AD289" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -27967,6 +28836,9 @@
       <c r="AC290" t="n">
         <v>7</v>
       </c>
+      <c r="AD290" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -28062,6 +28934,9 @@
       <c r="AC291" t="n">
         <v>1</v>
       </c>
+      <c r="AD291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -28157,6 +29032,9 @@
       <c r="AC292" t="n">
         <v>76</v>
       </c>
+      <c r="AD292" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -28252,6 +29130,9 @@
       <c r="AC293" t="n">
         <v>2</v>
       </c>
+      <c r="AD293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -28347,6 +29228,9 @@
       <c r="AC294" t="n">
         <v>2</v>
       </c>
+      <c r="AD294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -28442,6 +29326,9 @@
       <c r="AC295" t="n">
         <v>6</v>
       </c>
+      <c r="AD295" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -28537,6 +29424,9 @@
       <c r="AC296" t="n">
         <v>121</v>
       </c>
+      <c r="AD296" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -28632,6 +29522,9 @@
       <c r="AC297" t="n">
         <v>8</v>
       </c>
+      <c r="AD297" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -28727,6 +29620,9 @@
       <c r="AC298" t="n">
         <v>0</v>
       </c>
+      <c r="AD298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -28822,6 +29718,9 @@
       <c r="AC299" t="n">
         <v>4</v>
       </c>
+      <c r="AD299" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -28917,6 +29816,9 @@
       <c r="AC300" t="n">
         <v>4</v>
       </c>
+      <c r="AD300" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -29012,6 +29914,9 @@
       <c r="AC301" t="n">
         <v>0</v>
       </c>
+      <c r="AD301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -29107,6 +30012,9 @@
       <c r="AC302" t="n">
         <v>2</v>
       </c>
+      <c r="AD302" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -29202,6 +30110,9 @@
       <c r="AC303" t="n">
         <v>5</v>
       </c>
+      <c r="AD303" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -29297,6 +30208,9 @@
       <c r="AC304" t="n">
         <v>9</v>
       </c>
+      <c r="AD304" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -29392,6 +30306,9 @@
       <c r="AC305" t="n">
         <v>8</v>
       </c>
+      <c r="AD305" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -29487,6 +30404,9 @@
       <c r="AC306" t="n">
         <v>33</v>
       </c>
+      <c r="AD306" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -29582,6 +30502,9 @@
       <c r="AC307" t="n">
         <v>8</v>
       </c>
+      <c r="AD307" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -29677,6 +30600,9 @@
       <c r="AC308" t="n">
         <v>9</v>
       </c>
+      <c r="AD308" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -29772,6 +30698,9 @@
       <c r="AC309" t="n">
         <v>12</v>
       </c>
+      <c r="AD309" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -29867,6 +30796,9 @@
       <c r="AC310" t="n">
         <v>0</v>
       </c>
+      <c r="AD310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -29962,6 +30894,9 @@
       <c r="AC311" t="n">
         <v>6</v>
       </c>
+      <c r="AD311" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -30057,6 +30992,9 @@
       <c r="AC312" t="n">
         <v>4</v>
       </c>
+      <c r="AD312" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -30152,6 +31090,9 @@
       <c r="AC313" t="n">
         <v>2</v>
       </c>
+      <c r="AD313" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -30247,6 +31188,9 @@
       <c r="AC314" t="n">
         <v>2</v>
       </c>
+      <c r="AD314" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -30342,6 +31286,9 @@
       <c r="AC315" t="n">
         <v>11</v>
       </c>
+      <c r="AD315" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -30437,6 +31384,9 @@
       <c r="AC316" t="n">
         <v>0</v>
       </c>
+      <c r="AD316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -30532,6 +31482,9 @@
       <c r="AC317" t="n">
         <v>2</v>
       </c>
+      <c r="AD317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -30627,6 +31580,9 @@
       <c r="AC318" t="n">
         <v>16</v>
       </c>
+      <c r="AD318" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -30722,6 +31678,9 @@
       <c r="AC319" t="n">
         <v>4</v>
       </c>
+      <c r="AD319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -30817,6 +31776,9 @@
       <c r="AC320" t="n">
         <v>3</v>
       </c>
+      <c r="AD320" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -30912,6 +31874,9 @@
       <c r="AC321" t="n">
         <v>5</v>
       </c>
+      <c r="AD321" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -31007,6 +31972,9 @@
       <c r="AC322" t="n">
         <v>8</v>
       </c>
+      <c r="AD322" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -31102,6 +32070,9 @@
       <c r="AC323" t="n">
         <v>7</v>
       </c>
+      <c r="AD323" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -31197,6 +32168,9 @@
       <c r="AC324" t="n">
         <v>1</v>
       </c>
+      <c r="AD324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -31292,6 +32266,9 @@
       <c r="AC325" t="n">
         <v>12</v>
       </c>
+      <c r="AD325" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -31387,6 +32364,9 @@
       <c r="AC326" t="n">
         <v>4</v>
       </c>
+      <c r="AD326" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -31482,6 +32462,9 @@
       <c r="AC327" t="n">
         <v>3</v>
       </c>
+      <c r="AD327" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -31577,6 +32560,9 @@
       <c r="AC328" t="n">
         <v>1</v>
       </c>
+      <c r="AD328" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -31672,6 +32658,9 @@
       <c r="AC329" t="n">
         <v>1</v>
       </c>
+      <c r="AD329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -31767,6 +32756,9 @@
       <c r="AC330" t="n">
         <v>0</v>
       </c>
+      <c r="AD330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -31862,6 +32854,9 @@
       <c r="AC331" t="n">
         <v>11</v>
       </c>
+      <c r="AD331" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -31957,6 +32952,9 @@
       <c r="AC332" t="n">
         <v>1</v>
       </c>
+      <c r="AD332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -32052,6 +33050,9 @@
       <c r="AC333" t="n">
         <v>3</v>
       </c>
+      <c r="AD333" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -32147,6 +33148,9 @@
       <c r="AC334" t="n">
         <v>0</v>
       </c>
+      <c r="AD334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -32242,6 +33246,9 @@
       <c r="AC335" t="n">
         <v>17</v>
       </c>
+      <c r="AD335" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -32337,6 +33344,9 @@
       <c r="AC336" t="n">
         <v>1</v>
       </c>
+      <c r="AD336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -32432,6 +33442,9 @@
       <c r="AC337" t="n">
         <v>6</v>
       </c>
+      <c r="AD337" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -32527,6 +33540,9 @@
       <c r="AC338" t="n">
         <v>1</v>
       </c>
+      <c r="AD338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -32622,6 +33638,9 @@
       <c r="AC339" t="n">
         <v>0</v>
       </c>
+      <c r="AD339" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -32717,6 +33736,9 @@
       <c r="AC340" t="n">
         <v>6</v>
       </c>
+      <c r="AD340" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -32812,6 +33834,9 @@
       <c r="AC341" t="n">
         <v>1</v>
       </c>
+      <c r="AD341" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -32907,6 +33932,9 @@
       <c r="AC342" t="n">
         <v>3</v>
       </c>
+      <c r="AD342" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -33002,6 +34030,9 @@
       <c r="AC343" t="n">
         <v>9</v>
       </c>
+      <c r="AD343" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -33097,6 +34128,9 @@
       <c r="AC344" t="n">
         <v>5</v>
       </c>
+      <c r="AD344" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -33192,6 +34226,9 @@
       <c r="AC345" t="n">
         <v>2</v>
       </c>
+      <c r="AD345" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -33287,6 +34324,9 @@
       <c r="AC346" t="n">
         <v>4</v>
       </c>
+      <c r="AD346" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -33382,6 +34422,9 @@
       <c r="AC347" t="n">
         <v>17</v>
       </c>
+      <c r="AD347" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -33477,6 +34520,9 @@
       <c r="AC348" t="n">
         <v>6</v>
       </c>
+      <c r="AD348" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -33572,6 +34618,9 @@
       <c r="AC349" t="n">
         <v>4</v>
       </c>
+      <c r="AD349" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -33667,6 +34716,9 @@
       <c r="AC350" t="n">
         <v>0</v>
       </c>
+      <c r="AD350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -33762,6 +34814,9 @@
       <c r="AC351" t="n">
         <v>1</v>
       </c>
+      <c r="AD351" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -33857,6 +34912,9 @@
       <c r="AC352" t="n">
         <v>7</v>
       </c>
+      <c r="AD352" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -33952,6 +35010,9 @@
       <c r="AC353" t="n">
         <v>4</v>
       </c>
+      <c r="AD353" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -34047,6 +35108,9 @@
       <c r="AC354" t="n">
         <v>15</v>
       </c>
+      <c r="AD354" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -34142,6 +35206,9 @@
       <c r="AC355" t="n">
         <v>6</v>
       </c>
+      <c r="AD355" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -34236,6 +35303,9 @@
       </c>
       <c r="AC356" t="n">
         <v>23</v>
+      </c>
+      <c r="AD356" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD356"/>
+  <dimension ref="A1:AE356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,11 @@
           <t>22-03-2020</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -615,6 +620,9 @@
       <c r="AD2" t="n">
         <v>47</v>
       </c>
+      <c r="AE2" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -713,6 +721,9 @@
       <c r="AD3" t="n">
         <v>55</v>
       </c>
+      <c r="AE3" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -811,6 +822,9 @@
       <c r="AD4" t="n">
         <v>1</v>
       </c>
+      <c r="AE4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -909,6 +923,9 @@
       <c r="AD5" t="n">
         <v>7</v>
       </c>
+      <c r="AE5" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1007,6 +1024,9 @@
       <c r="AD6" t="n">
         <v>1</v>
       </c>
+      <c r="AE6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1105,6 +1125,9 @@
       <c r="AD7" t="n">
         <v>0</v>
       </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1203,6 +1226,9 @@
       <c r="AD8" t="n">
         <v>4</v>
       </c>
+      <c r="AE8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1301,6 +1327,9 @@
       <c r="AD9" t="n">
         <v>12</v>
       </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1399,6 +1428,9 @@
       <c r="AD10" t="n">
         <v>15</v>
       </c>
+      <c r="AE10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1497,6 +1529,9 @@
       <c r="AD11" t="n">
         <v>5</v>
       </c>
+      <c r="AE11" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1595,6 +1630,9 @@
       <c r="AD12" t="n">
         <v>14</v>
       </c>
+      <c r="AE12" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1693,6 +1731,9 @@
       <c r="AD13" t="n">
         <v>17</v>
       </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1791,6 +1832,9 @@
       <c r="AD14" t="n">
         <v>9</v>
       </c>
+      <c r="AE14" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1889,6 +1933,9 @@
       <c r="AD15" t="n">
         <v>23</v>
       </c>
+      <c r="AE15" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1987,6 +2034,9 @@
       <c r="AD16" t="n">
         <v>0</v>
       </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2085,6 +2135,9 @@
       <c r="AD17" t="n">
         <v>37</v>
       </c>
+      <c r="AE17" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2183,6 +2236,9 @@
       <c r="AD18" t="n">
         <v>27</v>
       </c>
+      <c r="AE18" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2281,6 +2337,9 @@
       <c r="AD19" t="n">
         <v>188</v>
       </c>
+      <c r="AE19" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2379,6 +2438,9 @@
       <c r="AD20" t="n">
         <v>17</v>
       </c>
+      <c r="AE20" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2475,6 +2537,9 @@
         <v>0</v>
       </c>
       <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2575,6 +2640,9 @@
       <c r="AD22" t="n">
         <v>16</v>
       </c>
+      <c r="AE22" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2673,6 +2741,9 @@
       <c r="AD23" t="n">
         <v>2</v>
       </c>
+      <c r="AE23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2771,6 +2842,9 @@
       <c r="AD24" t="n">
         <v>5</v>
       </c>
+      <c r="AE24" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2869,6 +2943,9 @@
       <c r="AD25" t="n">
         <v>1</v>
       </c>
+      <c r="AE25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2967,6 +3044,9 @@
       <c r="AD26" t="n">
         <v>1</v>
       </c>
+      <c r="AE26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3065,6 +3145,9 @@
       <c r="AD27" t="n">
         <v>10</v>
       </c>
+      <c r="AE27" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3163,6 +3246,9 @@
       <c r="AD28" t="n">
         <v>9</v>
       </c>
+      <c r="AE28" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3261,6 +3347,9 @@
       <c r="AD29" t="n">
         <v>5</v>
       </c>
+      <c r="AE29" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3359,6 +3448,9 @@
       <c r="AD30" t="n">
         <v>19</v>
       </c>
+      <c r="AE30" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3457,6 +3549,9 @@
       <c r="AD31" t="n">
         <v>0</v>
       </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3555,6 +3650,9 @@
       <c r="AD32" t="n">
         <v>5</v>
       </c>
+      <c r="AE32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3653,6 +3751,9 @@
       <c r="AD33" t="n">
         <v>30</v>
       </c>
+      <c r="AE33" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3751,6 +3852,9 @@
       <c r="AD34" t="n">
         <v>1</v>
       </c>
+      <c r="AE34" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3849,6 +3953,9 @@
       <c r="AD35" t="n">
         <v>1</v>
       </c>
+      <c r="AE35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3947,6 +4054,9 @@
       <c r="AD36" t="n">
         <v>8</v>
       </c>
+      <c r="AE36" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4045,6 +4155,9 @@
       <c r="AD37" t="n">
         <v>10</v>
       </c>
+      <c r="AE37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4143,6 +4256,9 @@
       <c r="AD38" t="n">
         <v>1</v>
       </c>
+      <c r="AE38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4241,6 +4357,9 @@
       <c r="AD39" t="n">
         <v>57</v>
       </c>
+      <c r="AE39" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4339,6 +4458,9 @@
       <c r="AD40" t="n">
         <v>14</v>
       </c>
+      <c r="AE40" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4437,6 +4559,9 @@
       <c r="AD41" t="n">
         <v>11</v>
       </c>
+      <c r="AE41" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4535,6 +4660,9 @@
       <c r="AD42" t="n">
         <v>7</v>
       </c>
+      <c r="AE42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4633,6 +4761,9 @@
       <c r="AD43" t="n">
         <v>11</v>
       </c>
+      <c r="AE43" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4731,6 +4862,9 @@
       <c r="AD44" t="n">
         <v>4</v>
       </c>
+      <c r="AE44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4829,6 +4963,9 @@
       <c r="AD45" t="n">
         <v>8</v>
       </c>
+      <c r="AE45" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -4927,6 +5064,9 @@
       <c r="AD46" t="n">
         <v>5</v>
       </c>
+      <c r="AE46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5025,6 +5165,9 @@
       <c r="AD47" t="n">
         <v>37</v>
       </c>
+      <c r="AE47" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5123,6 +5266,9 @@
       <c r="AD48" t="n">
         <v>0</v>
       </c>
+      <c r="AE48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5221,6 +5367,9 @@
       <c r="AD49" t="n">
         <v>5</v>
       </c>
+      <c r="AE49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5319,6 +5468,9 @@
       <c r="AD50" t="n">
         <v>3</v>
       </c>
+      <c r="AE50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5417,6 +5569,9 @@
       <c r="AD51" t="n">
         <v>7</v>
       </c>
+      <c r="AE51" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5515,6 +5670,9 @@
       <c r="AD52" t="n">
         <v>12</v>
       </c>
+      <c r="AE52" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5613,6 +5771,9 @@
       <c r="AD53" t="n">
         <v>140</v>
       </c>
+      <c r="AE53" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5711,6 +5872,9 @@
       <c r="AD54" t="n">
         <v>1</v>
       </c>
+      <c r="AE54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5809,6 +5973,9 @@
       <c r="AD55" t="n">
         <v>6</v>
       </c>
+      <c r="AE55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -5907,6 +6074,9 @@
       <c r="AD56" t="n">
         <v>1</v>
       </c>
+      <c r="AE56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6005,6 +6175,9 @@
       <c r="AD57" t="n">
         <v>6</v>
       </c>
+      <c r="AE57" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6103,6 +6276,9 @@
       <c r="AD58" t="n">
         <v>3</v>
       </c>
+      <c r="AE58" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6201,6 +6377,9 @@
       <c r="AD59" t="n">
         <v>0</v>
       </c>
+      <c r="AE59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6299,6 +6478,9 @@
       <c r="AD60" t="n">
         <v>5</v>
       </c>
+      <c r="AE60" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6397,6 +6579,9 @@
       <c r="AD61" t="n">
         <v>7</v>
       </c>
+      <c r="AE61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6495,6 +6680,9 @@
       <c r="AD62" t="n">
         <v>8</v>
       </c>
+      <c r="AE62" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6593,6 +6781,9 @@
       <c r="AD63" t="n">
         <v>14</v>
       </c>
+      <c r="AE63" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6691,6 +6882,9 @@
       <c r="AD64" t="n">
         <v>13</v>
       </c>
+      <c r="AE64" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6789,6 +6983,9 @@
       <c r="AD65" t="n">
         <v>4</v>
       </c>
+      <c r="AE65" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -6887,6 +7084,9 @@
       <c r="AD66" t="n">
         <v>5</v>
       </c>
+      <c r="AE66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -6985,6 +7185,9 @@
       <c r="AD67" t="n">
         <v>8</v>
       </c>
+      <c r="AE67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7083,6 +7286,9 @@
       <c r="AD68" t="n">
         <v>0</v>
       </c>
+      <c r="AE68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7181,6 +7387,9 @@
       <c r="AD69" t="n">
         <v>20</v>
       </c>
+      <c r="AE69" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7279,6 +7488,9 @@
       <c r="AD70" t="n">
         <v>8</v>
       </c>
+      <c r="AE70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7377,6 +7589,9 @@
       <c r="AD71" t="n">
         <v>4</v>
       </c>
+      <c r="AE71" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7475,6 +7690,9 @@
       <c r="AD72" t="n">
         <v>3</v>
       </c>
+      <c r="AE72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7573,6 +7791,9 @@
       <c r="AD73" t="n">
         <v>12</v>
       </c>
+      <c r="AE73" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7671,6 +7892,9 @@
       <c r="AD74" t="n">
         <v>0</v>
       </c>
+      <c r="AE74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7769,6 +7993,9 @@
       <c r="AD75" t="n">
         <v>3</v>
       </c>
+      <c r="AE75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -7867,6 +8094,9 @@
       <c r="AD76" t="n">
         <v>22</v>
       </c>
+      <c r="AE76" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -7965,6 +8195,9 @@
       <c r="AD77" t="n">
         <v>16</v>
       </c>
+      <c r="AE77" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8063,6 +8296,9 @@
       <c r="AD78" t="n">
         <v>4</v>
       </c>
+      <c r="AE78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8161,6 +8397,9 @@
       <c r="AD79" t="n">
         <v>14</v>
       </c>
+      <c r="AE79" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8259,6 +8498,9 @@
       <c r="AD80" t="n">
         <v>4</v>
       </c>
+      <c r="AE80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8357,6 +8599,9 @@
       <c r="AD81" t="n">
         <v>5</v>
       </c>
+      <c r="AE81" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8455,6 +8700,9 @@
       <c r="AD82" t="n">
         <v>2</v>
       </c>
+      <c r="AE82" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8553,6 +8801,9 @@
       <c r="AD83" t="n">
         <v>13</v>
       </c>
+      <c r="AE83" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8651,6 +8902,9 @@
       <c r="AD84" t="n">
         <v>2</v>
       </c>
+      <c r="AE84" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -8749,6 +9003,9 @@
       <c r="AD85" t="n">
         <v>14</v>
       </c>
+      <c r="AE85" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -8847,6 +9104,9 @@
       <c r="AD86" t="n">
         <v>10</v>
       </c>
+      <c r="AE86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -8945,6 +9205,9 @@
       <c r="AD87" t="n">
         <v>5</v>
       </c>
+      <c r="AE87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9043,6 +9306,9 @@
       <c r="AD88" t="n">
         <v>2</v>
       </c>
+      <c r="AE88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9141,6 +9407,9 @@
       <c r="AD89" t="n">
         <v>12</v>
       </c>
+      <c r="AE89" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9239,6 +9508,9 @@
       <c r="AD90" t="n">
         <v>5</v>
       </c>
+      <c r="AE90" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9337,6 +9609,9 @@
       <c r="AD91" t="n">
         <v>16</v>
       </c>
+      <c r="AE91" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9435,6 +9710,9 @@
       <c r="AD92" t="n">
         <v>1</v>
       </c>
+      <c r="AE92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9533,6 +9811,9 @@
       <c r="AD93" t="n">
         <v>9</v>
       </c>
+      <c r="AE93" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9631,6 +9912,9 @@
       <c r="AD94" t="n">
         <v>6</v>
       </c>
+      <c r="AE94" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -9729,6 +10013,9 @@
       <c r="AD95" t="n">
         <v>46</v>
       </c>
+      <c r="AE95" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -9827,6 +10114,9 @@
       <c r="AD96" t="n">
         <v>3</v>
       </c>
+      <c r="AE96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -9925,6 +10215,9 @@
       <c r="AD97" t="n">
         <v>4</v>
       </c>
+      <c r="AE97" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10023,6 +10316,9 @@
       <c r="AD98" t="n">
         <v>7</v>
       </c>
+      <c r="AE98" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10121,6 +10417,9 @@
       <c r="AD99" t="n">
         <v>18</v>
       </c>
+      <c r="AE99" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -10219,6 +10518,9 @@
       <c r="AD100" t="n">
         <v>8</v>
       </c>
+      <c r="AE100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10317,6 +10619,9 @@
       <c r="AD101" t="n">
         <v>13</v>
       </c>
+      <c r="AE101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10415,6 +10720,9 @@
       <c r="AD102" t="n">
         <v>20</v>
       </c>
+      <c r="AE102" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -10513,6 +10821,9 @@
       <c r="AD103" t="n">
         <v>8</v>
       </c>
+      <c r="AE103" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10611,6 +10922,9 @@
       <c r="AD104" t="n">
         <v>6</v>
       </c>
+      <c r="AE104" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -10709,6 +11023,9 @@
       <c r="AD105" t="n">
         <v>50</v>
       </c>
+      <c r="AE105" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -10807,6 +11124,9 @@
       <c r="AD106" t="n">
         <v>7</v>
       </c>
+      <c r="AE106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -10905,6 +11225,9 @@
       <c r="AD107" t="n">
         <v>12</v>
       </c>
+      <c r="AE107" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11003,6 +11326,9 @@
       <c r="AD108" t="n">
         <v>25</v>
       </c>
+      <c r="AE108" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11101,6 +11427,9 @@
       <c r="AD109" t="n">
         <v>3</v>
       </c>
+      <c r="AE109" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -11199,6 +11528,9 @@
       <c r="AD110" t="n">
         <v>13</v>
       </c>
+      <c r="AE110" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -11297,6 +11629,9 @@
       <c r="AD111" t="n">
         <v>11</v>
       </c>
+      <c r="AE111" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -11395,6 +11730,9 @@
       <c r="AD112" t="n">
         <v>2</v>
       </c>
+      <c r="AE112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -11493,6 +11831,9 @@
       <c r="AD113" t="n">
         <v>15</v>
       </c>
+      <c r="AE113" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -11591,6 +11932,9 @@
       <c r="AD114" t="n">
         <v>10</v>
       </c>
+      <c r="AE114" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -11689,6 +12033,9 @@
       <c r="AD115" t="n">
         <v>46</v>
       </c>
+      <c r="AE115" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -11787,6 +12134,9 @@
       <c r="AD116" t="n">
         <v>2</v>
       </c>
+      <c r="AE116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -11885,6 +12235,9 @@
       <c r="AD117" t="n">
         <v>3</v>
       </c>
+      <c r="AE117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -11983,6 +12336,9 @@
       <c r="AD118" t="n">
         <v>12</v>
       </c>
+      <c r="AE118" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -12081,6 +12437,9 @@
       <c r="AD119" t="n">
         <v>27</v>
       </c>
+      <c r="AE119" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -12179,6 +12538,9 @@
       <c r="AD120" t="n">
         <v>16</v>
       </c>
+      <c r="AE120" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12277,6 +12639,9 @@
       <c r="AD121" t="n">
         <v>7</v>
       </c>
+      <c r="AE121" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -12375,6 +12740,9 @@
       <c r="AD122" t="n">
         <v>3</v>
       </c>
+      <c r="AE122" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -12473,6 +12841,9 @@
       <c r="AD123" t="n">
         <v>6</v>
       </c>
+      <c r="AE123" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -12571,6 +12942,9 @@
       <c r="AD124" t="n">
         <v>6</v>
       </c>
+      <c r="AE124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -12669,6 +13043,9 @@
       <c r="AD125" t="n">
         <v>3</v>
       </c>
+      <c r="AE125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -12767,6 +13144,9 @@
       <c r="AD126" t="n">
         <v>1</v>
       </c>
+      <c r="AE126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -12865,6 +13245,9 @@
       <c r="AD127" t="n">
         <v>5</v>
       </c>
+      <c r="AE127" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -12963,6 +13346,9 @@
       <c r="AD128" t="n">
         <v>11</v>
       </c>
+      <c r="AE128" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -13061,6 +13447,9 @@
       <c r="AD129" t="n">
         <v>9</v>
       </c>
+      <c r="AE129" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -13159,6 +13548,9 @@
       <c r="AD130" t="n">
         <v>2</v>
       </c>
+      <c r="AE130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -13257,6 +13649,9 @@
       <c r="AD131" t="n">
         <v>8</v>
       </c>
+      <c r="AE131" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -13355,6 +13750,9 @@
       <c r="AD132" t="n">
         <v>24</v>
       </c>
+      <c r="AE132" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -13453,6 +13851,9 @@
       <c r="AD133" t="n">
         <v>7</v>
       </c>
+      <c r="AE133" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -13551,6 +13952,9 @@
       <c r="AD134" t="n">
         <v>6</v>
       </c>
+      <c r="AE134" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -13649,6 +14053,9 @@
       <c r="AD135" t="n">
         <v>4</v>
       </c>
+      <c r="AE135" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -13747,6 +14154,9 @@
       <c r="AD136" t="n">
         <v>4</v>
       </c>
+      <c r="AE136" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -13845,6 +14255,9 @@
       <c r="AD137" t="n">
         <v>38</v>
       </c>
+      <c r="AE137" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -13943,6 +14356,9 @@
       <c r="AD138" t="n">
         <v>1</v>
       </c>
+      <c r="AE138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -14041,6 +14457,9 @@
       <c r="AD139" t="n">
         <v>15</v>
       </c>
+      <c r="AE139" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -14139,6 +14558,9 @@
       <c r="AD140" t="n">
         <v>0</v>
       </c>
+      <c r="AE140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -14237,6 +14659,9 @@
       <c r="AD141" t="n">
         <v>7</v>
       </c>
+      <c r="AE141" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -14335,6 +14760,9 @@
       <c r="AD142" t="n">
         <v>15</v>
       </c>
+      <c r="AE142" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -14433,6 +14861,9 @@
       <c r="AD143" t="n">
         <v>2</v>
       </c>
+      <c r="AE143" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -14531,6 +14962,9 @@
       <c r="AD144" t="n">
         <v>6</v>
       </c>
+      <c r="AE144" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -14629,6 +15063,9 @@
       <c r="AD145" t="n">
         <v>7</v>
       </c>
+      <c r="AE145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -14727,6 +15164,9 @@
       <c r="AD146" t="n">
         <v>21</v>
       </c>
+      <c r="AE146" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -14825,6 +15265,9 @@
       <c r="AD147" t="n">
         <v>5</v>
       </c>
+      <c r="AE147" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -14923,6 +15366,9 @@
       <c r="AD148" t="n">
         <v>7</v>
       </c>
+      <c r="AE148" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -15021,6 +15467,9 @@
       <c r="AD149" t="n">
         <v>5</v>
       </c>
+      <c r="AE149" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -15119,6 +15568,9 @@
       <c r="AD150" t="n">
         <v>9</v>
       </c>
+      <c r="AE150" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -15217,6 +15669,9 @@
       <c r="AD151" t="n">
         <v>13</v>
       </c>
+      <c r="AE151" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -15315,6 +15770,9 @@
       <c r="AD152" t="n">
         <v>23</v>
       </c>
+      <c r="AE152" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -15413,6 +15871,9 @@
       <c r="AD153" t="n">
         <v>3</v>
       </c>
+      <c r="AE153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -15511,6 +15972,9 @@
       <c r="AD154" t="n">
         <v>0</v>
       </c>
+      <c r="AE154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -15609,6 +16073,9 @@
       <c r="AD155" t="n">
         <v>13</v>
       </c>
+      <c r="AE155" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -15707,6 +16174,9 @@
       <c r="AD156" t="n">
         <v>2</v>
       </c>
+      <c r="AE156" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -15805,6 +16275,9 @@
       <c r="AD157" t="n">
         <v>14</v>
       </c>
+      <c r="AE157" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -15903,6 +16376,9 @@
       <c r="AD158" t="n">
         <v>2</v>
       </c>
+      <c r="AE158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -16001,6 +16477,9 @@
       <c r="AD159" t="n">
         <v>6</v>
       </c>
+      <c r="AE159" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -16099,6 +16578,9 @@
       <c r="AD160" t="n">
         <v>8</v>
       </c>
+      <c r="AE160" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -16197,6 +16679,9 @@
       <c r="AD161" t="n">
         <v>2</v>
       </c>
+      <c r="AE161" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -16295,6 +16780,9 @@
       <c r="AD162" t="n">
         <v>3</v>
       </c>
+      <c r="AE162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -16393,6 +16881,9 @@
       <c r="AD163" t="n">
         <v>11</v>
       </c>
+      <c r="AE163" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -16491,6 +16982,9 @@
       <c r="AD164" t="n">
         <v>11</v>
       </c>
+      <c r="AE164" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -16589,6 +17083,9 @@
       <c r="AD165" t="n">
         <v>22</v>
       </c>
+      <c r="AE165" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -16687,6 +17184,9 @@
       <c r="AD166" t="n">
         <v>10</v>
       </c>
+      <c r="AE166" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -16785,6 +17285,9 @@
       <c r="AD167" t="n">
         <v>5</v>
       </c>
+      <c r="AE167" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -16883,6 +17386,9 @@
       <c r="AD168" t="n">
         <v>4</v>
       </c>
+      <c r="AE168" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -16981,6 +17487,9 @@
       <c r="AD169" t="n">
         <v>20</v>
       </c>
+      <c r="AE169" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -17079,6 +17588,9 @@
       <c r="AD170" t="n">
         <v>0</v>
       </c>
+      <c r="AE170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -17177,6 +17689,9 @@
       <c r="AD171" t="n">
         <v>8</v>
       </c>
+      <c r="AE171" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -17275,6 +17790,9 @@
       <c r="AD172" t="n">
         <v>16</v>
       </c>
+      <c r="AE172" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -17373,6 +17891,9 @@
       <c r="AD173" t="n">
         <v>2</v>
       </c>
+      <c r="AE173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -17471,6 +17992,9 @@
       <c r="AD174" t="n">
         <v>10</v>
       </c>
+      <c r="AE174" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -17569,6 +18093,9 @@
       <c r="AD175" t="n">
         <v>19</v>
       </c>
+      <c r="AE175" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -17667,6 +18194,9 @@
       <c r="AD176" t="n">
         <v>22</v>
       </c>
+      <c r="AE176" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -17765,6 +18295,9 @@
       <c r="AD177" t="n">
         <v>6</v>
       </c>
+      <c r="AE177" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -17863,6 +18396,9 @@
       <c r="AD178" t="n">
         <v>9</v>
       </c>
+      <c r="AE178" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -17961,6 +18497,9 @@
       <c r="AD179" t="n">
         <v>1</v>
       </c>
+      <c r="AE179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -18059,6 +18598,9 @@
       <c r="AD180" t="n">
         <v>2</v>
       </c>
+      <c r="AE180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -18157,6 +18699,9 @@
       <c r="AD181" t="n">
         <v>16</v>
       </c>
+      <c r="AE181" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -18255,6 +18800,9 @@
       <c r="AD182" t="n">
         <v>6</v>
       </c>
+      <c r="AE182" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -18353,6 +18901,9 @@
       <c r="AD183" t="n">
         <v>0</v>
       </c>
+      <c r="AE183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -18451,6 +19002,9 @@
       <c r="AD184" t="n">
         <v>1</v>
       </c>
+      <c r="AE184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -18549,6 +19103,9 @@
       <c r="AD185" t="n">
         <v>2</v>
       </c>
+      <c r="AE185" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -18647,6 +19204,9 @@
       <c r="AD186" t="n">
         <v>8</v>
       </c>
+      <c r="AE186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -18745,6 +19305,9 @@
       <c r="AD187" t="n">
         <v>5</v>
       </c>
+      <c r="AE187" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -18843,6 +19406,9 @@
       <c r="AD188" t="n">
         <v>59</v>
       </c>
+      <c r="AE188" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -18941,6 +19507,9 @@
       <c r="AD189" t="n">
         <v>2</v>
       </c>
+      <c r="AE189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -19039,6 +19608,9 @@
       <c r="AD190" t="n">
         <v>3</v>
       </c>
+      <c r="AE190" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -19137,6 +19709,9 @@
       <c r="AD191" t="n">
         <v>119</v>
       </c>
+      <c r="AE191" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -19235,6 +19810,9 @@
       <c r="AD192" t="n">
         <v>1</v>
       </c>
+      <c r="AE192" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -19333,6 +19911,9 @@
       <c r="AD193" t="n">
         <v>5</v>
       </c>
+      <c r="AE193" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -19431,6 +20012,9 @@
       <c r="AD194" t="n">
         <v>2</v>
       </c>
+      <c r="AE194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -19529,6 +20113,9 @@
       <c r="AD195" t="n">
         <v>1</v>
       </c>
+      <c r="AE195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -19627,6 +20214,9 @@
       <c r="AD196" t="n">
         <v>2</v>
       </c>
+      <c r="AE196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -19725,6 +20315,9 @@
       <c r="AD197" t="n">
         <v>2</v>
       </c>
+      <c r="AE197" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -19823,6 +20416,9 @@
       <c r="AD198" t="n">
         <v>3</v>
       </c>
+      <c r="AE198" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -19921,6 +20517,9 @@
       <c r="AD199" t="n">
         <v>11</v>
       </c>
+      <c r="AE199" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -20019,6 +20618,9 @@
       <c r="AD200" t="n">
         <v>2</v>
       </c>
+      <c r="AE200" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -20117,6 +20719,9 @@
       <c r="AD201" t="n">
         <v>0</v>
       </c>
+      <c r="AE201" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -20215,6 +20820,9 @@
       <c r="AD202" t="n">
         <v>1</v>
       </c>
+      <c r="AE202" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -20313,6 +20921,9 @@
       <c r="AD203" t="n">
         <v>9</v>
       </c>
+      <c r="AE203" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -20411,6 +21022,9 @@
       <c r="AD204" t="n">
         <v>8</v>
       </c>
+      <c r="AE204" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -20509,6 +21123,9 @@
       <c r="AD205" t="n">
         <v>9</v>
       </c>
+      <c r="AE205" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -20607,6 +21224,9 @@
       <c r="AD206" t="n">
         <v>3</v>
       </c>
+      <c r="AE206" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -20705,6 +21325,9 @@
       <c r="AD207" t="n">
         <v>4</v>
       </c>
+      <c r="AE207" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -20803,6 +21426,9 @@
       <c r="AD208" t="n">
         <v>68</v>
       </c>
+      <c r="AE208" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -20901,6 +21527,9 @@
       <c r="AD209" t="n">
         <v>15</v>
       </c>
+      <c r="AE209" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -20999,6 +21628,9 @@
       <c r="AD210" t="n">
         <v>1</v>
       </c>
+      <c r="AE210" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -21097,6 +21729,9 @@
       <c r="AD211" t="n">
         <v>0</v>
       </c>
+      <c r="AE211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -21195,6 +21830,9 @@
       <c r="AD212" t="n">
         <v>1</v>
       </c>
+      <c r="AE212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -21293,6 +21931,9 @@
       <c r="AD213" t="n">
         <v>3</v>
       </c>
+      <c r="AE213" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -21391,6 +22032,9 @@
       <c r="AD214" t="n">
         <v>6</v>
       </c>
+      <c r="AE214" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -21489,6 +22133,9 @@
       <c r="AD215" t="n">
         <v>3</v>
       </c>
+      <c r="AE215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -21587,6 +22234,9 @@
       <c r="AD216" t="n">
         <v>13</v>
       </c>
+      <c r="AE216" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -21685,6 +22335,9 @@
       <c r="AD217" t="n">
         <v>7</v>
       </c>
+      <c r="AE217" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -21783,6 +22436,9 @@
       <c r="AD218" t="n">
         <v>3</v>
       </c>
+      <c r="AE218" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -21881,6 +22537,9 @@
       <c r="AD219" t="n">
         <v>16</v>
       </c>
+      <c r="AE219" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -21979,6 +22638,9 @@
       <c r="AD220" t="n">
         <v>0</v>
       </c>
+      <c r="AE220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -22077,6 +22739,9 @@
       <c r="AD221" t="n">
         <v>7</v>
       </c>
+      <c r="AE221" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -22175,6 +22840,9 @@
       <c r="AD222" t="n">
         <v>6</v>
       </c>
+      <c r="AE222" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -22273,6 +22941,9 @@
       <c r="AD223" t="n">
         <v>2</v>
       </c>
+      <c r="AE223" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -22371,6 +23042,9 @@
       <c r="AD224" t="n">
         <v>4</v>
       </c>
+      <c r="AE224" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -22469,6 +23143,9 @@
       <c r="AD225" t="n">
         <v>2</v>
       </c>
+      <c r="AE225" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -22567,6 +23244,9 @@
       <c r="AD226" t="n">
         <v>16</v>
       </c>
+      <c r="AE226" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -22665,6 +23345,9 @@
       <c r="AD227" t="n">
         <v>0</v>
       </c>
+      <c r="AE227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -22763,6 +23446,9 @@
       <c r="AD228" t="n">
         <v>4</v>
       </c>
+      <c r="AE228" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -22861,6 +23547,9 @@
       <c r="AD229" t="n">
         <v>0</v>
       </c>
+      <c r="AE229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -22959,6 +23648,9 @@
       <c r="AD230" t="n">
         <v>2</v>
       </c>
+      <c r="AE230" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -23057,6 +23749,9 @@
       <c r="AD231" t="n">
         <v>59</v>
       </c>
+      <c r="AE231" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -23155,6 +23850,9 @@
       <c r="AD232" t="n">
         <v>4</v>
       </c>
+      <c r="AE232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -23253,6 +23951,9 @@
       <c r="AD233" t="n">
         <v>4</v>
       </c>
+      <c r="AE233" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -23351,6 +24052,9 @@
       <c r="AD234" t="n">
         <v>4</v>
       </c>
+      <c r="AE234" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -23449,6 +24153,9 @@
       <c r="AD235" t="n">
         <v>22</v>
       </c>
+      <c r="AE235" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -23547,6 +24254,9 @@
       <c r="AD236" t="n">
         <v>4</v>
       </c>
+      <c r="AE236" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -23645,6 +24355,9 @@
       <c r="AD237" t="n">
         <v>64</v>
       </c>
+      <c r="AE237" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -23743,6 +24456,9 @@
       <c r="AD238" t="n">
         <v>2</v>
       </c>
+      <c r="AE238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -23841,6 +24557,9 @@
       <c r="AD239" t="n">
         <v>11</v>
       </c>
+      <c r="AE239" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -23939,6 +24658,9 @@
       <c r="AD240" t="n">
         <v>20</v>
       </c>
+      <c r="AE240" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -24037,6 +24759,9 @@
       <c r="AD241" t="n">
         <v>3</v>
       </c>
+      <c r="AE241" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -24135,6 +24860,9 @@
       <c r="AD242" t="n">
         <v>5</v>
       </c>
+      <c r="AE242" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -24233,6 +24961,9 @@
       <c r="AD243" t="n">
         <v>5</v>
       </c>
+      <c r="AE243" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -24331,6 +25062,9 @@
       <c r="AD244" t="n">
         <v>10</v>
       </c>
+      <c r="AE244" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -24429,6 +25163,9 @@
       <c r="AD245" t="n">
         <v>0</v>
       </c>
+      <c r="AE245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -24527,6 +25264,9 @@
       <c r="AD246" t="n">
         <v>1</v>
       </c>
+      <c r="AE246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -24625,6 +25365,9 @@
       <c r="AD247" t="n">
         <v>10</v>
       </c>
+      <c r="AE247" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -24723,6 +25466,9 @@
       <c r="AD248" t="n">
         <v>0</v>
       </c>
+      <c r="AE248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -24821,6 +25567,9 @@
       <c r="AD249" t="n">
         <v>5</v>
       </c>
+      <c r="AE249" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -24919,6 +25668,9 @@
       <c r="AD250" t="n">
         <v>4</v>
       </c>
+      <c r="AE250" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -25017,6 +25769,9 @@
       <c r="AD251" t="n">
         <v>5</v>
       </c>
+      <c r="AE251" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -25115,6 +25870,9 @@
       <c r="AD252" t="n">
         <v>6</v>
       </c>
+      <c r="AE252" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -25213,6 +25971,9 @@
       <c r="AD253" t="n">
         <v>21</v>
       </c>
+      <c r="AE253" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -25311,6 +26072,9 @@
       <c r="AD254" t="n">
         <v>11</v>
       </c>
+      <c r="AE254" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -25409,6 +26173,9 @@
       <c r="AD255" t="n">
         <v>139</v>
       </c>
+      <c r="AE255" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -25507,6 +26274,9 @@
       <c r="AD256" t="n">
         <v>2</v>
       </c>
+      <c r="AE256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -25605,6 +26375,9 @@
       <c r="AD257" t="n">
         <v>6</v>
       </c>
+      <c r="AE257" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -25703,6 +26476,9 @@
       <c r="AD258" t="n">
         <v>7</v>
       </c>
+      <c r="AE258" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -25801,6 +26577,9 @@
       <c r="AD259" t="n">
         <v>1</v>
       </c>
+      <c r="AE259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -25899,6 +26678,9 @@
       <c r="AD260" t="n">
         <v>8</v>
       </c>
+      <c r="AE260" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -25997,6 +26779,9 @@
       <c r="AD261" t="n">
         <v>0</v>
       </c>
+      <c r="AE261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -26095,6 +26880,9 @@
       <c r="AD262" t="n">
         <v>3</v>
       </c>
+      <c r="AE262" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -26193,6 +26981,9 @@
       <c r="AD263" t="n">
         <v>5</v>
       </c>
+      <c r="AE263" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -26291,6 +27082,9 @@
       <c r="AD264" t="n">
         <v>13</v>
       </c>
+      <c r="AE264" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -26389,6 +27183,9 @@
       <c r="AD265" t="n">
         <v>14</v>
       </c>
+      <c r="AE265" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -26487,6 +27284,9 @@
       <c r="AD266" t="n">
         <v>59</v>
       </c>
+      <c r="AE266" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -26585,6 +27385,9 @@
       <c r="AD267" t="n">
         <v>3</v>
       </c>
+      <c r="AE267" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -26683,6 +27486,9 @@
       <c r="AD268" t="n">
         <v>4</v>
       </c>
+      <c r="AE268" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -26781,6 +27587,9 @@
       <c r="AD269" t="n">
         <v>3</v>
       </c>
+      <c r="AE269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -26879,6 +27688,9 @@
       <c r="AD270" t="n">
         <v>16</v>
       </c>
+      <c r="AE270" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -26977,6 +27789,9 @@
       <c r="AD271" t="n">
         <v>6</v>
       </c>
+      <c r="AE271" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -27075,6 +27890,9 @@
       <c r="AD272" t="n">
         <v>10</v>
       </c>
+      <c r="AE272" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -27173,6 +27991,9 @@
       <c r="AD273" t="n">
         <v>0</v>
       </c>
+      <c r="AE273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -27271,6 +28092,9 @@
       <c r="AD274" t="n">
         <v>3</v>
       </c>
+      <c r="AE274" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -27369,6 +28193,9 @@
       <c r="AD275" t="n">
         <v>5</v>
       </c>
+      <c r="AE275" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -27467,6 +28294,9 @@
       <c r="AD276" t="n">
         <v>8</v>
       </c>
+      <c r="AE276" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -27565,6 +28395,9 @@
       <c r="AD277" t="n">
         <v>3</v>
       </c>
+      <c r="AE277" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -27663,6 +28496,9 @@
       <c r="AD278" t="n">
         <v>6</v>
       </c>
+      <c r="AE278" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -27761,6 +28597,9 @@
       <c r="AD279" t="n">
         <v>12</v>
       </c>
+      <c r="AE279" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -27859,6 +28698,9 @@
       <c r="AD280" t="n">
         <v>5</v>
       </c>
+      <c r="AE280" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -27957,6 +28799,9 @@
       <c r="AD281" t="n">
         <v>5</v>
       </c>
+      <c r="AE281" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -28055,6 +28900,9 @@
       <c r="AD282" t="n">
         <v>0</v>
       </c>
+      <c r="AE282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -28153,6 +29001,9 @@
       <c r="AD283" t="n">
         <v>3</v>
       </c>
+      <c r="AE283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -28251,6 +29102,9 @@
       <c r="AD284" t="n">
         <v>7</v>
       </c>
+      <c r="AE284" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -28349,6 +29203,9 @@
       <c r="AD285" t="n">
         <v>7</v>
       </c>
+      <c r="AE285" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -28447,6 +29304,9 @@
       <c r="AD286" t="n">
         <v>5</v>
       </c>
+      <c r="AE286" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -28545,6 +29405,9 @@
       <c r="AD287" t="n">
         <v>178</v>
       </c>
+      <c r="AE287" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -28643,6 +29506,9 @@
       <c r="AD288" t="n">
         <v>3</v>
       </c>
+      <c r="AE288" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -28741,6 +29607,9 @@
       <c r="AD289" t="n">
         <v>1</v>
       </c>
+      <c r="AE289" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -28839,6 +29708,9 @@
       <c r="AD290" t="n">
         <v>8</v>
       </c>
+      <c r="AE290" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -28937,6 +29809,9 @@
       <c r="AD291" t="n">
         <v>1</v>
       </c>
+      <c r="AE291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -29035,6 +29910,9 @@
       <c r="AD292" t="n">
         <v>82</v>
       </c>
+      <c r="AE292" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -29133,6 +30011,9 @@
       <c r="AD293" t="n">
         <v>4</v>
       </c>
+      <c r="AE293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -29231,6 +30112,9 @@
       <c r="AD294" t="n">
         <v>2</v>
       </c>
+      <c r="AE294" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -29329,6 +30213,9 @@
       <c r="AD295" t="n">
         <v>7</v>
       </c>
+      <c r="AE295" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -29427,6 +30314,9 @@
       <c r="AD296" t="n">
         <v>131</v>
       </c>
+      <c r="AE296" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -29525,6 +30415,9 @@
       <c r="AD297" t="n">
         <v>11</v>
       </c>
+      <c r="AE297" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -29623,6 +30516,9 @@
       <c r="AD298" t="n">
         <v>0</v>
       </c>
+      <c r="AE298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -29721,6 +30617,9 @@
       <c r="AD299" t="n">
         <v>4</v>
       </c>
+      <c r="AE299" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -29819,6 +30718,9 @@
       <c r="AD300" t="n">
         <v>4</v>
       </c>
+      <c r="AE300" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -29917,6 +30819,9 @@
       <c r="AD301" t="n">
         <v>0</v>
       </c>
+      <c r="AE301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -30015,6 +30920,9 @@
       <c r="AD302" t="n">
         <v>3</v>
       </c>
+      <c r="AE302" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -30113,6 +31021,9 @@
       <c r="AD303" t="n">
         <v>5</v>
       </c>
+      <c r="AE303" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -30211,6 +31122,9 @@
       <c r="AD304" t="n">
         <v>11</v>
       </c>
+      <c r="AE304" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -30309,6 +31223,9 @@
       <c r="AD305" t="n">
         <v>10</v>
       </c>
+      <c r="AE305" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -30407,6 +31324,9 @@
       <c r="AD306" t="n">
         <v>33</v>
       </c>
+      <c r="AE306" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -30505,6 +31425,9 @@
       <c r="AD307" t="n">
         <v>9</v>
       </c>
+      <c r="AE307" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -30603,6 +31526,9 @@
       <c r="AD308" t="n">
         <v>11</v>
       </c>
+      <c r="AE308" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -30701,6 +31627,9 @@
       <c r="AD309" t="n">
         <v>15</v>
       </c>
+      <c r="AE309" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -30799,6 +31728,9 @@
       <c r="AD310" t="n">
         <v>0</v>
       </c>
+      <c r="AE310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -30897,6 +31829,9 @@
       <c r="AD311" t="n">
         <v>6</v>
       </c>
+      <c r="AE311" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -30995,6 +31930,9 @@
       <c r="AD312" t="n">
         <v>4</v>
       </c>
+      <c r="AE312" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -31093,6 +32031,9 @@
       <c r="AD313" t="n">
         <v>3</v>
       </c>
+      <c r="AE313" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -31191,6 +32132,9 @@
       <c r="AD314" t="n">
         <v>2</v>
       </c>
+      <c r="AE314" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -31289,6 +32233,9 @@
       <c r="AD315" t="n">
         <v>15</v>
       </c>
+      <c r="AE315" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -31387,6 +32334,9 @@
       <c r="AD316" t="n">
         <v>0</v>
       </c>
+      <c r="AE316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -31485,6 +32435,9 @@
       <c r="AD317" t="n">
         <v>2</v>
       </c>
+      <c r="AE317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -31583,6 +32536,9 @@
       <c r="AD318" t="n">
         <v>22</v>
       </c>
+      <c r="AE318" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -31681,6 +32637,9 @@
       <c r="AD319" t="n">
         <v>4</v>
       </c>
+      <c r="AE319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -31779,6 +32738,9 @@
       <c r="AD320" t="n">
         <v>3</v>
       </c>
+      <c r="AE320" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -31877,6 +32839,9 @@
       <c r="AD321" t="n">
         <v>5</v>
       </c>
+      <c r="AE321" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -31975,6 +32940,9 @@
       <c r="AD322" t="n">
         <v>8</v>
       </c>
+      <c r="AE322" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -32073,6 +33041,9 @@
       <c r="AD323" t="n">
         <v>7</v>
       </c>
+      <c r="AE323" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -32171,6 +33142,9 @@
       <c r="AD324" t="n">
         <v>1</v>
       </c>
+      <c r="AE324" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -32269,6 +33243,9 @@
       <c r="AD325" t="n">
         <v>12</v>
       </c>
+      <c r="AE325" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -32367,6 +33344,9 @@
       <c r="AD326" t="n">
         <v>6</v>
       </c>
+      <c r="AE326" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -32465,6 +33445,9 @@
       <c r="AD327" t="n">
         <v>6</v>
       </c>
+      <c r="AE327" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -32563,6 +33546,9 @@
       <c r="AD328" t="n">
         <v>1</v>
       </c>
+      <c r="AE328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -32661,6 +33647,9 @@
       <c r="AD329" t="n">
         <v>2</v>
       </c>
+      <c r="AE329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -32759,6 +33748,9 @@
       <c r="AD330" t="n">
         <v>0</v>
       </c>
+      <c r="AE330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -32857,6 +33849,9 @@
       <c r="AD331" t="n">
         <v>15</v>
       </c>
+      <c r="AE331" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -32955,6 +33950,9 @@
       <c r="AD332" t="n">
         <v>1</v>
       </c>
+      <c r="AE332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -33053,6 +34051,9 @@
       <c r="AD333" t="n">
         <v>5</v>
       </c>
+      <c r="AE333" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -33151,6 +34152,9 @@
       <c r="AD334" t="n">
         <v>0</v>
       </c>
+      <c r="AE334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -33249,6 +34253,9 @@
       <c r="AD335" t="n">
         <v>20</v>
       </c>
+      <c r="AE335" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -33347,6 +34354,9 @@
       <c r="AD336" t="n">
         <v>1</v>
       </c>
+      <c r="AE336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -33445,6 +34455,9 @@
       <c r="AD337" t="n">
         <v>6</v>
       </c>
+      <c r="AE337" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -33543,6 +34556,9 @@
       <c r="AD338" t="n">
         <v>2</v>
       </c>
+      <c r="AE338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -33641,6 +34657,9 @@
       <c r="AD339" t="n">
         <v>2</v>
       </c>
+      <c r="AE339" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -33739,6 +34758,9 @@
       <c r="AD340" t="n">
         <v>7</v>
       </c>
+      <c r="AE340" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -33837,6 +34859,9 @@
       <c r="AD341" t="n">
         <v>1</v>
       </c>
+      <c r="AE341" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -33935,6 +34960,9 @@
       <c r="AD342" t="n">
         <v>3</v>
       </c>
+      <c r="AE342" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -34033,6 +35061,9 @@
       <c r="AD343" t="n">
         <v>11</v>
       </c>
+      <c r="AE343" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -34131,6 +35162,9 @@
       <c r="AD344" t="n">
         <v>6</v>
       </c>
+      <c r="AE344" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -34229,6 +35263,9 @@
       <c r="AD345" t="n">
         <v>2</v>
       </c>
+      <c r="AE345" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -34327,6 +35364,9 @@
       <c r="AD346" t="n">
         <v>4</v>
       </c>
+      <c r="AE346" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -34425,6 +35465,9 @@
       <c r="AD347" t="n">
         <v>17</v>
       </c>
+      <c r="AE347" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -34523,6 +35566,9 @@
       <c r="AD348" t="n">
         <v>8</v>
       </c>
+      <c r="AE348" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -34621,6 +35667,9 @@
       <c r="AD349" t="n">
         <v>5</v>
       </c>
+      <c r="AE349" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -34719,6 +35768,9 @@
       <c r="AD350" t="n">
         <v>0</v>
       </c>
+      <c r="AE350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -34817,6 +35869,9 @@
       <c r="AD351" t="n">
         <v>3</v>
       </c>
+      <c r="AE351" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -34915,6 +35970,9 @@
       <c r="AD352" t="n">
         <v>7</v>
       </c>
+      <c r="AE352" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -35013,6 +36071,9 @@
       <c r="AD353" t="n">
         <v>4</v>
       </c>
+      <c r="AE353" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -35111,6 +36172,9 @@
       <c r="AD354" t="n">
         <v>17</v>
       </c>
+      <c r="AE354" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -35209,6 +36273,9 @@
       <c r="AD355" t="n">
         <v>6</v>
       </c>
+      <c r="AE355" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -35306,6 +36373,9 @@
       </c>
       <c r="AD356" t="n">
         <v>28</v>
+      </c>
+      <c r="AE356" t="n">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE356"/>
+  <dimension ref="A1:AF356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -522,6 +522,11 @@
           <t>23-03-2020</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>24-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -623,6 +628,9 @@
       <c r="AE2" t="n">
         <v>53</v>
       </c>
+      <c r="AF2" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -724,6 +732,9 @@
       <c r="AE3" t="n">
         <v>60</v>
       </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -825,6 +836,9 @@
       <c r="AE4" t="n">
         <v>1</v>
       </c>
+      <c r="AF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -926,6 +940,9 @@
       <c r="AE5" t="n">
         <v>8</v>
       </c>
+      <c r="AF5" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1027,6 +1044,9 @@
       <c r="AE6" t="n">
         <v>1</v>
       </c>
+      <c r="AF6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1128,6 +1148,9 @@
       <c r="AE7" t="n">
         <v>0</v>
       </c>
+      <c r="AF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1229,6 +1252,9 @@
       <c r="AE8" t="n">
         <v>4</v>
       </c>
+      <c r="AF8" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1330,6 +1356,9 @@
       <c r="AE9" t="n">
         <v>14</v>
       </c>
+      <c r="AF9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1431,6 +1460,9 @@
       <c r="AE10" t="n">
         <v>16</v>
       </c>
+      <c r="AF10" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1532,6 +1564,9 @@
       <c r="AE11" t="n">
         <v>7</v>
       </c>
+      <c r="AF11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1633,6 +1668,9 @@
       <c r="AE12" t="n">
         <v>18</v>
       </c>
+      <c r="AF12" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1734,6 +1772,9 @@
       <c r="AE13" t="n">
         <v>17</v>
       </c>
+      <c r="AF13" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1835,6 +1876,9 @@
       <c r="AE14" t="n">
         <v>14</v>
       </c>
+      <c r="AF14" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1936,6 +1980,9 @@
       <c r="AE15" t="n">
         <v>25</v>
       </c>
+      <c r="AF15" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2037,6 +2084,9 @@
       <c r="AE16" t="n">
         <v>0</v>
       </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2138,6 +2188,9 @@
       <c r="AE17" t="n">
         <v>41</v>
       </c>
+      <c r="AF17" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2239,6 +2292,9 @@
       <c r="AE18" t="n">
         <v>29</v>
       </c>
+      <c r="AF18" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2340,6 +2396,9 @@
       <c r="AE19" t="n">
         <v>203</v>
       </c>
+      <c r="AF19" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2441,6 +2500,9 @@
       <c r="AE20" t="n">
         <v>26</v>
       </c>
+      <c r="AF20" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2540,6 +2602,9 @@
         <v>0</v>
       </c>
       <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2643,6 +2708,9 @@
       <c r="AE22" t="n">
         <v>20</v>
       </c>
+      <c r="AF22" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2744,6 +2812,9 @@
       <c r="AE23" t="n">
         <v>4</v>
       </c>
+      <c r="AF23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2845,6 +2916,9 @@
       <c r="AE24" t="n">
         <v>5</v>
       </c>
+      <c r="AF24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2946,6 +3020,9 @@
       <c r="AE25" t="n">
         <v>1</v>
       </c>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3047,6 +3124,9 @@
       <c r="AE26" t="n">
         <v>2</v>
       </c>
+      <c r="AF26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3148,6 +3228,9 @@
       <c r="AE27" t="n">
         <v>13</v>
       </c>
+      <c r="AF27" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3249,6 +3332,9 @@
       <c r="AE28" t="n">
         <v>10</v>
       </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3350,6 +3436,9 @@
       <c r="AE29" t="n">
         <v>5</v>
       </c>
+      <c r="AF29" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3451,6 +3540,9 @@
       <c r="AE30" t="n">
         <v>20</v>
       </c>
+      <c r="AF30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3552,6 +3644,9 @@
       <c r="AE31" t="n">
         <v>0</v>
       </c>
+      <c r="AF31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3653,6 +3748,9 @@
       <c r="AE32" t="n">
         <v>5</v>
       </c>
+      <c r="AF32" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3754,6 +3852,9 @@
       <c r="AE33" t="n">
         <v>33</v>
       </c>
+      <c r="AF33" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3855,6 +3956,9 @@
       <c r="AE34" t="n">
         <v>3</v>
       </c>
+      <c r="AF34" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -3956,6 +4060,9 @@
       <c r="AE35" t="n">
         <v>1</v>
       </c>
+      <c r="AF35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4057,6 +4164,9 @@
       <c r="AE36" t="n">
         <v>9</v>
       </c>
+      <c r="AF36" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4158,6 +4268,9 @@
       <c r="AE37" t="n">
         <v>12</v>
       </c>
+      <c r="AF37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4259,6 +4372,9 @@
       <c r="AE38" t="n">
         <v>2</v>
       </c>
+      <c r="AF38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4360,6 +4476,9 @@
       <c r="AE39" t="n">
         <v>62</v>
       </c>
+      <c r="AF39" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4461,6 +4580,9 @@
       <c r="AE40" t="n">
         <v>14</v>
       </c>
+      <c r="AF40" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4562,6 +4684,9 @@
       <c r="AE41" t="n">
         <v>12</v>
       </c>
+      <c r="AF41" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4663,6 +4788,9 @@
       <c r="AE42" t="n">
         <v>7</v>
       </c>
+      <c r="AF42" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4764,6 +4892,9 @@
       <c r="AE43" t="n">
         <v>12</v>
       </c>
+      <c r="AF43" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4865,6 +4996,9 @@
       <c r="AE44" t="n">
         <v>4</v>
       </c>
+      <c r="AF44" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -4966,6 +5100,9 @@
       <c r="AE45" t="n">
         <v>11</v>
       </c>
+      <c r="AF45" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5067,6 +5204,9 @@
       <c r="AE46" t="n">
         <v>5</v>
       </c>
+      <c r="AF46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5168,6 +5308,9 @@
       <c r="AE47" t="n">
         <v>40</v>
       </c>
+      <c r="AF47" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5269,6 +5412,9 @@
       <c r="AE48" t="n">
         <v>0</v>
       </c>
+      <c r="AF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5370,6 +5516,9 @@
       <c r="AE49" t="n">
         <v>7</v>
       </c>
+      <c r="AF49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5471,6 +5620,9 @@
       <c r="AE50" t="n">
         <v>3</v>
       </c>
+      <c r="AF50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5572,6 +5724,9 @@
       <c r="AE51" t="n">
         <v>7</v>
       </c>
+      <c r="AF51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5673,6 +5828,9 @@
       <c r="AE52" t="n">
         <v>12</v>
       </c>
+      <c r="AF52" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5774,6 +5932,9 @@
       <c r="AE53" t="n">
         <v>161</v>
       </c>
+      <c r="AF53" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -5875,6 +6036,9 @@
       <c r="AE54" t="n">
         <v>1</v>
       </c>
+      <c r="AF54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -5976,6 +6140,9 @@
       <c r="AE55" t="n">
         <v>6</v>
       </c>
+      <c r="AF55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6077,6 +6244,9 @@
       <c r="AE56" t="n">
         <v>4</v>
       </c>
+      <c r="AF56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6178,6 +6348,9 @@
       <c r="AE57" t="n">
         <v>8</v>
       </c>
+      <c r="AF57" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6279,6 +6452,9 @@
       <c r="AE58" t="n">
         <v>4</v>
       </c>
+      <c r="AF58" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6380,6 +6556,9 @@
       <c r="AE59" t="n">
         <v>0</v>
       </c>
+      <c r="AF59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6481,6 +6660,9 @@
       <c r="AE60" t="n">
         <v>5</v>
       </c>
+      <c r="AF60" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6582,6 +6764,9 @@
       <c r="AE61" t="n">
         <v>7</v>
       </c>
+      <c r="AF61" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6683,6 +6868,9 @@
       <c r="AE62" t="n">
         <v>8</v>
       </c>
+      <c r="AF62" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6784,6 +6972,9 @@
       <c r="AE63" t="n">
         <v>14</v>
       </c>
+      <c r="AF63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -6885,6 +7076,9 @@
       <c r="AE64" t="n">
         <v>19</v>
       </c>
+      <c r="AF64" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -6986,6 +7180,9 @@
       <c r="AE65" t="n">
         <v>5</v>
       </c>
+      <c r="AF65" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7087,6 +7284,9 @@
       <c r="AE66" t="n">
         <v>5</v>
       </c>
+      <c r="AF66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7188,6 +7388,9 @@
       <c r="AE67" t="n">
         <v>9</v>
       </c>
+      <c r="AF67" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7289,6 +7492,9 @@
       <c r="AE68" t="n">
         <v>0</v>
       </c>
+      <c r="AF68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7390,6 +7596,9 @@
       <c r="AE69" t="n">
         <v>23</v>
       </c>
+      <c r="AF69" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7491,6 +7700,9 @@
       <c r="AE70" t="n">
         <v>8</v>
       </c>
+      <c r="AF70" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7592,6 +7804,9 @@
       <c r="AE71" t="n">
         <v>6</v>
       </c>
+      <c r="AF71" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7693,6 +7908,9 @@
       <c r="AE72" t="n">
         <v>3</v>
       </c>
+      <c r="AF72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -7794,6 +8012,9 @@
       <c r="AE73" t="n">
         <v>16</v>
       </c>
+      <c r="AF73" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -7895,6 +8116,9 @@
       <c r="AE74" t="n">
         <v>1</v>
       </c>
+      <c r="AF74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -7996,6 +8220,9 @@
       <c r="AE75" t="n">
         <v>4</v>
       </c>
+      <c r="AF75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8097,6 +8324,9 @@
       <c r="AE76" t="n">
         <v>22</v>
       </c>
+      <c r="AF76" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8198,6 +8428,9 @@
       <c r="AE77" t="n">
         <v>17</v>
       </c>
+      <c r="AF77" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8299,6 +8532,9 @@
       <c r="AE78" t="n">
         <v>4</v>
       </c>
+      <c r="AF78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8400,6 +8636,9 @@
       <c r="AE79" t="n">
         <v>15</v>
       </c>
+      <c r="AF79" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8501,6 +8740,9 @@
       <c r="AE80" t="n">
         <v>4</v>
       </c>
+      <c r="AF80" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8602,6 +8844,9 @@
       <c r="AE81" t="n">
         <v>6</v>
       </c>
+      <c r="AF81" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8703,6 +8948,9 @@
       <c r="AE82" t="n">
         <v>2</v>
       </c>
+      <c r="AF82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -8804,6 +9052,9 @@
       <c r="AE83" t="n">
         <v>17</v>
       </c>
+      <c r="AF83" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -8905,6 +9156,9 @@
       <c r="AE84" t="n">
         <v>2</v>
       </c>
+      <c r="AF84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9006,6 +9260,9 @@
       <c r="AE85" t="n">
         <v>16</v>
       </c>
+      <c r="AF85" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9107,6 +9364,9 @@
       <c r="AE86" t="n">
         <v>11</v>
       </c>
+      <c r="AF86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9208,6 +9468,9 @@
       <c r="AE87" t="n">
         <v>6</v>
       </c>
+      <c r="AF87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9309,6 +9572,9 @@
       <c r="AE88" t="n">
         <v>2</v>
       </c>
+      <c r="AF88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9410,6 +9676,9 @@
       <c r="AE89" t="n">
         <v>14</v>
       </c>
+      <c r="AF89" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9511,6 +9780,9 @@
       <c r="AE90" t="n">
         <v>6</v>
       </c>
+      <c r="AF90" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9612,6 +9884,9 @@
       <c r="AE91" t="n">
         <v>21</v>
       </c>
+      <c r="AF91" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9713,6 +9988,9 @@
       <c r="AE92" t="n">
         <v>1</v>
       </c>
+      <c r="AF92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -9814,6 +10092,9 @@
       <c r="AE93" t="n">
         <v>10</v>
       </c>
+      <c r="AF93" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -9915,6 +10196,9 @@
       <c r="AE94" t="n">
         <v>7</v>
       </c>
+      <c r="AF94" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10016,6 +10300,9 @@
       <c r="AE95" t="n">
         <v>55</v>
       </c>
+      <c r="AF95" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -10117,6 +10404,9 @@
       <c r="AE96" t="n">
         <v>4</v>
       </c>
+      <c r="AF96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10218,6 +10508,9 @@
       <c r="AE97" t="n">
         <v>6</v>
       </c>
+      <c r="AF97" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10319,6 +10612,9 @@
       <c r="AE98" t="n">
         <v>8</v>
       </c>
+      <c r="AF98" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10420,6 +10716,9 @@
       <c r="AE99" t="n">
         <v>20</v>
       </c>
+      <c r="AF99" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -10521,6 +10820,9 @@
       <c r="AE100" t="n">
         <v>10</v>
       </c>
+      <c r="AF100" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10622,6 +10924,9 @@
       <c r="AE101" t="n">
         <v>13</v>
       </c>
+      <c r="AF101" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -10723,6 +11028,9 @@
       <c r="AE102" t="n">
         <v>24</v>
       </c>
+      <c r="AF102" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -10824,6 +11132,9 @@
       <c r="AE103" t="n">
         <v>10</v>
       </c>
+      <c r="AF103" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -10925,6 +11236,9 @@
       <c r="AE104" t="n">
         <v>8</v>
       </c>
+      <c r="AF104" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -11026,6 +11340,9 @@
       <c r="AE105" t="n">
         <v>56</v>
       </c>
+      <c r="AF105" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -11127,6 +11444,9 @@
       <c r="AE106" t="n">
         <v>7</v>
       </c>
+      <c r="AF106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11228,6 +11548,9 @@
       <c r="AE107" t="n">
         <v>13</v>
       </c>
+      <c r="AF107" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11329,6 +11652,9 @@
       <c r="AE108" t="n">
         <v>36</v>
       </c>
+      <c r="AF108" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11430,6 +11756,9 @@
       <c r="AE109" t="n">
         <v>3</v>
       </c>
+      <c r="AF109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -11531,6 +11860,9 @@
       <c r="AE110" t="n">
         <v>13</v>
       </c>
+      <c r="AF110" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -11632,6 +11964,9 @@
       <c r="AE111" t="n">
         <v>11</v>
       </c>
+      <c r="AF111" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -11733,6 +12068,9 @@
       <c r="AE112" t="n">
         <v>2</v>
       </c>
+      <c r="AF112" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -11834,6 +12172,9 @@
       <c r="AE113" t="n">
         <v>16</v>
       </c>
+      <c r="AF113" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -11935,6 +12276,9 @@
       <c r="AE114" t="n">
         <v>11</v>
       </c>
+      <c r="AF114" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -12036,6 +12380,9 @@
       <c r="AE115" t="n">
         <v>53</v>
       </c>
+      <c r="AF115" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -12137,6 +12484,9 @@
       <c r="AE116" t="n">
         <v>2</v>
       </c>
+      <c r="AF116" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -12238,6 +12588,9 @@
       <c r="AE117" t="n">
         <v>3</v>
       </c>
+      <c r="AF117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -12339,6 +12692,9 @@
       <c r="AE118" t="n">
         <v>12</v>
       </c>
+      <c r="AF118" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -12440,6 +12796,9 @@
       <c r="AE119" t="n">
         <v>29</v>
       </c>
+      <c r="AF119" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -12541,6 +12900,9 @@
       <c r="AE120" t="n">
         <v>18</v>
       </c>
+      <c r="AF120" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -12642,6 +13004,9 @@
       <c r="AE121" t="n">
         <v>7</v>
       </c>
+      <c r="AF121" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -12743,6 +13108,9 @@
       <c r="AE122" t="n">
         <v>4</v>
       </c>
+      <c r="AF122" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -12844,6 +13212,9 @@
       <c r="AE123" t="n">
         <v>8</v>
       </c>
+      <c r="AF123" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -12945,6 +13316,9 @@
       <c r="AE124" t="n">
         <v>6</v>
       </c>
+      <c r="AF124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -13046,6 +13420,9 @@
       <c r="AE125" t="n">
         <v>3</v>
       </c>
+      <c r="AF125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -13147,6 +13524,9 @@
       <c r="AE126" t="n">
         <v>1</v>
       </c>
+      <c r="AF126" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -13248,6 +13628,9 @@
       <c r="AE127" t="n">
         <v>5</v>
       </c>
+      <c r="AF127" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -13349,6 +13732,9 @@
       <c r="AE128" t="n">
         <v>13</v>
       </c>
+      <c r="AF128" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -13450,6 +13836,9 @@
       <c r="AE129" t="n">
         <v>13</v>
       </c>
+      <c r="AF129" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -13551,6 +13940,9 @@
       <c r="AE130" t="n">
         <v>3</v>
       </c>
+      <c r="AF130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -13652,6 +14044,9 @@
       <c r="AE131" t="n">
         <v>10</v>
       </c>
+      <c r="AF131" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -13753,6 +14148,9 @@
       <c r="AE132" t="n">
         <v>29</v>
       </c>
+      <c r="AF132" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -13854,6 +14252,9 @@
       <c r="AE133" t="n">
         <v>7</v>
       </c>
+      <c r="AF133" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -13955,6 +14356,9 @@
       <c r="AE134" t="n">
         <v>6</v>
       </c>
+      <c r="AF134" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -14056,6 +14460,9 @@
       <c r="AE135" t="n">
         <v>5</v>
       </c>
+      <c r="AF135" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14157,6 +14564,9 @@
       <c r="AE136" t="n">
         <v>5</v>
       </c>
+      <c r="AF136" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -14258,6 +14668,9 @@
       <c r="AE137" t="n">
         <v>49</v>
       </c>
+      <c r="AF137" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -14359,6 +14772,9 @@
       <c r="AE138" t="n">
         <v>2</v>
       </c>
+      <c r="AF138" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -14460,6 +14876,9 @@
       <c r="AE139" t="n">
         <v>15</v>
       </c>
+      <c r="AF139" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -14561,6 +14980,9 @@
       <c r="AE140" t="n">
         <v>1</v>
       </c>
+      <c r="AF140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -14662,6 +15084,9 @@
       <c r="AE141" t="n">
         <v>9</v>
       </c>
+      <c r="AF141" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -14763,6 +15188,9 @@
       <c r="AE142" t="n">
         <v>16</v>
       </c>
+      <c r="AF142" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -14864,6 +15292,9 @@
       <c r="AE143" t="n">
         <v>2</v>
       </c>
+      <c r="AF143" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -14965,6 +15396,9 @@
       <c r="AE144" t="n">
         <v>7</v>
       </c>
+      <c r="AF144" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -15066,6 +15500,9 @@
       <c r="AE145" t="n">
         <v>7</v>
       </c>
+      <c r="AF145" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -15167,6 +15604,9 @@
       <c r="AE146" t="n">
         <v>23</v>
       </c>
+      <c r="AF146" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -15268,6 +15708,9 @@
       <c r="AE147" t="n">
         <v>5</v>
       </c>
+      <c r="AF147" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -15369,6 +15812,9 @@
       <c r="AE148" t="n">
         <v>8</v>
       </c>
+      <c r="AF148" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -15470,6 +15916,9 @@
       <c r="AE149" t="n">
         <v>5</v>
       </c>
+      <c r="AF149" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -15571,6 +16020,9 @@
       <c r="AE150" t="n">
         <v>11</v>
       </c>
+      <c r="AF150" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -15672,6 +16124,9 @@
       <c r="AE151" t="n">
         <v>16</v>
       </c>
+      <c r="AF151" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -15773,6 +16228,9 @@
       <c r="AE152" t="n">
         <v>25</v>
       </c>
+      <c r="AF152" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -15874,6 +16332,9 @@
       <c r="AE153" t="n">
         <v>3</v>
       </c>
+      <c r="AF153" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -15975,6 +16436,9 @@
       <c r="AE154" t="n">
         <v>0</v>
       </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -16076,6 +16540,9 @@
       <c r="AE155" t="n">
         <v>16</v>
       </c>
+      <c r="AF155" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -16177,6 +16644,9 @@
       <c r="AE156" t="n">
         <v>2</v>
       </c>
+      <c r="AF156" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -16278,6 +16748,9 @@
       <c r="AE157" t="n">
         <v>17</v>
       </c>
+      <c r="AF157" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -16379,6 +16852,9 @@
       <c r="AE158" t="n">
         <v>2</v>
       </c>
+      <c r="AF158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -16480,6 +16956,9 @@
       <c r="AE159" t="n">
         <v>6</v>
       </c>
+      <c r="AF159" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -16581,6 +17060,9 @@
       <c r="AE160" t="n">
         <v>8</v>
       </c>
+      <c r="AF160" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -16682,6 +17164,9 @@
       <c r="AE161" t="n">
         <v>4</v>
       </c>
+      <c r="AF161" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -16783,6 +17268,9 @@
       <c r="AE162" t="n">
         <v>3</v>
       </c>
+      <c r="AF162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -16884,6 +17372,9 @@
       <c r="AE163" t="n">
         <v>11</v>
       </c>
+      <c r="AF163" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -16985,6 +17476,9 @@
       <c r="AE164" t="n">
         <v>13</v>
       </c>
+      <c r="AF164" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -17086,6 +17580,9 @@
       <c r="AE165" t="n">
         <v>23</v>
       </c>
+      <c r="AF165" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -17187,6 +17684,9 @@
       <c r="AE166" t="n">
         <v>11</v>
       </c>
+      <c r="AF166" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -17288,6 +17788,9 @@
       <c r="AE167" t="n">
         <v>5</v>
       </c>
+      <c r="AF167" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -17389,6 +17892,9 @@
       <c r="AE168" t="n">
         <v>5</v>
       </c>
+      <c r="AF168" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -17490,6 +17996,9 @@
       <c r="AE169" t="n">
         <v>20</v>
       </c>
+      <c r="AF169" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -17591,6 +18100,9 @@
       <c r="AE170" t="n">
         <v>0</v>
       </c>
+      <c r="AF170" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -17692,6 +18204,9 @@
       <c r="AE171" t="n">
         <v>10</v>
       </c>
+      <c r="AF171" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -17793,6 +18308,9 @@
       <c r="AE172" t="n">
         <v>16</v>
       </c>
+      <c r="AF172" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -17894,6 +18412,9 @@
       <c r="AE173" t="n">
         <v>2</v>
       </c>
+      <c r="AF173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -17995,6 +18516,9 @@
       <c r="AE174" t="n">
         <v>10</v>
       </c>
+      <c r="AF174" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -18096,6 +18620,9 @@
       <c r="AE175" t="n">
         <v>21</v>
       </c>
+      <c r="AF175" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -18197,6 +18724,9 @@
       <c r="AE176" t="n">
         <v>23</v>
       </c>
+      <c r="AF176" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -18298,6 +18828,9 @@
       <c r="AE177" t="n">
         <v>7</v>
       </c>
+      <c r="AF177" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -18399,6 +18932,9 @@
       <c r="AE178" t="n">
         <v>10</v>
       </c>
+      <c r="AF178" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -18500,6 +19036,9 @@
       <c r="AE179" t="n">
         <v>1</v>
       </c>
+      <c r="AF179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -18601,6 +19140,9 @@
       <c r="AE180" t="n">
         <v>2</v>
       </c>
+      <c r="AF180" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -18702,6 +19244,9 @@
       <c r="AE181" t="n">
         <v>17</v>
       </c>
+      <c r="AF181" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -18803,6 +19348,9 @@
       <c r="AE182" t="n">
         <v>9</v>
       </c>
+      <c r="AF182" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -18904,6 +19452,9 @@
       <c r="AE183" t="n">
         <v>0</v>
       </c>
+      <c r="AF183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -19005,6 +19556,9 @@
       <c r="AE184" t="n">
         <v>1</v>
       </c>
+      <c r="AF184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -19106,6 +19660,9 @@
       <c r="AE185" t="n">
         <v>2</v>
       </c>
+      <c r="AF185" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -19207,6 +19764,9 @@
       <c r="AE186" t="n">
         <v>9</v>
       </c>
+      <c r="AF186" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -19308,6 +19868,9 @@
       <c r="AE187" t="n">
         <v>6</v>
       </c>
+      <c r="AF187" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -19409,6 +19972,9 @@
       <c r="AE188" t="n">
         <v>60</v>
       </c>
+      <c r="AF188" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -19510,6 +20076,9 @@
       <c r="AE189" t="n">
         <v>4</v>
       </c>
+      <c r="AF189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -19611,6 +20180,9 @@
       <c r="AE190" t="n">
         <v>3</v>
       </c>
+      <c r="AF190" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -19712,6 +20284,9 @@
       <c r="AE191" t="n">
         <v>127</v>
       </c>
+      <c r="AF191" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -19813,6 +20388,9 @@
       <c r="AE192" t="n">
         <v>3</v>
       </c>
+      <c r="AF192" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -19914,6 +20492,9 @@
       <c r="AE193" t="n">
         <v>6</v>
       </c>
+      <c r="AF193" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -20015,6 +20596,9 @@
       <c r="AE194" t="n">
         <v>2</v>
       </c>
+      <c r="AF194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -20116,6 +20700,9 @@
       <c r="AE195" t="n">
         <v>1</v>
       </c>
+      <c r="AF195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -20217,6 +20804,9 @@
       <c r="AE196" t="n">
         <v>2</v>
       </c>
+      <c r="AF196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -20318,6 +20908,9 @@
       <c r="AE197" t="n">
         <v>2</v>
       </c>
+      <c r="AF197" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -20419,6 +21012,9 @@
       <c r="AE198" t="n">
         <v>3</v>
       </c>
+      <c r="AF198" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -20520,6 +21116,9 @@
       <c r="AE199" t="n">
         <v>11</v>
       </c>
+      <c r="AF199" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -20621,6 +21220,9 @@
       <c r="AE200" t="n">
         <v>3</v>
       </c>
+      <c r="AF200" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -20722,6 +21324,9 @@
       <c r="AE201" t="n">
         <v>2</v>
       </c>
+      <c r="AF201" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -20823,6 +21428,9 @@
       <c r="AE202" t="n">
         <v>3</v>
       </c>
+      <c r="AF202" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -20924,6 +21532,9 @@
       <c r="AE203" t="n">
         <v>9</v>
       </c>
+      <c r="AF203" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -21025,6 +21636,9 @@
       <c r="AE204" t="n">
         <v>9</v>
       </c>
+      <c r="AF204" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -21126,6 +21740,9 @@
       <c r="AE205" t="n">
         <v>11</v>
       </c>
+      <c r="AF205" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -21227,6 +21844,9 @@
       <c r="AE206" t="n">
         <v>3</v>
       </c>
+      <c r="AF206" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -21328,6 +21948,9 @@
       <c r="AE207" t="n">
         <v>7</v>
       </c>
+      <c r="AF207" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -21429,6 +22052,9 @@
       <c r="AE208" t="n">
         <v>79</v>
       </c>
+      <c r="AF208" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -21530,6 +22156,9 @@
       <c r="AE209" t="n">
         <v>15</v>
       </c>
+      <c r="AF209" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -21631,6 +22260,9 @@
       <c r="AE210" t="n">
         <v>2</v>
       </c>
+      <c r="AF210" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -21732,6 +22364,9 @@
       <c r="AE211" t="n">
         <v>0</v>
       </c>
+      <c r="AF211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -21833,6 +22468,9 @@
       <c r="AE212" t="n">
         <v>1</v>
       </c>
+      <c r="AF212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -21934,6 +22572,9 @@
       <c r="AE213" t="n">
         <v>3</v>
       </c>
+      <c r="AF213" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -22035,6 +22676,9 @@
       <c r="AE214" t="n">
         <v>6</v>
       </c>
+      <c r="AF214" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -22136,6 +22780,9 @@
       <c r="AE215" t="n">
         <v>4</v>
       </c>
+      <c r="AF215" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -22237,6 +22884,9 @@
       <c r="AE216" t="n">
         <v>17</v>
       </c>
+      <c r="AF216" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -22338,6 +22988,9 @@
       <c r="AE217" t="n">
         <v>7</v>
       </c>
+      <c r="AF217" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -22439,6 +23092,9 @@
       <c r="AE218" t="n">
         <v>3</v>
       </c>
+      <c r="AF218" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -22540,6 +23196,9 @@
       <c r="AE219" t="n">
         <v>16</v>
       </c>
+      <c r="AF219" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -22641,6 +23300,9 @@
       <c r="AE220" t="n">
         <v>0</v>
       </c>
+      <c r="AF220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -22742,6 +23404,9 @@
       <c r="AE221" t="n">
         <v>7</v>
       </c>
+      <c r="AF221" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -22843,6 +23508,9 @@
       <c r="AE222" t="n">
         <v>6</v>
       </c>
+      <c r="AF222" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -22944,6 +23612,9 @@
       <c r="AE223" t="n">
         <v>2</v>
       </c>
+      <c r="AF223" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -23045,6 +23716,9 @@
       <c r="AE224" t="n">
         <v>6</v>
       </c>
+      <c r="AF224" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -23146,6 +23820,9 @@
       <c r="AE225" t="n">
         <v>2</v>
       </c>
+      <c r="AF225" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -23247,6 +23924,9 @@
       <c r="AE226" t="n">
         <v>22</v>
       </c>
+      <c r="AF226" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -23348,6 +24028,9 @@
       <c r="AE227" t="n">
         <v>0</v>
       </c>
+      <c r="AF227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -23449,6 +24132,9 @@
       <c r="AE228" t="n">
         <v>5</v>
       </c>
+      <c r="AF228" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -23550,6 +24236,9 @@
       <c r="AE229" t="n">
         <v>0</v>
       </c>
+      <c r="AF229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -23651,6 +24340,9 @@
       <c r="AE230" t="n">
         <v>3</v>
       </c>
+      <c r="AF230" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -23752,6 +24444,9 @@
       <c r="AE231" t="n">
         <v>65</v>
       </c>
+      <c r="AF231" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -23853,6 +24548,9 @@
       <c r="AE232" t="n">
         <v>4</v>
       </c>
+      <c r="AF232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -23954,6 +24652,9 @@
       <c r="AE233" t="n">
         <v>5</v>
       </c>
+      <c r="AF233" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -24055,6 +24756,9 @@
       <c r="AE234" t="n">
         <v>4</v>
       </c>
+      <c r="AF234" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -24156,6 +24860,9 @@
       <c r="AE235" t="n">
         <v>30</v>
       </c>
+      <c r="AF235" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -24257,6 +24964,9 @@
       <c r="AE236" t="n">
         <v>5</v>
       </c>
+      <c r="AF236" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -24358,6 +25068,9 @@
       <c r="AE237" t="n">
         <v>69</v>
       </c>
+      <c r="AF237" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -24459,6 +25172,9 @@
       <c r="AE238" t="n">
         <v>2</v>
       </c>
+      <c r="AF238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -24560,6 +25276,9 @@
       <c r="AE239" t="n">
         <v>12</v>
       </c>
+      <c r="AF239" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -24661,6 +25380,9 @@
       <c r="AE240" t="n">
         <v>22</v>
       </c>
+      <c r="AF240" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -24762,6 +25484,9 @@
       <c r="AE241" t="n">
         <v>3</v>
       </c>
+      <c r="AF241" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -24863,6 +25588,9 @@
       <c r="AE242" t="n">
         <v>5</v>
       </c>
+      <c r="AF242" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -24964,6 +25692,9 @@
       <c r="AE243" t="n">
         <v>5</v>
       </c>
+      <c r="AF243" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -25065,6 +25796,9 @@
       <c r="AE244" t="n">
         <v>10</v>
       </c>
+      <c r="AF244" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -25166,6 +25900,9 @@
       <c r="AE245" t="n">
         <v>0</v>
       </c>
+      <c r="AF245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -25267,6 +26004,9 @@
       <c r="AE246" t="n">
         <v>1</v>
       </c>
+      <c r="AF246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -25368,6 +26108,9 @@
       <c r="AE247" t="n">
         <v>12</v>
       </c>
+      <c r="AF247" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -25469,6 +26212,9 @@
       <c r="AE248" t="n">
         <v>1</v>
       </c>
+      <c r="AF248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -25570,6 +26316,9 @@
       <c r="AE249" t="n">
         <v>5</v>
       </c>
+      <c r="AF249" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -25671,6 +26420,9 @@
       <c r="AE250" t="n">
         <v>4</v>
       </c>
+      <c r="AF250" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -25772,6 +26524,9 @@
       <c r="AE251" t="n">
         <v>7</v>
       </c>
+      <c r="AF251" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -25873,6 +26628,9 @@
       <c r="AE252" t="n">
         <v>7</v>
       </c>
+      <c r="AF252" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -25974,6 +26732,9 @@
       <c r="AE253" t="n">
         <v>23</v>
       </c>
+      <c r="AF253" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -26075,6 +26836,9 @@
       <c r="AE254" t="n">
         <v>16</v>
       </c>
+      <c r="AF254" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -26176,6 +26940,9 @@
       <c r="AE255" t="n">
         <v>149</v>
       </c>
+      <c r="AF255" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -26277,6 +27044,9 @@
       <c r="AE256" t="n">
         <v>2</v>
       </c>
+      <c r="AF256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -26378,6 +27148,9 @@
       <c r="AE257" t="n">
         <v>6</v>
       </c>
+      <c r="AF257" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -26479,6 +27252,9 @@
       <c r="AE258" t="n">
         <v>7</v>
       </c>
+      <c r="AF258" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -26580,6 +27356,9 @@
       <c r="AE259" t="n">
         <v>2</v>
       </c>
+      <c r="AF259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -26681,6 +27460,9 @@
       <c r="AE260" t="n">
         <v>8</v>
       </c>
+      <c r="AF260" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -26782,6 +27564,9 @@
       <c r="AE261" t="n">
         <v>0</v>
       </c>
+      <c r="AF261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -26883,6 +27668,9 @@
       <c r="AE262" t="n">
         <v>3</v>
       </c>
+      <c r="AF262" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -26984,6 +27772,9 @@
       <c r="AE263" t="n">
         <v>5</v>
       </c>
+      <c r="AF263" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -27085,6 +27876,9 @@
       <c r="AE264" t="n">
         <v>13</v>
       </c>
+      <c r="AF264" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -27186,6 +27980,9 @@
       <c r="AE265" t="n">
         <v>14</v>
       </c>
+      <c r="AF265" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -27287,6 +28084,9 @@
       <c r="AE266" t="n">
         <v>61</v>
       </c>
+      <c r="AF266" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -27388,6 +28188,9 @@
       <c r="AE267" t="n">
         <v>3</v>
       </c>
+      <c r="AF267" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -27489,6 +28292,9 @@
       <c r="AE268" t="n">
         <v>4</v>
       </c>
+      <c r="AF268" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -27590,6 +28396,9 @@
       <c r="AE269" t="n">
         <v>3</v>
       </c>
+      <c r="AF269" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -27691,6 +28500,9 @@
       <c r="AE270" t="n">
         <v>16</v>
       </c>
+      <c r="AF270" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -27792,6 +28604,9 @@
       <c r="AE271" t="n">
         <v>7</v>
       </c>
+      <c r="AF271" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -27893,6 +28708,9 @@
       <c r="AE272" t="n">
         <v>10</v>
       </c>
+      <c r="AF272" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -27994,6 +28812,9 @@
       <c r="AE273" t="n">
         <v>0</v>
       </c>
+      <c r="AF273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -28095,6 +28916,9 @@
       <c r="AE274" t="n">
         <v>4</v>
       </c>
+      <c r="AF274" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -28196,6 +29020,9 @@
       <c r="AE275" t="n">
         <v>8</v>
       </c>
+      <c r="AF275" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -28297,6 +29124,9 @@
       <c r="AE276" t="n">
         <v>8</v>
       </c>
+      <c r="AF276" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -28398,6 +29228,9 @@
       <c r="AE277" t="n">
         <v>4</v>
       </c>
+      <c r="AF277" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -28499,6 +29332,9 @@
       <c r="AE278" t="n">
         <v>9</v>
       </c>
+      <c r="AF278" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -28600,6 +29436,9 @@
       <c r="AE279" t="n">
         <v>13</v>
       </c>
+      <c r="AF279" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -28701,6 +29540,9 @@
       <c r="AE280" t="n">
         <v>5</v>
       </c>
+      <c r="AF280" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -28802,6 +29644,9 @@
       <c r="AE281" t="n">
         <v>6</v>
       </c>
+      <c r="AF281" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -28903,6 +29748,9 @@
       <c r="AE282" t="n">
         <v>0</v>
       </c>
+      <c r="AF282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -29004,6 +29852,9 @@
       <c r="AE283" t="n">
         <v>3</v>
       </c>
+      <c r="AF283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -29105,6 +29956,9 @@
       <c r="AE284" t="n">
         <v>7</v>
       </c>
+      <c r="AF284" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -29206,6 +30060,9 @@
       <c r="AE285" t="n">
         <v>8</v>
       </c>
+      <c r="AF285" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -29307,6 +30164,9 @@
       <c r="AE286" t="n">
         <v>6</v>
       </c>
+      <c r="AF286" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -29408,6 +30268,9 @@
       <c r="AE287" t="n">
         <v>193</v>
       </c>
+      <c r="AF287" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -29509,6 +30372,9 @@
       <c r="AE288" t="n">
         <v>4</v>
       </c>
+      <c r="AF288" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -29610,6 +30476,9 @@
       <c r="AE289" t="n">
         <v>2</v>
       </c>
+      <c r="AF289" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -29711,6 +30580,9 @@
       <c r="AE290" t="n">
         <v>8</v>
       </c>
+      <c r="AF290" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -29812,6 +30684,9 @@
       <c r="AE291" t="n">
         <v>1</v>
       </c>
+      <c r="AF291" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -29913,6 +30788,9 @@
       <c r="AE292" t="n">
         <v>84</v>
       </c>
+      <c r="AF292" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -30014,6 +30892,9 @@
       <c r="AE293" t="n">
         <v>4</v>
       </c>
+      <c r="AF293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -30115,6 +30996,9 @@
       <c r="AE294" t="n">
         <v>2</v>
       </c>
+      <c r="AF294" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -30216,6 +31100,9 @@
       <c r="AE295" t="n">
         <v>7</v>
       </c>
+      <c r="AF295" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -30317,6 +31204,9 @@
       <c r="AE296" t="n">
         <v>145</v>
       </c>
+      <c r="AF296" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -30418,6 +31308,9 @@
       <c r="AE297" t="n">
         <v>14</v>
       </c>
+      <c r="AF297" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -30519,6 +31412,9 @@
       <c r="AE298" t="n">
         <v>0</v>
       </c>
+      <c r="AF298" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -30620,6 +31516,9 @@
       <c r="AE299" t="n">
         <v>4</v>
       </c>
+      <c r="AF299" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -30721,6 +31620,9 @@
       <c r="AE300" t="n">
         <v>5</v>
       </c>
+      <c r="AF300" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -30822,6 +31724,9 @@
       <c r="AE301" t="n">
         <v>0</v>
       </c>
+      <c r="AF301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -30923,6 +31828,9 @@
       <c r="AE302" t="n">
         <v>6</v>
       </c>
+      <c r="AF302" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -31024,6 +31932,9 @@
       <c r="AE303" t="n">
         <v>6</v>
       </c>
+      <c r="AF303" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -31125,6 +32036,9 @@
       <c r="AE304" t="n">
         <v>11</v>
       </c>
+      <c r="AF304" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -31226,6 +32140,9 @@
       <c r="AE305" t="n">
         <v>11</v>
       </c>
+      <c r="AF305" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -31327,6 +32244,9 @@
       <c r="AE306" t="n">
         <v>35</v>
       </c>
+      <c r="AF306" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -31428,6 +32348,9 @@
       <c r="AE307" t="n">
         <v>10</v>
       </c>
+      <c r="AF307" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -31529,6 +32452,9 @@
       <c r="AE308" t="n">
         <v>12</v>
       </c>
+      <c r="AF308" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -31630,6 +32556,9 @@
       <c r="AE309" t="n">
         <v>15</v>
       </c>
+      <c r="AF309" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -31731,6 +32660,9 @@
       <c r="AE310" t="n">
         <v>0</v>
       </c>
+      <c r="AF310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -31832,6 +32764,9 @@
       <c r="AE311" t="n">
         <v>8</v>
       </c>
+      <c r="AF311" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -31933,6 +32868,9 @@
       <c r="AE312" t="n">
         <v>4</v>
       </c>
+      <c r="AF312" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -32034,6 +32972,9 @@
       <c r="AE313" t="n">
         <v>3</v>
       </c>
+      <c r="AF313" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -32135,6 +33076,9 @@
       <c r="AE314" t="n">
         <v>2</v>
       </c>
+      <c r="AF314" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -32236,6 +33180,9 @@
       <c r="AE315" t="n">
         <v>17</v>
       </c>
+      <c r="AF315" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -32337,6 +33284,9 @@
       <c r="AE316" t="n">
         <v>0</v>
       </c>
+      <c r="AF316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -32438,6 +33388,9 @@
       <c r="AE317" t="n">
         <v>2</v>
       </c>
+      <c r="AF317" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -32539,6 +33492,9 @@
       <c r="AE318" t="n">
         <v>24</v>
       </c>
+      <c r="AF318" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -32640,6 +33596,9 @@
       <c r="AE319" t="n">
         <v>4</v>
       </c>
+      <c r="AF319" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -32741,6 +33700,9 @@
       <c r="AE320" t="n">
         <v>3</v>
       </c>
+      <c r="AF320" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -32842,6 +33804,9 @@
       <c r="AE321" t="n">
         <v>5</v>
       </c>
+      <c r="AF321" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -32943,6 +33908,9 @@
       <c r="AE322" t="n">
         <v>9</v>
       </c>
+      <c r="AF322" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -33044,6 +34012,9 @@
       <c r="AE323" t="n">
         <v>12</v>
       </c>
+      <c r="AF323" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -33145,6 +34116,9 @@
       <c r="AE324" t="n">
         <v>1</v>
       </c>
+      <c r="AF324" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -33246,6 +34220,9 @@
       <c r="AE325" t="n">
         <v>15</v>
       </c>
+      <c r="AF325" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -33347,6 +34324,9 @@
       <c r="AE326" t="n">
         <v>7</v>
       </c>
+      <c r="AF326" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -33448,6 +34428,9 @@
       <c r="AE327" t="n">
         <v>8</v>
       </c>
+      <c r="AF327" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -33549,6 +34532,9 @@
       <c r="AE328" t="n">
         <v>2</v>
       </c>
+      <c r="AF328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -33650,6 +34636,9 @@
       <c r="AE329" t="n">
         <v>2</v>
       </c>
+      <c r="AF329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -33751,6 +34740,9 @@
       <c r="AE330" t="n">
         <v>0</v>
       </c>
+      <c r="AF330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -33852,6 +34844,9 @@
       <c r="AE331" t="n">
         <v>21</v>
       </c>
+      <c r="AF331" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -33953,6 +34948,9 @@
       <c r="AE332" t="n">
         <v>1</v>
       </c>
+      <c r="AF332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -34054,6 +35052,9 @@
       <c r="AE333" t="n">
         <v>7</v>
       </c>
+      <c r="AF333" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -34155,6 +35156,9 @@
       <c r="AE334" t="n">
         <v>0</v>
       </c>
+      <c r="AF334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -34256,6 +35260,9 @@
       <c r="AE335" t="n">
         <v>21</v>
       </c>
+      <c r="AF335" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -34357,6 +35364,9 @@
       <c r="AE336" t="n">
         <v>1</v>
       </c>
+      <c r="AF336" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -34458,6 +35468,9 @@
       <c r="AE337" t="n">
         <v>6</v>
       </c>
+      <c r="AF337" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -34559,6 +35572,9 @@
       <c r="AE338" t="n">
         <v>2</v>
       </c>
+      <c r="AF338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -34660,6 +35676,9 @@
       <c r="AE339" t="n">
         <v>3</v>
       </c>
+      <c r="AF339" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -34761,6 +35780,9 @@
       <c r="AE340" t="n">
         <v>14</v>
       </c>
+      <c r="AF340" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -34862,6 +35884,9 @@
       <c r="AE341" t="n">
         <v>2</v>
       </c>
+      <c r="AF341" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -34963,6 +35988,9 @@
       <c r="AE342" t="n">
         <v>4</v>
       </c>
+      <c r="AF342" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -35064,6 +36092,9 @@
       <c r="AE343" t="n">
         <v>19</v>
       </c>
+      <c r="AF343" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -35165,6 +36196,9 @@
       <c r="AE344" t="n">
         <v>7</v>
       </c>
+      <c r="AF344" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -35266,6 +36300,9 @@
       <c r="AE345" t="n">
         <v>3</v>
       </c>
+      <c r="AF345" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -35367,6 +36404,9 @@
       <c r="AE346" t="n">
         <v>4</v>
       </c>
+      <c r="AF346" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -35468,6 +36508,9 @@
       <c r="AE347" t="n">
         <v>19</v>
       </c>
+      <c r="AF347" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -35569,6 +36612,9 @@
       <c r="AE348" t="n">
         <v>9</v>
       </c>
+      <c r="AF348" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -35670,6 +36716,9 @@
       <c r="AE349" t="n">
         <v>7</v>
       </c>
+      <c r="AF349" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -35771,6 +36820,9 @@
       <c r="AE350" t="n">
         <v>0</v>
       </c>
+      <c r="AF350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -35872,6 +36924,9 @@
       <c r="AE351" t="n">
         <v>3</v>
       </c>
+      <c r="AF351" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -35973,6 +37028,9 @@
       <c r="AE352" t="n">
         <v>9</v>
       </c>
+      <c r="AF352" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -36074,6 +37132,9 @@
       <c r="AE353" t="n">
         <v>6</v>
       </c>
+      <c r="AF353" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -36175,6 +37236,9 @@
       <c r="AE354" t="n">
         <v>19</v>
       </c>
+      <c r="AF354" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -36276,6 +37340,9 @@
       <c r="AE355" t="n">
         <v>6</v>
       </c>
+      <c r="AF355" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -36376,6 +37443,9 @@
       </c>
       <c r="AE356" t="n">
         <v>35</v>
+      </c>
+      <c r="AF356" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF356"/>
+  <dimension ref="A1:AG356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,11 @@
           <t>24-03-2020</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>25-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -631,6 +636,9 @@
       <c r="AF2" t="n">
         <v>63</v>
       </c>
+      <c r="AG2" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -735,6 +743,9 @@
       <c r="AF3" t="n">
         <v>67</v>
       </c>
+      <c r="AG3" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -839,6 +850,9 @@
       <c r="AF4" t="n">
         <v>1</v>
       </c>
+      <c r="AG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -943,6 +957,9 @@
       <c r="AF5" t="n">
         <v>9</v>
       </c>
+      <c r="AG5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1047,6 +1064,9 @@
       <c r="AF6" t="n">
         <v>1</v>
       </c>
+      <c r="AG6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1151,6 +1171,9 @@
       <c r="AF7" t="n">
         <v>0</v>
       </c>
+      <c r="AG7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1255,6 +1278,9 @@
       <c r="AF8" t="n">
         <v>4</v>
       </c>
+      <c r="AG8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1359,6 +1385,9 @@
       <c r="AF9" t="n">
         <v>18</v>
       </c>
+      <c r="AG9" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1463,6 +1492,9 @@
       <c r="AF10" t="n">
         <v>20</v>
       </c>
+      <c r="AG10" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1567,6 +1599,9 @@
       <c r="AF11" t="n">
         <v>8</v>
       </c>
+      <c r="AG11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1671,6 +1706,9 @@
       <c r="AF12" t="n">
         <v>21</v>
       </c>
+      <c r="AG12" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1775,6 +1813,9 @@
       <c r="AF13" t="n">
         <v>20</v>
       </c>
+      <c r="AG13" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1879,6 +1920,9 @@
       <c r="AF14" t="n">
         <v>15</v>
       </c>
+      <c r="AG14" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1983,6 +2027,9 @@
       <c r="AF15" t="n">
         <v>28</v>
       </c>
+      <c r="AG15" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2087,6 +2134,9 @@
       <c r="AF16" t="n">
         <v>0</v>
       </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2191,6 +2241,9 @@
       <c r="AF17" t="n">
         <v>44</v>
       </c>
+      <c r="AG17" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2295,6 +2348,9 @@
       <c r="AF18" t="n">
         <v>33</v>
       </c>
+      <c r="AG18" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2399,6 +2455,9 @@
       <c r="AF19" t="n">
         <v>250</v>
       </c>
+      <c r="AG19" t="n">
+        <v>297</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2503,6 +2562,9 @@
       <c r="AF20" t="n">
         <v>29</v>
       </c>
+      <c r="AG20" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2605,6 +2667,9 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2711,6 +2776,9 @@
       <c r="AF22" t="n">
         <v>23</v>
       </c>
+      <c r="AG22" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2815,6 +2883,9 @@
       <c r="AF23" t="n">
         <v>5</v>
       </c>
+      <c r="AG23" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2919,6 +2990,9 @@
       <c r="AF24" t="n">
         <v>6</v>
       </c>
+      <c r="AG24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3023,6 +3097,9 @@
       <c r="AF25" t="n">
         <v>1</v>
       </c>
+      <c r="AG25" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3127,6 +3204,9 @@
       <c r="AF26" t="n">
         <v>2</v>
       </c>
+      <c r="AG26" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3231,6 +3311,9 @@
       <c r="AF27" t="n">
         <v>15</v>
       </c>
+      <c r="AG27" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3335,6 +3418,9 @@
       <c r="AF28" t="n">
         <v>12</v>
       </c>
+      <c r="AG28" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3439,6 +3525,9 @@
       <c r="AF29" t="n">
         <v>9</v>
       </c>
+      <c r="AG29" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3543,6 +3632,9 @@
       <c r="AF30" t="n">
         <v>29</v>
       </c>
+      <c r="AG30" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3647,6 +3739,9 @@
       <c r="AF31" t="n">
         <v>1</v>
       </c>
+      <c r="AG31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3751,6 +3846,9 @@
       <c r="AF32" t="n">
         <v>6</v>
       </c>
+      <c r="AG32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3855,6 +3953,9 @@
       <c r="AF33" t="n">
         <v>35</v>
       </c>
+      <c r="AG33" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3959,6 +4060,9 @@
       <c r="AF34" t="n">
         <v>5</v>
       </c>
+      <c r="AG34" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4063,6 +4167,9 @@
       <c r="AF35" t="n">
         <v>1</v>
       </c>
+      <c r="AG35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4167,6 +4274,9 @@
       <c r="AF36" t="n">
         <v>12</v>
       </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4271,6 +4381,9 @@
       <c r="AF37" t="n">
         <v>12</v>
       </c>
+      <c r="AG37" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4375,6 +4488,9 @@
       <c r="AF38" t="n">
         <v>2</v>
       </c>
+      <c r="AG38" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4479,6 +4595,9 @@
       <c r="AF39" t="n">
         <v>67</v>
       </c>
+      <c r="AG39" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4583,6 +4702,9 @@
       <c r="AF40" t="n">
         <v>17</v>
       </c>
+      <c r="AG40" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4687,6 +4809,9 @@
       <c r="AF41" t="n">
         <v>13</v>
       </c>
+      <c r="AG41" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4791,6 +4916,9 @@
       <c r="AF42" t="n">
         <v>11</v>
       </c>
+      <c r="AG42" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -4895,6 +5023,9 @@
       <c r="AF43" t="n">
         <v>14</v>
       </c>
+      <c r="AG43" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -4999,6 +5130,9 @@
       <c r="AF44" t="n">
         <v>4</v>
       </c>
+      <c r="AG44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5103,6 +5237,9 @@
       <c r="AF45" t="n">
         <v>13</v>
       </c>
+      <c r="AG45" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5207,6 +5344,9 @@
       <c r="AF46" t="n">
         <v>5</v>
       </c>
+      <c r="AG46" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5311,6 +5451,9 @@
       <c r="AF47" t="n">
         <v>42</v>
       </c>
+      <c r="AG47" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5415,6 +5558,9 @@
       <c r="AF48" t="n">
         <v>0</v>
       </c>
+      <c r="AG48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5519,6 +5665,9 @@
       <c r="AF49" t="n">
         <v>8</v>
       </c>
+      <c r="AG49" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5623,6 +5772,9 @@
       <c r="AF50" t="n">
         <v>4</v>
       </c>
+      <c r="AG50" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5727,6 +5879,9 @@
       <c r="AF51" t="n">
         <v>9</v>
       </c>
+      <c r="AG51" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5831,6 +5986,9 @@
       <c r="AF52" t="n">
         <v>15</v>
       </c>
+      <c r="AG52" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -5935,6 +6093,9 @@
       <c r="AF53" t="n">
         <v>167</v>
       </c>
+      <c r="AG53" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6039,6 +6200,9 @@
       <c r="AF54" t="n">
         <v>1</v>
       </c>
+      <c r="AG54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6143,6 +6307,9 @@
       <c r="AF55" t="n">
         <v>7</v>
       </c>
+      <c r="AG55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6247,6 +6414,9 @@
       <c r="AF56" t="n">
         <v>4</v>
       </c>
+      <c r="AG56" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6351,6 +6521,9 @@
       <c r="AF57" t="n">
         <v>17</v>
       </c>
+      <c r="AG57" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6455,6 +6628,9 @@
       <c r="AF58" t="n">
         <v>6</v>
       </c>
+      <c r="AG58" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6559,6 +6735,9 @@
       <c r="AF59" t="n">
         <v>1</v>
       </c>
+      <c r="AG59" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6663,6 +6842,9 @@
       <c r="AF60" t="n">
         <v>6</v>
       </c>
+      <c r="AG60" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6767,6 +6949,9 @@
       <c r="AF61" t="n">
         <v>13</v>
       </c>
+      <c r="AG61" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -6871,6 +7056,9 @@
       <c r="AF62" t="n">
         <v>10</v>
       </c>
+      <c r="AG62" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -6975,6 +7163,9 @@
       <c r="AF63" t="n">
         <v>15</v>
       </c>
+      <c r="AG63" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7079,6 +7270,9 @@
       <c r="AF64" t="n">
         <v>23</v>
       </c>
+      <c r="AG64" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7183,6 +7377,9 @@
       <c r="AF65" t="n">
         <v>6</v>
       </c>
+      <c r="AG65" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7287,6 +7484,9 @@
       <c r="AF66" t="n">
         <v>8</v>
       </c>
+      <c r="AG66" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7391,6 +7591,9 @@
       <c r="AF67" t="n">
         <v>11</v>
       </c>
+      <c r="AG67" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7495,6 +7698,9 @@
       <c r="AF68" t="n">
         <v>0</v>
       </c>
+      <c r="AG68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7599,6 +7805,9 @@
       <c r="AF69" t="n">
         <v>27</v>
       </c>
+      <c r="AG69" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7703,6 +7912,9 @@
       <c r="AF70" t="n">
         <v>8</v>
       </c>
+      <c r="AG70" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -7807,6 +8019,9 @@
       <c r="AF71" t="n">
         <v>8</v>
       </c>
+      <c r="AG71" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -7911,6 +8126,9 @@
       <c r="AF72" t="n">
         <v>3</v>
       </c>
+      <c r="AG72" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8015,6 +8233,9 @@
       <c r="AF73" t="n">
         <v>17</v>
       </c>
+      <c r="AG73" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8119,6 +8340,9 @@
       <c r="AF74" t="n">
         <v>1</v>
       </c>
+      <c r="AG74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8223,6 +8447,9 @@
       <c r="AF75" t="n">
         <v>5</v>
       </c>
+      <c r="AG75" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8327,6 +8554,9 @@
       <c r="AF76" t="n">
         <v>25</v>
       </c>
+      <c r="AG76" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8431,6 +8661,9 @@
       <c r="AF77" t="n">
         <v>20</v>
       </c>
+      <c r="AG77" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8535,6 +8768,9 @@
       <c r="AF78" t="n">
         <v>4</v>
       </c>
+      <c r="AG78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8639,6 +8875,9 @@
       <c r="AF79" t="n">
         <v>17</v>
       </c>
+      <c r="AG79" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8743,6 +8982,9 @@
       <c r="AF80" t="n">
         <v>4</v>
       </c>
+      <c r="AG80" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -8847,6 +9089,9 @@
       <c r="AF81" t="n">
         <v>8</v>
       </c>
+      <c r="AG81" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -8951,6 +9196,9 @@
       <c r="AF82" t="n">
         <v>4</v>
       </c>
+      <c r="AG82" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9055,6 +9303,9 @@
       <c r="AF83" t="n">
         <v>23</v>
       </c>
+      <c r="AG83" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9159,6 +9410,9 @@
       <c r="AF84" t="n">
         <v>3</v>
       </c>
+      <c r="AG84" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9263,6 +9517,9 @@
       <c r="AF85" t="n">
         <v>17</v>
       </c>
+      <c r="AG85" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9367,6 +9624,9 @@
       <c r="AF86" t="n">
         <v>11</v>
       </c>
+      <c r="AG86" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9471,6 +9731,9 @@
       <c r="AF87" t="n">
         <v>6</v>
       </c>
+      <c r="AG87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9575,6 +9838,9 @@
       <c r="AF88" t="n">
         <v>2</v>
       </c>
+      <c r="AG88" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9679,6 +9945,9 @@
       <c r="AF89" t="n">
         <v>15</v>
       </c>
+      <c r="AG89" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -9783,6 +10052,9 @@
       <c r="AF90" t="n">
         <v>7</v>
       </c>
+      <c r="AG90" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -9887,6 +10159,9 @@
       <c r="AF91" t="n">
         <v>22</v>
       </c>
+      <c r="AG91" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -9991,6 +10266,9 @@
       <c r="AF92" t="n">
         <v>1</v>
       </c>
+      <c r="AG92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10095,6 +10373,9 @@
       <c r="AF93" t="n">
         <v>13</v>
       </c>
+      <c r="AG93" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10199,6 +10480,9 @@
       <c r="AF94" t="n">
         <v>15</v>
       </c>
+      <c r="AG94" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10303,6 +10587,9 @@
       <c r="AF95" t="n">
         <v>68</v>
       </c>
+      <c r="AG95" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -10407,6 +10694,9 @@
       <c r="AF96" t="n">
         <v>4</v>
       </c>
+      <c r="AG96" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10511,6 +10801,9 @@
       <c r="AF97" t="n">
         <v>7</v>
       </c>
+      <c r="AG97" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10615,6 +10908,9 @@
       <c r="AF98" t="n">
         <v>10</v>
       </c>
+      <c r="AG98" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -10719,6 +11015,9 @@
       <c r="AF99" t="n">
         <v>20</v>
       </c>
+      <c r="AG99" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -10823,6 +11122,9 @@
       <c r="AF100" t="n">
         <v>13</v>
       </c>
+      <c r="AG100" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -10927,6 +11229,9 @@
       <c r="AF101" t="n">
         <v>14</v>
       </c>
+      <c r="AG101" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11031,6 +11336,9 @@
       <c r="AF102" t="n">
         <v>24</v>
       </c>
+      <c r="AG102" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -11135,6 +11443,9 @@
       <c r="AF103" t="n">
         <v>10</v>
       </c>
+      <c r="AG103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -11239,6 +11550,9 @@
       <c r="AF104" t="n">
         <v>9</v>
       </c>
+      <c r="AG104" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -11343,6 +11657,9 @@
       <c r="AF105" t="n">
         <v>64</v>
       </c>
+      <c r="AG105" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -11447,6 +11764,9 @@
       <c r="AF106" t="n">
         <v>7</v>
       </c>
+      <c r="AG106" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11551,6 +11871,9 @@
       <c r="AF107" t="n">
         <v>16</v>
       </c>
+      <c r="AG107" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11655,6 +11978,9 @@
       <c r="AF108" t="n">
         <v>43</v>
       </c>
+      <c r="AG108" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -11759,6 +12085,9 @@
       <c r="AF109" t="n">
         <v>4</v>
       </c>
+      <c r="AG109" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -11863,6 +12192,9 @@
       <c r="AF110" t="n">
         <v>16</v>
       </c>
+      <c r="AG110" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -11967,6 +12299,9 @@
       <c r="AF111" t="n">
         <v>12</v>
       </c>
+      <c r="AG111" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -12071,6 +12406,9 @@
       <c r="AF112" t="n">
         <v>4</v>
       </c>
+      <c r="AG112" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -12175,6 +12513,9 @@
       <c r="AF113" t="n">
         <v>17</v>
       </c>
+      <c r="AG113" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -12279,6 +12620,9 @@
       <c r="AF114" t="n">
         <v>11</v>
       </c>
+      <c r="AG114" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -12383,6 +12727,9 @@
       <c r="AF115" t="n">
         <v>53</v>
       </c>
+      <c r="AG115" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -12487,6 +12834,9 @@
       <c r="AF116" t="n">
         <v>4</v>
       </c>
+      <c r="AG116" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -12591,6 +12941,9 @@
       <c r="AF117" t="n">
         <v>3</v>
       </c>
+      <c r="AG117" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -12695,6 +13048,9 @@
       <c r="AF118" t="n">
         <v>12</v>
       </c>
+      <c r="AG118" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -12799,6 +13155,9 @@
       <c r="AF119" t="n">
         <v>41</v>
       </c>
+      <c r="AG119" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -12903,6 +13262,9 @@
       <c r="AF120" t="n">
         <v>23</v>
       </c>
+      <c r="AG120" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -13007,6 +13369,9 @@
       <c r="AF121" t="n">
         <v>8</v>
       </c>
+      <c r="AG121" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -13111,6 +13476,9 @@
       <c r="AF122" t="n">
         <v>6</v>
       </c>
+      <c r="AG122" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -13215,6 +13583,9 @@
       <c r="AF123" t="n">
         <v>9</v>
       </c>
+      <c r="AG123" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -13319,6 +13690,9 @@
       <c r="AF124" t="n">
         <v>6</v>
       </c>
+      <c r="AG124" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -13423,6 +13797,9 @@
       <c r="AF125" t="n">
         <v>3</v>
       </c>
+      <c r="AG125" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -13527,6 +13904,9 @@
       <c r="AF126" t="n">
         <v>2</v>
       </c>
+      <c r="AG126" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -13631,6 +14011,9 @@
       <c r="AF127" t="n">
         <v>7</v>
       </c>
+      <c r="AG127" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -13735,6 +14118,9 @@
       <c r="AF128" t="n">
         <v>16</v>
       </c>
+      <c r="AG128" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -13839,6 +14225,9 @@
       <c r="AF129" t="n">
         <v>15</v>
       </c>
+      <c r="AG129" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -13943,6 +14332,9 @@
       <c r="AF130" t="n">
         <v>3</v>
       </c>
+      <c r="AG130" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -14047,6 +14439,9 @@
       <c r="AF131" t="n">
         <v>15</v>
       </c>
+      <c r="AG131" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -14151,6 +14546,9 @@
       <c r="AF132" t="n">
         <v>46</v>
       </c>
+      <c r="AG132" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -14255,6 +14653,9 @@
       <c r="AF133" t="n">
         <v>7</v>
       </c>
+      <c r="AG133" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -14359,6 +14760,9 @@
       <c r="AF134" t="n">
         <v>8</v>
       </c>
+      <c r="AG134" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -14463,6 +14867,9 @@
       <c r="AF135" t="n">
         <v>6</v>
       </c>
+      <c r="AG135" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14567,6 +14974,9 @@
       <c r="AF136" t="n">
         <v>5</v>
       </c>
+      <c r="AG136" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -14671,6 +15081,9 @@
       <c r="AF137" t="n">
         <v>55</v>
       </c>
+      <c r="AG137" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -14775,6 +15188,9 @@
       <c r="AF138" t="n">
         <v>2</v>
       </c>
+      <c r="AG138" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -14879,6 +15295,9 @@
       <c r="AF139" t="n">
         <v>16</v>
       </c>
+      <c r="AG139" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -14983,6 +15402,9 @@
       <c r="AF140" t="n">
         <v>1</v>
       </c>
+      <c r="AG140" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -15087,6 +15509,9 @@
       <c r="AF141" t="n">
         <v>11</v>
       </c>
+      <c r="AG141" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -15191,6 +15616,9 @@
       <c r="AF142" t="n">
         <v>19</v>
       </c>
+      <c r="AG142" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -15295,6 +15723,9 @@
       <c r="AF143" t="n">
         <v>3</v>
       </c>
+      <c r="AG143" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -15399,6 +15830,9 @@
       <c r="AF144" t="n">
         <v>8</v>
       </c>
+      <c r="AG144" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -15503,6 +15937,9 @@
       <c r="AF145" t="n">
         <v>7</v>
       </c>
+      <c r="AG145" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -15607,6 +16044,9 @@
       <c r="AF146" t="n">
         <v>31</v>
       </c>
+      <c r="AG146" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -15711,6 +16151,9 @@
       <c r="AF147" t="n">
         <v>5</v>
       </c>
+      <c r="AG147" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -15815,6 +16258,9 @@
       <c r="AF148" t="n">
         <v>10</v>
       </c>
+      <c r="AG148" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -15919,6 +16365,9 @@
       <c r="AF149" t="n">
         <v>6</v>
       </c>
+      <c r="AG149" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -16023,6 +16472,9 @@
       <c r="AF150" t="n">
         <v>12</v>
       </c>
+      <c r="AG150" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -16127,6 +16579,9 @@
       <c r="AF151" t="n">
         <v>17</v>
       </c>
+      <c r="AG151" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -16231,6 +16686,9 @@
       <c r="AF152" t="n">
         <v>29</v>
       </c>
+      <c r="AG152" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -16335,6 +16793,9 @@
       <c r="AF153" t="n">
         <v>3</v>
       </c>
+      <c r="AG153" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -16439,6 +16900,9 @@
       <c r="AF154" t="n">
         <v>0</v>
       </c>
+      <c r="AG154" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -16543,6 +17007,9 @@
       <c r="AF155" t="n">
         <v>16</v>
       </c>
+      <c r="AG155" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -16647,6 +17114,9 @@
       <c r="AF156" t="n">
         <v>4</v>
       </c>
+      <c r="AG156" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -16751,6 +17221,9 @@
       <c r="AF157" t="n">
         <v>20</v>
       </c>
+      <c r="AG157" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -16855,6 +17328,9 @@
       <c r="AF158" t="n">
         <v>2</v>
       </c>
+      <c r="AG158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -16959,6 +17435,9 @@
       <c r="AF159" t="n">
         <v>6</v>
       </c>
+      <c r="AG159" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -17063,6 +17542,9 @@
       <c r="AF160" t="n">
         <v>17</v>
       </c>
+      <c r="AG160" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -17167,6 +17649,9 @@
       <c r="AF161" t="n">
         <v>4</v>
       </c>
+      <c r="AG161" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -17271,6 +17756,9 @@
       <c r="AF162" t="n">
         <v>3</v>
       </c>
+      <c r="AG162" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -17375,6 +17863,9 @@
       <c r="AF163" t="n">
         <v>12</v>
       </c>
+      <c r="AG163" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -17479,6 +17970,9 @@
       <c r="AF164" t="n">
         <v>17</v>
       </c>
+      <c r="AG164" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -17583,6 +18077,9 @@
       <c r="AF165" t="n">
         <v>25</v>
       </c>
+      <c r="AG165" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -17687,6 +18184,9 @@
       <c r="AF166" t="n">
         <v>18</v>
       </c>
+      <c r="AG166" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -17791,6 +18291,9 @@
       <c r="AF167" t="n">
         <v>6</v>
       </c>
+      <c r="AG167" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -17895,6 +18398,9 @@
       <c r="AF168" t="n">
         <v>12</v>
       </c>
+      <c r="AG168" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -17999,6 +18505,9 @@
       <c r="AF169" t="n">
         <v>24</v>
       </c>
+      <c r="AG169" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -18103,6 +18612,9 @@
       <c r="AF170" t="n">
         <v>3</v>
       </c>
+      <c r="AG170" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -18207,6 +18719,9 @@
       <c r="AF171" t="n">
         <v>10</v>
       </c>
+      <c r="AG171" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -18311,6 +18826,9 @@
       <c r="AF172" t="n">
         <v>20</v>
       </c>
+      <c r="AG172" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -18415,6 +18933,9 @@
       <c r="AF173" t="n">
         <v>2</v>
       </c>
+      <c r="AG173" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -18519,6 +19040,9 @@
       <c r="AF174" t="n">
         <v>13</v>
       </c>
+      <c r="AG174" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -18623,6 +19147,9 @@
       <c r="AF175" t="n">
         <v>24</v>
       </c>
+      <c r="AG175" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -18727,6 +19254,9 @@
       <c r="AF176" t="n">
         <v>26</v>
       </c>
+      <c r="AG176" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -18831,6 +19361,9 @@
       <c r="AF177" t="n">
         <v>9</v>
       </c>
+      <c r="AG177" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -18935,6 +19468,9 @@
       <c r="AF178" t="n">
         <v>11</v>
       </c>
+      <c r="AG178" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -19039,6 +19575,9 @@
       <c r="AF179" t="n">
         <v>1</v>
       </c>
+      <c r="AG179" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -19143,6 +19682,9 @@
       <c r="AF180" t="n">
         <v>2</v>
       </c>
+      <c r="AG180" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -19247,6 +19789,9 @@
       <c r="AF181" t="n">
         <v>20</v>
       </c>
+      <c r="AG181" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -19351,6 +19896,9 @@
       <c r="AF182" t="n">
         <v>10</v>
       </c>
+      <c r="AG182" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -19455,6 +20003,9 @@
       <c r="AF183" t="n">
         <v>0</v>
       </c>
+      <c r="AG183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -19559,6 +20110,9 @@
       <c r="AF184" t="n">
         <v>1</v>
       </c>
+      <c r="AG184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -19663,6 +20217,9 @@
       <c r="AF185" t="n">
         <v>3</v>
       </c>
+      <c r="AG185" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -19767,6 +20324,9 @@
       <c r="AF186" t="n">
         <v>9</v>
       </c>
+      <c r="AG186" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -19871,6 +20431,9 @@
       <c r="AF187" t="n">
         <v>7</v>
       </c>
+      <c r="AG187" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -19975,6 +20538,9 @@
       <c r="AF188" t="n">
         <v>94</v>
       </c>
+      <c r="AG188" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -20079,6 +20645,9 @@
       <c r="AF189" t="n">
         <v>4</v>
       </c>
+      <c r="AG189" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -20183,6 +20752,9 @@
       <c r="AF190" t="n">
         <v>8</v>
       </c>
+      <c r="AG190" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -20287,6 +20859,9 @@
       <c r="AF191" t="n">
         <v>139</v>
       </c>
+      <c r="AG191" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -20391,6 +20966,9 @@
       <c r="AF192" t="n">
         <v>3</v>
       </c>
+      <c r="AG192" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -20495,6 +21073,9 @@
       <c r="AF193" t="n">
         <v>6</v>
       </c>
+      <c r="AG193" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -20599,6 +21180,9 @@
       <c r="AF194" t="n">
         <v>2</v>
       </c>
+      <c r="AG194" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -20703,6 +21287,9 @@
       <c r="AF195" t="n">
         <v>1</v>
       </c>
+      <c r="AG195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -20807,6 +21394,9 @@
       <c r="AF196" t="n">
         <v>2</v>
       </c>
+      <c r="AG196" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -20911,6 +21501,9 @@
       <c r="AF197" t="n">
         <v>5</v>
       </c>
+      <c r="AG197" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -21015,6 +21608,9 @@
       <c r="AF198" t="n">
         <v>4</v>
       </c>
+      <c r="AG198" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -21119,6 +21715,9 @@
       <c r="AF199" t="n">
         <v>13</v>
       </c>
+      <c r="AG199" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -21223,6 +21822,9 @@
       <c r="AF200" t="n">
         <v>3</v>
       </c>
+      <c r="AG200" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -21327,6 +21929,9 @@
       <c r="AF201" t="n">
         <v>3</v>
       </c>
+      <c r="AG201" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -21431,6 +22036,9 @@
       <c r="AF202" t="n">
         <v>5</v>
       </c>
+      <c r="AG202" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -21535,6 +22143,9 @@
       <c r="AF203" t="n">
         <v>11</v>
       </c>
+      <c r="AG203" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -21639,6 +22250,9 @@
       <c r="AF204" t="n">
         <v>11</v>
       </c>
+      <c r="AG204" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -21743,6 +22357,9 @@
       <c r="AF205" t="n">
         <v>11</v>
       </c>
+      <c r="AG205" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -21847,6 +22464,9 @@
       <c r="AF206" t="n">
         <v>4</v>
       </c>
+      <c r="AG206" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -21951,6 +22571,9 @@
       <c r="AF207" t="n">
         <v>8</v>
       </c>
+      <c r="AG207" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -22055,6 +22678,9 @@
       <c r="AF208" t="n">
         <v>93</v>
       </c>
+      <c r="AG208" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -22159,6 +22785,9 @@
       <c r="AF209" t="n">
         <v>17</v>
       </c>
+      <c r="AG209" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -22263,6 +22892,9 @@
       <c r="AF210" t="n">
         <v>3</v>
       </c>
+      <c r="AG210" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -22367,6 +22999,9 @@
       <c r="AF211" t="n">
         <v>1</v>
       </c>
+      <c r="AG211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -22471,6 +23106,9 @@
       <c r="AF212" t="n">
         <v>1</v>
       </c>
+      <c r="AG212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -22575,6 +23213,9 @@
       <c r="AF213" t="n">
         <v>4</v>
       </c>
+      <c r="AG213" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -22679,6 +23320,9 @@
       <c r="AF214" t="n">
         <v>6</v>
       </c>
+      <c r="AG214" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -22783,6 +23427,9 @@
       <c r="AF215" t="n">
         <v>4</v>
       </c>
+      <c r="AG215" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -22887,6 +23534,9 @@
       <c r="AF216" t="n">
         <v>22</v>
       </c>
+      <c r="AG216" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -22991,6 +23641,9 @@
       <c r="AF217" t="n">
         <v>8</v>
       </c>
+      <c r="AG217" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -23095,6 +23748,9 @@
       <c r="AF218" t="n">
         <v>4</v>
       </c>
+      <c r="AG218" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -23199,6 +23855,9 @@
       <c r="AF219" t="n">
         <v>16</v>
       </c>
+      <c r="AG219" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -23303,6 +23962,9 @@
       <c r="AF220" t="n">
         <v>0</v>
       </c>
+      <c r="AG220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -23407,6 +24069,9 @@
       <c r="AF221" t="n">
         <v>8</v>
       </c>
+      <c r="AG221" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -23511,6 +24176,9 @@
       <c r="AF222" t="n">
         <v>8</v>
       </c>
+      <c r="AG222" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -23615,6 +24283,9 @@
       <c r="AF223" t="n">
         <v>4</v>
       </c>
+      <c r="AG223" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -23719,6 +24390,9 @@
       <c r="AF224" t="n">
         <v>6</v>
       </c>
+      <c r="AG224" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -23823,6 +24497,9 @@
       <c r="AF225" t="n">
         <v>6</v>
       </c>
+      <c r="AG225" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -23927,6 +24604,9 @@
       <c r="AF226" t="n">
         <v>23</v>
       </c>
+      <c r="AG226" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -24031,6 +24711,9 @@
       <c r="AF227" t="n">
         <v>0</v>
       </c>
+      <c r="AG227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -24135,6 +24818,9 @@
       <c r="AF228" t="n">
         <v>5</v>
       </c>
+      <c r="AG228" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -24239,6 +24925,9 @@
       <c r="AF229" t="n">
         <v>0</v>
       </c>
+      <c r="AG229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -24343,6 +25032,9 @@
       <c r="AF230" t="n">
         <v>3</v>
       </c>
+      <c r="AG230" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -24447,6 +25139,9 @@
       <c r="AF231" t="n">
         <v>73</v>
       </c>
+      <c r="AG231" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -24551,6 +25246,9 @@
       <c r="AF232" t="n">
         <v>4</v>
       </c>
+      <c r="AG232" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -24655,6 +25353,9 @@
       <c r="AF233" t="n">
         <v>7</v>
       </c>
+      <c r="AG233" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -24759,6 +25460,9 @@
       <c r="AF234" t="n">
         <v>7</v>
       </c>
+      <c r="AG234" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -24863,6 +25567,9 @@
       <c r="AF235" t="n">
         <v>33</v>
       </c>
+      <c r="AG235" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -24967,6 +25674,9 @@
       <c r="AF236" t="n">
         <v>5</v>
       </c>
+      <c r="AG236" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -25071,6 +25781,9 @@
       <c r="AF237" t="n">
         <v>79</v>
       </c>
+      <c r="AG237" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -25175,6 +25888,9 @@
       <c r="AF238" t="n">
         <v>2</v>
       </c>
+      <c r="AG238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -25279,6 +25995,9 @@
       <c r="AF239" t="n">
         <v>14</v>
       </c>
+      <c r="AG239" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -25383,6 +26102,9 @@
       <c r="AF240" t="n">
         <v>23</v>
       </c>
+      <c r="AG240" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -25487,6 +26209,9 @@
       <c r="AF241" t="n">
         <v>3</v>
       </c>
+      <c r="AG241" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -25591,6 +26316,9 @@
       <c r="AF242" t="n">
         <v>6</v>
       </c>
+      <c r="AG242" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -25695,6 +26423,9 @@
       <c r="AF243" t="n">
         <v>6</v>
       </c>
+      <c r="AG243" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -25799,6 +26530,9 @@
       <c r="AF244" t="n">
         <v>11</v>
       </c>
+      <c r="AG244" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -25903,6 +26637,9 @@
       <c r="AF245" t="n">
         <v>0</v>
       </c>
+      <c r="AG245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -26007,6 +26744,9 @@
       <c r="AF246" t="n">
         <v>1</v>
       </c>
+      <c r="AG246" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -26111,6 +26851,9 @@
       <c r="AF247" t="n">
         <v>15</v>
       </c>
+      <c r="AG247" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -26215,6 +26958,9 @@
       <c r="AF248" t="n">
         <v>1</v>
       </c>
+      <c r="AG248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -26319,6 +27065,9 @@
       <c r="AF249" t="n">
         <v>7</v>
       </c>
+      <c r="AG249" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -26423,6 +27172,9 @@
       <c r="AF250" t="n">
         <v>4</v>
       </c>
+      <c r="AG250" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -26527,6 +27279,9 @@
       <c r="AF251" t="n">
         <v>8</v>
       </c>
+      <c r="AG251" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -26631,6 +27386,9 @@
       <c r="AF252" t="n">
         <v>10</v>
       </c>
+      <c r="AG252" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -26735,6 +27493,9 @@
       <c r="AF253" t="n">
         <v>26</v>
       </c>
+      <c r="AG253" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -26839,6 +27600,9 @@
       <c r="AF254" t="n">
         <v>18</v>
       </c>
+      <c r="AG254" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -26943,6 +27707,9 @@
       <c r="AF255" t="n">
         <v>163</v>
       </c>
+      <c r="AG255" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -27047,6 +27814,9 @@
       <c r="AF256" t="n">
         <v>2</v>
       </c>
+      <c r="AG256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -27151,6 +27921,9 @@
       <c r="AF257" t="n">
         <v>6</v>
       </c>
+      <c r="AG257" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -27255,6 +28028,9 @@
       <c r="AF258" t="n">
         <v>10</v>
       </c>
+      <c r="AG258" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -27359,6 +28135,9 @@
       <c r="AF259" t="n">
         <v>2</v>
       </c>
+      <c r="AG259" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -27463,6 +28242,9 @@
       <c r="AF260" t="n">
         <v>10</v>
       </c>
+      <c r="AG260" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -27567,6 +28349,9 @@
       <c r="AF261" t="n">
         <v>0</v>
       </c>
+      <c r="AG261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -27671,6 +28456,9 @@
       <c r="AF262" t="n">
         <v>3</v>
       </c>
+      <c r="AG262" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -27775,6 +28563,9 @@
       <c r="AF263" t="n">
         <v>7</v>
       </c>
+      <c r="AG263" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -27879,6 +28670,9 @@
       <c r="AF264" t="n">
         <v>13</v>
       </c>
+      <c r="AG264" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -27983,6 +28777,9 @@
       <c r="AF265" t="n">
         <v>17</v>
       </c>
+      <c r="AG265" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -28087,6 +28884,9 @@
       <c r="AF266" t="n">
         <v>84</v>
       </c>
+      <c r="AG266" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -28191,6 +28991,9 @@
       <c r="AF267" t="n">
         <v>4</v>
       </c>
+      <c r="AG267" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -28295,6 +29098,9 @@
       <c r="AF268" t="n">
         <v>5</v>
       </c>
+      <c r="AG268" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -28399,6 +29205,9 @@
       <c r="AF269" t="n">
         <v>3</v>
       </c>
+      <c r="AG269" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -28503,6 +29312,9 @@
       <c r="AF270" t="n">
         <v>20</v>
       </c>
+      <c r="AG270" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -28607,6 +29419,9 @@
       <c r="AF271" t="n">
         <v>7</v>
       </c>
+      <c r="AG271" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -28711,6 +29526,9 @@
       <c r="AF272" t="n">
         <v>13</v>
       </c>
+      <c r="AG272" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -28815,6 +29633,9 @@
       <c r="AF273" t="n">
         <v>0</v>
       </c>
+      <c r="AG273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -28919,6 +29740,9 @@
       <c r="AF274" t="n">
         <v>4</v>
       </c>
+      <c r="AG274" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -29023,6 +29847,9 @@
       <c r="AF275" t="n">
         <v>9</v>
       </c>
+      <c r="AG275" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -29127,6 +29954,9 @@
       <c r="AF276" t="n">
         <v>9</v>
       </c>
+      <c r="AG276" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -29231,6 +30061,9 @@
       <c r="AF277" t="n">
         <v>5</v>
       </c>
+      <c r="AG277" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -29335,6 +30168,9 @@
       <c r="AF278" t="n">
         <v>24</v>
       </c>
+      <c r="AG278" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -29439,6 +30275,9 @@
       <c r="AF279" t="n">
         <v>16</v>
       </c>
+      <c r="AG279" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -29543,6 +30382,9 @@
       <c r="AF280" t="n">
         <v>6</v>
       </c>
+      <c r="AG280" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -29647,6 +30489,9 @@
       <c r="AF281" t="n">
         <v>6</v>
       </c>
+      <c r="AG281" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -29751,6 +30596,9 @@
       <c r="AF282" t="n">
         <v>0</v>
       </c>
+      <c r="AG282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -29855,6 +30703,9 @@
       <c r="AF283" t="n">
         <v>3</v>
       </c>
+      <c r="AG283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -29959,6 +30810,9 @@
       <c r="AF284" t="n">
         <v>7</v>
       </c>
+      <c r="AG284" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -30063,6 +30917,9 @@
       <c r="AF285" t="n">
         <v>11</v>
       </c>
+      <c r="AG285" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -30167,6 +31024,9 @@
       <c r="AF286" t="n">
         <v>8</v>
       </c>
+      <c r="AG286" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -30271,6 +31131,9 @@
       <c r="AF287" t="n">
         <v>211</v>
       </c>
+      <c r="AG287" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -30375,6 +31238,9 @@
       <c r="AF288" t="n">
         <v>4</v>
       </c>
+      <c r="AG288" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -30479,6 +31345,9 @@
       <c r="AF289" t="n">
         <v>3</v>
       </c>
+      <c r="AG289" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -30583,6 +31452,9 @@
       <c r="AF290" t="n">
         <v>10</v>
       </c>
+      <c r="AG290" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -30687,6 +31559,9 @@
       <c r="AF291" t="n">
         <v>1</v>
       </c>
+      <c r="AG291" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -30791,6 +31666,9 @@
       <c r="AF292" t="n">
         <v>92</v>
       </c>
+      <c r="AG292" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -30895,6 +31773,9 @@
       <c r="AF293" t="n">
         <v>4</v>
       </c>
+      <c r="AG293" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -30999,6 +31880,9 @@
       <c r="AF294" t="n">
         <v>4</v>
       </c>
+      <c r="AG294" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -31103,6 +31987,9 @@
       <c r="AF295" t="n">
         <v>7</v>
       </c>
+      <c r="AG295" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -31207,6 +32094,9 @@
       <c r="AF296" t="n">
         <v>160</v>
       </c>
+      <c r="AG296" t="n">
+        <v>191</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -31311,6 +32201,9 @@
       <c r="AF297" t="n">
         <v>14</v>
       </c>
+      <c r="AG297" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -31415,6 +32308,9 @@
       <c r="AF298" t="n">
         <v>3</v>
       </c>
+      <c r="AG298" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -31519,6 +32415,9 @@
       <c r="AF299" t="n">
         <v>8</v>
       </c>
+      <c r="AG299" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -31623,6 +32522,9 @@
       <c r="AF300" t="n">
         <v>8</v>
       </c>
+      <c r="AG300" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -31727,6 +32629,9 @@
       <c r="AF301" t="n">
         <v>0</v>
       </c>
+      <c r="AG301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -31831,6 +32736,9 @@
       <c r="AF302" t="n">
         <v>6</v>
       </c>
+      <c r="AG302" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -31935,6 +32843,9 @@
       <c r="AF303" t="n">
         <v>6</v>
       </c>
+      <c r="AG303" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -32039,6 +32950,9 @@
       <c r="AF304" t="n">
         <v>14</v>
       </c>
+      <c r="AG304" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -32143,6 +33057,9 @@
       <c r="AF305" t="n">
         <v>15</v>
       </c>
+      <c r="AG305" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -32247,6 +33164,9 @@
       <c r="AF306" t="n">
         <v>40</v>
       </c>
+      <c r="AG306" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -32351,6 +33271,9 @@
       <c r="AF307" t="n">
         <v>13</v>
       </c>
+      <c r="AG307" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -32455,6 +33378,9 @@
       <c r="AF308" t="n">
         <v>18</v>
       </c>
+      <c r="AG308" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -32559,6 +33485,9 @@
       <c r="AF309" t="n">
         <v>18</v>
       </c>
+      <c r="AG309" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -32663,6 +33592,9 @@
       <c r="AF310" t="n">
         <v>0</v>
       </c>
+      <c r="AG310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -32767,6 +33699,9 @@
       <c r="AF311" t="n">
         <v>8</v>
       </c>
+      <c r="AG311" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -32871,6 +33806,9 @@
       <c r="AF312" t="n">
         <v>5</v>
       </c>
+      <c r="AG312" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -32975,6 +33913,9 @@
       <c r="AF313" t="n">
         <v>3</v>
       </c>
+      <c r="AG313" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -33079,6 +34020,9 @@
       <c r="AF314" t="n">
         <v>3</v>
       </c>
+      <c r="AG314" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -33183,6 +34127,9 @@
       <c r="AF315" t="n">
         <v>19</v>
       </c>
+      <c r="AG315" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -33287,6 +34234,9 @@
       <c r="AF316" t="n">
         <v>0</v>
       </c>
+      <c r="AG316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -33391,6 +34341,9 @@
       <c r="AF317" t="n">
         <v>3</v>
       </c>
+      <c r="AG317" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -33495,6 +34448,9 @@
       <c r="AF318" t="n">
         <v>29</v>
       </c>
+      <c r="AG318" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -33599,6 +34555,9 @@
       <c r="AF319" t="n">
         <v>4</v>
       </c>
+      <c r="AG319" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -33703,6 +34662,9 @@
       <c r="AF320" t="n">
         <v>3</v>
       </c>
+      <c r="AG320" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -33807,6 +34769,9 @@
       <c r="AF321" t="n">
         <v>5</v>
       </c>
+      <c r="AG321" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -33911,6 +34876,9 @@
       <c r="AF322" t="n">
         <v>10</v>
       </c>
+      <c r="AG322" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -34015,6 +34983,9 @@
       <c r="AF323" t="n">
         <v>17</v>
       </c>
+      <c r="AG323" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -34119,6 +35090,9 @@
       <c r="AF324" t="n">
         <v>2</v>
       </c>
+      <c r="AG324" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -34223,6 +35197,9 @@
       <c r="AF325" t="n">
         <v>17</v>
       </c>
+      <c r="AG325" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -34327,6 +35304,9 @@
       <c r="AF326" t="n">
         <v>8</v>
       </c>
+      <c r="AG326" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -34431,6 +35411,9 @@
       <c r="AF327" t="n">
         <v>8</v>
       </c>
+      <c r="AG327" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -34535,6 +35518,9 @@
       <c r="AF328" t="n">
         <v>2</v>
       </c>
+      <c r="AG328" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -34639,6 +35625,9 @@
       <c r="AF329" t="n">
         <v>2</v>
       </c>
+      <c r="AG329" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -34743,6 +35732,9 @@
       <c r="AF330" t="n">
         <v>0</v>
       </c>
+      <c r="AG330" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -34847,6 +35839,9 @@
       <c r="AF331" t="n">
         <v>25</v>
       </c>
+      <c r="AG331" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -34951,6 +35946,9 @@
       <c r="AF332" t="n">
         <v>1</v>
       </c>
+      <c r="AG332" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -35055,6 +36053,9 @@
       <c r="AF333" t="n">
         <v>8</v>
       </c>
+      <c r="AG333" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -35159,6 +36160,9 @@
       <c r="AF334" t="n">
         <v>0</v>
       </c>
+      <c r="AG334" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -35263,6 +36267,9 @@
       <c r="AF335" t="n">
         <v>23</v>
       </c>
+      <c r="AG335" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -35367,6 +36374,9 @@
       <c r="AF336" t="n">
         <v>1</v>
       </c>
+      <c r="AG336" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -35471,6 +36481,9 @@
       <c r="AF337" t="n">
         <v>6</v>
       </c>
+      <c r="AG337" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -35575,6 +36588,9 @@
       <c r="AF338" t="n">
         <v>2</v>
       </c>
+      <c r="AG338" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -35679,6 +36695,9 @@
       <c r="AF339" t="n">
         <v>4</v>
       </c>
+      <c r="AG339" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -35783,6 +36802,9 @@
       <c r="AF340" t="n">
         <v>19</v>
       </c>
+      <c r="AG340" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -35887,6 +36909,9 @@
       <c r="AF341" t="n">
         <v>2</v>
       </c>
+      <c r="AG341" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -35991,6 +37016,9 @@
       <c r="AF342" t="n">
         <v>4</v>
       </c>
+      <c r="AG342" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -36095,6 +37123,9 @@
       <c r="AF343" t="n">
         <v>20</v>
       </c>
+      <c r="AG343" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -36199,6 +37230,9 @@
       <c r="AF344" t="n">
         <v>7</v>
       </c>
+      <c r="AG344" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -36303,6 +37337,9 @@
       <c r="AF345" t="n">
         <v>6</v>
       </c>
+      <c r="AG345" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -36407,6 +37444,9 @@
       <c r="AF346" t="n">
         <v>4</v>
       </c>
+      <c r="AG346" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -36511,6 +37551,9 @@
       <c r="AF347" t="n">
         <v>20</v>
       </c>
+      <c r="AG347" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -36615,6 +37658,9 @@
       <c r="AF348" t="n">
         <v>10</v>
       </c>
+      <c r="AG348" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -36719,6 +37765,9 @@
       <c r="AF349" t="n">
         <v>8</v>
       </c>
+      <c r="AG349" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -36823,6 +37872,9 @@
       <c r="AF350" t="n">
         <v>1</v>
       </c>
+      <c r="AG350" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -36927,6 +37979,9 @@
       <c r="AF351" t="n">
         <v>3</v>
       </c>
+      <c r="AG351" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -37031,6 +38086,9 @@
       <c r="AF352" t="n">
         <v>11</v>
       </c>
+      <c r="AG352" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -37135,6 +38193,9 @@
       <c r="AF353" t="n">
         <v>6</v>
       </c>
+      <c r="AG353" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -37239,6 +38300,9 @@
       <c r="AF354" t="n">
         <v>22</v>
       </c>
+      <c r="AG354" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -37343,6 +38407,9 @@
       <c r="AF355" t="n">
         <v>8</v>
       </c>
+      <c r="AG355" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -37446,6 +38513,9 @@
       </c>
       <c r="AF356" t="n">
         <v>40</v>
+      </c>
+      <c r="AG356" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
+++ b/rivm_covid_19_data/rivm_covid_19_time_series/time_series_19-covid-Confirmed_city.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG356"/>
+  <dimension ref="A1:AK356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,26 @@
           <t>25-03-2020</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>26-03-2020</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>27-03-2020</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>28-03-2020</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>29-03-2020</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -639,6 +659,18 @@
       <c r="AG2" t="n">
         <v>81</v>
       </c>
+      <c r="AH2" t="n">
+        <v>103</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>124</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>161</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -746,6 +778,18 @@
       <c r="AG3" t="n">
         <v>75</v>
       </c>
+      <c r="AH3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>117</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -853,6 +897,18 @@
       <c r="AG4" t="n">
         <v>1</v>
       </c>
+      <c r="AH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -960,6 +1016,18 @@
       <c r="AG5" t="n">
         <v>10</v>
       </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1067,6 +1135,18 @@
       <c r="AG6" t="n">
         <v>2</v>
       </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1174,6 +1254,18 @@
       <c r="AG7" t="n">
         <v>1</v>
       </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1281,6 +1373,18 @@
       <c r="AG8" t="n">
         <v>5</v>
       </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1388,6 +1492,18 @@
       <c r="AG9" t="n">
         <v>18</v>
       </c>
+      <c r="AH9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1495,6 +1611,18 @@
       <c r="AG10" t="n">
         <v>24</v>
       </c>
+      <c r="AH10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1602,6 +1730,18 @@
       <c r="AG11" t="n">
         <v>10</v>
       </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1709,6 +1849,18 @@
       <c r="AG12" t="n">
         <v>28</v>
       </c>
+      <c r="AH12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1816,6 +1968,18 @@
       <c r="AG13" t="n">
         <v>22</v>
       </c>
+      <c r="AH13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1923,6 +2087,18 @@
       <c r="AG14" t="n">
         <v>16</v>
       </c>
+      <c r="AH14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -2030,6 +2206,18 @@
       <c r="AG15" t="n">
         <v>35</v>
       </c>
+      <c r="AH15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2137,6 +2325,18 @@
       <c r="AG16" t="n">
         <v>0</v>
       </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -2244,6 +2444,18 @@
       <c r="AG17" t="n">
         <v>47</v>
       </c>
+      <c r="AH17" t="n">
+        <v>54</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>59</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>63</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2351,6 +2563,18 @@
       <c r="AG18" t="n">
         <v>35</v>
       </c>
+      <c r="AH18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>63</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2458,6 +2682,18 @@
       <c r="AG19" t="n">
         <v>297</v>
       </c>
+      <c r="AH19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>411</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>477</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>530</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2565,6 +2801,18 @@
       <c r="AG20" t="n">
         <v>34</v>
       </c>
+      <c r="AH20" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>49</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2671,6 +2919,18 @@
       </c>
       <c r="AG21" t="n">
         <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2779,6 +3039,18 @@
       <c r="AG22" t="n">
         <v>25</v>
       </c>
+      <c r="AH22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2886,6 +3158,18 @@
       <c r="AG23" t="n">
         <v>5</v>
       </c>
+      <c r="AH23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2993,6 +3277,18 @@
       <c r="AG24" t="n">
         <v>6</v>
       </c>
+      <c r="AH24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3100,6 +3396,18 @@
       <c r="AG25" t="n">
         <v>2</v>
       </c>
+      <c r="AH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -3207,6 +3515,18 @@
       <c r="AG26" t="n">
         <v>4</v>
       </c>
+      <c r="AH26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -3314,6 +3634,18 @@
       <c r="AG27" t="n">
         <v>16</v>
       </c>
+      <c r="AH27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -3421,6 +3753,18 @@
       <c r="AG28" t="n">
         <v>13</v>
       </c>
+      <c r="AH28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3528,6 +3872,18 @@
       <c r="AG29" t="n">
         <v>13</v>
       </c>
+      <c r="AH29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -3635,6 +3991,18 @@
       <c r="AG30" t="n">
         <v>30</v>
       </c>
+      <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -3742,6 +4110,18 @@
       <c r="AG31" t="n">
         <v>2</v>
       </c>
+      <c r="AH31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -3849,6 +4229,18 @@
       <c r="AG32" t="n">
         <v>7</v>
       </c>
+      <c r="AH32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -3956,6 +4348,18 @@
       <c r="AG33" t="n">
         <v>37</v>
       </c>
+      <c r="AH33" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>53</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4063,6 +4467,18 @@
       <c r="AG34" t="n">
         <v>10</v>
       </c>
+      <c r="AH34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -4170,6 +4586,18 @@
       <c r="AG35" t="n">
         <v>1</v>
       </c>
+      <c r="AH35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -4277,6 +4705,18 @@
       <c r="AG36" t="n">
         <v>12</v>
       </c>
+      <c r="AH36" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4384,6 +4824,18 @@
       <c r="AG37" t="n">
         <v>12</v>
       </c>
+      <c r="AH37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -4491,6 +4943,18 @@
       <c r="AG38" t="n">
         <v>2</v>
       </c>
+      <c r="AH38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -4598,6 +5062,18 @@
       <c r="AG39" t="n">
         <v>69</v>
       </c>
+      <c r="AH39" t="n">
+        <v>83</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>87</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -4705,6 +5181,18 @@
       <c r="AG40" t="n">
         <v>19</v>
       </c>
+      <c r="AH40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -4812,6 +5300,18 @@
       <c r="AG41" t="n">
         <v>15</v>
       </c>
+      <c r="AH41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4919,6 +5419,18 @@
       <c r="AG42" t="n">
         <v>11</v>
       </c>
+      <c r="AH42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -5026,6 +5538,18 @@
       <c r="AG43" t="n">
         <v>15</v>
       </c>
+      <c r="AH43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -5133,6 +5657,18 @@
       <c r="AG44" t="n">
         <v>5</v>
       </c>
+      <c r="AH44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -5240,6 +5776,18 @@
       <c r="AG45" t="n">
         <v>13</v>
       </c>
+      <c r="AH45" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -5347,6 +5895,18 @@
       <c r="AG46" t="n">
         <v>5</v>
       </c>
+      <c r="AH46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -5454,6 +6014,18 @@
       <c r="AG47" t="n">
         <v>42</v>
       </c>
+      <c r="AH47" t="n">
+        <v>42</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>53</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5561,6 +6133,18 @@
       <c r="AG48" t="n">
         <v>0</v>
       </c>
+      <c r="AH48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -5668,6 +6252,18 @@
       <c r="AG49" t="n">
         <v>11</v>
       </c>
+      <c r="AH49" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -5775,6 +6371,18 @@
       <c r="AG50" t="n">
         <v>5</v>
       </c>
+      <c r="AH50" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5882,6 +6490,18 @@
       <c r="AG51" t="n">
         <v>9</v>
       </c>
+      <c r="AH51" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -5989,6 +6609,18 @@
       <c r="AG52" t="n">
         <v>15</v>
       </c>
+      <c r="AH52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6096,6 +6728,18 @@
       <c r="AG53" t="n">
         <v>181</v>
       </c>
+      <c r="AH53" t="n">
+        <v>201</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>215</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>227</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -6203,6 +6847,18 @@
       <c r="AG54" t="n">
         <v>1</v>
       </c>
+      <c r="AH54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6310,6 +6966,18 @@
       <c r="AG55" t="n">
         <v>7</v>
       </c>
+      <c r="AH55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6417,6 +7085,18 @@
       <c r="AG56" t="n">
         <v>4</v>
       </c>
+      <c r="AH56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6524,6 +7204,18 @@
       <c r="AG57" t="n">
         <v>20</v>
       </c>
+      <c r="AH57" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6631,6 +7323,18 @@
       <c r="AG58" t="n">
         <v>8</v>
       </c>
+      <c r="AH58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -6738,6 +7442,18 @@
       <c r="AG59" t="n">
         <v>3</v>
       </c>
+      <c r="AH59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -6845,6 +7561,18 @@
       <c r="AG60" t="n">
         <v>7</v>
       </c>
+      <c r="AH60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -6952,6 +7680,18 @@
       <c r="AG61" t="n">
         <v>23</v>
       </c>
+      <c r="AH61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -7059,6 +7799,18 @@
       <c r="AG62" t="n">
         <v>10</v>
       </c>
+      <c r="AH62" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -7166,6 +7918,18 @@
       <c r="AG63" t="n">
         <v>15</v>
       </c>
+      <c r="AH63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7273,6 +8037,18 @@
       <c r="AG64" t="n">
         <v>25</v>
       </c>
+      <c r="AH64" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -7380,6 +8156,18 @@
       <c r="AG65" t="n">
         <v>8</v>
       </c>
+      <c r="AH65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -7487,6 +8275,18 @@
       <c r="AG66" t="n">
         <v>8</v>
       </c>
+      <c r="AH66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7594,6 +8394,18 @@
       <c r="AG67" t="n">
         <v>12</v>
       </c>
+      <c r="AH67" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -7701,6 +8513,18 @@
       <c r="AG68" t="n">
         <v>0</v>
       </c>
+      <c r="AH68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7808,6 +8632,18 @@
       <c r="AG69" t="n">
         <v>32</v>
       </c>
+      <c r="AH69" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -7915,6 +8751,18 @@
       <c r="AG70" t="n">
         <v>9</v>
       </c>
+      <c r="AH70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -8022,6 +8870,18 @@
       <c r="AG71" t="n">
         <v>9</v>
       </c>
+      <c r="AH71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -8129,6 +8989,18 @@
       <c r="AG72" t="n">
         <v>3</v>
       </c>
+      <c r="AH72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -8236,6 +9108,18 @@
       <c r="AG73" t="n">
         <v>21</v>
       </c>
+      <c r="AH73" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -8343,6 +9227,18 @@
       <c r="AG74" t="n">
         <v>1</v>
       </c>
+      <c r="AH74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -8450,6 +9346,18 @@
       <c r="AG75" t="n">
         <v>5</v>
       </c>
+      <c r="AH75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8557,6 +9465,18 @@
       <c r="AG76" t="n">
         <v>30</v>
       </c>
+      <c r="AH76" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -8664,6 +9584,18 @@
       <c r="AG77" t="n">
         <v>26</v>
       </c>
+      <c r="AH77" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -8771,6 +9703,18 @@
       <c r="AG78" t="n">
         <v>6</v>
       </c>
+      <c r="AH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -8878,6 +9822,18 @@
       <c r="AG79" t="n">
         <v>20</v>
       </c>
+      <c r="AH79" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -8985,6 +9941,18 @@
       <c r="AG80" t="n">
         <v>5</v>
       </c>
+      <c r="AH80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -9092,6 +10060,18 @@
       <c r="AG81" t="n">
         <v>10</v>
       </c>
+      <c r="AH81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -9199,6 +10179,18 @@
       <c r="AG82" t="n">
         <v>6</v>
       </c>
+      <c r="AH82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -9306,6 +10298,18 @@
       <c r="AG83" t="n">
         <v>26</v>
       </c>
+      <c r="AH83" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -9413,6 +10417,18 @@
       <c r="AG84" t="n">
         <v>3</v>
       </c>
+      <c r="AH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -9520,6 +10536,18 @@
       <c r="AG85" t="n">
         <v>20</v>
       </c>
+      <c r="AH85" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -9627,6 +10655,18 @@
       <c r="AG86" t="n">
         <v>11</v>
       </c>
+      <c r="AH86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -9734,6 +10774,18 @@
       <c r="AG87" t="n">
         <v>7</v>
       </c>
+      <c r="AH87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -9841,6 +10893,18 @@
       <c r="AG88" t="n">
         <v>2</v>
       </c>
+      <c r="AH88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -9948,6 +11012,18 @@
       <c r="AG89" t="n">
         <v>20</v>
       </c>
+      <c r="AH89" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -10055,6 +11131,18 @@
       <c r="AG90" t="n">
         <v>9</v>
       </c>
+      <c r="AH90" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -10162,6 +11250,18 @@
       <c r="AG91" t="n">
         <v>26</v>
       </c>
+      <c r="AH91" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -10269,6 +11369,18 @@
       <c r="AG92" t="n">
         <v>1</v>
       </c>
+      <c r="AH92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -10376,6 +11488,18 @@
       <c r="AG93" t="n">
         <v>13</v>
       </c>
+      <c r="AH93" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -10483,6 +11607,18 @@
       <c r="AG94" t="n">
         <v>20</v>
       </c>
+      <c r="AH94" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>43</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -10590,6 +11726,18 @@
       <c r="AG95" t="n">
         <v>80</v>
       </c>
+      <c r="AH95" t="n">
+        <v>93</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>113</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>128</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -10697,6 +11845,18 @@
       <c r="AG96" t="n">
         <v>5</v>
       </c>
+      <c r="AH96" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -10804,6 +11964,18 @@
       <c r="AG97" t="n">
         <v>8</v>
       </c>
+      <c r="AH97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -10911,6 +12083,18 @@
       <c r="AG98" t="n">
         <v>13</v>
       </c>
+      <c r="AH98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -11018,6 +12202,18 @@
       <c r="AG99" t="n">
         <v>26</v>
       </c>
+      <c r="AH99" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>49</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -11125,6 +12321,18 @@
       <c r="AG100" t="n">
         <v>15</v>
       </c>
+      <c r="AH100" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -11232,6 +12440,18 @@
       <c r="AG101" t="n">
         <v>17</v>
       </c>
+      <c r="AH101" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -11339,6 +12559,18 @@
       <c r="AG102" t="n">
         <v>31</v>
       </c>
+      <c r="AH102" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -11446,6 +12678,18 @@
       <c r="AG103" t="n">
         <v>11</v>
       </c>
+      <c r="AH103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -11553,6 +12797,18 @@
       <c r="AG104" t="n">
         <v>15</v>
       </c>
+      <c r="AH104" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -11660,6 +12916,18 @@
       <c r="AG105" t="n">
         <v>68</v>
       </c>
+      <c r="AH105" t="n">
+        <v>71</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>76</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>82</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -11767,6 +13035,18 @@
       <c r="AG106" t="n">
         <v>7</v>
       </c>
+      <c r="AH106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -11874,6 +13154,18 @@
       <c r="AG107" t="n">
         <v>18</v>
       </c>
+      <c r="AH107" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -11981,6 +13273,18 @@
       <c r="AG108" t="n">
         <v>44</v>
       </c>
+      <c r="AH108" t="n">
+        <v>56</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>92</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -12088,6 +13392,18 @@
       <c r="AG109" t="n">
         <v>4</v>
       </c>
+      <c r="AH109" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -12195,6 +13511,18 @@
       <c r="AG110" t="n">
         <v>18</v>
       </c>
+      <c r="AH110" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -12302,6 +13630,18 @@
       <c r="AG111" t="n">
         <v>18</v>
       </c>
+      <c r="AH111" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -12409,6 +13749,18 @@
       <c r="AG112" t="n">
         <v>8</v>
       </c>
+      <c r="AH112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -12516,6 +13868,18 @@
       <c r="AG113" t="n">
         <v>18</v>
       </c>
+      <c r="AH113" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -12623,6 +13987,18 @@
       <c r="AG114" t="n">
         <v>11</v>
       </c>
+      <c r="AH114" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -12730,6 +14106,18 @@
       <c r="AG115" t="n">
         <v>58</v>
       </c>
+      <c r="AH115" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -12837,6 +14225,18 @@
       <c r="AG116" t="n">
         <v>5</v>
       </c>
+      <c r="AH116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -12944,6 +14344,18 @@
       <c r="AG117" t="n">
         <v>3</v>
       </c>
+      <c r="AH117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -13051,6 +14463,18 @@
       <c r="AG118" t="n">
         <v>12</v>
       </c>
+      <c r="AH118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -13158,6 +14582,18 @@
       <c r="AG119" t="n">
         <v>46</v>
       </c>
+      <c r="AH119" t="n">
+        <v>54</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>66</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>73</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -13265,6 +14701,18 @@
       <c r="AG120" t="n">
         <v>23</v>
       </c>
+      <c r="AH120" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -13372,6 +14820,18 @@
       <c r="AG121" t="n">
         <v>8</v>
       </c>
+      <c r="AH121" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -13479,6 +14939,18 @@
       <c r="AG122" t="n">
         <v>7</v>
       </c>
+      <c r="AH122" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -13586,6 +15058,18 @@
       <c r="AG123" t="n">
         <v>13</v>
       </c>
+      <c r="AH123" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -13693,6 +15177,18 @@
       <c r="AG124" t="n">
         <v>6</v>
       </c>
+      <c r="AH124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -13800,6 +15296,18 @@
       <c r="AG125" t="n">
         <v>3</v>
       </c>
+      <c r="AH125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -13907,6 +15415,18 @@
       <c r="AG126" t="n">
         <v>3</v>
       </c>
+      <c r="AH126" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -14014,6 +15534,18 @@
       <c r="AG127" t="n">
         <v>9</v>
       </c>
+      <c r="AH127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -14121,6 +15653,18 @@
       <c r="AG128" t="n">
         <v>17</v>
       </c>
+      <c r="AH128" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -14228,6 +15772,18 @@
       <c r="AG129" t="n">
         <v>19</v>
       </c>
+      <c r="AH129" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -14335,6 +15891,18 @@
       <c r="AG130" t="n">
         <v>3</v>
       </c>
+      <c r="AH130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -14442,6 +16010,18 @@
       <c r="AG131" t="n">
         <v>16</v>
       </c>
+      <c r="AH131" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -14549,6 +16129,18 @@
       <c r="AG132" t="n">
         <v>53</v>
       </c>
+      <c r="AH132" t="n">
+        <v>63</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>68</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -14656,6 +16248,18 @@
       <c r="AG133" t="n">
         <v>10</v>
       </c>
+      <c r="AH133" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -14763,6 +16367,18 @@
       <c r="AG134" t="n">
         <v>9</v>
       </c>
+      <c r="AH134" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -14870,6 +16486,18 @@
       <c r="AG135" t="n">
         <v>7</v>
       </c>
+      <c r="AH135" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -14977,6 +16605,18 @@
       <c r="AG136" t="n">
         <v>5</v>
       </c>
+      <c r="AH136" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -15084,6 +16724,18 @@
       <c r="AG137" t="n">
         <v>63</v>
       </c>
+      <c r="AH137" t="n">
+        <v>66</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>91</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -15191,6 +16843,18 @@
       <c r="AG138" t="n">
         <v>3</v>
       </c>
+      <c r="AH138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -15298,6 +16962,18 @@
       <c r="AG139" t="n">
         <v>17</v>
       </c>
+      <c r="AH139" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -15405,6 +17081,18 @@
       <c r="AG140" t="n">
         <v>4</v>
       </c>
+      <c r="AH140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -15512,6 +17200,18 @@
       <c r="AG141" t="n">
         <v>12</v>
       </c>
+      <c r="AH141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -15619,6 +17319,18 @@
       <c r="AG142" t="n">
         <v>20</v>
       </c>
+      <c r="AH142" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -15726,6 +17438,18 @@
       <c r="AG143" t="n">
         <v>3</v>
       </c>
+      <c r="AH143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -15833,6 +17557,18 @@
       <c r="AG144" t="n">
         <v>10</v>
       </c>
+      <c r="AH144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -15940,6 +17676,18 @@
       <c r="AG145" t="n">
         <v>16</v>
       </c>
+      <c r="AH145" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -16047,6 +17795,18 @@
       <c r="AG146" t="n">
         <v>36</v>
       </c>
+      <c r="AH146" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -16154,6 +17914,18 @@
       <c r="AG147" t="n">
         <v>6</v>
       </c>
+      <c r="AH147" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -16261,6 +18033,18 @@
       <c r="AG148" t="n">
         <v>10</v>
       </c>
+      <c r="AH148" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -16368,6 +18152,18 @@
       <c r="AG149" t="n">
         <v>7</v>
       </c>
+      <c r="AH149" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -16475,6 +18271,18 @@
       <c r="AG150" t="n">
         <v>14</v>
       </c>
+      <c r="AH150" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -16582,6 +18390,18 @@
       <c r="AG151" t="n">
         <v>18</v>
       </c>
+      <c r="AH151" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -16689,6 +18509,18 @@
       <c r="AG152" t="n">
         <v>37</v>
       </c>
+      <c r="AH152" t="n">
+        <v>43</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>47</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -16796,6 +18628,18 @@
       <c r="AG153" t="n">
         <v>7</v>
       </c>
+      <c r="AH153" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -16903,6 +18747,18 @@
       <c r="AG154" t="n">
         <v>1</v>
       </c>
+      <c r="AH154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -17010,6 +18866,18 @@
       <c r="AG155" t="n">
         <v>18</v>
       </c>
+      <c r="AH155" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -17117,6 +18985,18 @@
       <c r="AG156" t="n">
         <v>5</v>
       </c>
+      <c r="AH156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -17224,6 +19104,18 @@
       <c r="AG157" t="n">
         <v>30</v>
       </c>
+      <c r="AH157" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -17331,6 +19223,18 @@
       <c r="AG158" t="n">
         <v>2</v>
       </c>
+      <c r="AH158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -17438,6 +19342,18 @@
       <c r="AG159" t="n">
         <v>7</v>
       </c>
+      <c r="AH159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -17545,6 +19461,18 @@
       <c r="AG160" t="n">
         <v>21</v>
       </c>
+      <c r="AH160" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -17652,6 +19580,18 @@
       <c r="AG161" t="n">
         <v>5</v>
       </c>
+      <c r="AH161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -17759,6 +19699,18 @@
       <c r="AG162" t="n">
         <v>6</v>
       </c>
+      <c r="AH162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -17866,6 +19818,18 @@
       <c r="AG163" t="n">
         <v>16</v>
       </c>
+      <c r="AH163" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -17973,6 +19937,18 @@
       <c r="AG164" t="n">
         <v>19</v>
       </c>
+      <c r="AH164" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>33</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>39</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -18080,6 +20056,18 @@
       <c r="AG165" t="n">
         <v>25</v>
       </c>
+      <c r="AH165" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -18187,6 +20175,18 @@
       <c r="AG166" t="n">
         <v>21</v>
       </c>
+      <c r="AH166" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -18294,6 +20294,18 @@
       <c r="AG167" t="n">
         <v>6</v>
       </c>
+      <c r="AH167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -18401,6 +20413,18 @@
       <c r="AG168" t="n">
         <v>12</v>
       </c>
+      <c r="AH168" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -18508,6 +20532,18 @@
       <c r="AG169" t="n">
         <v>25</v>
       </c>
+      <c r="AH169" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -18615,6 +20651,18 @@
       <c r="AG170" t="n">
         <v>4</v>
       </c>
+      <c r="AH170" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -18722,6 +20770,18 @@
       <c r="AG171" t="n">
         <v>12</v>
       </c>
+      <c r="AH171" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -18829,6 +20889,18 @@
       <c r="AG172" t="n">
         <v>21</v>
       </c>
+      <c r="AH172" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -18936,6 +21008,18 @@
       <c r="AG173" t="n">
         <v>3</v>
       </c>
+      <c r="AH173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -19043,6 +21127,18 @@
       <c r="AG174" t="n">
         <v>14</v>
       </c>
+      <c r="AH174" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -19150,6 +21246,18 @@
       <c r="AG175" t="n">
         <v>26</v>
       </c>
+      <c r="AH175" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -19257,6 +21365,18 @@
       <c r="AG176" t="n">
         <v>29</v>
       </c>
+      <c r="AH176" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -19364,6 +21484,18 @@
       <c r="AG177" t="n">
         <v>13</v>
       </c>
+      <c r="AH177" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -19471,6 +21603,18 @@
       <c r="AG178" t="n">
         <v>14</v>
       </c>
+      <c r="AH178" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -19578,6 +21722,18 @@
       <c r="AG179" t="n">
         <v>2</v>
       </c>
+      <c r="AH179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -19685,6 +21841,18 @@
       <c r="AG180" t="n">
         <v>6</v>
       </c>
+      <c r="AH180" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -19792,6 +21960,18 @@
       <c r="AG181" t="n">
         <v>20</v>
       </c>
+      <c r="AH181" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -19899,6 +22079,18 @@
       <c r="AG182" t="n">
         <v>11</v>
       </c>
+      <c r="AH182" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -20006,6 +22198,18 @@
       <c r="AG183" t="n">
         <v>0</v>
       </c>
+      <c r="AH183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -20113,6 +22317,18 @@
       <c r="AG184" t="n">
         <v>1</v>
       </c>
+      <c r="AH184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -20220,6 +22436,18 @@
       <c r="AG185" t="n">
         <v>3</v>
       </c>
+      <c r="AH185" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -20327,6 +22555,18 @@
       <c r="AG186" t="n">
         <v>10</v>
       </c>
+      <c r="AH186" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -20434,6 +22674,18 @@
       <c r="AG187" t="n">
         <v>7</v>
       </c>
+      <c r="AH187" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -20541,6 +22793,18 @@
       <c r="AG188" t="n">
         <v>112</v>
       </c>
+      <c r="AH188" t="n">
+        <v>118</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>126</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>162</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -20648,6 +22912,18 @@
       <c r="AG189" t="n">
         <v>4</v>
       </c>
+      <c r="AH189" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI189" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ189" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK189" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -20755,6 +23031,18 @@
       <c r="AG190" t="n">
         <v>8</v>
       </c>
+      <c r="AH190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI190" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK190" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -20862,6 +23150,18 @@
       <c r="AG191" t="n">
         <v>149</v>
       </c>
+      <c r="AH191" t="n">
+        <v>168</v>
+      </c>
+      <c r="AI191" t="n">
+        <v>195</v>
+      </c>
+      <c r="AJ191" t="n">
+        <v>207</v>
+      </c>
+      <c r="AK191" t="n">
+        <v>227</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -20969,6 +23269,18 @@
       <c r="AG192" t="n">
         <v>3</v>
       </c>
+      <c r="AH192" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI192" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ192" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK192" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -21076,6 +23388,18 @@
       <c r="AG193" t="n">
         <v>7</v>
       </c>
+      <c r="AH193" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -21183,6 +23507,18 @@
       <c r="AG194" t="n">
         <v>2</v>
       </c>
+      <c r="AH194" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -21290,6 +23626,18 @@
       <c r="AG195" t="n">
         <v>1</v>
       </c>
+      <c r="AH195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -21397,6 +23745,18 @@
       <c r="AG196" t="n">
         <v>2</v>
       </c>
+      <c r="AH196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -21504,6 +23864,18 @@
       <c r="AG197" t="n">
         <v>5</v>
       </c>
+      <c r="AH197" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -21611,6 +23983,18 @@
       <c r="AG198" t="n">
         <v>5</v>
       </c>
+      <c r="AH198" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -21718,6 +24102,18 @@
       <c r="AG199" t="n">
         <v>16</v>
       </c>
+      <c r="AH199" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -21825,6 +24221,18 @@
       <c r="AG200" t="n">
         <v>3</v>
       </c>
+      <c r="AH200" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -21932,6 +24340,18 @@
       <c r="AG201" t="n">
         <v>5</v>
       </c>
+      <c r="AH201" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -22039,6 +24459,18 @@
       <c r="AG202" t="n">
         <v>5</v>
       </c>
+      <c r="AH202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -22146,6 +24578,18 @@
       <c r="AG203" t="n">
         <v>11</v>
       </c>
+      <c r="AH203" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -22253,6 +24697,18 @@
       <c r="AG204" t="n">
         <v>14</v>
       </c>
+      <c r="AH204" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -22360,6 +24816,18 @@
       <c r="AG205" t="n">
         <v>12</v>
       </c>
+      <c r="AH205" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -22467,6 +24935,18 @@
       <c r="AG206" t="n">
         <v>6</v>
       </c>
+      <c r="AH206" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -22574,6 +25054,18 @@
       <c r="AG207" t="n">
         <v>8</v>
       </c>
+      <c r="AH207" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -22681,6 +25173,18 @@
       <c r="AG208" t="n">
         <v>108</v>
       </c>
+      <c r="AH208" t="n">
+        <v>122</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>132</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>149</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -22788,6 +25292,18 @@
       <c r="AG209" t="n">
         <v>19</v>
       </c>
+      <c r="AH209" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>37</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -22895,6 +25411,18 @@
       <c r="AG210" t="n">
         <v>3</v>
       </c>
+      <c r="AH210" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -23002,6 +25530,18 @@
       <c r="AG211" t="n">
         <v>2</v>
       </c>
+      <c r="AH211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -23109,6 +25649,18 @@
       <c r="AG212" t="n">
         <v>1</v>
       </c>
+      <c r="AH212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -23216,6 +25768,18 @@
       <c r="AG213" t="n">
         <v>5</v>
       </c>
+      <c r="AH213" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -23323,6 +25887,18 @@
       <c r="AG214" t="n">
         <v>7</v>
       </c>
+      <c r="AH214" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -23430,6 +26006,18 @@
       <c r="AG215" t="n">
         <v>8</v>
       </c>
+      <c r="AH215" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -23537,6 +26125,18 @@
       <c r="AG216" t="n">
         <v>29</v>
       </c>
+      <c r="AH216" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>43</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -23644,6 +26244,18 @@
       <c r="AG217" t="n">
         <v>9</v>
       </c>
+      <c r="AH217" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -23751,6 +26363,18 @@
       <c r="AG218" t="n">
         <v>6</v>
       </c>
+      <c r="AH218" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -23858,6 +26482,18 @@
       <c r="AG219" t="n">
         <v>18</v>
       </c>
+      <c r="AH219" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -23965,6 +26601,18 @@
       <c r="AG220" t="n">
         <v>0</v>
       </c>
+      <c r="AH220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -24072,6 +26720,18 @@
       <c r="AG221" t="n">
         <v>12</v>
       </c>
+      <c r="AH221" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -24179,6 +26839,18 @@
       <c r="AG222" t="n">
         <v>13</v>
       </c>
+      <c r="AH222" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -24286,6 +26958,18 @@
       <c r="AG223" t="n">
         <v>6</v>
       </c>
+      <c r="AH223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -24393,6 +27077,18 @@
       <c r="AG224" t="n">
         <v>7</v>
       </c>
+      <c r="AH224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -24500,6 +27196,18 @@
       <c r="AG225" t="n">
         <v>6</v>
       </c>
+      <c r="AH225" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -24607,6 +27315,18 @@
       <c r="AG226" t="n">
         <v>26</v>
       </c>
+      <c r="AH226" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -24714,6 +27434,18 @@
       <c r="AG227" t="n">
         <v>1</v>
       </c>
+      <c r="AH227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -24821,6 +27553,18 @@
       <c r="AG228" t="n">
         <v>6</v>
       </c>
+      <c r="AH228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -24928,6 +27672,18 @@
       <c r="AG229" t="n">
         <v>0</v>
       </c>
+      <c r="AH229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -25035,6 +27791,18 @@
       <c r="AG230" t="n">
         <v>4</v>
       </c>
+      <c r="AH230" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -25142,6 +27910,18 @@
       <c r="AG231" t="n">
         <v>81</v>
       </c>
+      <c r="AH231" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>128</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>141</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -25249,6 +28029,18 @@
       <c r="AG232" t="n">
         <v>4</v>
       </c>
+      <c r="AH232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -25356,6 +28148,18 @@
       <c r="AG233" t="n">
         <v>7</v>
       </c>
+      <c r="AH233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -25463,6 +28267,18 @@
       <c r="AG234" t="n">
         <v>10</v>
       </c>
+      <c r="AH234" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -25570,6 +28386,18 @@
       <c r="AG235" t="n">
         <v>38</v>
       </c>
+      <c r="AH235" t="n">
+        <v>44</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>54</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -25677,6 +28505,18 @@
       <c r="AG236" t="n">
         <v>6</v>
       </c>
+      <c r="AH236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -25784,6 +28624,18 @@
       <c r="AG237" t="n">
         <v>88</v>
       </c>
+      <c r="AH237" t="n">
+        <v>96</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>107</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>119</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -25891,6 +28743,18 @@
       <c r="AG238" t="n">
         <v>2</v>
       </c>
+      <c r="AH238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -25998,6 +28862,18 @@
       <c r="AG239" t="n">
         <v>16</v>
       </c>
+      <c r="AH239" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -26105,6 +28981,18 @@
       <c r="AG240" t="n">
         <v>32</v>
       </c>
+      <c r="AH240" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>52</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -26212,6 +29100,18 @@
       <c r="AG241" t="n">
         <v>5</v>
       </c>
+      <c r="AH241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -26319,6 +29219,18 @@
       <c r="AG242" t="n">
         <v>10</v>
       </c>
+      <c r="AH242" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -26426,6 +29338,18 @@
       <c r="AG243" t="n">
         <v>7</v>
       </c>
+      <c r="AH243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -26533,6 +29457,18 @@
       <c r="AG244" t="n">
         <v>12</v>
       </c>
+      <c r="AH244" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -26640,6 +29576,18 @@
       <c r="AG245" t="n">
         <v>0</v>
       </c>
+      <c r="AH245" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -26747,6 +29695,18 @@
       <c r="AG246" t="n">
         <v>1</v>
       </c>
+      <c r="AH246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -26854,6 +29814,18 @@
       <c r="AG247" t="n">
         <v>18</v>
       </c>
+      <c r="AH247" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -26961,6 +29933,18 @@
       <c r="AG248" t="n">
         <v>1</v>
       </c>
+      <c r="AH248" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -27068,6 +30052,18 @@
       <c r="AG249" t="n">
         <v>9</v>
       </c>
+      <c r="AH249" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -27175,6 +30171,18 @@
       <c r="AG250" t="n">
         <v>9</v>
       </c>
+      <c r="AH250" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -27282,6 +30290,18 @@
       <c r="AG251" t="n">
         <v>10</v>
       </c>
+      <c r="AH251" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -27389,6 +30409,18 @@
       <c r="AG252" t="n">
         <v>10</v>
       </c>
+      <c r="AH252" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -27496,6 +30528,18 @@
       <c r="AG253" t="n">
         <v>28</v>
       </c>
+      <c r="AH253" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>31</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -27603,6 +30647,18 @@
       <c r="AG254" t="n">
         <v>20</v>
       </c>
+      <c r="AH254" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI254" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ254" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK254" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -27710,6 +30766,18 @@
       <c r="AG255" t="n">
         <v>186</v>
       </c>
+      <c r="AH255" t="n">
+        <v>204</v>
+      </c>
+      <c r="AI255" t="n">
+        <v>249</v>
+      </c>
+      <c r="AJ255" t="n">
+        <v>308</v>
+      </c>
+      <c r="AK255" t="n">
+        <v>341</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -27817,6 +30885,18 @@
       <c r="AG256" t="n">
         <v>2</v>
       </c>
+      <c r="AH256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ256" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK256" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -27924,6 +31004,18 @@
       <c r="AG257" t="n">
         <v>6</v>
       </c>
+      <c r="AH257" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ257" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK257" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -28031,6 +31123,18 @@
       <c r="AG258" t="n">
         <v>11</v>
       </c>
+      <c r="AH258" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI258" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ258" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK258" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -28138,6 +31242,18 @@
       <c r="AG259" t="n">
         <v>2</v>
       </c>
+      <c r="AH259" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI259" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ259" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK259" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -28245,6 +31361,18 @@
       <c r="AG260" t="n">
         <v>14</v>
       </c>
+      <c r="AH260" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -28352,6 +31480,18 @@
       <c r="AG261" t="n">
         <v>0</v>
       </c>
+      <c r="AH261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -28459,6 +31599,18 @@
       <c r="AG262" t="n">
         <v>6</v>
       </c>
+      <c r="AH262" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -28566,6 +31718,18 @@
       <c r="AG263" t="n">
         <v>8</v>
       </c>
+      <c r="AH263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -28673,6 +31837,18 @@
       <c r="AG264" t="n">
         <v>13</v>
       </c>
+      <c r="AH264" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -28780,6 +31956,18 @@
       <c r="AG265" t="n">
         <v>18</v>
       </c>
+      <c r="AH265" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI265" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ265" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK265" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -28887,6 +32075,18 @@
       <c r="AG266" t="n">
         <v>86</v>
       </c>
+      <c r="AH266" t="n">
+        <v>94</v>
+      </c>
+      <c r="AI266" t="n">
+        <v>98</v>
+      </c>
+      <c r="AJ266" t="n">
+        <v>102</v>
+      </c>
+      <c r="AK266" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -28994,6 +32194,18 @@
       <c r="AG267" t="n">
         <v>5</v>
       </c>
+      <c r="AH267" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ267" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK267" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -29101,6 +32313,18 @@
       <c r="AG268" t="n">
         <v>5</v>
       </c>
+      <c r="AH268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ268" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK268" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -29208,6 +32432,18 @@
       <c r="AG269" t="n">
         <v>4</v>
       </c>
+      <c r="AH269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI269" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ269" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK269" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -29315,6 +32551,18 @@
       <c r="AG270" t="n">
         <v>21</v>
       </c>
+      <c r="AH270" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI270" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ270" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK270" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -29422,6 +32670,18 @@
       <c r="AG271" t="n">
         <v>10</v>
       </c>
+      <c r="AH271" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI271" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ271" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK271" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -29529,6 +32789,18 @@
       <c r="AG272" t="n">
         <v>15</v>
       </c>
+      <c r="AH272" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI272" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ272" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK272" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -29636,6 +32908,18 @@
       <c r="AG273" t="n">
         <v>0</v>
       </c>
+      <c r="AH273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ273" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -29743,6 +33027,18 @@
       <c r="AG274" t="n">
         <v>4</v>
       </c>
+      <c r="AH274" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -29850,6 +33146,18 @@
       <c r="AG275" t="n">
         <v>13</v>
       </c>
+      <c r="AH275" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>18</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -29957,6 +33265,18 @@
       <c r="AG276" t="n">
         <v>11</v>
       </c>
+      <c r="AH276" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -30064,6 +33384,18 @@
       <c r="AG277" t="n">
         <v>6</v>
       </c>
+      <c r="AH277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -30171,6 +33503,18 @@
       <c r="AG278" t="n">
         <v>24</v>
       </c>
+      <c r="AH278" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -30278,6 +33622,18 @@
       <c r="AG279" t="n">
         <v>22</v>
       </c>
+      <c r="AH279" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -30385,6 +33741,18 @@
       <c r="AG280" t="n">
         <v>8</v>
       </c>
+      <c r="AH280" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -30492,6 +33860,18 @@
       <c r="AG281" t="n">
         <v>10</v>
       </c>
+      <c r="AH281" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -30599,6 +33979,18 @@
       <c r="AG282" t="n">
         <v>0</v>
       </c>
+      <c r="AH282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -30706,6 +34098,18 @@
       <c r="AG283" t="n">
         <v>3</v>
       </c>
+      <c r="AH283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -30813,6 +34217,18 @@
       <c r="AG284" t="n">
         <v>8</v>
       </c>
+      <c r="AH284" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -30920,6 +34336,18 @@
       <c r="AG285" t="n">
         <v>13</v>
       </c>
+      <c r="AH285" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -31027,6 +34455,18 @@
       <c r="AG286" t="n">
         <v>14</v>
       </c>
+      <c r="AH286" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -31134,6 +34574,18 @@
       <c r="AG287" t="n">
         <v>224</v>
       </c>
+      <c r="AH287" t="n">
+        <v>230</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>254</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>284</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -31241,6 +34693,18 @@
       <c r="AG288" t="n">
         <v>4</v>
       </c>
+      <c r="AH288" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -31348,6 +34812,18 @@
       <c r="AG289" t="n">
         <v>3</v>
       </c>
+      <c r="AH289" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -31455,6 +34931,18 @@
       <c r="AG290" t="n">
         <v>13</v>
       </c>
+      <c r="AH290" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -31562,6 +35050,18 @@
       <c r="AG291" t="n">
         <v>2</v>
       </c>
+      <c r="AH291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -31669,6 +35169,18 @@
       <c r="AG292" t="n">
         <v>94</v>
       </c>
+      <c r="AH292" t="n">
+        <v>107</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>123</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -31776,6 +35288,18 @@
       <c r="AG293" t="n">
         <v>4</v>
       </c>
+      <c r="AH293" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -31883,6 +35407,18 @@
       <c r="AG294" t="n">
         <v>5</v>
       </c>
+      <c r="AH294" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -31990,6 +35526,18 @@
       <c r="AG295" t="n">
         <v>7</v>
       </c>
+      <c r="AH295" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -32097,6 +35645,18 @@
       <c r="AG296" t="n">
         <v>191</v>
       </c>
+      <c r="AH296" t="n">
+        <v>215</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>243</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>265</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>290</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -32204,6 +35764,18 @@
       <c r="AG297" t="n">
         <v>15</v>
       </c>
+      <c r="AH297" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -32311,6 +35883,18 @@
       <c r="AG298" t="n">
         <v>4</v>
       </c>
+      <c r="AH298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -32418,6 +36002,18 @@
       <c r="AG299" t="n">
         <v>9</v>
       </c>
+      <c r="AH299" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -32525,6 +36121,18 @@
       <c r="AG300" t="n">
         <v>9</v>
       </c>
+      <c r="AH300" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -32632,6 +36240,18 @@
       <c r="AG301" t="n">
         <v>1</v>
       </c>
+      <c r="AH301" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI301" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ301" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK301" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -32739,6 +36359,18 @@
       <c r="AG302" t="n">
         <v>7</v>
       </c>
+      <c r="AH302" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI302" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ302" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK302" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -32846,6 +36478,18 @@
       <c r="AG303" t="n">
         <v>6</v>
       </c>
+      <c r="AH303" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI303" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ303" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK303" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -32953,6 +36597,18 @@
       <c r="AG304" t="n">
         <v>18</v>
       </c>
+      <c r="AH304" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI304" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ304" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK304" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -33060,6 +36716,18 @@
       <c r="AG305" t="n">
         <v>15</v>
       </c>
+      <c r="AH305" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI305" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ305" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK305" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -33167,6 +36835,18 @@
       <c r="AG306" t="n">
         <v>47</v>
       </c>
+      <c r="AH306" t="n">
+        <v>54</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>71</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -33274,6 +36954,18 @@
       <c r="AG307" t="n">
         <v>17</v>
       </c>
+      <c r="AH307" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -33381,6 +37073,18 @@
       <c r="AG308" t="n">
         <v>21</v>
       </c>
+      <c r="AH308" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -33488,6 +37192,18 @@
       <c r="AG309" t="n">
         <v>22</v>
       </c>
+      <c r="AH309" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -33595,6 +37311,18 @@
       <c r="AG310" t="n">
         <v>0</v>
       </c>
+      <c r="AH310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -33702,6 +37430,18 @@
       <c r="AG311" t="n">
         <v>8</v>
       </c>
+      <c r="AH311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -33809,6 +37549,18 @@
       <c r="AG312" t="n">
         <v>6</v>
       </c>
+      <c r="AH312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -33916,6 +37668,18 @@
       <c r="AG313" t="n">
         <v>5</v>
       </c>
+      <c r="AH313" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -34023,6 +37787,18 @@
       <c r="AG314" t="n">
         <v>6</v>
       </c>
+      <c r="AH314" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -34130,6 +37906,18 @@
       <c r="AG315" t="n">
         <v>22</v>
       </c>
+      <c r="AH315" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>31</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -34237,6 +38025,18 @@
       <c r="AG316" t="n">
         <v>0</v>
       </c>
+      <c r="AH316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -34344,6 +38144,18 @@
       <c r="AG317" t="n">
         <v>2</v>
       </c>
+      <c r="AH317" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI317" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ317" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK317" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -34451,6 +38263,18 @@
       <c r="AG318" t="n">
         <v>34</v>
       </c>
+      <c r="AH318" t="n">
+        <v>39</v>
+      </c>
+      <c r="AI318" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ318" t="n">
+        <v>54</v>
+      </c>
+      <c r="AK318" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -34558,6 +38382,18 @@
       <c r="AG319" t="n">
         <v>5</v>
       </c>
+      <c r="AH319" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI319" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ319" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK319" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -34665,6 +38501,18 @@
       <c r="AG320" t="n">
         <v>3</v>
       </c>
+      <c r="AH320" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI320" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ320" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK320" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -34772,6 +38620,18 @@
       <c r="AG321" t="n">
         <v>5</v>
       </c>
+      <c r="AH321" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI321" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ321" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK321" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -34879,6 +38739,18 @@
       <c r="AG322" t="n">
         <v>11</v>
       </c>
+      <c r="AH322" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI322" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ322" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK322" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -34986,6 +38858,18 @@
       <c r="AG323" t="n">
         <v>24</v>
       </c>
+      <c r="AH323" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI323" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ323" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK323" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -35093,6 +38977,18 @@
       <c r="AG324" t="n">
         <v>6</v>
       </c>
+      <c r="AH324" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI324" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ324" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK324" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -35200,6 +39096,18 @@
       <c r="AG325" t="n">
         <v>19</v>
       </c>
+      <c r="AH325" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI325" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ325" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK325" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -35307,6 +39215,18 @@
       <c r="AG326" t="n">
         <v>11</v>
       </c>
+      <c r="AH326" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI326" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ326" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK326" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -35414,6 +39334,18 @@
       <c r="AG327" t="n">
         <v>9</v>
       </c>
+      <c r="AH327" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI327" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ327" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK327" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -35521,6 +39453,18 @@
       <c r="AG328" t="n">
         <v>2</v>
       </c>
+      <c r="AH328" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI328" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ328" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK328" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -35628,6 +39572,18 @@
       <c r="AG329" t="n">
         <v>2</v>
       </c>
+      <c r="AH329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI329" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ329" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK329" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -35735,6 +39691,18 @@
       <c r="AG330" t="n">
         <v>3</v>
       </c>
+      <c r="AH330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ330" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK330" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -35842,6 +39810,18 @@
       <c r="AG331" t="n">
         <v>28</v>
       </c>
+      <c r="AH331" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI331" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ331" t="n">
+        <v>45</v>
+      </c>
+      <c r="AK331" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -35949,6 +39929,18 @@
       <c r="AG332" t="n">
         <v>1</v>
       </c>
+      <c r="AH332" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI332" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ332" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK332" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -36056,6 +40048,18 @@
       <c r="AG333" t="n">
         <v>8</v>
       </c>
+      <c r="AH333" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI333" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ333" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK333" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -36163,6 +40167,18 @@
       <c r="AG334" t="n">
         <v>1</v>
       </c>
+      <c r="AH334" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI334" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ334" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK334" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -36270,6 +40286,18 @@
       <c r="AG335" t="n">
         <v>24</v>
       </c>
+      <c r="AH335" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI335" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ335" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK335" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -36377,6 +40405,18 @@
       <c r="AG336" t="n">
         <v>3</v>
       </c>
+      <c r="AH336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI336" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ336" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK336" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -36484,6 +40524,18 @@
       <c r="AG337" t="n">
         <v>6</v>
       </c>
+      <c r="AH337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI337" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ337" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK337" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -36591,6 +40643,18 @@
       <c r="AG338" t="n">
         <v>2</v>
       </c>
+      <c r="AH338" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ338" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK338" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -36698,6 +40762,18 @@
       <c r="AG339" t="n">
         <v>5</v>
       </c>
+      <c r="AH339" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI339" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ339" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK339" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -36805,6 +40881,18 @@
       <c r="AG340" t="n">
         <v>22</v>
       </c>
+      <c r="AH340" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI340" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ340" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK340" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -36912,6 +41000,18 @@
       <c r="AG341" t="n">
         <v>3</v>
       </c>
+      <c r="AH341" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI341" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ341" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK341" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -37019,6 +41119,18 @@
       <c r="AG342" t="n">
         <v>6</v>
       </c>
+      <c r="AH342" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI342" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ342" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK342" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -37126,6 +41238,18 @@
       <c r="AG343" t="n">
         <v>29</v>
       </c>
+      <c r="AH343" t="n">
+        <v>31</v>
+      </c>
+      <c r="AI343" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ343" t="n">
+        <v>50</v>
+      </c>
+      <c r="AK343" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -37233,6 +41357,18 @@
       <c r="AG344" t="n">
         <v>7</v>
       </c>
+      <c r="AH344" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI344" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ344" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK344" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -37340,6 +41476,18 @@
       <c r="AG345" t="n">
         <v>6</v>
       </c>
+      <c r="AH345" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI345" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ345" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK345" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -37447,6 +41595,18 @@
       <c r="AG346" t="n">
         <v>5</v>
       </c>
+      <c r="AH346" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI346" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ346" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK346" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -37554,6 +41714,18 @@
       <c r="AG347" t="n">
         <v>25</v>
       </c>
+      <c r="AH347" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI347" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ347" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK347" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -37661,6 +41833,18 @@
       <c r="AG348" t="n">
         <v>10</v>
       </c>
+      <c r="AH348" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI348" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ348" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK348" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -37768,6 +41952,18 @@
       <c r="AG349" t="n">
         <v>13</v>
       </c>
+      <c r="AH349" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI349" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ349" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK349" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -37875,6 +42071,18 @@
       <c r="AG350" t="n">
         <v>1</v>
       </c>
+      <c r="AH350" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ350" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK350" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -37982,6 +42190,18 @@
       <c r="AG351" t="n">
         <v>6</v>
       </c>
+      <c r="AH351" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI351" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ351" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK351" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -38089,6 +42309,18 @@
       <c r="AG352" t="n">
         <v>14</v>
       </c>
+      <c r="AH352" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI352" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ352" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK352" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -38196,6 +42428,18 @@
       <c r="AG353" t="n">
         <v>8</v>
       </c>
+      <c r="AH353" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI353" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ353" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK353" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -38303,6 +42547,18 @@
       <c r="AG354" t="n">
         <v>30</v>
       </c>
+      <c r="AH354" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI354" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ354" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK354" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -38410,6 +42666,18 @@
       <c r="AG355" t="n">
         <v>9</v>
       </c>
+      <c r="AH355" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI355" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ355" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK355" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -38516,6 +42784,18 @@
       </c>
       <c r="AG356" t="n">
         <v>47</v>
+      </c>
+      <c r="AH356" t="n">
+        <v>56</v>
+      </c>
+      <c r="AI356" t="n">
+        <v>63</v>
+      </c>
+      <c r="AJ356" t="n">
+        <v>68</v>
+      </c>
+      <c r="AK356" t="n">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
